--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS Clé USB\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ECCE79-60AF-4857-B4A7-65AFD861C83D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A69425-BAD9-4A7E-A769-C1529A293D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MG_system_types (2)" sheetId="22" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="CTime" sheetId="7" r:id="rId15"/>
     <sheet name="Ressources" sheetId="8" r:id="rId16"/>
     <sheet name="Productions" sheetId="17" r:id="rId17"/>
-    <sheet name="Feuil1" sheetId="23" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Equipment!$A$1:$G$1</definedName>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="921">
   <si>
     <t>LINE</t>
   </si>
@@ -2813,9 +2812,6 @@
   </si>
   <si>
     <t>average scientific</t>
-  </si>
-  <si>
-    <t>TSS</t>
   </si>
 </sst>
 </file>
@@ -3214,7 +3210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3223,9 +3219,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3243,10 +3236,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3262,7 +3254,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3289,33 +3280,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7337,15 +7320,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="10" customWidth="1"/>
     <col min="2" max="15" width="13.85546875" style="1"/>
     <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="119.7109375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="119.7109375" style="25" customWidth="1"/>
     <col min="18" max="16384" width="13.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>666</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7384,20 +7367,20 @@
       <c r="N1" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="25" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>650</v>
       </c>
       <c r="B3" s="1">
@@ -7430,12 +7413,12 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="25" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>686</v>
       </c>
       <c r="B6" s="1">
@@ -7447,12 +7430,12 @@
       <c r="E6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="25" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>687</v>
       </c>
       <c r="B7" s="1">
@@ -7472,7 +7455,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>688</v>
       </c>
       <c r="B8" s="1">
@@ -7492,7 +7475,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>689</v>
       </c>
       <c r="B9" s="1">
@@ -7515,7 +7498,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>690</v>
       </c>
       <c r="B10" s="1">
@@ -7538,7 +7521,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>691</v>
       </c>
       <c r="B11" s="1">
@@ -7570,7 +7553,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>692</v>
       </c>
       <c r="B12" s="1">
@@ -7602,7 +7585,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>693</v>
       </c>
       <c r="B13" s="1">
@@ -7634,7 +7617,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>694</v>
       </c>
       <c r="B14" s="1">
@@ -7657,7 +7640,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>695</v>
       </c>
       <c r="B15" s="1">
@@ -7672,12 +7655,12 @@
       <c r="M15" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="25" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>696</v>
       </c>
       <c r="D16" s="1">
@@ -7688,7 +7671,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>697</v>
       </c>
       <c r="D17" s="1">
@@ -7705,7 +7688,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>698</v>
       </c>
       <c r="B18" s="1">
@@ -7722,7 +7705,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>699</v>
       </c>
       <c r="D19" s="1">
@@ -7733,7 +7716,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>700</v>
       </c>
       <c r="K20" s="1">
@@ -7741,7 +7724,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>701</v>
       </c>
       <c r="K21" s="1">
@@ -7749,7 +7732,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>702</v>
       </c>
       <c r="B22" s="1">
@@ -7760,12 +7743,12 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7820,15 +7803,15 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="26">
         <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>686</v>
       </c>
       <c r="B36" s="1">
@@ -7885,7 +7868,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>687</v>
       </c>
       <c r="B37" s="1">
@@ -7942,7 +7925,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>688</v>
       </c>
       <c r="B38" s="1">
@@ -7999,7 +7982,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="1">
@@ -8056,7 +8039,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>690</v>
       </c>
       <c r="B40" s="1">
@@ -8113,7 +8096,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>691</v>
       </c>
       <c r="B41" s="1">
@@ -8170,7 +8153,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>692</v>
       </c>
       <c r="B42" s="1">
@@ -8227,7 +8210,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>693</v>
       </c>
       <c r="B43" s="1">
@@ -8284,7 +8267,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>694</v>
       </c>
       <c r="B44" s="1">
@@ -8341,7 +8324,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>695</v>
       </c>
       <c r="B45" s="1">
@@ -8398,7 +8381,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>696</v>
       </c>
       <c r="B46" s="1" t="str">
@@ -8455,7 +8438,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>697</v>
       </c>
       <c r="B47" s="1" t="str">
@@ -8512,7 +8495,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>698</v>
       </c>
       <c r="B48" s="1">
@@ -8569,7 +8552,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>699</v>
       </c>
       <c r="B49" s="1" t="str">
@@ -8626,7 +8609,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>700</v>
       </c>
       <c r="B50" s="1" t="str">
@@ -8683,7 +8666,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>701</v>
       </c>
       <c r="B51" s="1" t="str">
@@ -8740,7 +8723,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>702</v>
       </c>
       <c r="B52" s="1">
@@ -8797,7 +8780,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>703</v>
       </c>
       <c r="B53" s="1" t="str">
@@ -8881,39 +8864,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="30"/>
+    <col min="1" max="1" width="14.7109375" style="27" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>833</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>834</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>837</v>
       </c>
     </row>
@@ -9687,70 +9670,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="8"/>
+    <col min="1" max="1" width="16.42578125" style="7"/>
     <col min="2" max="2" width="16.42578125" style="5"/>
-    <col min="3" max="3" width="16.42578125" style="6"/>
-    <col min="4" max="4" width="16.42578125" style="7"/>
+    <col min="3" max="3" width="16.42578125" style="4"/>
+    <col min="4" max="4" width="16.42578125" style="6"/>
     <col min="5" max="5" width="16.42578125" style="5"/>
-    <col min="6" max="7" width="16.42578125" style="6"/>
+    <col min="6" max="7" width="16.42578125" style="4"/>
     <col min="8" max="8" width="16.42578125" style="5"/>
-    <col min="9" max="9" width="16.42578125" style="6"/>
-    <col min="10" max="10" width="16.42578125" style="7"/>
-    <col min="11" max="12" width="16.42578125" style="6"/>
-    <col min="13" max="13" width="16.42578125" style="7"/>
+    <col min="9" max="9" width="16.42578125" style="4"/>
+    <col min="10" max="10" width="16.42578125" style="6"/>
+    <col min="11" max="12" width="16.42578125" style="4"/>
+    <col min="13" max="13" width="16.42578125" style="6"/>
     <col min="14" max="14" width="16.42578125" style="5"/>
-    <col min="15" max="15" width="16.42578125" style="6"/>
-    <col min="16" max="16" width="16.42578125" style="7"/>
+    <col min="15" max="15" width="16.42578125" style="4"/>
+    <col min="16" max="16" width="16.42578125" style="6"/>
     <col min="17" max="16384" width="16.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="62" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -9758,53 +9741,50 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9812,17 +9792,13 @@
       <c r="B15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
@@ -9831,18 +9807,18 @@
       <c r="H17" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9857,16 +9833,16 @@
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9874,21 +9850,21 @@
       <c r="A24" s="4"/>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9917,121 +9893,121 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="53.140625" style="18"/>
-    <col min="6" max="16384" width="53.140625" style="17"/>
+    <col min="1" max="5" width="53.140625" style="16"/>
+    <col min="6" max="16384" width="53.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10164,588 +10140,588 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="23"/>
-    <col min="4" max="4" width="72" style="23" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" style="23" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="23"/>
-    <col min="10" max="10" width="16.85546875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="3" width="11.42578125" style="21"/>
+    <col min="4" max="4" width="72" style="21" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" style="21" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="21"/>
+    <col min="10" max="10" width="16.85546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="76.7109375" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="24"/>
+      <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="21" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="21" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="21" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>1</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>3</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>4</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="21" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="21" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>5</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>6</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>7</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>8</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="21" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>9</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>10</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="23" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
+      <c r="B27" s="21">
         <v>11</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="23" t="s">
         <v>728</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="23" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>12</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>13</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="21" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>14</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="21" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>15</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="21" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>16</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="21" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+      <c r="B33" s="21">
         <v>17</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>18</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="21" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>19</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="21" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
+      <c r="B36" s="21">
         <v>20</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="21" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+      <c r="B37" s="21">
         <v>21</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="21" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>8</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="21" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+      <c r="B42" s="21">
         <v>9</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="21" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+      <c r="B43" s="21">
         <v>10</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="21" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>11</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="21" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
+      <c r="B45" s="21">
         <v>12</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="21" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="23">
+      <c r="B46" s="21">
         <v>13</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>14</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="21" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
+      <c r="B48" s="21">
         <v>15</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="21" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+      <c r="B49" s="21">
         <v>17</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="21" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>18</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="21" t="s">
         <v>616</v>
       </c>
     </row>
@@ -10765,252 +10741,252 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="23"/>
-    <col min="2" max="2" width="7.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="23"/>
-    <col min="4" max="4" width="7.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="23"/>
-    <col min="6" max="6" width="7.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="23"/>
-    <col min="8" max="8" width="7.28515625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="23"/>
-    <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="23"/>
-    <col min="12" max="12" width="7.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="23"/>
-    <col min="14" max="14" width="7.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="23"/>
-    <col min="16" max="16" width="7.28515625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" style="23"/>
-    <col min="18" max="18" width="7.28515625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="23"/>
-    <col min="20" max="20" width="7.28515625" style="23" customWidth="1"/>
-    <col min="21" max="16384" width="26.140625" style="23"/>
+    <col min="1" max="1" width="26.140625" style="21"/>
+    <col min="2" max="2" width="7.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="21"/>
+    <col min="4" max="4" width="7.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="21"/>
+    <col min="6" max="6" width="7.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="21"/>
+    <col min="8" max="8" width="7.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="21"/>
+    <col min="10" max="10" width="7.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="21"/>
+    <col min="12" max="12" width="7.28515625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="21"/>
+    <col min="14" max="14" width="7.28515625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="21"/>
+    <col min="16" max="16" width="7.28515625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="21"/>
+    <col min="18" max="18" width="7.28515625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" style="21"/>
+    <col min="20" max="20" width="7.28515625" style="21" customWidth="1"/>
+    <col min="21" max="16384" width="26.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="18" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="17" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="18" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>750</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="21" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="21" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="21" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="23" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="21" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="21" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="43" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="18" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="18" t="s">
         <v>407</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -11024,26 +11000,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68223808-266C-49F7-ABA4-874EA6E4D600}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11071,53 +11027,53 @@
     <col min="18" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11130,7 +11086,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -11244,12 +11200,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -11361,12 +11317,12 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -11432,7 +11388,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11692,7 +11648,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11928,12 +11884,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="12"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -12073,7 +12029,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12251,7 +12207,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -12356,20 +12312,19 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G123" s="1">
@@ -12377,20 +12332,19 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G124" s="1">
@@ -12398,20 +12352,19 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14" t="s">
+      <c r="F125" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G125" s="1">
@@ -12419,20 +12372,19 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G126" s="1">
@@ -12440,20 +12392,19 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G127" s="1">
@@ -12461,20 +12412,19 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14" t="s">
+      <c r="F129" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G129" s="1">
@@ -12482,20 +12432,19 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G130" s="1">
@@ -12503,20 +12452,19 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14" t="s">
+      <c r="F131" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G131" s="1">
@@ -12524,20 +12472,19 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14" t="s">
+      <c r="F132" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G132" s="1">
@@ -12545,20 +12492,19 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14" t="s">
+      <c r="F133" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G133" s="1">
@@ -12566,20 +12512,19 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G134" s="1">
@@ -12593,13 +12538,13 @@
       <c r="B135" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G135" s="1">
@@ -12607,7 +12552,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="12" t="s">
         <v>282</v>
       </c>
     </row>
@@ -13354,17 +13299,17 @@
       </c>
     </row>
     <row r="305" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B305" s="21" t="s">
+      <c r="B305" s="19" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="306" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B306" s="21" t="s">
+      <c r="B306" s="19" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="307" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B307" s="21" t="s">
+      <c r="B307" s="19" t="s">
         <v>475</v>
       </c>
     </row>
@@ -13374,7 +13319,7 @@
       </c>
     </row>
     <row r="309" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B309" s="21" t="s">
+      <c r="B309" s="19" t="s">
         <v>477</v>
       </c>
     </row>
@@ -13384,7 +13329,7 @@
       </c>
     </row>
     <row r="311" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B311" s="21" t="s">
+      <c r="B311" s="19" t="s">
         <v>479</v>
       </c>
     </row>
@@ -13604,8 +13549,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B141 B104 B83 G139:G143 G145:G149 G151:G1048576 B69 G1:G117 G119:G137">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="B141 B104 B83 G1:G35 G139:G143 G145:G149 G151:G1048576 B69 G37:G117 G119:G137">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13615,8 +13560,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B141 B104 B83 G1:G35 G139:G143 G145:G149 G151:G1048576 B69 G37:G117 G119:G137">
-    <cfRule type="iconSet" priority="3">
+  <conditionalFormatting sqref="B141 B104 B83 G139:G143 G145:G149 G151:G1048576 B69 G1:G117 G119:G137">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13642,155 +13587,155 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="37" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="45" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" style="34"/>
+    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="38" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="31"/>
     <col min="20" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="32" t="s">
         <v>840</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="33" t="s">
         <v>844</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="34" t="s">
         <v>845</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="34" t="s">
         <v>850</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="S1" s="33"/>
-    </row>
-    <row r="2" spans="1:19" s="31" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="56" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="45" t="s">
         <v>856</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="32"/>
-    </row>
-    <row r="3" spans="1:19" s="31" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="29"/>
+    </row>
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
         <v>846</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="56" t="s">
+      <c r="J3" s="47"/>
+      <c r="K3" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="49" t="s">
         <v>846</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="56" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49" t="s">
         <v>846</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="32"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>870</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="41" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>827</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -13799,21 +13744,21 @@
       <c r="C6" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="37">
         <v>0</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="1">
         <v>0.1</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="38">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>828</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -13822,33 +13767,33 @@
       <c r="C7" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="37">
         <v>0.6</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="1">
         <v>0.6</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="1">
         <v>0.4</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="38">
         <v>0.4</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="37">
         <v>1.2</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="1">
         <v>4</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="1">
         <v>0.4</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
         <v>829</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -13857,33 +13802,33 @@
       <c r="C8" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="37">
         <v>0.8</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="1">
         <v>0.8</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="38">
         <v>0.6</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="37">
         <v>1.4</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="1">
         <v>4</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="1">
         <v>0.6</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>860</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -13892,15 +13837,15 @@
       <c r="C10" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="37">
         <v>1</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>861</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13911,7 +13856,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>862</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -13922,7 +13867,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="37" t="s">
         <v>865</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -13931,12 +13876,12 @@
       <c r="C14" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="1" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>866</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -13947,19 +13892,19 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>877</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="41" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="37" t="s">
         <v>872</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -13967,7 +13912,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="37" t="s">
         <v>869</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13975,7 +13920,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="37" t="s">
         <v>868</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -13983,25 +13928,25 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="39" t="s">
         <v>839</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="41" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="37" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="37" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="37" t="s">
         <v>887</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -14009,7 +13954,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>894</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -14017,7 +13962,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="37" t="s">
         <v>890</v>
       </c>
     </row>
@@ -14032,30 +13977,30 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="31" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="39" t="s">
         <v>888</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="41" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="37" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="37" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="37" t="s">
         <v>905</v>
       </c>
     </row>
@@ -14065,85 +14010,85 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="39" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="37" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="37" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="37" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="37" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="37" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="37" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="37" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="37" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="37" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="52"/>
+      <c r="B62" s="41"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="39" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="37" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="37" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="37" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="37" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="37" t="s">
         <v>873</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -14161,7 +14106,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="37" t="s">
         <v>816</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -14169,7 +14114,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="37" t="s">
         <v>817</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -14177,7 +14122,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="37" t="s">
         <v>818</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -14185,22 +14130,22 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="37" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="39" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="39" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="40" t="s">
+      <c r="A117" s="37" t="s">
         <v>159</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -14212,18 +14157,18 @@
       <c r="D117" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G117" s="44">
+      <c r="G117" s="37">
         <v>0</v>
       </c>
-      <c r="K117" s="44">
+      <c r="K117" s="37">
         <v>0</v>
       </c>
-      <c r="O117" s="44">
+      <c r="O117" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="37" t="s">
         <v>166</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -14235,21 +14180,21 @@
       <c r="D118" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F118" s="41" t="s">
+      <c r="F118" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="44">
+      <c r="G118" s="37">
         <v>0</v>
       </c>
-      <c r="K118" s="44">
+      <c r="K118" s="37">
         <v>0</v>
       </c>
-      <c r="O118" s="44">
+      <c r="O118" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="40" t="s">
+      <c r="A119" s="37" t="s">
         <v>164</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -14261,21 +14206,21 @@
       <c r="D119" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F119" s="41" t="s">
+      <c r="F119" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="G119" s="44">
+      <c r="G119" s="37">
         <v>1</v>
       </c>
-      <c r="K119" s="44">
+      <c r="K119" s="37">
         <v>1</v>
       </c>
-      <c r="O119" s="44">
+      <c r="O119" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="37" t="s">
         <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -14287,16 +14232,16 @@
       <c r="D120" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F120" s="41" t="s">
+      <c r="F120" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="G120" s="44">
+      <c r="G120" s="37">
         <v>1</v>
       </c>
-      <c r="K120" s="44">
+      <c r="K120" s="37">
         <v>1</v>
       </c>
-      <c r="O120" s="44">
+      <c r="O120" s="37">
         <v>1</v>
       </c>
     </row>
@@ -14321,15 +14266,15 @@
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
+      <c r="A130" s="40"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="37" t="s">
         <v>170</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -14341,18 +14286,18 @@
       <c r="D131" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G131" s="44">
+      <c r="G131" s="37">
         <v>0</v>
       </c>
-      <c r="K131" s="44">
+      <c r="K131" s="37">
         <v>0</v>
       </c>
-      <c r="O131" s="44">
+      <c r="O131" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="40" t="s">
+      <c r="A132" s="37" t="s">
         <v>173</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -14364,21 +14309,21 @@
       <c r="D132" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F132" s="41" t="s">
+      <c r="F132" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="G132" s="44">
+      <c r="G132" s="37">
         <v>1</v>
       </c>
-      <c r="K132" s="44">
+      <c r="K132" s="37">
         <v>1</v>
       </c>
-      <c r="O132" s="44">
+      <c r="O132" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="40" t="s">
+      <c r="A133" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -14390,21 +14335,21 @@
       <c r="D133" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F133" s="41" t="s">
+      <c r="F133" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="G133" s="44">
+      <c r="G133" s="37">
         <v>1</v>
       </c>
-      <c r="K133" s="44">
+      <c r="K133" s="37">
         <v>1</v>
       </c>
-      <c r="O133" s="44">
+      <c r="O133" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="40" t="s">
+      <c r="A134" s="37" t="s">
         <v>182</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -14416,21 +14361,21 @@
       <c r="D134" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F134" s="41" t="s">
+      <c r="F134" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G134" s="44">
+      <c r="G134" s="37">
         <v>1</v>
       </c>
-      <c r="K134" s="44">
+      <c r="K134" s="37">
         <v>1</v>
       </c>
-      <c r="O134" s="44">
+      <c r="O134" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="37" t="s">
         <v>175</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -14442,29 +14387,29 @@
       <c r="D135" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F135" s="41" t="s">
+      <c r="F135" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G135" s="44">
+      <c r="G135" s="37">
         <v>1</v>
       </c>
-      <c r="K135" s="44">
+      <c r="K135" s="37">
         <v>1</v>
       </c>
-      <c r="O135" s="44">
+      <c r="O135" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="42" t="s">
+      <c r="A139" s="39" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
+      <c r="A140" s="40"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="40" t="s">
+      <c r="A141" s="37" t="s">
         <v>179</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -14476,21 +14421,21 @@
       <c r="D141" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F141" s="41" t="s">
+      <c r="F141" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G141" s="44">
+      <c r="G141" s="37">
         <v>1</v>
       </c>
-      <c r="K141" s="44">
+      <c r="K141" s="37">
         <v>1</v>
       </c>
-      <c r="O141" s="44">
+      <c r="O141" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="40" t="s">
+      <c r="A142" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -14502,21 +14447,21 @@
       <c r="D142" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F142" s="41" t="s">
+      <c r="F142" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G142" s="44">
+      <c r="G142" s="37">
         <v>2</v>
       </c>
-      <c r="K142" s="44">
+      <c r="K142" s="37">
         <v>2</v>
       </c>
-      <c r="O142" s="44">
+      <c r="O142" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="40" t="s">
+      <c r="A143" s="37" t="s">
         <v>181</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -14528,26 +14473,26 @@
       <c r="D143" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F143" s="41" t="s">
+      <c r="F143" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="G143" s="44">
+      <c r="G143" s="37">
         <v>3</v>
       </c>
-      <c r="K143" s="44">
+      <c r="K143" s="37">
         <v>3</v>
       </c>
-      <c r="O143" s="44">
+      <c r="O143" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="39" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="40" t="s">
+      <c r="A149" s="37" t="s">
         <v>193</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -14556,21 +14501,21 @@
       <c r="C149" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F149" s="41" t="s">
+      <c r="F149" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G149" s="44">
+      <c r="G149" s="37">
         <v>0</v>
       </c>
-      <c r="K149" s="44">
+      <c r="K149" s="37">
         <v>0</v>
       </c>
-      <c r="O149" s="44">
+      <c r="O149" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="40" t="s">
+      <c r="A150" s="37" t="s">
         <v>198</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -14579,21 +14524,21 @@
       <c r="C150" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F150" s="41" t="s">
+      <c r="F150" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="G150" s="44">
+      <c r="G150" s="37">
         <v>1</v>
       </c>
-      <c r="K150" s="44">
+      <c r="K150" s="37">
         <v>1</v>
       </c>
-      <c r="O150" s="44">
+      <c r="O150" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="40" t="s">
+      <c r="A151" s="37" t="s">
         <v>191</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -14602,21 +14547,21 @@
       <c r="C151" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F151" s="41" t="s">
+      <c r="F151" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="G151" s="44">
+      <c r="G151" s="37">
         <v>2</v>
       </c>
-      <c r="K151" s="44">
+      <c r="K151" s="37">
         <v>2</v>
       </c>
-      <c r="O151" s="44">
+      <c r="O151" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="40" t="s">
+      <c r="A152" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -14625,21 +14570,21 @@
       <c r="C152" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F152" s="41" t="s">
+      <c r="F152" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G152" s="44">
+      <c r="G152" s="37">
         <v>2</v>
       </c>
-      <c r="K152" s="44">
+      <c r="K152" s="37">
         <v>2</v>
       </c>
-      <c r="O152" s="44">
+      <c r="O152" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="40" t="s">
+      <c r="A153" s="37" t="s">
         <v>200</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -14648,21 +14593,21 @@
       <c r="C153" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F153" s="41" t="s">
+      <c r="F153" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G153" s="44">
+      <c r="G153" s="37">
         <v>2</v>
       </c>
-      <c r="K153" s="44">
+      <c r="K153" s="37">
         <v>2</v>
       </c>
-      <c r="O153" s="44">
+      <c r="O153" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="40" t="s">
+      <c r="A154" s="37" t="s">
         <v>201</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -14671,21 +14616,21 @@
       <c r="C154" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F154" s="41" t="s">
+      <c r="F154" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G154" s="44">
+      <c r="G154" s="37">
         <v>2</v>
       </c>
-      <c r="K154" s="44">
+      <c r="K154" s="37">
         <v>2</v>
       </c>
-      <c r="O154" s="44">
+      <c r="O154" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="40" t="s">
+      <c r="A155" s="37" t="s">
         <v>323</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -14694,21 +14639,21 @@
       <c r="C155" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F155" s="41" t="s">
+      <c r="F155" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G155" s="44">
+      <c r="G155" s="37">
         <v>2</v>
       </c>
-      <c r="K155" s="44">
+      <c r="K155" s="37">
         <v>2</v>
       </c>
-      <c r="O155" s="44">
+      <c r="O155" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="40" t="s">
+      <c r="A156" s="37" t="s">
         <v>322</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -14717,21 +14662,21 @@
       <c r="C156" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F156" s="41" t="s">
+      <c r="F156" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="G156" s="44">
+      <c r="G156" s="37">
         <v>3</v>
       </c>
-      <c r="K156" s="44">
+      <c r="K156" s="37">
         <v>3</v>
       </c>
-      <c r="O156" s="44">
+      <c r="O156" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="37" t="s">
         <v>324</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -14740,16 +14685,16 @@
       <c r="C157" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F157" s="41" t="s">
+      <c r="F157" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="G157" s="44">
+      <c r="G157" s="37">
         <v>4</v>
       </c>
-      <c r="K157" s="44">
+      <c r="K157" s="37">
         <v>4</v>
       </c>
-      <c r="O157" s="44">
+      <c r="O157" s="37">
         <v>4</v>
       </c>
     </row>
@@ -14789,7 +14734,7 @@
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="40" t="s">
+      <c r="A171" s="37" t="s">
         <v>207</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -14801,21 +14746,21 @@
       <c r="D171" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F171" s="41" t="s">
+      <c r="F171" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="G171" s="44">
+      <c r="G171" s="37">
         <v>2</v>
       </c>
-      <c r="K171" s="44">
+      <c r="K171" s="37">
         <v>2</v>
       </c>
-      <c r="O171" s="44">
+      <c r="O171" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="37" t="s">
         <v>208</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -14827,26 +14772,26 @@
       <c r="D172" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F172" s="41" t="s">
+      <c r="F172" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="G172" s="44">
+      <c r="G172" s="37">
         <v>3</v>
       </c>
-      <c r="K172" s="44">
+      <c r="K172" s="37">
         <v>3</v>
       </c>
-      <c r="O172" s="44">
+      <c r="O172" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="39" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="40" t="s">
+      <c r="A178" s="37" t="s">
         <v>225</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -14858,18 +14803,18 @@
       <c r="D178" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G178" s="44">
+      <c r="G178" s="37">
         <v>1</v>
       </c>
-      <c r="K178" s="44">
+      <c r="K178" s="37">
         <v>1</v>
       </c>
-      <c r="O178" s="44">
+      <c r="O178" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="40" t="s">
+      <c r="A179" s="37" t="s">
         <v>226</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -14881,12 +14826,12 @@
       <c r="D179" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F179" s="41" t="s">
+      <c r="F179" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" s="40" t="s">
+      <c r="A180" s="37" t="s">
         <v>217</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -14898,21 +14843,21 @@
       <c r="D180" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F180" s="41" t="s">
+      <c r="F180" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="G180" s="44">
+      <c r="G180" s="37">
         <v>1</v>
       </c>
-      <c r="K180" s="44">
+      <c r="K180" s="37">
         <v>1</v>
       </c>
-      <c r="O180" s="44">
+      <c r="O180" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="40" t="s">
+      <c r="A181" s="37" t="s">
         <v>227</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -14924,21 +14869,21 @@
       <c r="D181" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F181" s="41" t="s">
+      <c r="F181" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="G181" s="44">
+      <c r="G181" s="37">
         <v>2</v>
       </c>
-      <c r="K181" s="44">
+      <c r="K181" s="37">
         <v>2</v>
       </c>
-      <c r="O181" s="44">
+      <c r="O181" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="40" t="s">
+      <c r="A182" s="37" t="s">
         <v>218</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -14950,21 +14895,21 @@
       <c r="D182" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F182" s="41" t="s">
+      <c r="F182" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G182" s="44">
+      <c r="G182" s="37">
         <v>2</v>
       </c>
-      <c r="K182" s="44">
+      <c r="K182" s="37">
         <v>2</v>
       </c>
-      <c r="O182" s="44">
+      <c r="O182" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" s="40" t="s">
+      <c r="A183" s="37" t="s">
         <v>219</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -14976,21 +14921,21 @@
       <c r="D183" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F183" s="41" t="s">
+      <c r="F183" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G183" s="44">
+      <c r="G183" s="37">
         <v>3</v>
       </c>
-      <c r="K183" s="44">
+      <c r="K183" s="37">
         <v>3</v>
       </c>
-      <c r="O183" s="44">
+      <c r="O183" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="40" t="s">
+      <c r="A184" s="37" t="s">
         <v>220</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -15002,21 +14947,21 @@
       <c r="D184" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F184" s="41" t="s">
+      <c r="F184" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G184" s="44">
+      <c r="G184" s="37">
         <v>2</v>
       </c>
-      <c r="K184" s="44">
+      <c r="K184" s="37">
         <v>2</v>
       </c>
-      <c r="O184" s="44">
+      <c r="O184" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="40" t="s">
+      <c r="A185" s="37" t="s">
         <v>222</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -15028,21 +14973,21 @@
       <c r="D185" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F185" s="41" t="s">
+      <c r="F185" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G185" s="44">
+      <c r="G185" s="37">
         <v>2</v>
       </c>
-      <c r="K185" s="44">
+      <c r="K185" s="37">
         <v>2</v>
       </c>
-      <c r="O185" s="44">
+      <c r="O185" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" s="40" t="s">
+      <c r="A186" s="37" t="s">
         <v>221</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -15054,21 +14999,21 @@
       <c r="D186" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F186" s="41" t="s">
+      <c r="F186" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G186" s="44">
+      <c r="G186" s="37">
         <v>3</v>
       </c>
-      <c r="K186" s="44">
+      <c r="K186" s="37">
         <v>3</v>
       </c>
-      <c r="O186" s="44">
+      <c r="O186" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="40" t="s">
+      <c r="A187" s="37" t="s">
         <v>228</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -15080,21 +15025,21 @@
       <c r="D187" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F187" s="41" t="s">
+      <c r="F187" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="G187" s="44">
+      <c r="G187" s="37">
         <v>3</v>
       </c>
-      <c r="K187" s="44">
+      <c r="K187" s="37">
         <v>3</v>
       </c>
-      <c r="O187" s="44">
+      <c r="O187" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" s="40" t="s">
+      <c r="A188" s="37" t="s">
         <v>223</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -15106,21 +15051,21 @@
       <c r="D188" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F188" s="41" t="s">
+      <c r="F188" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="G188" s="44">
+      <c r="G188" s="37">
         <v>4</v>
       </c>
-      <c r="K188" s="44">
+      <c r="K188" s="37">
         <v>4</v>
       </c>
-      <c r="O188" s="44">
+      <c r="O188" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="40" t="s">
+      <c r="A189" s="37" t="s">
         <v>234</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -15129,29 +15074,29 @@
       <c r="C189" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F189" s="41" t="s">
+      <c r="F189" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="G189" s="44">
+      <c r="G189" s="37">
         <v>4</v>
       </c>
-      <c r="K189" s="44">
+      <c r="K189" s="37">
         <v>4</v>
       </c>
-      <c r="O189" s="44">
+      <c r="O189" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" s="42" t="s">
+      <c r="A193" s="39" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" s="42"/>
+      <c r="A194" s="39"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" s="40" t="s">
+      <c r="A195" s="37" t="s">
         <v>246</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -15163,18 +15108,18 @@
       <c r="D195" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G195" s="44">
+      <c r="G195" s="37">
         <v>1</v>
       </c>
-      <c r="K195" s="44">
+      <c r="K195" s="37">
         <v>1</v>
       </c>
-      <c r="O195" s="44">
+      <c r="O195" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" s="40" t="s">
+      <c r="A196" s="37" t="s">
         <v>247</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -15186,21 +15131,21 @@
       <c r="D196" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F196" s="41" t="s">
+      <c r="F196" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="G196" s="44">
+      <c r="G196" s="37">
         <v>2</v>
       </c>
-      <c r="K196" s="44">
+      <c r="K196" s="37">
         <v>2</v>
       </c>
-      <c r="O196" s="44">
+      <c r="O196" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" s="40" t="s">
+      <c r="A197" s="37" t="s">
         <v>238</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -15212,21 +15157,21 @@
       <c r="D197" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F197" s="41" t="s">
+      <c r="F197" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="G197" s="44">
+      <c r="G197" s="37">
         <v>3</v>
       </c>
-      <c r="K197" s="44">
+      <c r="K197" s="37">
         <v>3</v>
       </c>
-      <c r="O197" s="44">
+      <c r="O197" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" s="40" t="s">
+      <c r="A198" s="37" t="s">
         <v>240</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -15238,21 +15183,21 @@
       <c r="D198" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F198" s="41" t="s">
+      <c r="F198" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="G198" s="44">
+      <c r="G198" s="37">
         <v>3</v>
       </c>
-      <c r="K198" s="44">
+      <c r="K198" s="37">
         <v>3</v>
       </c>
-      <c r="O198" s="44">
+      <c r="O198" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" s="40" t="s">
+      <c r="A199" s="37" t="s">
         <v>241</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -15264,21 +15209,21 @@
       <c r="D199" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F199" s="41" t="s">
+      <c r="F199" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="G199" s="44">
+      <c r="G199" s="37">
         <v>4</v>
       </c>
-      <c r="K199" s="44">
+      <c r="K199" s="37">
         <v>4</v>
       </c>
-      <c r="O199" s="44">
+      <c r="O199" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" s="40" t="s">
+      <c r="A200" s="37" t="s">
         <v>242</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -15290,21 +15235,21 @@
       <c r="D200" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F200" s="41" t="s">
+      <c r="F200" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="G200" s="44">
+      <c r="G200" s="37">
         <v>4</v>
       </c>
-      <c r="K200" s="44">
+      <c r="K200" s="37">
         <v>4</v>
       </c>
-      <c r="O200" s="44">
+      <c r="O200" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" s="40" t="s">
+      <c r="A201" s="37" t="s">
         <v>243</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -15316,26 +15261,26 @@
       <c r="D201" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F201" s="41" t="s">
+      <c r="F201" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="G201" s="44">
+      <c r="G201" s="37">
         <v>5</v>
       </c>
-      <c r="K201" s="44">
+      <c r="K201" s="37">
         <v>5</v>
       </c>
-      <c r="O201" s="44">
+      <c r="O201" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" s="42" t="s">
+      <c r="A205" s="39" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A207" s="40" t="s">
+      <c r="A207" s="37" t="s">
         <v>248</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -15344,18 +15289,18 @@
       <c r="C207" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G207" s="44">
+      <c r="G207" s="37">
         <v>0</v>
       </c>
-      <c r="K207" s="44">
+      <c r="K207" s="37">
         <v>0</v>
       </c>
-      <c r="O207" s="44">
+      <c r="O207" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A208" s="40" t="s">
+      <c r="A208" s="37" t="s">
         <v>236</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -15364,21 +15309,21 @@
       <c r="C208" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F208" s="41" t="s">
+      <c r="F208" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G208" s="44">
+      <c r="G208" s="37">
         <v>1</v>
       </c>
-      <c r="K208" s="44">
+      <c r="K208" s="37">
         <v>1</v>
       </c>
-      <c r="O208" s="44">
+      <c r="O208" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A209" s="40" t="s">
+      <c r="A209" s="37" t="s">
         <v>260</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -15387,21 +15332,21 @@
       <c r="C209" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F209" s="41" t="s">
+      <c r="F209" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="G209" s="44">
+      <c r="G209" s="37">
         <v>1</v>
       </c>
-      <c r="K209" s="44">
+      <c r="K209" s="37">
         <v>1</v>
       </c>
-      <c r="O209" s="44">
+      <c r="O209" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A211" s="40" t="s">
+      <c r="A211" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -15413,21 +15358,21 @@
       <c r="D211" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F211" s="41" t="s">
+      <c r="F211" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="G211" s="44">
+      <c r="G211" s="37">
         <v>2</v>
       </c>
-      <c r="K211" s="44">
+      <c r="K211" s="37">
         <v>2</v>
       </c>
-      <c r="O211" s="44">
+      <c r="O211" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A212" s="40" t="s">
+      <c r="A212" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -15439,21 +15384,21 @@
       <c r="D212" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F212" s="41" t="s">
+      <c r="F212" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="G212" s="44">
+      <c r="G212" s="37">
         <v>3</v>
       </c>
-      <c r="K212" s="44">
+      <c r="K212" s="37">
         <v>3</v>
       </c>
-      <c r="O212" s="44">
+      <c r="O212" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A213" s="40" t="s">
+      <c r="A213" s="37" t="s">
         <v>256</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -15465,21 +15410,21 @@
       <c r="D213" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F213" s="41" t="s">
+      <c r="F213" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="G213" s="44">
+      <c r="G213" s="37">
         <v>4</v>
       </c>
-      <c r="K213" s="44">
+      <c r="K213" s="37">
         <v>4</v>
       </c>
-      <c r="O213" s="44">
+      <c r="O213" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A214" s="40" t="s">
+      <c r="A214" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -15491,21 +15436,21 @@
       <c r="D214" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F214" s="41" t="s">
+      <c r="F214" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="G214" s="44">
+      <c r="G214" s="37">
         <v>5</v>
       </c>
-      <c r="K214" s="44">
+      <c r="K214" s="37">
         <v>5</v>
       </c>
-      <c r="O214" s="44">
+      <c r="O214" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A216" s="40" t="s">
+      <c r="A216" s="37" t="s">
         <v>249</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -15517,21 +15462,21 @@
       <c r="D216" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F216" s="41" t="s">
+      <c r="F216" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="G216" s="44">
+      <c r="G216" s="37">
         <v>2</v>
       </c>
-      <c r="K216" s="44">
+      <c r="K216" s="37">
         <v>2</v>
       </c>
-      <c r="O216" s="44">
+      <c r="O216" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A217" s="40" t="s">
+      <c r="A217" s="37" t="s">
         <v>251</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -15543,16 +15488,16 @@
       <c r="D217" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F217" s="41" t="s">
+      <c r="F217" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="G217" s="44">
+      <c r="G217" s="37">
         <v>4</v>
       </c>
-      <c r="K217" s="44">
+      <c r="K217" s="37">
         <v>4</v>
       </c>
-      <c r="O217" s="44">
+      <c r="O217" s="37">
         <v>4</v>
       </c>
     </row>
@@ -15562,12 +15507,12 @@
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A226" s="42" t="s">
+      <c r="A226" s="39" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A228" s="40" t="s">
+      <c r="A228" s="37" t="s">
         <v>261</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -15579,21 +15524,21 @@
       <c r="D228" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F228" s="41" t="s">
+      <c r="F228" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G228" s="44">
+      <c r="G228" s="37">
         <v>2</v>
       </c>
-      <c r="K228" s="44">
+      <c r="K228" s="37">
         <v>2</v>
       </c>
-      <c r="O228" s="44">
+      <c r="O228" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A229" s="40" t="s">
+      <c r="A229" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -15605,21 +15550,21 @@
       <c r="D229" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F229" s="41" t="s">
+      <c r="F229" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G229" s="44">
+      <c r="G229" s="37">
         <v>3</v>
       </c>
-      <c r="K229" s="44">
+      <c r="K229" s="37">
         <v>3</v>
       </c>
-      <c r="O229" s="44">
+      <c r="O229" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A230" s="40" t="s">
+      <c r="A230" s="37" t="s">
         <v>263</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -15631,21 +15576,21 @@
       <c r="D230" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F230" s="41" t="s">
+      <c r="F230" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="G230" s="44">
+      <c r="G230" s="37">
         <v>4</v>
       </c>
-      <c r="K230" s="44">
+      <c r="K230" s="37">
         <v>4</v>
       </c>
-      <c r="O230" s="44">
+      <c r="O230" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A233" s="40" t="s">
+      <c r="A233" s="37" t="s">
         <v>268</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -15657,21 +15602,21 @@
       <c r="D233" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F233" s="41" t="s">
+      <c r="F233" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G233" s="44">
+      <c r="G233" s="37">
         <v>2</v>
       </c>
-      <c r="K233" s="44">
+      <c r="K233" s="37">
         <v>2</v>
       </c>
-      <c r="O233" s="44">
+      <c r="O233" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A234" s="40" t="s">
+      <c r="A234" s="37" t="s">
         <v>266</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -15683,349 +15628,338 @@
       <c r="D234" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F234" s="41" t="s">
+      <c r="F234" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G234" s="44">
+      <c r="G234" s="37">
         <v>2</v>
       </c>
-      <c r="K234" s="44">
+      <c r="K234" s="37">
         <v>2</v>
       </c>
-      <c r="O234" s="44">
+      <c r="O234" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A236" s="44" t="s">
+      <c r="A236" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C236" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D236" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E236" s="51"/>
-      <c r="F236" s="45" t="s">
+      <c r="F236" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="G236" s="44">
+      <c r="G236" s="37">
         <v>3</v>
       </c>
-      <c r="K236" s="44">
+      <c r="K236" s="37">
         <v>3</v>
       </c>
-      <c r="O236" s="44">
+      <c r="O236" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A237" s="44" t="s">
+      <c r="A237" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D237" s="14" t="s">
+      <c r="D237" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E237" s="51"/>
-      <c r="F237" s="45" t="s">
+      <c r="F237" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="G237" s="44">
+      <c r="G237" s="37">
         <v>3</v>
       </c>
-      <c r="K237" s="44">
+      <c r="K237" s="37">
         <v>3</v>
       </c>
-      <c r="O237" s="44">
+      <c r="O237" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A238" s="44" t="s">
+      <c r="A238" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="C238" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D238" s="14" t="s">
+      <c r="D238" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E238" s="51"/>
-      <c r="F238" s="45" t="s">
+      <c r="F238" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="G238" s="44">
+      <c r="G238" s="37">
         <v>3</v>
       </c>
-      <c r="K238" s="44">
+      <c r="K238" s="37">
         <v>3</v>
       </c>
-      <c r="O238" s="44">
+      <c r="O238" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A239" s="44" t="s">
+      <c r="A239" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C239" s="14" t="s">
+      <c r="C239" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E239" s="51"/>
-      <c r="F239" s="45" t="s">
+      <c r="F239" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="G239" s="44">
+      <c r="G239" s="37">
         <v>3</v>
       </c>
-      <c r="K239" s="44">
+      <c r="K239" s="37">
         <v>3</v>
       </c>
-      <c r="O239" s="44">
+      <c r="O239" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A240" s="44" t="s">
+      <c r="A240" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C240" s="14" t="s">
+      <c r="C240" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E240" s="51"/>
-      <c r="F240" s="45" t="s">
+      <c r="F240" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="G240" s="44">
+      <c r="G240" s="37">
         <v>3</v>
       </c>
-      <c r="K240" s="44">
+      <c r="K240" s="37">
         <v>3</v>
       </c>
-      <c r="O240" s="44">
+      <c r="O240" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A242" s="44" t="s">
+      <c r="A242" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C242" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D242" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E242" s="51"/>
-      <c r="F242" s="45" t="s">
+      <c r="F242" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G242" s="44">
+      <c r="G242" s="37">
         <v>4</v>
       </c>
-      <c r="K242" s="44">
+      <c r="K242" s="37">
         <v>4</v>
       </c>
-      <c r="O242" s="44">
+      <c r="O242" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A243" s="44" t="s">
+      <c r="A243" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C243" s="14" t="s">
+      <c r="C243" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E243" s="51"/>
-      <c r="F243" s="45" t="s">
+      <c r="F243" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G243" s="44">
+      <c r="G243" s="37">
         <v>4</v>
       </c>
-      <c r="K243" s="44">
+      <c r="K243" s="37">
         <v>4</v>
       </c>
-      <c r="O243" s="44">
+      <c r="O243" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A244" s="44" t="s">
+      <c r="A244" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="C244" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D244" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E244" s="51"/>
-      <c r="F244" s="45" t="s">
+      <c r="F244" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G244" s="44">
+      <c r="G244" s="37">
         <v>4</v>
       </c>
-      <c r="K244" s="44">
+      <c r="K244" s="37">
         <v>4</v>
       </c>
-      <c r="O244" s="44">
+      <c r="O244" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A245" s="44" t="s">
+      <c r="A245" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="C245" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D245" s="14" t="s">
+      <c r="D245" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E245" s="51"/>
-      <c r="F245" s="45" t="s">
+      <c r="F245" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G245" s="44">
+      <c r="G245" s="37">
         <v>4</v>
       </c>
-      <c r="K245" s="44">
+      <c r="K245" s="37">
         <v>4</v>
       </c>
-      <c r="O245" s="44">
+      <c r="O245" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A246" s="44" t="s">
+      <c r="A246" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="C246" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="D246" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E246" s="51"/>
-      <c r="F246" s="45" t="s">
+      <c r="F246" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G246" s="44">
+      <c r="G246" s="37">
         <v>4</v>
       </c>
-      <c r="K246" s="44">
+      <c r="K246" s="37">
         <v>4</v>
       </c>
-      <c r="O246" s="44">
+      <c r="O246" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A247" s="44" t="s">
+      <c r="A247" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C247" s="14" t="s">
+      <c r="C247" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D247" s="14" t="s">
+      <c r="D247" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E247" s="51"/>
-      <c r="F247" s="45" t="s">
+      <c r="F247" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G247" s="44">
+      <c r="G247" s="37">
         <v>4</v>
       </c>
-      <c r="K247" s="44">
+      <c r="K247" s="37">
         <v>4</v>
       </c>
-      <c r="O247" s="44">
+      <c r="O247" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A248" s="40" t="s">
+      <c r="A248" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C248" s="14" t="s">
+      <c r="C248" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F248" s="45" t="s">
+      <c r="F248" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="G248" s="44">
+      <c r="G248" s="37">
         <v>4</v>
       </c>
-      <c r="K248" s="44">
+      <c r="K248" s="37">
         <v>4</v>
       </c>
-      <c r="O248" s="44">
+      <c r="O248" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A252" s="42" t="s">
+      <c r="A252" s="39" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A254" s="40" t="s">
+      <c r="A254" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -16034,18 +15968,18 @@
       <c r="C254" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G254" s="44">
+      <c r="G254" s="37">
         <v>2</v>
       </c>
-      <c r="K254" s="44">
+      <c r="K254" s="37">
         <v>2</v>
       </c>
-      <c r="O254" s="44">
+      <c r="O254" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A255" s="40" t="s">
+      <c r="A255" s="37" t="s">
         <v>295</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -16054,21 +15988,21 @@
       <c r="C255" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F255" s="41" t="s">
+      <c r="F255" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="G255" s="44">
+      <c r="G255" s="37">
         <v>3</v>
       </c>
-      <c r="K255" s="44">
+      <c r="K255" s="37">
         <v>3</v>
       </c>
-      <c r="O255" s="44">
+      <c r="O255" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A256" s="40" t="s">
+      <c r="A256" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -16077,26 +16011,26 @@
       <c r="C256" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F256" s="41" t="s">
+      <c r="F256" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="G256" s="44">
+      <c r="G256" s="37">
         <v>4</v>
       </c>
-      <c r="K256" s="44">
+      <c r="K256" s="37">
         <v>4</v>
       </c>
-      <c r="O256" s="44">
+      <c r="O256" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="40" t="s">
+      <c r="A260" s="37" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="40" t="s">
+      <c r="A263" s="37" t="s">
         <v>541</v>
       </c>
     </row>
@@ -16785,17 +16719,17 @@
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="21" t="s">
+      <c r="B418" s="19" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B419" s="21" t="s">
+      <c r="B419" s="19" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B420" s="21" t="s">
+      <c r="B420" s="19" t="s">
         <v>475</v>
       </c>
     </row>
@@ -16805,7 +16739,7 @@
       </c>
     </row>
     <row r="422" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B422" s="21" t="s">
+      <c r="B422" s="19" t="s">
         <v>477</v>
       </c>
     </row>
@@ -16815,7 +16749,7 @@
       </c>
     </row>
     <row r="424" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B424" s="21" t="s">
+      <c r="B424" s="19" t="s">
         <v>479</v>
       </c>
     </row>
@@ -17046,8 +16980,8 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B254 G2:G3 B217 B196 B182 K2:K3 O2:O3 G252:H256 G258:H262 G264:H1048576 G232:H250 G1:H1 G4:H5 G9:H230 O4:P230 O1:P1 O232:P250 O264:P1048576 O258:P262 O252:P256 K4:L230 K1:L1 K232:L250 K264:L1048576 K258:L262 K252:L256">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="B254 G2:G3 B217 B196 B182 K2:K3 O2:O3 G252:H256 G258:H262 G264:H1048576 G150:H230 G232:H250 G1:H1 G4:H5 G9:H148 O4:P148 O1:P1 O232:P250 O150:P230 O264:P1048576 O258:P262 O252:P256 K4:L148 K1:L1 K232:L250 K150:L230 K264:L1048576 K258:L262 K252:L256">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -17057,8 +16991,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B254 G2:G3 B217 B196 B182 K2:K3 O2:O3 G252:H256 G258:H262 G264:H1048576 G150:H230 G232:H250 G1:H1 G4:H5 G9:H148 O4:P148 O1:P1 O232:P250 O150:P230 O264:P1048576 O258:P262 O252:P256 K4:L148 K1:L1 K232:L250 K150:L230 K264:L1048576 K258:L262 K252:L256">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="B254 G2:G3 B217 B196 B182 K2:K3 O2:O3 G252:H256 G258:H262 G264:H1048576 G232:H250 G1:H1 G4:H5 G9:H230 O4:P230 O1:P1 O232:P250 O264:P1048576 O258:P262 O252:P256 K4:L230 K1:L1 K232:L250 K264:L1048576 K258:L262 K252:L256">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -17084,7 +17018,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="18" customWidth="1"/>
     <col min="3" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -17112,39 +17046,39 @@
       <c r="A2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>4</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>387</v>
       </c>
       <c r="C4" s="1">
@@ -17173,7 +17107,7 @@
       <c r="A5" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>388</v>
       </c>
       <c r="C5" s="1">
@@ -17202,7 +17136,7 @@
       <c r="A6" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>419</v>
       </c>
       <c r="C6" s="1">
@@ -17231,7 +17165,7 @@
       <c r="A7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>389</v>
       </c>
       <c r="C7" s="1">
@@ -17260,7 +17194,7 @@
       <c r="A9" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>402</v>
       </c>
       <c r="C9" s="1">
@@ -17289,7 +17223,7 @@
       <c r="A10" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>403</v>
       </c>
       <c r="C10" s="1">
@@ -17318,7 +17252,7 @@
       <c r="A11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>396</v>
       </c>
       <c r="C11" s="1">
@@ -17347,7 +17281,7 @@
       <c r="A14" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>406</v>
       </c>
       <c r="C14" s="1">
@@ -17376,7 +17310,7 @@
       <c r="A15" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>407</v>
       </c>
       <c r="C15" s="1">
@@ -17466,7 +17400,7 @@
       <c r="A22" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>414</v>
       </c>
       <c r="C22" s="1">
@@ -17495,7 +17429,7 @@
       <c r="A23" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>415</v>
       </c>
       <c r="C23" s="1">
@@ -17524,7 +17458,7 @@
       <c r="A24" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>416</v>
       </c>
       <c r="C24" s="1">
@@ -17553,7 +17487,7 @@
       <c r="A25" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>417</v>
       </c>
       <c r="C25" s="1">
@@ -17582,7 +17516,7 @@
       <c r="A26" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>418</v>
       </c>
       <c r="C26" s="1">
@@ -17611,7 +17545,7 @@
       <c r="A29" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>383</v>
       </c>
       <c r="C29" s="1">
@@ -17640,7 +17574,7 @@
       <c r="A30" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>746</v>
       </c>
       <c r="E30" s="1">
@@ -17663,7 +17597,7 @@
       <c r="A31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>747</v>
       </c>
       <c r="G31" s="1">
@@ -17677,7 +17611,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>382</v>
       </c>
       <c r="C36" s="1">
@@ -17706,7 +17640,7 @@
       <c r="A39" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>413</v>
       </c>
       <c r="C39" s="1">
@@ -17735,7 +17669,7 @@
       <c r="A40" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>411</v>
       </c>
       <c r="C40" s="1">
@@ -17749,7 +17683,7 @@
       <c r="A41" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>412</v>
       </c>
       <c r="C41" s="1">
@@ -17763,7 +17697,7 @@
       <c r="A42" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>420</v>
       </c>
       <c r="C42" s="1">
@@ -17792,7 +17726,7 @@
       <c r="A48" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>397</v>
       </c>
       <c r="C48" s="1">
@@ -17821,7 +17755,7 @@
       <c r="A49" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>400</v>
       </c>
       <c r="C49" s="1">
@@ -17850,7 +17784,7 @@
       <c r="A50" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>398</v>
       </c>
       <c r="C50" s="1">
@@ -17879,7 +17813,7 @@
       <c r="A51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>399</v>
       </c>
       <c r="C51" s="1">
@@ -17905,9 +17839,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:I2">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="5Rating">
+  <conditionalFormatting sqref="C2">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
         <cfvo type="percent" val="40"/>
@@ -17916,9 +17850,9 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="5Rating" reverse="1">
+  <conditionalFormatting sqref="D2:I2">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
         <cfvo type="percent" val="40"/>
@@ -17936,26 +17870,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F62D196-CE0D-4FC4-B594-4D58D173DB05}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="18" customWidth="1"/>
     <col min="3" max="3" width="81" style="1" customWidth="1"/>
     <col min="4" max="16384" width="13.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="43" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="44" t="s">
         <v>190</v>
       </c>
     </row>
@@ -17963,8 +17897,8 @@
       <c r="A3" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B3" s="20">
-        <v>1003</v>
+      <c r="B3" s="18">
+        <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>644</v>
@@ -17974,7 +17908,7 @@
       <c r="A5" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>10</v>
       </c>
     </row>
@@ -17982,7 +17916,7 @@
       <c r="A6" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>10</v>
       </c>
     </row>
@@ -17990,7 +17924,7 @@
       <c r="A9" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -18001,7 +17935,7 @@
       <c r="A10" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>646</v>
       </c>
     </row>
@@ -18009,7 +17943,7 @@
       <c r="A11" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>646</v>
       </c>
     </row>
@@ -18017,7 +17951,7 @@
       <c r="A12" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>646</v>
       </c>
     </row>
@@ -18025,7 +17959,7 @@
       <c r="A14" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>646</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -18033,7 +17967,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="44" t="s">
         <v>190</v>
       </c>
     </row>
@@ -18054,14 +17988,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="10" customWidth="1"/>
     <col min="2" max="12" width="13.85546875" style="1"/>
     <col min="13" max="13" width="119.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="13.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>630</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -18093,7 +18027,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>631</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -18125,7 +18059,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>650</v>
       </c>
       <c r="B3" s="1">
@@ -18157,7 +18091,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>662</v>
       </c>
       <c r="B5" s="1">
@@ -18186,7 +18120,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>663</v>
       </c>
       <c r="B6" s="1">
@@ -18215,12 +18149,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>664</v>
       </c>
       <c r="B9" s="1">
@@ -18249,7 +18183,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>665</v>
       </c>
       <c r="B10" s="1">
@@ -18278,12 +18212,12 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>781</v>
       </c>
       <c r="B14" s="1">
@@ -18312,7 +18246,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>782</v>
       </c>
       <c r="B15" s="1">
@@ -18341,7 +18275,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>783</v>
       </c>
       <c r="B16" s="1">
@@ -18370,12 +18304,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>785</v>
       </c>
       <c r="B18" s="1">
@@ -18404,7 +18338,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>786</v>
       </c>
       <c r="B19" s="1">
@@ -18433,7 +18367,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>787</v>
       </c>
       <c r="B20" s="1">
@@ -18462,7 +18396,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>788</v>
       </c>
       <c r="B21" s="1">
@@ -18491,7 +18425,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>810</v>
       </c>
       <c r="B22" s="1">
@@ -18520,7 +18454,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>789</v>
       </c>
       <c r="B23" s="1">
@@ -18549,7 +18483,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>790</v>
       </c>
       <c r="B24" s="1">
@@ -18578,7 +18512,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>791</v>
       </c>
       <c r="B25" s="1">
@@ -18607,20 +18541,20 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
@@ -18655,7 +18589,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="11"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
@@ -18697,7 +18631,7 @@
       <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>794</v>
       </c>
       <c r="B36" s="1">
@@ -18734,7 +18668,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="10" t="s">
         <v>909</v>
       </c>
       <c r="B38" s="1">
@@ -18771,7 +18705,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="10" t="s">
         <v>910</v>
       </c>
       <c r="B39" s="1">
@@ -18808,7 +18742,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="10" t="s">
         <v>911</v>
       </c>
       <c r="B40" s="1">
@@ -18845,7 +18779,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="10" t="s">
         <v>912</v>
       </c>
       <c r="B41" s="1">
@@ -18882,7 +18816,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="10" t="s">
         <v>913</v>
       </c>
       <c r="B42" s="1">
@@ -18919,7 +18853,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="10" t="s">
         <v>914</v>
       </c>
       <c r="B43" s="1">
@@ -18956,7 +18890,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="10" t="s">
         <v>915</v>
       </c>
       <c r="B44" s="1">
@@ -18993,7 +18927,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="10" t="s">
         <v>916</v>
       </c>
       <c r="B45" s="1">
@@ -19030,7 +18964,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="10" t="s">
         <v>917</v>
       </c>
       <c r="B46" s="1">
@@ -19067,7 +19001,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="10" t="s">
         <v>918</v>
       </c>
       <c r="B47" s="1">
@@ -19104,7 +19038,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="10" t="s">
         <v>919</v>
       </c>
       <c r="B48" s="1">
@@ -19141,7 +19075,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="10" t="s">
         <v>920</v>
       </c>
       <c r="B49" s="1">
@@ -19193,15 +19127,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="10" customWidth="1"/>
     <col min="2" max="15" width="13.85546875" style="1"/>
     <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="119.7109375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="119.7109375" style="25" customWidth="1"/>
     <col min="18" max="16384" width="13.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>666</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -19240,20 +19174,20 @@
       <c r="N1" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="25" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>650</v>
       </c>
       <c r="B3" s="1">
@@ -19286,12 +19220,12 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="25" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>686</v>
       </c>
       <c r="B6" s="1">
@@ -19303,12 +19237,12 @@
       <c r="E6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="25" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>687</v>
       </c>
       <c r="B7" s="1">
@@ -19328,7 +19262,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>688</v>
       </c>
       <c r="B8" s="1">
@@ -19348,7 +19282,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>689</v>
       </c>
       <c r="B9" s="1">
@@ -19371,7 +19305,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>690</v>
       </c>
       <c r="B10" s="1">
@@ -19394,7 +19328,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>691</v>
       </c>
       <c r="B11" s="1">
@@ -19426,7 +19360,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>692</v>
       </c>
       <c r="B12" s="1">
@@ -19458,7 +19392,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>693</v>
       </c>
       <c r="B13" s="1">
@@ -19490,7 +19424,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>694</v>
       </c>
       <c r="B14" s="1">
@@ -19513,7 +19447,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>695</v>
       </c>
       <c r="B15" s="1">
@@ -19528,12 +19462,12 @@
       <c r="M15" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="25" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>696</v>
       </c>
       <c r="D16" s="1">
@@ -19544,7 +19478,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>697</v>
       </c>
       <c r="D17" s="1">
@@ -19561,7 +19495,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>698</v>
       </c>
       <c r="B18" s="1">
@@ -19578,7 +19512,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>699</v>
       </c>
       <c r="D19" s="1">
@@ -19589,7 +19523,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>700</v>
       </c>
       <c r="K20" s="1">
@@ -19597,7 +19531,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>701</v>
       </c>
       <c r="K21" s="1">
@@ -19605,7 +19539,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>702</v>
       </c>
       <c r="B22" s="1">
@@ -19616,12 +19550,12 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -19654,14 +19588,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="10" customWidth="1"/>
     <col min="2" max="20" width="13.85546875" style="1"/>
     <col min="21" max="21" width="119.7109375" style="1" customWidth="1"/>
     <col min="22" max="16384" width="13.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>780</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -19723,7 +19657,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>631</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -19761,7 +19695,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>650</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -19769,12 +19703,12 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="10" t="s">
         <v>796</v>
       </c>
       <c r="B8" s="1">
@@ -19833,7 +19767,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="10" t="s">
         <v>797</v>
       </c>
       <c r="B9" s="1">
@@ -19892,7 +19826,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="10" t="s">
         <v>798</v>
       </c>
       <c r="B10" s="1">
@@ -19951,7 +19885,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="10" t="s">
         <v>799</v>
       </c>
       <c r="B11" s="1">
@@ -20010,7 +19944,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="10" t="s">
         <v>800</v>
       </c>
       <c r="B12" s="1">
@@ -20069,7 +20003,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>709</v>
       </c>
       <c r="B14" s="1">
@@ -20131,7 +20065,7 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>801</v>
       </c>
       <c r="B16" s="1">
@@ -20190,7 +20124,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>802</v>
       </c>
       <c r="B17" s="1">
@@ -20249,7 +20183,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>803</v>
       </c>
       <c r="B18" s="1">
@@ -20311,7 +20245,7 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="10" t="s">
         <v>804</v>
       </c>
       <c r="B20" s="1">
@@ -20370,7 +20304,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="10" t="s">
         <v>805</v>
       </c>
       <c r="B21" s="1">
@@ -20429,7 +20363,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="10" t="s">
         <v>806</v>
       </c>
       <c r="B22" s="1">
@@ -20488,7 +20422,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>807</v>
       </c>
       <c r="B23" s="1">
@@ -20547,7 +20481,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>808</v>
       </c>
       <c r="B24" s="1">
@@ -20606,7 +20540,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>708</v>
       </c>
       <c r="B26" s="1">

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS Clé USB\Thousand-Suns-Saga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A69425-BAD9-4A7E-A769-C1529A293D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AACD1A-B8B2-4B3B-BEC1-02638806C388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MG_system_types (2)" sheetId="22" r:id="rId1"/>
-    <sheet name="Techs" sheetId="4" r:id="rId2"/>
-    <sheet name="Equipment" sheetId="18" r:id="rId3"/>
-    <sheet name="Consumption" sheetId="5" r:id="rId4"/>
-    <sheet name="MapGenerator" sheetId="12" r:id="rId5"/>
-    <sheet name="MG_sectors" sheetId="11" r:id="rId6"/>
-    <sheet name="MG_systems_types" sheetId="13" r:id="rId7"/>
-    <sheet name="MG_systems" sheetId="14" r:id="rId8"/>
-    <sheet name="|||" sheetId="10" r:id="rId9"/>
-    <sheet name="Units" sheetId="20" r:id="rId10"/>
-    <sheet name="Fleet" sheetId="1" r:id="rId11"/>
-    <sheet name="Buildings" sheetId="2" r:id="rId12"/>
-    <sheet name="Special techs" sheetId="3" r:id="rId13"/>
-    <sheet name="Era" sheetId="6" r:id="rId14"/>
-    <sheet name="CTime" sheetId="7" r:id="rId15"/>
-    <sheet name="Ressources" sheetId="8" r:id="rId16"/>
-    <sheet name="Productions" sheetId="17" r:id="rId17"/>
+    <sheet name="Techs" sheetId="4" r:id="rId1"/>
+    <sheet name="Equipment" sheetId="18" r:id="rId2"/>
+    <sheet name="Consumption" sheetId="5" r:id="rId3"/>
+    <sheet name="MapGenerator" sheetId="12" r:id="rId4"/>
+    <sheet name="MG_sectors" sheetId="11" r:id="rId5"/>
+    <sheet name="MG_system_types" sheetId="22" r:id="rId6"/>
+    <sheet name="MG_systems" sheetId="14" r:id="rId7"/>
+    <sheet name="|||" sheetId="10" r:id="rId8"/>
+    <sheet name="Units" sheetId="20" r:id="rId9"/>
+    <sheet name="Fleet" sheetId="1" r:id="rId10"/>
+    <sheet name="Buildings" sheetId="2" r:id="rId11"/>
+    <sheet name="Special techs" sheetId="3" r:id="rId12"/>
+    <sheet name="Era" sheetId="6" r:id="rId13"/>
+    <sheet name="CTime" sheetId="7" r:id="rId14"/>
+    <sheet name="Ressources" sheetId="8" r:id="rId15"/>
+    <sheet name="Productions" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Equipment!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Techs!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipment!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Techs!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="921">
   <si>
     <t>LINE</t>
   </si>
@@ -7311,1542 +7310,2571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68E02A-CC6E-4AA2-9AB8-6B95286EE8C0}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BD8DD-86FC-4A07-AC68-DC0D3DFAF7A0}">
+  <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:P57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="10" customWidth="1"/>
-    <col min="2" max="15" width="13.85546875" style="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="119.7109375" style="25" customWidth="1"/>
-    <col min="18" max="16384" width="13.85546875" style="1"/>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="91.140625" style="1" customWidth="1"/>
+    <col min="11" max="17" width="1.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q1" s="25" t="s">
+    <row r="1" spans="1:16" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G116" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G124" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G127" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G143" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6.4000000000000005E-4</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <f>IF(SUM(B5:B23)&lt;&gt;1,SUM(B5:B23),"")</f>
-        <v>0.99765210000000004</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31:N31" si="0">IF(SUM(D5:D23)&lt;&gt;1,SUM(D5:D23),"")</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="B34" s="26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" ref="B36:N51" si="1">IF(B6*$B$34&lt;&gt;0, B6*$B$34, "")</f>
-        <v>0.01</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="1"/>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999991E-5</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B39" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J40" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="M40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B41" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J41" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="M41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H42" s="1">
-        <f>IF(H12*$B$34&lt;&gt;0, H12*$B$34, "")</f>
-        <v>400</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="J42" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="M42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="K43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B305" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B306" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B307" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B309" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B311" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J44" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="K44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="M44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="N45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="N47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="M48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="L50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K51" s="1" t="e">
-        <f>IF(#REF!*$B$34&lt;&gt;0,#REF!* $B$34, "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" ref="B52:J53" si="2">IF(B22*$B$34&lt;&gt;0, B22*$B$34, "")</f>
-        <v>0.64</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K52" s="1" t="str">
-        <f>IF(K22*$B$34&lt;&gt;0, K22*$B$34, "")</f>
-        <v/>
-      </c>
-      <c r="L52" s="1" t="str">
-        <f t="shared" ref="L52:N53" si="3">IF(L22*$B$34&lt;&gt;0, L22*$B$34, "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K53" s="1" t="str">
-        <f>IF(K23*$B$34&lt;&gt;0, K23*$B$34, "")</f>
-        <v/>
-      </c>
-      <c r="L53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:P25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0.25"/>
-        <cfvo type="num" val="0.5"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </colorScale>
+  <conditionalFormatting sqref="B141 B104 B83 G1:G35 G139:G143 G145:G149 G151:G1048576 B69 G37:G117 G119:G137">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B141 B104 B83 G139:G143 G145:G149 G151:G1048576 B69 G1:G117 G119:G137">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8855,58 +9883,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963F84F3-BF1E-48E6-9C26-FF31DF2F4C98}">
-  <dimension ref="A2:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="27" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="27" t="s">
-        <v>833</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -9044,13 +10020,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C953A2-E348-45BD-94BB-9853905028F2}">
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C13:C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9660,12 +10636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E86F81-7F57-40AE-8939-5BABDAC71F1F}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9883,12 +10859,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802CCB9-6BC1-466B-9FA9-DB5D5BC9B97C}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10016,7 +10992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D22487-644E-4B42-9A8A-B5107716524C}">
   <dimension ref="B3:C15"/>
   <sheetViews>
@@ -10130,11 +11106,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF702CCC-AF75-4717-ACFB-3CC6C4991068}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -10731,7 +11707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CB1DF-D23F-4AAE-96B5-181EBEC611E6}">
   <dimension ref="A3:O53"/>
   <sheetViews>
@@ -11004,2579 +11980,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BD8DD-86FC-4A07-AC68-DC0D3DFAF7A0}">
-  <dimension ref="A1:P384"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="91.140625" style="1" customWidth="1"/>
-    <col min="11" max="17" width="1.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="19.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G44" s="1">
-        <v>4</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G68" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G69" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G75" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G76" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G85" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G86" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G87" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G88" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G99" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G100" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G101" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G104" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G116" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G117" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G120" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G121" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G123" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G124" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G125" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G126" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G127" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G129" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G130" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G131" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G132" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G133" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G134" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G135" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G141" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G142" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G143" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D203" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D207" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B305" s="19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B306" s="19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B307" s="19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B309" s="19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B311" s="19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B141 B104 B83 G1:G35 G139:G143 G145:G149 G151:G1048576 B69 G37:G117 G119:G137">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="5Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B141 B104 B83 G139:G143 G145:G149 G151:G1048576 B69 G1:G117 G119:G137">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="5Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50CA5AE-4B94-4EA8-A58B-ADD46A4C93F1}">
   <dimension ref="A1:S497"/>
   <sheetViews>
@@ -17007,7 +15410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -17866,12 +16269,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F62D196-CE0D-4FC4-B594-4D58D173DB05}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17977,7 +16380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B8AE4-0FD4-4126-AACD-9736F4C81F06}">
   <dimension ref="A1:M49"/>
   <sheetViews>
@@ -19117,12 +17520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F959A4EE-B6EC-4351-858E-9D9A1C39EB12}">
-  <dimension ref="A1:Q27"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68E02A-CC6E-4AA2-9AB8-6B95286EE8C0}">
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19559,9 +17962,1093 @@
         <v>190</v>
       </c>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f>IF(SUM(B5:B23)&lt;&gt;1,SUM(B5:B23),"")</f>
+        <v>0.99765210000000004</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:N31" si="0">IF(SUM(D5:D23)&lt;&gt;1,SUM(D5:D23),"")</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B34" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" ref="B36:N51" si="1">IF(B6*$B$34&lt;&gt;0, B6*$B$34, "")</f>
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H42" s="1">
+        <f>IF(H12*$B$34&lt;&gt;0, H12*$B$34, "")</f>
+        <v>400</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K51" s="1" t="e">
+        <f>IF(#REF!*$B$34&lt;&gt;0,#REF!* $B$34, "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:J53" si="2">IF(B22*$B$34&lt;&gt;0, B22*$B$34, "")</f>
+        <v>0.64</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f>IF(K22*$B$34&lt;&gt;0, K22*$B$34, "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f t="shared" ref="L52:N53" si="3">IF(L22*$B$34&lt;&gt;0, L22*$B$34, "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f>IF(K23*$B$34&lt;&gt;0, K23*$B$34, "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B6:P25">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.25"/>
@@ -19577,7 +19064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E8EA3-1B3E-49AE-A55E-4ECE414BACF3}">
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -20851,7 +20338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF4D59-07DC-4B11-89EF-3DB1ECAA5045}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20863,4 +20350,56 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963F84F3-BF1E-48E6-9C26-FF31DF2F4C98}">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="27" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AACD1A-B8B2-4B3B-BEC1-02638806C388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB92A76-CB9B-4630-B55F-301BC114DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10860" yWindow="0" windowWidth="9675" windowHeight="11385" firstSheet="12" activeTab="16" xr2:uid="{49DBEFA7-9065-45DF-89F8-4E8FB4FD7B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
     <sheet name="Equipment" sheetId="18" r:id="rId2"/>
-    <sheet name="Consumption" sheetId="5" r:id="rId3"/>
+    <sheet name="Resources" sheetId="5" r:id="rId3"/>
     <sheet name="MapGenerator" sheetId="12" r:id="rId4"/>
     <sheet name="MG_sectors" sheetId="11" r:id="rId5"/>
     <sheet name="MG_system_types" sheetId="22" r:id="rId6"/>
@@ -26,9 +27,10 @@
     <sheet name="Buildings" sheetId="2" r:id="rId11"/>
     <sheet name="Special techs" sheetId="3" r:id="rId12"/>
     <sheet name="Era" sheetId="6" r:id="rId13"/>
-    <sheet name="CTime" sheetId="7" r:id="rId14"/>
-    <sheet name="Ressources" sheetId="8" r:id="rId15"/>
-    <sheet name="Productions" sheetId="17" r:id="rId16"/>
+    <sheet name="Era 2" sheetId="24" r:id="rId14"/>
+    <sheet name="CTime" sheetId="7" r:id="rId15"/>
+    <sheet name="Ressources" sheetId="8" r:id="rId16"/>
+    <sheet name="Productions" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipment!$A$1:$G$1</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1082">
   <si>
     <t>LINE</t>
   </si>
@@ -1189,18 +1191,12 @@
     <t>Douche hydrosonique</t>
   </si>
   <si>
-    <t>Era / need</t>
-  </si>
-  <si>
     <t>Composants Electroniques</t>
   </si>
   <si>
     <t>Biens de consommation rudimentaires</t>
   </si>
   <si>
-    <t>Categorie</t>
-  </si>
-  <si>
     <t>Computer</t>
   </si>
   <si>
@@ -1238,12 +1234,6 @@
   </si>
   <si>
     <t>Machines agricoles</t>
-  </si>
-  <si>
-    <t>Machines minières</t>
-  </si>
-  <si>
-    <t>Robot minier</t>
   </si>
   <si>
     <t>Robot agricol</t>
@@ -2375,9 +2365,6 @@
     <t>Hélium3</t>
   </si>
   <si>
-    <t>²²²²²²²²²²²²</t>
-  </si>
-  <si>
     <t>violet</t>
   </si>
   <si>
@@ -2811,13 +2798,511 @@
   </si>
   <si>
     <t>average scientific</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t># CIVILIAN CONSUMPTION</t>
+  </si>
+  <si>
+    <t>Equipement de terraformation</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Médicaments traditionnels</t>
+  </si>
+  <si>
+    <t>Médicaments modernes</t>
+  </si>
+  <si>
+    <t>Médicaments avancés</t>
+  </si>
+  <si>
+    <t>Drogues douces</t>
+  </si>
+  <si>
+    <t>Drogues dures</t>
+  </si>
+  <si>
+    <t>Organes de contrebande</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>pop_consumption_0</t>
+  </si>
+  <si>
+    <t>pop_consumption_1</t>
+  </si>
+  <si>
+    <t>pop_consumption_2</t>
+  </si>
+  <si>
+    <t>pop_consumption_3</t>
+  </si>
+  <si>
+    <t>pop_consumption_4</t>
+  </si>
+  <si>
+    <t>pop_consumption_5</t>
+  </si>
+  <si>
+    <t>pop_consumption_6</t>
+  </si>
+  <si>
+    <t>Pop needs per tech level</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Non civilisé</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Pré-Industriel</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Low-Tech</t>
+  </si>
+  <si>
+    <t>Mid-Tech</t>
+  </si>
+  <si>
+    <t>High-Tech</t>
+  </si>
+  <si>
+    <t>Singularité</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T.II</t>
+  </si>
+  <si>
+    <t>T.I</t>
+  </si>
+  <si>
+    <t>T.III</t>
+  </si>
+  <si>
+    <t>T.IV</t>
+  </si>
+  <si>
+    <t>T.V</t>
+  </si>
+  <si>
+    <t>R.I</t>
+  </si>
+  <si>
+    <t>R.II</t>
+  </si>
+  <si>
+    <t>R.III</t>
+  </si>
+  <si>
+    <t>R.IV</t>
+  </si>
+  <si>
+    <t>R.V</t>
+  </si>
+  <si>
+    <t>R.VI</t>
+  </si>
+  <si>
+    <t>Primitif</t>
+  </si>
+  <si>
+    <t>T.0</t>
+  </si>
+  <si>
+    <t>Organisé</t>
+  </si>
+  <si>
+    <t>Les facultés intellectuelles de cette race ne sont pas suffisamment développées pour espérer former une civilisation sans au moins plusieurs millions d'années d'évolution</t>
+  </si>
+  <si>
+    <t>Capable de collaborer entre individus et de confectionner des outils les plus simples, ce peuple n'a néanmoins pas formé de civilisation au-delà de la simple tribu</t>
+  </si>
+  <si>
+    <t>De nombreuses cité-états et des premiers empires organisent ce peuple en autant de civilisations souvent éphémères</t>
+  </si>
+  <si>
+    <t>La balbutiements de la science et de la technique fournissent à ce peuple une compréhension grandissante du monde et des empires s'étendant à travers la planète</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La maîtrise de la mécanique et de </t>
+  </si>
+  <si>
+    <t>&lt; 4500</t>
+  </si>
+  <si>
+    <t>-4500 &gt; 1400</t>
+  </si>
+  <si>
+    <t>1400 &gt; 1800</t>
+  </si>
+  <si>
+    <t>1800 &gt; 1920</t>
+  </si>
+  <si>
+    <t>1920 &gt; 2050</t>
+  </si>
+  <si>
+    <t>2050 &gt; …</t>
+  </si>
+  <si>
+    <t>IA Illégales</t>
+  </si>
+  <si>
+    <t>Illicits</t>
+  </si>
+  <si>
+    <t>100Mo Pop</t>
+  </si>
+  <si>
+    <t># URBAN CONSUMPTION</t>
+  </si>
+  <si>
+    <t>Esclaves</t>
+  </si>
+  <si>
+    <t>available_from_start</t>
+  </si>
+  <si>
+    <t>food_subtitute</t>
+  </si>
+  <si>
+    <t>food_synthetic</t>
+  </si>
+  <si>
+    <t>food_standard</t>
+  </si>
+  <si>
+    <t>food_luxury</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>surival_equipment</t>
+  </si>
+  <si>
+    <t>terraform_equipment</t>
+  </si>
+  <si>
+    <t>consumer_goods_rudimentary</t>
+  </si>
+  <si>
+    <t>consumer_goods_modern</t>
+  </si>
+  <si>
+    <t>consumer_goods_advanced</t>
+  </si>
+  <si>
+    <t>clothes_rudimentary</t>
+  </si>
+  <si>
+    <t>clothes_luxury</t>
+  </si>
+  <si>
+    <t>clothes_selfcleaning</t>
+  </si>
+  <si>
+    <t>clothes_adaptatives</t>
+  </si>
+  <si>
+    <t>medicine_traditional</t>
+  </si>
+  <si>
+    <t>medicine_</t>
+  </si>
+  <si>
+    <t>medicine_modern</t>
+  </si>
+  <si>
+    <t>medicine_advanced</t>
+  </si>
+  <si>
+    <t>illicit_drug_hard</t>
+  </si>
+  <si>
+    <t>illicit_drug_soft</t>
+  </si>
+  <si>
+    <t>illicit_organs</t>
+  </si>
+  <si>
+    <t>illicit_slaves</t>
+  </si>
+  <si>
+    <t>illicit_ai</t>
+  </si>
+  <si>
+    <t>transport_car</t>
+  </si>
+  <si>
+    <t>transport_collective</t>
+  </si>
+  <si>
+    <t>transport_plane</t>
+  </si>
+  <si>
+    <t>transport_spaceshuttle</t>
+  </si>
+  <si>
+    <t>name_fr</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>tools_farming</t>
+  </si>
+  <si>
+    <t>tools_farming_robot</t>
+  </si>
+  <si>
+    <t>Machines industrielles</t>
+  </si>
+  <si>
+    <t>Robot industriels</t>
+  </si>
+  <si>
+    <t>tools_industrial</t>
+  </si>
+  <si>
+    <t>tools_industrial_robot</t>
+  </si>
+  <si>
+    <t>electronical_quantum_communicator</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>electronical_quantic_processor</t>
+  </si>
+  <si>
+    <t>electronical_components</t>
+  </si>
+  <si>
+    <t>computer_low_tech</t>
+  </si>
+  <si>
+    <t>computer_high_tech</t>
+  </si>
+  <si>
+    <t>computer_ultra_tech</t>
+  </si>
+  <si>
+    <t>computer_singularity_tech</t>
+  </si>
+  <si>
+    <t>computer_medium_tech</t>
+  </si>
+  <si>
+    <t>Ultra-Tech</t>
+  </si>
+  <si>
+    <t># ELECTRONICS</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>tungsten</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Terres Rares</t>
+  </si>
+  <si>
+    <t>common_metal</t>
+  </si>
+  <si>
+    <t>rare_earth</t>
+  </si>
+  <si>
+    <t>beryllium</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>Super-alliages</t>
+  </si>
+  <si>
+    <t>Hyper-alliages</t>
+  </si>
+  <si>
+    <t>Composants electroniques</t>
+  </si>
+  <si>
+    <t>Processeurs quantiques</t>
+  </si>
+  <si>
+    <t>Communicateur quantique</t>
+  </si>
+  <si>
+    <t>Ordinateurs low-Tech</t>
+  </si>
+  <si>
+    <t>Ordinateurs middle-Tech</t>
+  </si>
+  <si>
+    <t>Ordinateurs high-Tech</t>
+  </si>
+  <si>
+    <t>Ordinateurs singularity-Tech</t>
+  </si>
+  <si>
+    <t>Ordinateurs ultra-Tech</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Alloy</t>
+  </si>
+  <si>
+    <t>Super-alloy</t>
+  </si>
+  <si>
+    <t>Hyper-alloy</t>
+  </si>
+  <si>
+    <t># BASIC RESOURCES</t>
+  </si>
+  <si>
+    <t># ALLOY</t>
+  </si>
+  <si>
+    <t>uranium</t>
+  </si>
+  <si>
+    <t>enriched_uranium</t>
+  </si>
+  <si>
+    <t>hydrocarbons</t>
+  </si>
+  <si>
+    <t>Hydrocarbures</t>
+  </si>
+  <si>
+    <t># INTERMEDIARY</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>terraformation_gaz</t>
+  </si>
+  <si>
+    <t>Gas de terraformation</t>
+  </si>
+  <si>
+    <t>Alloys</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>construction_materials</t>
+  </si>
+  <si>
+    <t>Matériaux de construction</t>
+  </si>
+  <si>
+    <t># ROBOTS</t>
+  </si>
+  <si>
+    <t>Miniaturization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2939,6 +3424,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2984,7 +3503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3205,11 +3724,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3285,6 +3830,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3300,6 +3860,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3312,6 +3878,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7045,6 +7622,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit avec flèche 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB2B130-D627-4A0C-9551-F240E57BE459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1200150" y="3314700"/>
+          <a:ext cx="3181350" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7314,9 +7944,10 @@
   <dimension ref="A1:P384"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7344,7 +7975,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>146</v>
@@ -8917,17 +9548,17 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -9120,7 +9751,7 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D187" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
@@ -9266,7 +9897,7 @@
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
@@ -9336,522 +9967,522 @@
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B305" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="306" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="307" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="19" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="309" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B311" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -9889,6 +10520,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10028,6 +10660,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L9" sqref="L9:N32"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10643,6 +11276,7 @@
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10665,34 +11299,34 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="51" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -10866,6 +11500,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="1">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10968,18 +11605,18 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10993,12 +11630,393 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91323A4E-CCD2-4FF7-9D4F-85F20DA5AE48}">
+  <dimension ref="B3:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="47"/>
+    <col min="2" max="2" width="6.140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="47"/>
+    <col min="5" max="5" width="14.28515625" style="49"/>
+    <col min="6" max="7" width="14.28515625" style="47"/>
+    <col min="8" max="8" width="7.7109375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="47" customWidth="1"/>
+    <col min="10" max="12" width="14.28515625" style="47"/>
+    <col min="13" max="13" width="8.5703125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" style="47" customWidth="1"/>
+    <col min="15" max="16384" width="14.28515625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B3" s="48" t="s">
+        <v>972</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>936</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>971</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>973</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>981</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>970</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>982</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B6" s="48" t="s">
+        <v>969</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>946</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B7" s="48" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B8" s="48" t="s">
+        <v>967</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>947</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B9" s="48" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>986</v>
+      </c>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B10" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B11" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>949</v>
+      </c>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B12" s="48" t="s">
+        <v>964</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>950</v>
+      </c>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B13" s="48" t="s">
+        <v>965</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B14" s="48" t="s">
+        <v>966</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>951</v>
+      </c>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B24" s="48" t="s">
+        <v>935</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>936</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48" t="s">
+        <v>952</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B25" s="48" t="s">
+        <v>937</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>946</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B26" s="48" t="s">
+        <v>938</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48" t="s">
+        <v>954</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B27" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>947</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48" t="s">
+        <v>955</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B28" s="48" t="s">
+        <v>940</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48" t="s">
+        <v>956</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B29" s="48" t="s">
+        <v>941</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48" t="s">
+        <v>957</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B30" s="48" t="s">
+        <v>942</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>949</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48" t="s">
+        <v>958</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B31" s="48" t="s">
+        <v>943</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>950</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48" t="s">
+        <v>959</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B32" s="48" t="s">
+        <v>944</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>951</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48" t="s">
+        <v>960</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B33" s="48" t="s">
+        <v>945</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>951</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48" t="s">
+        <v>961</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D22487-644E-4B42-9A8A-B5107716524C}">
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11010,94 +12028,94 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -11106,12 +12124,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF702CCC-AF75-4717-ACFB-3CC6C4991068}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+    <sheetView topLeftCell="E1" workbookViewId="1">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11127,10 +12148,10 @@
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
@@ -11141,16 +12162,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11158,16 +12179,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11175,13 +12196,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -11189,16 +12210,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J7" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11206,35 +12227,35 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J9" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
@@ -11245,10 +12266,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11256,10 +12277,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11267,13 +12288,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11281,24 +12302,24 @@
         <v>4</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J17" s="21" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -11306,10 +12327,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -11317,10 +12338,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -11328,10 +12349,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -11339,13 +12360,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -11353,15 +12374,15 @@
         <v>9</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G25" s="21" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -11369,25 +12390,25 @@
         <v>10</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G26" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="J26" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="K26" s="23" t="s">
         <v>725</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -11395,25 +12416,25 @@
         <v>11</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G27" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="J27" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="K27" s="23" t="s">
         <v>726</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>728</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -11421,10 +12442,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -11432,25 +12453,25 @@
         <v>13</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G29" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="K29" s="21" t="s">
         <v>716</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -11458,25 +12479,25 @@
         <v>14</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G30" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>732</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>735</v>
-      </c>
       <c r="K30" s="21" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -11484,25 +12505,25 @@
         <v>15</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -11510,25 +12531,25 @@
         <v>16</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -11536,10 +12557,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -11547,10 +12568,10 @@
         <v>18</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -11558,10 +12579,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -11569,10 +12590,10 @@
         <v>20</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -11580,15 +12601,15 @@
         <v>21</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40" s="22" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -11596,10 +12617,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -11607,10 +12628,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -11618,10 +12639,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -11629,10 +12650,10 @@
         <v>11</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -11640,10 +12661,10 @@
         <v>12</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -11651,10 +12672,10 @@
         <v>13</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -11662,10 +12683,10 @@
         <v>14</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -11673,10 +12694,10 @@
         <v>15</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -11684,10 +12705,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -11695,10 +12716,10 @@
         <v>18</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -11707,12 +12728,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CB1DF-D23F-4AAE-96B5-181EBEC611E6}">
   <dimension ref="A3:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="1">
+      <selection activeCell="G37" sqref="G37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11742,234 +12766,229 @@
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="18" t="s">
-        <v>398</v>
+        <v>1025</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>399</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K13" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="21" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="18" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="21" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="21" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="21" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="21" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="21" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="21" t="s">
-        <v>775</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="21" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="21" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="21" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="21" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -11984,9 +13003,10 @@
   <dimension ref="A1:S497"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12023,7 +13043,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>146</v>
@@ -12032,40 +13052,40 @@
         <v>155</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>839</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>840</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>841</v>
-      </c>
-      <c r="I1" s="33" t="s">
+      <c r="K1" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>844</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>845</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>850</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>854</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>855</v>
       </c>
       <c r="S1" s="30"/>
     </row>
@@ -12074,24 +13094,24 @@
         <v>189</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="45" t="s">
-        <v>842</v>
-      </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45" t="s">
+      <c r="G2" s="52" t="s">
+        <v>837</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52" t="s">
+        <v>846</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="45" t="s">
-        <v>856</v>
-      </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="47"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
       <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12099,38 +13119,38 @@
         <v>189</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="45" t="s">
-        <v>843</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49" t="s">
-        <v>846</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="45" t="s">
-        <v>843</v>
-      </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49" t="s">
-        <v>846</v>
-      </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="45" t="s">
-        <v>843</v>
-      </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49" t="s">
-        <v>846</v>
-      </c>
-      <c r="R3" s="47"/>
+      <c r="G3" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56" t="s">
+        <v>841</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56" t="s">
+        <v>841</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56" t="s">
+        <v>841</v>
+      </c>
+      <c r="R3" s="54"/>
       <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -12139,13 +13159,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K6" s="37">
         <v>0</v>
@@ -12162,13 +13182,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K7" s="37">
         <v>0.6</v>
@@ -12197,13 +13217,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K8" s="37">
         <v>0.8</v>
@@ -12232,13 +13252,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K10" s="37">
         <v>1</v>
@@ -12249,57 +13269,57 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -12308,158 +13328,158 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -12467,79 +13487,79 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -14434,17 +15454,17 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="37" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -14637,7 +15657,7 @@
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D300" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
@@ -14783,7 +15803,7 @@
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
@@ -14853,522 +15873,522 @@
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C371" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B419" s="19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B420" s="19" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B422" s="19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B424" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -15412,176 +16432,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q7:U16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="7.5703125" style="1"/>
+    <col min="1" max="1" width="34.5703125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14" style="18" customWidth="1"/>
+    <col min="7" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:22" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>992</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="57" t="s">
+        <v>934</v>
+      </c>
+      <c r="G2" s="46">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46">
+        <v>1</v>
+      </c>
+      <c r="I2" s="46">
+        <v>2</v>
+      </c>
+      <c r="J2" s="46">
+        <v>3</v>
+      </c>
+      <c r="K2" s="46">
+        <v>4</v>
+      </c>
+      <c r="L2" s="46">
+        <v>5</v>
+      </c>
+      <c r="M2" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+      <c r="C7" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>642</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -15592,25 +16588,66 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
+        <v>995</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>642</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -15621,629 +16658,1881 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C23" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E24" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" ref="Q35:Q36" si="0">100000000*J35</f>
+        <v>5000000</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" ref="R35:R36" si="1">100000000*K35</f>
+        <v>5000000</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" ref="S35:S36" si="2">100000000*L35</f>
+        <v>5000000</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" ref="T35:T36" si="3">100000000*M35</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q37" s="1">
+        <f>100000000*J37</f>
+        <v>6000</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" ref="R37:T37" si="4">100000000*K37</f>
+        <v>4000.0000000000005</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="4"/>
+        <v>1000.0000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="J38" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M38" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="Q38" s="1">
+        <f>100000000*J38</f>
+        <v>500.00000000000006</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" ref="R38:T38" si="5">100000000*K38</f>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="5"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
         <v>0.1</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J49" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3</v>
+      </c>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="N53" s="17"/>
+    </row>
+    <row r="54" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="17"/>
+    </row>
+    <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C68" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
         <v>0.5</v>
       </c>
-      <c r="D29" s="1">
+      <c r="I68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
+      <c r="K69" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="L69" s="1">
         <v>1.5</v>
       </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>746</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="M69" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
         <v>0.5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="K70" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1">
+      <c r="L70" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M70" s="1">
         <v>1.5</v>
       </c>
-      <c r="H30" s="1">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B31" s="18" t="s">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="G31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H36" s="1">
-        <v>2</v>
-      </c>
-      <c r="I36" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1E-3</v>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A125" s="67" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="iconSet" priority="1">
+  <mergeCells count="1">
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -16253,8 +18542,30 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:I2">
-    <cfRule type="iconSet" priority="4">
+  <conditionalFormatting sqref="H2:M2">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1 N1:O1">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -16276,6 +18587,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16287,10 +18599,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>190</v>
@@ -16298,18 +18610,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B3" s="18">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B5" s="18">
         <v>10</v>
@@ -16317,7 +18629,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B6" s="18">
         <v>10</v>
@@ -16325,48 +18637,48 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B9" s="18">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -16388,6 +18700,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16399,31 +18712,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>190</v>
@@ -16431,39 +18744,39 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
@@ -16490,12 +18803,12 @@
         <v>0.1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B5" s="1">
         <v>350</v>
@@ -16524,7 +18837,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B6" s="1">
         <v>1000</v>
@@ -16553,12 +18866,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -16587,7 +18900,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -16616,12 +18929,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -16650,7 +18963,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B15" s="1">
         <v>0.95550000000000002</v>
@@ -16679,7 +18992,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B16" s="1">
         <v>5.0000000000000001E-3</v>
@@ -16708,12 +19021,12 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B18" s="1">
         <v>5.0000000000000001E-4</v>
@@ -16742,7 +19055,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B19" s="1">
         <v>5.0000000000000001E-3</v>
@@ -16771,7 +19084,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B20" s="1">
         <v>0.01</v>
@@ -16800,7 +19113,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B21" s="1">
         <v>0.02</v>
@@ -16829,7 +19142,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B22" s="1">
         <v>1E-3</v>
@@ -16858,7 +19171,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B23" s="1">
         <v>1E-3</v>
@@ -16887,7 +19200,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B24" s="1">
         <v>1E-3</v>
@@ -16916,7 +19229,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B25" s="1">
         <v>1E-3</v>
@@ -17035,7 +19348,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B36" s="1">
         <f>(B5+B6)/2</f>
@@ -17072,7 +19385,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ref="B38:D49" si="1">B14*B$36</f>
@@ -17109,7 +19422,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -17146,7 +19459,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
@@ -17183,7 +19496,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -17220,7 +19533,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -17257,7 +19570,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -17294,7 +19607,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -17331,7 +19644,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -17368,7 +19681,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -17405,7 +19718,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -17442,7 +19755,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -17479,7 +19792,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -17527,6 +19840,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17539,43 +19853,43 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Q1" s="25" t="s">
         <v>190</v>
@@ -17583,15 +19897,15 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -17624,12 +19938,12 @@
         <v>0</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B6" s="1">
         <v>1.0000000000000001E-5</v>
@@ -17641,12 +19955,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B7" s="1">
         <v>4.0000000000000001E-3</v>
@@ -17666,7 +19980,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B8" s="1">
         <v>9.9999999999999995E-8</v>
@@ -17686,7 +20000,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B9" s="1">
         <v>1E-3</v>
@@ -17709,7 +20023,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B10" s="1">
         <v>7.0000000000000001E-3</v>
@@ -17732,7 +20046,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B11" s="1">
         <v>0.02</v>
@@ -17764,7 +20078,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B12" s="1">
         <v>3.5000000000000003E-2</v>
@@ -17796,7 +20110,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B13" s="1">
         <v>0.08</v>
@@ -17828,7 +20142,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="1">
         <v>0.8</v>
@@ -17851,7 +20165,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B15" s="1">
         <v>1.9999999999999999E-6</v>
@@ -17866,12 +20180,12 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="25" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -17882,7 +20196,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D17" s="1">
         <v>0.01</v>
@@ -17899,7 +20213,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B18" s="1">
         <v>0.05</v>
@@ -17916,7 +20230,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D19" s="1">
         <v>2E-3</v>
@@ -17927,7 +20241,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K20" s="1">
         <v>0.8</v>
@@ -17935,7 +20249,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K21" s="1">
         <v>0.2</v>
@@ -17943,7 +20257,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B22" s="1">
         <v>6.4000000000000005E-4</v>
@@ -17954,7 +20268,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18014,7 +20328,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B34" s="26">
         <v>1000</v>
@@ -18022,7 +20336,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:N51" si="1">IF(B6*$B$34&lt;&gt;0, B6*$B$34, "")</f>
@@ -18079,7 +20393,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
@@ -18136,7 +20450,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
@@ -18193,7 +20507,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -18250,7 +20564,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
@@ -18307,7 +20621,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -18364,7 +20678,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -18421,7 +20735,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -18478,7 +20792,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -18535,7 +20849,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -18592,7 +20906,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -18649,7 +20963,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -18706,7 +21020,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -18763,7 +21077,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -18820,7 +21134,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -18877,7 +21191,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -18934,7 +21248,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ref="B52:J53" si="2">IF(B22*$B$34&lt;&gt;0, B22*$B$34, "")</f>
@@ -18991,7 +21305,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19072,6 +21386,7 @@
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19083,61 +21398,61 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>190</v>
@@ -19145,58 +21460,58 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B8" s="1">
         <v>0.9</v>
@@ -19255,7 +21570,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -19314,7 +21629,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -19373,7 +21688,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -19432,7 +21747,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -19491,7 +21806,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B14" s="1">
         <v>0.9</v>
@@ -19553,7 +21868,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B16" s="1">
         <v>0.6</v>
@@ -19612,7 +21927,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -19671,7 +21986,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B18" s="1">
         <v>0.1</v>
@@ -19733,7 +22048,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B20" s="1">
         <v>0.9</v>
@@ -19792,7 +22107,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B21" s="1">
         <v>0.1</v>
@@ -19851,7 +22166,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -19910,7 +22225,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -19969,7 +22284,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -20028,7 +22343,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B26" s="1">
         <v>0.8</v>
@@ -20345,6 +22660,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -20359,6 +22675,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20368,34 +22685,34 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB92A76-CB9B-4630-B55F-301BC114DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B611F10-5316-4D3F-A2C4-FC6DA94A8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView minimized="1" xWindow="10860" yWindow="0" windowWidth="9675" windowHeight="11385" firstSheet="12" activeTab="16" xr2:uid="{49DBEFA7-9065-45DF-89F8-4E8FB4FD7B01}"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B611F10-5316-4D3F-A2C4-FC6DA94A8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55FCA78-F51D-4B94-BC4A-4F53B878512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView minimized="1" xWindow="10860" yWindow="0" windowWidth="9675" windowHeight="11385" firstSheet="12" activeTab="16" xr2:uid="{49DBEFA7-9065-45DF-89F8-4E8FB4FD7B01}"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55FCA78-F51D-4B94-BC4A-4F53B878512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCCBD44-010E-4A41-A967-8B74C46B491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView minimized="1" xWindow="10860" yWindow="0" windowWidth="9675" windowHeight="11385" firstSheet="12" activeTab="16" xr2:uid="{49DBEFA7-9065-45DF-89F8-4E8FB4FD7B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -3049,9 +3048,6 @@
     <t>oxygen</t>
   </si>
   <si>
-    <t>surival_equipment</t>
-  </si>
-  <si>
     <t>terraform_equipment</t>
   </si>
   <si>
@@ -3296,6 +3292,9 @@
   </si>
   <si>
     <t>Miniaturization</t>
+  </si>
+  <si>
+    <t>survival_equipment</t>
   </si>
 </sst>
 </file>
@@ -7947,7 +7946,6 @@
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10520,7 +10518,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10660,7 +10657,6 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L9" sqref="L9:N32"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11276,7 +11272,6 @@
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11500,9 +11495,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
-    <sheetView topLeftCell="A4" workbookViewId="1">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11634,9 +11626,6 @@
   <dimension ref="B3:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11780,7 +11769,7 @@
         <v>965</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L13" s="48"/>
     </row>
@@ -12016,7 +12005,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12130,9 +12118,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
-    </sheetView>
-    <sheetView topLeftCell="E1" workbookViewId="1">
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12734,9 +12719,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="1">
-      <selection activeCell="G37" sqref="G37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12790,7 +12772,7 @@
     </row>
     <row r="10" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>748</v>
@@ -12801,7 +12783,7 @@
         <v>394</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13006,7 +12988,6 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16435,9 +16416,8 @@
   <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q7:U16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16461,10 +16441,10 @@
         <v>926</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>1021</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>1022</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>992</v>
@@ -16781,7 +16761,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>999</v>
+        <v>1081</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>397</v>
@@ -16813,7 +16793,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>397</v>
@@ -16851,7 +16831,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>741</v>
@@ -16888,7 +16868,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>741</v>
@@ -16923,7 +16903,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>741</v>
@@ -16958,7 +16938,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>401</v>
@@ -16993,7 +16973,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>401</v>
@@ -17028,7 +17008,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>401</v>
@@ -17063,7 +17043,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>401</v>
@@ -17111,7 +17091,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>919</v>
@@ -17127,7 +17107,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>919</v>
@@ -17143,7 +17123,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>919</v>
@@ -17157,7 +17137,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>919</v>
@@ -17186,7 +17166,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>988</v>
@@ -17239,7 +17219,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>988</v>
@@ -17289,7 +17269,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>988</v>
@@ -17339,7 +17319,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>988</v>
@@ -17381,7 +17361,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>988</v>
@@ -17500,7 +17480,7 @@
     </row>
     <row r="46" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>406</v>
@@ -17538,7 +17518,7 @@
     </row>
     <row r="47" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>406</v>
@@ -17576,7 +17556,7 @@
     </row>
     <row r="48" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>406</v>
@@ -17612,7 +17592,7 @@
     </row>
     <row r="49" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>406</v>
@@ -17696,7 +17676,7 @@
     </row>
     <row r="53" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>400</v>
@@ -17734,7 +17714,7 @@
     </row>
     <row r="54" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>400</v>
@@ -17770,13 +17750,13 @@
     </row>
     <row r="55" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18" t="s">
@@ -17808,13 +17788,13 @@
     </row>
     <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -17892,7 +17872,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -17903,13 +17883,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
@@ -17940,13 +17920,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -17954,13 +17934,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>1030</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -17978,13 +17958,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="18" t="s">
@@ -18015,13 +17995,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -18050,13 +18030,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
@@ -18085,13 +18065,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -18120,13 +18100,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -18175,7 +18155,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -18189,10 +18169,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>614</v>
@@ -18204,10 +18184,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>618</v>
@@ -18218,10 +18198,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>616</v>
@@ -18236,10 +18216,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>767</v>
@@ -18247,21 +18227,21 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>1043</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>550</v>
@@ -18269,10 +18249,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>754</v>
@@ -18289,7 +18269,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -18297,10 +18277,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>753</v>
@@ -18311,10 +18291,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>765</v>
@@ -18322,24 +18302,24 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -18361,10 +18341,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>732</v>
@@ -18375,10 +18355,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>750</v>
@@ -18389,32 +18369,32 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C102" s="18" t="s">
         <v>1067</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>1071</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>747</v>
@@ -18432,7 +18412,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -18440,10 +18420,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>642</v>
@@ -18451,7 +18431,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>766</v>
@@ -18462,10 +18442,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>1074</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -18473,7 +18453,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -18484,7 +18464,7 @@
         <v>261</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>760</v>
@@ -18495,7 +18475,7 @@
         <v>262</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>761</v>
@@ -18506,7 +18486,7 @@
         <v>263</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>762</v>
@@ -18587,7 +18567,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18700,7 +18679,6 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19840,7 +19818,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21386,7 +21363,6 @@
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22660,7 +22636,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -22675,7 +22650,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCCBD44-010E-4A41-A967-8B74C46B491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9EF446-DE1D-4497-8133-D9248185473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1084">
   <si>
     <t>LINE</t>
   </si>
@@ -3295,6 +3295,12 @@
   </si>
   <si>
     <t>survival_equipment</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>images/resources/resource.png</t>
   </si>
 </sst>
 </file>
@@ -3753,7 +3759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3844,6 +3850,17 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3877,17 +3894,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11294,34 +11301,34 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="60" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="60" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -13075,24 +13082,24 @@
         <v>189</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="57" t="s">
         <v>837</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57" t="s">
         <v>846</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="52" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
         <v>851</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
       <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13100,30 +13107,30 @@
         <v>189</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="57" t="s">
         <v>838</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="61" t="s">
         <v>841</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="57" t="s">
         <v>838</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="61" t="s">
         <v>841</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>838</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61" t="s">
         <v>841</v>
       </c>
-      <c r="R3" s="54"/>
+      <c r="R3" s="59"/>
       <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -16413,154 +16420,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="66" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14" style="18" customWidth="1"/>
-    <col min="7" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="7.5703125" style="1"/>
+    <col min="1" max="1" width="34.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="8" style="55" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14" style="18" customWidth="1"/>
+    <col min="8" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>1020</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>1021</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="54" t="s">
         <v>992</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="33"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="30"/>
+    </row>
+    <row r="2" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="62" t="s">
         <v>934</v>
       </c>
-      <c r="G2" s="46">
+      <c r="H2" s="46">
         <v>0</v>
       </c>
-      <c r="H2" s="46">
+      <c r="I2" s="46">
         <v>1</v>
       </c>
-      <c r="I2" s="46">
+      <c r="J2" s="46">
         <v>2</v>
       </c>
-      <c r="J2" s="46">
+      <c r="K2" s="46">
         <v>3</v>
       </c>
-      <c r="K2" s="46">
+      <c r="L2" s="46">
         <v>4</v>
       </c>
-      <c r="L2" s="46">
+      <c r="M2" s="46">
         <v>5</v>
       </c>
-      <c r="M2" s="46">
+      <c r="N2" s="46">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>993</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -16580,22 +16593,25 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>994</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -16615,22 +16631,25 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>995</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -16650,22 +16669,25 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>996</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -16685,25 +16707,29 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>997</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -16723,22 +16749,25 @@
       <c r="M12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>998</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>5</v>
@@ -16758,31 +16787,34 @@
       <c r="M13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.02</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.01</v>
       </c>
       <c r="L14" s="1">
         <v>0.01</v>
@@ -16790,19 +16822,22 @@
       <c r="M14" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>999</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>918</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -16822,97 +16857,108 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="1">
+      <c r="G18" s="17"/>
+      <c r="H18" s="1">
         <v>0.5</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>1.5</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>2.5</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>0.5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1.5</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>743</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -16920,37 +16966,42 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <v>0.5</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.2</v>
       </c>
       <c r="H23" s="1">
         <v>0.2</v>
@@ -16970,25 +17021,28 @@
       <c r="M23" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.2</v>
       </c>
       <c r="I24" s="1">
         <v>0.2</v>
@@ -17005,25 +17059,28 @@
       <c r="M24" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
         <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.2</v>
       </c>
       <c r="I25" s="1">
         <v>0.2</v>
@@ -17040,24 +17097,27 @@
       <c r="M25" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
         <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.2</v>
       </c>
       <c r="I26" s="1">
         <v>0.2</v>
@@ -17074,114 +17134,133 @@
       <c r="M26" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="Q34" s="1" t="s">
+      <c r="G34" s="1"/>
+      <c r="R34" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1">
         <v>0.05</v>
       </c>
@@ -17200,41 +17279,44 @@
       <c r="M35" s="1">
         <v>0.05</v>
       </c>
-      <c r="Q35" s="1">
-        <f t="shared" ref="Q35:Q36" si="0">100000000*J35</f>
+      <c r="N35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" ref="R35:R36" si="0">100000000*K35</f>
         <v>5000000</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" ref="R35:R36" si="1">100000000*K35</f>
+      <c r="S35" s="1">
+        <f t="shared" ref="S35:S36" si="1">100000000*L35</f>
         <v>5000000</v>
       </c>
-      <c r="S35" s="1">
-        <f t="shared" ref="S35:S36" si="2">100000000*L35</f>
+      <c r="T35" s="1">
+        <f t="shared" ref="T35:T36" si="2">100000000*M35</f>
         <v>5000000</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" ref="T35:T36" si="3">100000000*M35</f>
+      <c r="U35" s="1">
+        <f t="shared" ref="U35:U36" si="3">100000000*N35</f>
         <v>5000000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="H36" s="1">
-        <v>0.01</v>
-      </c>
+      <c r="G36" s="1"/>
       <c r="I36" s="1">
         <v>0.01</v>
       </c>
@@ -17250,130 +17332,141 @@
       <c r="M36" s="1">
         <v>0.01</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="N36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="R36" s="1">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="R36" s="1">
+      <c r="S36" s="1">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="H37" s="1">
+      <c r="G37" s="1"/>
+      <c r="I37" s="1">
         <v>1E-4</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Q37" s="1">
-        <f>100000000*J37</f>
+      <c r="R37" s="1">
+        <f>100000000*K37</f>
         <v>6000</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" ref="R37:T37" si="4">100000000*K37</f>
+      <c r="S37" s="1">
+        <f t="shared" ref="S37:U37" si="4">100000000*L37</f>
         <v>4000.0000000000005</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <f t="shared" si="4"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <f t="shared" si="4"/>
         <v>1000.0000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="J38" s="1">
+      <c r="G38" s="1"/>
+      <c r="K38" s="1">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="Q38" s="1">
-        <f>100000000*J38</f>
+      <c r="R38" s="1">
+        <f>100000000*K38</f>
         <v>500.00000000000006</v>
       </c>
-      <c r="R38" s="1">
-        <f t="shared" ref="R38:T38" si="5">100000000*K38</f>
+      <c r="S38" s="1">
+        <f t="shared" ref="S38:U38" si="5">100000000*L38</f>
         <v>1000.0000000000001</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <f t="shared" si="5"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -17382,10 +17475,11 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="1"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -17397,10 +17491,11 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -17413,10 +17508,11 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
-    </row>
-    <row r="42" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="17"/>
+    </row>
+    <row r="42" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="1"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -17428,12 +17524,13 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
-    </row>
-    <row r="43" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="17"/>
+    </row>
+    <row r="43" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="B43" s="1"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -17445,10 +17542,11 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-    </row>
-    <row r="44" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="17"/>
+    </row>
+    <row r="44" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -17461,79 +17559,86 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="17"/>
-    </row>
-    <row r="46" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="1"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="1">
+      <c r="G46" s="18"/>
+      <c r="H46" s="1">
         <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.5</v>
       </c>
       <c r="I46" s="1">
         <v>0.5</v>
       </c>
       <c r="J46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="1">
         <v>0.4</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>0.3</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.2</v>
       </c>
       <c r="M46" s="1">
         <v>0.2</v>
       </c>
-      <c r="N46" s="17"/>
-    </row>
-    <row r="47" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O46" s="17"/>
+    </row>
+    <row r="47" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
+      <c r="G47" s="18"/>
       <c r="H47" s="1">
         <v>0</v>
       </c>
@@ -17552,24 +17657,27 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="17"/>
-    </row>
-    <row r="48" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="17"/>
+    </row>
+    <row r="48" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
+      <c r="G48" s="18"/>
       <c r="H48" s="1">
         <v>0</v>
       </c>
@@ -17588,110 +17696,119 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="17"/>
-    </row>
-    <row r="49" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="D49" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
+      <c r="G49" s="18"/>
       <c r="H49" s="1">
         <v>0</v>
       </c>
       <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
         <v>0.1</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>0.5</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>1</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>2</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>3</v>
       </c>
-      <c r="N49" s="17"/>
-    </row>
-    <row r="50" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="17"/>
+    </row>
+    <row r="50" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="18"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="1"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="18"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="18"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="17"/>
-    </row>
-    <row r="52" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="18"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="17"/>
-    </row>
-    <row r="53" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+      <c r="O52" s="17"/>
+    </row>
+    <row r="53" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="18"/>
+      <c r="F53" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="G53" s="18"/>
       <c r="H53" s="1">
         <v>1E-3</v>
       </c>
@@ -17710,24 +17827,27 @@
       <c r="M53" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N53" s="17"/>
-    </row>
-    <row r="54" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="G54" s="18"/>
       <c r="H54" s="1">
         <v>1E-3</v>
       </c>
@@ -17746,26 +17866,29 @@
       <c r="M54" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N54" s="17"/>
-    </row>
-    <row r="55" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="18"/>
+      <c r="F55" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="G55" s="18"/>
       <c r="H55" s="1">
         <v>1E-3</v>
       </c>
@@ -17784,24 +17907,27 @@
       <c r="M55" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N55" s="17"/>
-    </row>
-    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
-      <c r="G56" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="G56" s="18"/>
       <c r="H56" s="1">
         <v>1E-3</v>
       </c>
@@ -17820,27 +17946,31 @@
       <c r="M56" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N56" s="17"/>
-    </row>
-    <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="18"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="17"/>
-    </row>
-    <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="17"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -17853,10 +17983,11 @@
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="17"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -17869,113 +18000,128 @@
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>1050</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17"/>
+      <c r="F63" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="1">
+      <c r="G63" s="17"/>
+      <c r="H63" s="1">
         <v>0.1</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>0.2</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>0.5</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>1</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>1.5</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>2</v>
       </c>
-      <c r="M63" s="1">
+      <c r="N63" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>1053</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17"/>
+      <c r="F68" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="1">
+      <c r="G68" s="17"/>
+      <c r="H68" s="1">
         <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.5</v>
       </c>
       <c r="I68" s="1">
         <v>0.5</v>
@@ -17992,58 +18138,64 @@
       <c r="M68" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>1054</v>
       </c>
-      <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
+      <c r="G69" s="17"/>
       <c r="H69" s="1">
         <v>0</v>
       </c>
       <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
         <v>0.5</v>
       </c>
-      <c r="J69" s="1">
+      <c r="K69" s="1">
         <v>1</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>1.25</v>
       </c>
-      <c r="L69" s="1">
+      <c r="M69" s="1">
         <v>1.5</v>
       </c>
-      <c r="M69" s="1">
+      <c r="N69" s="1">
         <v>1.75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="D70" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
+      <c r="G70" s="17"/>
       <c r="H70" s="1">
         <v>0</v>
       </c>
@@ -18051,34 +18203,37 @@
         <v>0</v>
       </c>
       <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
         <v>0.5</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>1</v>
       </c>
-      <c r="L70" s="1">
+      <c r="M70" s="1">
         <v>1.25</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="D71" s="17" t="s">
         <v>1057</v>
       </c>
-      <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
+      <c r="G71" s="17"/>
       <c r="H71" s="1">
         <v>0</v>
       </c>
@@ -18089,31 +18244,34 @@
         <v>0</v>
       </c>
       <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
         <v>0.5</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>1</v>
       </c>
-      <c r="M71" s="1">
+      <c r="N71" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="D72" s="17" t="s">
         <v>1056</v>
       </c>
-      <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
+      <c r="G72" s="17"/>
       <c r="H72" s="1">
         <v>0</v>
       </c>
@@ -18127,391 +18285,504 @@
         <v>0</v>
       </c>
       <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
         <v>0.1</v>
       </c>
-      <c r="M72" s="1">
+      <c r="N72" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>1062</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="D78" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="1"/>
+      <c r="F78" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="F79" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="D80" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="F80" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="D82" s="18" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="D84" s="18" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="D85" s="18" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="D91" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="F91" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1059</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="D92" s="18" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="D93" s="18" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="D94" s="18" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="D100" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="F100" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="D101" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="F101" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="D102" s="18" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="D103" s="18" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="F110" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="B111" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="F111" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="B112" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="21"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="G117" s="21"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A125" s="67" t="s">
+      <c r="B122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A125" s="56" t="s">
         <v>190</v>
       </c>
+      <c r="B125" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="A125:B125">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -18522,7 +18793,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M2">
+  <conditionalFormatting sqref="I2:N2">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -18533,19 +18804,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1 N1:O1">
+  <conditionalFormatting sqref="S1:T1 O1:P1">
     <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="5Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074F4E96-EE3D-4220-882F-EB02207F9D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84486BF7-34DB-4023-B10A-5A04BAB3CCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15705" activeTab="2" xr2:uid="{1BDC5EDF-2582-476E-A671-A7609C7D14AF}"/>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15705" activeTab="3" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
+    <workbookView xWindow="10515" yWindow="0" windowWidth="18390" windowHeight="15705" activeTab="2" xr2:uid="{1BDC5EDF-2582-476E-A671-A7609C7D14AF}"/>
+    <workbookView xWindow="14370" yWindow="0" windowWidth="14535" windowHeight="15705" activeTab="3" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1153">
   <si>
     <t>LINE</t>
   </si>
@@ -3508,6 +3508,9 @@
   </si>
   <si>
     <t>Miniaturization</t>
+  </si>
+  <si>
+    <t>unlocked_by_technology</t>
   </si>
 </sst>
 </file>
@@ -16697,10 +16700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
     <sheetView topLeftCell="A61" workbookViewId="1">
       <selection activeCell="F36" sqref="F36"/>
@@ -16715,17 +16718,17 @@
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="18" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14" style="18" customWidth="1"/>
-    <col min="10" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.5703125" style="1"/>
-    <col min="19" max="19" width="33.42578125" style="55" customWidth="1"/>
-    <col min="20" max="16384" width="7.5703125" style="1"/>
+    <col min="8" max="9" width="5.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14" style="18" customWidth="1"/>
+    <col min="11" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5703125" style="1"/>
+    <col min="20" max="20" width="33.42578125" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
@@ -16745,111 +16748,116 @@
       <c r="H1" s="54" t="s">
         <v>986</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="54" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J1" s="45"/>
+      <c r="K1" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="11" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="U1" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="32"/>
       <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>912</v>
       </c>
       <c r="H2" s="52"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="66" t="s">
         <v>929</v>
       </c>
-      <c r="J2" s="46">
+      <c r="K2" s="46">
         <v>0</v>
       </c>
-      <c r="K2" s="46">
+      <c r="L2" s="46">
         <v>1</v>
       </c>
-      <c r="L2" s="46">
+      <c r="M2" s="46">
         <v>2</v>
       </c>
-      <c r="M2" s="46">
+      <c r="N2" s="46">
         <v>3</v>
       </c>
-      <c r="N2" s="46">
+      <c r="O2" s="46">
         <v>4</v>
       </c>
-      <c r="O2" s="46">
+      <c r="P2" s="46">
         <v>5</v>
       </c>
-      <c r="P2" s="46">
+      <c r="Q2" s="46">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="H3" s="53"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1109</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>987</v>
       </c>
@@ -16865,9 +16873,6 @@
       <c r="H7" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
@@ -16886,11 +16891,14 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>988</v>
       </c>
@@ -16906,9 +16914,6 @@
       <c r="H8" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
@@ -16927,11 +16932,14 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>989</v>
       </c>
@@ -16947,9 +16955,6 @@
       <c r="H9" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
@@ -16968,11 +16973,14 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>990</v>
       </c>
@@ -16988,9 +16996,6 @@
       <c r="H10" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
@@ -17009,21 +17014,24 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>991</v>
       </c>
@@ -17039,9 +17047,6 @@
       <c r="H13" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
@@ -17060,11 +17065,14 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>992</v>
       </c>
@@ -17080,9 +17088,6 @@
       <c r="H14" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
       <c r="K14" s="1">
         <v>5</v>
       </c>
@@ -17101,11 +17106,14 @@
       <c r="P14" s="1">
         <v>5</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="Q14" s="1">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1068</v>
       </c>
@@ -17118,20 +17126,17 @@
       <c r="F15" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>0.5</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>0.02</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.01</v>
       </c>
       <c r="O15" s="1">
         <v>0.01</v>
@@ -17139,16 +17144,19 @@
       <c r="P15" s="1">
         <v>0.01</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="Q15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>994</v>
       </c>
@@ -17165,33 +17173,33 @@
       <c r="H18" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="1">
+      <c r="J18" s="17"/>
+      <c r="K18" s="1">
         <v>0.5</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>1.5</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>2.5</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>3</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>3.5</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>995</v>
       </c>
@@ -17207,32 +17215,32 @@
       <c r="H19" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>0.5</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>1.5</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>2.5</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>996</v>
       </c>
@@ -17245,39 +17253,39 @@
       <c r="F20" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>0.5</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>1.5</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>997</v>
       </c>
@@ -17293,9 +17301,6 @@
       <c r="H23" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J23" s="1">
-        <v>0.2</v>
-      </c>
       <c r="K23" s="1">
         <v>0.2</v>
       </c>
@@ -17314,11 +17319,14 @@
       <c r="P23" s="1">
         <v>0.2</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="Q23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>998</v>
       </c>
@@ -17334,11 +17342,8 @@
       <c r="H24" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.2</v>
       </c>
       <c r="L24" s="1">
         <v>0.2</v>
@@ -17355,11 +17360,14 @@
       <c r="P24" s="1">
         <v>0.2</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="Q24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>999</v>
       </c>
@@ -17375,11 +17383,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
         <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.2</v>
       </c>
       <c r="L25" s="1">
         <v>0.2</v>
@@ -17396,11 +17402,14 @@
       <c r="P25" s="1">
         <v>0.2</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="Q25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1000</v>
       </c>
@@ -17414,12 +17423,9 @@
         <v>402</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
         <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.2</v>
       </c>
       <c r="L26" s="1">
         <v>0.2</v>
@@ -17436,29 +17442,34 @@
       <c r="P26" s="1">
         <v>0.2</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="Q26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="C28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1001</v>
       </c>
@@ -17475,12 +17486,12 @@
       <c r="H29" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="S29" s="1" t="s">
+      <c r="J29" s="1"/>
+      <c r="T29" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1003</v>
       </c>
@@ -17497,12 +17508,12 @@
       <c r="H30" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="S30" s="1" t="s">
+      <c r="J30" s="1"/>
+      <c r="T30" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1004</v>
       </c>
@@ -17518,11 +17529,12 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="S31" s="1" t="s">
+      <c r="J31" s="1"/>
+      <c r="T31" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1002</v>
       </c>
@@ -17536,29 +17548,32 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="S32" s="1" t="s">
+      <c r="J32" s="1"/>
+      <c r="T32" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>1122</v>
       </c>
@@ -17567,21 +17582,23 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="U36" s="1" t="s">
+      <c r="J36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="V36" s="1" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1006</v>
       </c>
@@ -17598,10 +17615,7 @@
       <c r="H37" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1">
         <v>0.05</v>
       </c>
@@ -17620,27 +17634,30 @@
       <c r="P37" s="1">
         <v>0.05</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="Q37" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="T37" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="U37" s="1">
-        <f t="shared" ref="U37:U38" si="0">100000000*M37</f>
+      <c r="V37" s="1">
+        <f t="shared" ref="V37:V38" si="0">100000000*N37</f>
         <v>5000000</v>
       </c>
-      <c r="V37" s="1">
-        <f t="shared" ref="V37:V38" si="1">100000000*N37</f>
+      <c r="W37" s="1">
+        <f t="shared" ref="W37:W38" si="1">100000000*O37</f>
         <v>5000000</v>
       </c>
-      <c r="W37" s="1">
-        <f t="shared" ref="W37:W38" si="2">100000000*O37</f>
+      <c r="X37" s="1">
+        <f t="shared" ref="X37:X38" si="2">100000000*P37</f>
         <v>5000000</v>
       </c>
-      <c r="X37" s="1">
-        <f t="shared" ref="X37:X38" si="3">100000000*P37</f>
+      <c r="Y37" s="1">
+        <f t="shared" ref="Y37:Y38" si="3">100000000*Q37</f>
         <v>5000000</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1005</v>
       </c>
@@ -17657,10 +17674,7 @@
       <c r="H38" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="K38" s="1">
-        <v>0.01</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="L38" s="1">
         <v>0.01</v>
       </c>
@@ -17676,27 +17690,30 @@
       <c r="P38" s="1">
         <v>0.01</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="Q38" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T38" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="W38" s="1">
+      <c r="X38" s="1">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Y38" s="1">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1007</v>
       </c>
@@ -17713,46 +17730,46 @@
       <c r="H39" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="K39" s="1">
+      <c r="J39" s="1"/>
+      <c r="L39" s="1">
         <v>1E-4</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="U39" s="1">
-        <f>100000000*M39</f>
+      <c r="V39" s="1">
+        <f>100000000*N39</f>
         <v>6000</v>
       </c>
-      <c r="V39" s="1">
-        <f t="shared" ref="V39:X39" si="4">100000000*N39</f>
+      <c r="W39" s="1">
+        <f t="shared" ref="W39:Y39" si="4">100000000*O39</f>
         <v>4000.0000000000005</v>
       </c>
-      <c r="W39" s="1">
+      <c r="X39" s="1">
         <f t="shared" si="4"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Y39" s="1">
         <f t="shared" si="4"/>
         <v>1000.0000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1009</v>
       </c>
@@ -17768,39 +17785,40 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="M40" s="1">
+      <c r="J40" s="1"/>
+      <c r="N40" s="1">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="U40" s="1">
-        <f>100000000*M40</f>
+      <c r="V40" s="1">
+        <f>100000000*N40</f>
         <v>500.00000000000006</v>
       </c>
-      <c r="V40" s="1">
-        <f t="shared" ref="V40:X40" si="5">100000000*N40</f>
+      <c r="W40" s="1">
+        <f t="shared" ref="W40:Y40" si="5">100000000*O40</f>
         <v>1000.0000000000001</v>
       </c>
-      <c r="W40" s="1">
+      <c r="X40" s="1">
         <f t="shared" si="5"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Y40" s="1">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1008</v>
       </c>
@@ -17817,7 +17835,6 @@
       <c r="H41" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -17827,11 +17844,12 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="17"/>
+      <c r="T41" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
       <c r="F42" s="17"/>
@@ -17847,9 +17865,10 @@
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="17"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="55"/>
       <c r="C43" s="1"/>
@@ -17868,9 +17887,10 @@
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="17"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="55"/>
       <c r="C44" s="1"/>
@@ -17887,9 +17907,10 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="17"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>1131</v>
       </c>
@@ -17908,9 +17929,10 @@
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="17"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="55"/>
       <c r="C46" s="1"/>
@@ -17929,9 +17951,10 @@
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S46" s="17"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17951,18 +17974,19 @@
         <v>639</v>
       </c>
       <c r="I47" s="18"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="17"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="17"/>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="17"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1132</v>
       </c>
@@ -17978,18 +18002,19 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="17"/>
+      <c r="Q48" s="1"/>
       <c r="R48" s="17"/>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="17"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="55"/>
       <c r="C49" s="1"/>
@@ -17999,18 +18024,19 @@
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="17"/>
+      <c r="Q49" s="1"/>
       <c r="R49" s="17"/>
-      <c r="S49" s="1"/>
-    </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="17"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1010</v>
       </c>
@@ -18030,34 +18056,35 @@
         <v>639</v>
       </c>
       <c r="I50" s="18"/>
-      <c r="J50" s="1">
+      <c r="J50" s="18"/>
+      <c r="K50" s="1">
         <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0.5</v>
       </c>
       <c r="L50" s="1">
         <v>0.5</v>
       </c>
       <c r="M50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N50" s="1">
         <v>0.4</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>0.3</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.2</v>
       </c>
       <c r="P50" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q50" s="17"/>
+      <c r="Q50" s="1">
+        <v>0.2</v>
+      </c>
       <c r="R50" s="17"/>
-      <c r="S50" s="1" t="s">
+      <c r="S50" s="17"/>
+      <c r="T50" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1011</v>
       </c>
@@ -18077,9 +18104,7 @@
         <v>639</v>
       </c>
       <c r="I51" s="18"/>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
+      <c r="J51" s="18"/>
       <c r="K51" s="1">
         <v>0</v>
       </c>
@@ -18098,13 +18123,16 @@
       <c r="P51" s="1">
         <v>0</v>
       </c>
-      <c r="Q51" s="17"/>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
       <c r="R51" s="17"/>
-      <c r="S51" s="1" t="s">
+      <c r="S51" s="17"/>
+      <c r="T51" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1012</v>
       </c>
@@ -18122,9 +18150,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
+      <c r="J52" s="18"/>
       <c r="K52" s="1">
         <v>0</v>
       </c>
@@ -18143,13 +18169,16 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-      <c r="Q52" s="17"/>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
       <c r="R52" s="17"/>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="17"/>
+      <c r="T52" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1013</v>
       </c>
@@ -18167,34 +18196,35 @@
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
+      <c r="J53" s="18"/>
       <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
         <v>0.1</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>0.5</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>1</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>2</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <v>3</v>
       </c>
-      <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
-      <c r="S53" s="1" t="s">
+      <c r="S53" s="17"/>
+      <c r="T53" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="55"/>
       <c r="C54" s="1"/>
@@ -18204,18 +18234,19 @@
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="17"/>
+      <c r="Q54" s="1"/>
       <c r="R54" s="17"/>
-      <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S54" s="17"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="55"/>
       <c r="C55" s="1"/>
@@ -18225,18 +18256,19 @@
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="17"/>
+      <c r="Q55" s="1"/>
       <c r="R55" s="17"/>
-      <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="17"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1016</v>
       </c>
@@ -18256,9 +18288,7 @@
         <v>639</v>
       </c>
       <c r="I56" s="18"/>
-      <c r="J56" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="J56" s="18"/>
       <c r="K56" s="1">
         <v>1E-3</v>
       </c>
@@ -18277,13 +18307,16 @@
       <c r="P56" s="1">
         <v>1E-3</v>
       </c>
-      <c r="Q56" s="17"/>
+      <c r="Q56" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="R56" s="17"/>
-      <c r="S56" s="1" t="s">
+      <c r="S56" s="17"/>
+      <c r="T56" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1017</v>
       </c>
@@ -18301,9 +18334,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="J57" s="18"/>
       <c r="K57" s="1">
         <v>1E-3</v>
       </c>
@@ -18322,13 +18353,16 @@
       <c r="P57" s="1">
         <v>1E-3</v>
       </c>
-      <c r="Q57" s="17"/>
+      <c r="Q57" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="R57" s="17"/>
-      <c r="S57" s="1" t="s">
+      <c r="S57" s="17"/>
+      <c r="T57" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1020</v>
       </c>
@@ -18348,9 +18382,7 @@
         <v>639</v>
       </c>
       <c r="I58" s="18"/>
-      <c r="J58" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="J58" s="18"/>
       <c r="K58" s="1">
         <v>1E-3</v>
       </c>
@@ -18369,13 +18401,16 @@
       <c r="P58" s="1">
         <v>1E-3</v>
       </c>
-      <c r="Q58" s="17"/>
+      <c r="Q58" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="R58" s="17"/>
-      <c r="S58" s="1" t="s">
+      <c r="S58" s="17"/>
+      <c r="T58" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1021</v>
       </c>
@@ -18393,9 +18428,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
-      <c r="J59" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="J59" s="18"/>
       <c r="K59" s="1">
         <v>1E-3</v>
       </c>
@@ -18414,13 +18447,16 @@
       <c r="P59" s="1">
         <v>1E-3</v>
       </c>
-      <c r="Q59" s="17"/>
+      <c r="Q59" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="R59" s="17"/>
-      <c r="S59" s="1" t="s">
+      <c r="S59" s="17"/>
+      <c r="T59" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="55"/>
       <c r="C60" s="1"/>
@@ -18430,18 +18466,19 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="17"/>
+      <c r="Q60" s="1"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S60" s="17"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="55"/>
       <c r="C61" s="1"/>
@@ -18460,26 +18497,27 @@
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S61" s="17"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>232</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1056</v>
       </c>
@@ -18495,11 +18533,11 @@
       <c r="H65" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="T65" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1059</v>
       </c>
@@ -18515,11 +18553,11 @@
       <c r="H66" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1061</v>
       </c>
@@ -18535,11 +18573,11 @@
       <c r="H67" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1136</v>
       </c>
@@ -18555,11 +18593,11 @@
       <c r="H68" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="T68" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1054</v>
       </c>
@@ -18572,11 +18610,11 @@
       <c r="F69" s="18" t="s">
         <v>729</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1055</v>
       </c>
@@ -18589,11 +18627,11 @@
       <c r="F70" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="T70" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1138</v>
       </c>
@@ -18606,25 +18644,26 @@
       <c r="F71" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="S71" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>1140</v>
       </c>
@@ -18632,17 +18671,19 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="C75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="S75" s="1"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1036</v>
       </c>
@@ -18659,11 +18700,11 @@
       <c r="H76" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1032</v>
       </c>
@@ -18679,11 +18720,11 @@
       <c r="H77" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="T77" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1033</v>
       </c>
@@ -18699,22 +18740,22 @@
       <c r="H78" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="S79" s="1"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1034</v>
       </c>
@@ -18727,11 +18768,11 @@
       <c r="F81" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="S81" s="1" t="s">
+      <c r="T81" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1037</v>
       </c>
@@ -18744,11 +18785,11 @@
       <c r="F82" s="18" t="s">
         <v>1035</v>
       </c>
-      <c r="S82" s="1" t="s">
+      <c r="T82" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1038</v>
       </c>
@@ -18761,11 +18802,11 @@
       <c r="F83" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="S83" s="1" t="s">
+      <c r="T83" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1039</v>
       </c>
@@ -18778,16 +18819,16 @@
       <c r="F84" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="S84" s="1" t="s">
+      <c r="T84" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1050</v>
       </c>
@@ -18803,11 +18844,11 @@
       <c r="H86" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S86" s="1" t="s">
+      <c r="T86" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1051</v>
       </c>
@@ -18820,11 +18861,11 @@
       <c r="F87" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="S87" s="1" t="s">
+      <c r="T87" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18837,11 +18878,11 @@
       <c r="F88" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="S88" s="1" t="s">
+      <c r="T88" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1053</v>
       </c>
@@ -18854,16 +18895,16 @@
       <c r="F89" s="18" t="s">
         <v>1041</v>
       </c>
-      <c r="S89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -18871,11 +18912,11 @@
       <c r="H91" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S91" s="1" t="s">
+      <c r="T91" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1058</v>
       </c>
@@ -18891,11 +18932,11 @@
       <c r="H92" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="S92" s="1" t="s">
+      <c r="T92" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -18903,9 +18944,10 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="S93" s="1"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="17"/>
@@ -18923,26 +18965,27 @@
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
-      <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S95" s="17"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>1031</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1024</v>
       </c>
@@ -18959,33 +19002,33 @@
       <c r="H99" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="1">
+      <c r="J99" s="17"/>
+      <c r="K99" s="1">
         <v>0.1</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>0.2</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>0.5</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99" s="1">
         <v>1</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>1.5</v>
       </c>
-      <c r="O99" s="1">
+      <c r="P99" s="1">
         <v>2</v>
       </c>
-      <c r="P99" s="1">
+      <c r="Q99" s="1">
         <v>2.5</v>
       </c>
-      <c r="S99" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1023</v>
       </c>
@@ -19001,11 +19044,12 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="S100" s="1" t="s">
+      <c r="J100" s="1"/>
+      <c r="T100" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1022</v>
       </c>
@@ -19021,25 +19065,27 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="S101" s="1" t="s">
+      <c r="J101" s="1"/>
+      <c r="T101" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J102" s="1"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="S103" s="1"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1025</v>
       </c>
@@ -19056,12 +19102,9 @@
       <c r="H104" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="I104" s="17"/>
-      <c r="J104" s="1">
+      <c r="J104" s="17"/>
+      <c r="K104" s="1">
         <v>0</v>
-      </c>
-      <c r="K104" s="1">
-        <v>0.5</v>
       </c>
       <c r="L104" s="1">
         <v>0.5</v>
@@ -19078,11 +19121,14 @@
       <c r="P104" s="1">
         <v>0.5</v>
       </c>
-      <c r="S104" s="1" t="s">
+      <c r="Q104" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T104" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1029</v>
       </c>
@@ -19098,32 +19144,33 @@
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="1">
-        <v>0</v>
-      </c>
+      <c r="J105" s="17"/>
       <c r="K105" s="1">
         <v>0</v>
       </c>
       <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1">
         <v>0.5</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105" s="1">
         <v>1</v>
       </c>
-      <c r="N105" s="1">
+      <c r="O105" s="1">
         <v>1.25</v>
       </c>
-      <c r="O105" s="1">
+      <c r="P105" s="1">
         <v>1.5</v>
       </c>
-      <c r="P105" s="1">
+      <c r="Q105" s="1">
         <v>1.75</v>
       </c>
-      <c r="S105" s="1" t="s">
+      <c r="T105" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1026</v>
       </c>
@@ -19139,9 +19186,7 @@
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="1">
-        <v>0</v>
-      </c>
+      <c r="J106" s="17"/>
       <c r="K106" s="1">
         <v>0</v>
       </c>
@@ -19149,22 +19194,25 @@
         <v>0</v>
       </c>
       <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
         <v>0.5</v>
       </c>
-      <c r="N106" s="1">
+      <c r="O106" s="1">
         <v>1</v>
       </c>
-      <c r="O106" s="1">
+      <c r="P106" s="1">
         <v>1.25</v>
       </c>
-      <c r="P106" s="1">
+      <c r="Q106" s="1">
         <v>1.5</v>
       </c>
-      <c r="S106" s="1" t="s">
+      <c r="T106" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1027</v>
       </c>
@@ -19180,9 +19228,7 @@
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="1">
-        <v>0</v>
-      </c>
+      <c r="J107" s="17"/>
       <c r="K107" s="1">
         <v>0</v>
       </c>
@@ -19193,19 +19239,22 @@
         <v>0</v>
       </c>
       <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
         <v>0.5</v>
       </c>
-      <c r="O107" s="1">
+      <c r="P107" s="1">
         <v>1</v>
       </c>
-      <c r="P107" s="1">
+      <c r="Q107" s="1">
         <v>1.25</v>
       </c>
-      <c r="S107" s="1" t="s">
+      <c r="T107" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1028</v>
       </c>
@@ -19221,9 +19270,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="1">
-        <v>0</v>
-      </c>
+      <c r="J108" s="17"/>
       <c r="K108" s="1">
         <v>0</v>
       </c>
@@ -19237,25 +19284,29 @@
         <v>0</v>
       </c>
       <c r="O108" s="1">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1">
         <v>0.1</v>
       </c>
-      <c r="P108" s="1">
+      <c r="Q108" s="1">
         <v>0.5</v>
       </c>
-      <c r="S108" s="1" t="s">
+      <c r="T108" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-      <c r="S109" s="1"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J109" s="17"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>1146</v>
       </c>
@@ -19264,18 +19315,20 @@
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-      <c r="S110" s="1"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J110" s="17"/>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-      <c r="S111" s="1"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J111" s="17"/>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>1067</v>
       </c>
@@ -19284,18 +19337,20 @@
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
-      <c r="S112" s="1"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J112" s="17"/>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="S113" s="1"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1062</v>
       </c>
@@ -19308,11 +19363,11 @@
       <c r="F114" s="18" t="s">
         <v>1063</v>
       </c>
-      <c r="S114" s="1" t="s">
+      <c r="T114" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>993</v>
       </c>
@@ -19322,9 +19377,6 @@
       <c r="F115" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="J115" s="1">
-        <v>0</v>
-      </c>
       <c r="K115" s="1">
         <v>0</v>
       </c>
@@ -19343,27 +19395,30 @@
       <c r="P115" s="1">
         <v>0</v>
       </c>
-      <c r="S115" s="1" t="s">
+      <c r="Q115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
-      <c r="S116" s="1"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>1067</v>
       </c>
       <c r="C117" s="1"/>
-      <c r="S117" s="1"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
-      <c r="I118" s="21"/>
-      <c r="S118" s="1"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J118" s="21"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>261</v>
       </c>
@@ -19376,11 +19431,11 @@
       <c r="F119" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="S119" s="1" t="s">
+      <c r="T119" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
@@ -19393,11 +19448,11 @@
       <c r="F120" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="S120" s="1" t="s">
+      <c r="T120" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>263</v>
       </c>
@@ -19410,36 +19465,36 @@
       <c r="F121" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="S121" s="1" t="s">
+      <c r="T121" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="S122" s="1"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="S123" s="1"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="T123" s="1"/>
+    </row>
+    <row r="125" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A126" s="56" t="s">
         <v>190</v>
       </c>
       <c r="C126" s="57"/>
-      <c r="S126" s="57"/>
+      <c r="T126" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="A126 C126 S126">
+  <conditionalFormatting sqref="A126 C126 T126">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -19450,7 +19505,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="K2">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -19461,7 +19516,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P2">
+  <conditionalFormatting sqref="L2:Q2">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -19472,7 +19527,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:W1 Q1:R1 T1">
+  <conditionalFormatting sqref="W1:X1 R1:S1 U1">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -19493,8 +19548,8 @@
   <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84486BF7-34DB-4023-B10A-5A04BAB3CCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B8816-D435-45B0-91C0-B39C163955A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="0" windowWidth="18390" windowHeight="15705" activeTab="2" xr2:uid="{1BDC5EDF-2582-476E-A671-A7609C7D14AF}"/>
-    <workbookView xWindow="14370" yWindow="0" windowWidth="14535" windowHeight="15705" activeTab="3" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1154">
   <si>
     <t>LINE</t>
   </si>
@@ -3401,12 +3400,6 @@
     <t># fa-cubes-stacked</t>
   </si>
   <si>
-    <t>fa-microship</t>
-  </si>
-  <si>
-    <t>fa-prescription-bottle-pill</t>
-  </si>
-  <si>
     <t># fa-ban-smoking</t>
   </si>
   <si>
@@ -3511,6 +3504,15 @@
   </si>
   <si>
     <t>unlocked_by_technology</t>
+  </si>
+  <si>
+    <t>fa-microchip</t>
+  </si>
+  <si>
+    <t>fa-pills</t>
+  </si>
+  <si>
+    <t>Graviton</t>
   </si>
 </sst>
 </file>
@@ -8190,7 +8192,6 @@
   <dimension ref="A1:P384"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10761,7 +10762,6 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10812,7 +10812,6 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10949,7 +10948,6 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11563,7 +11561,6 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11785,7 +11782,6 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11917,7 +11913,6 @@
   <dimension ref="B3:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12295,7 +12290,6 @@
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12408,7 +12402,6 @@
   <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13008,7 +13001,6 @@
   <dimension ref="A3:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13274,7 +13266,6 @@
   <dimension ref="A1:S497"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16702,11 +16693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-    <sheetView topLeftCell="A61" workbookViewId="1">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16749,7 +16737,7 @@
         <v>986</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="11" t="s">
@@ -17575,7 +17563,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
@@ -17912,7 +17900,7 @@
     </row>
     <row r="45" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="1"/>
@@ -17963,7 +17951,7 @@
         <v>1076</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
@@ -17984,21 +17972,25 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
-      <c r="T47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="48" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>1153</v>
+      </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
@@ -18012,7 +18004,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="17"/>
       <c r="S48" s="17"/>
-      <c r="T48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="49" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -18579,7 +18573,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1079</v>
@@ -18588,7 +18582,7 @@
         <v>1106</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>639</v>
@@ -18633,7 +18627,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1079</v>
@@ -18665,7 +18659,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C74" s="1"/>
       <c r="F74" s="1"/>
@@ -18691,7 +18685,7 @@
         <v>1077</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>611</v>
@@ -18712,7 +18706,7 @@
         <v>1077</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>615</v>
@@ -18732,7 +18726,7 @@
         <v>1077</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>613</v>
@@ -18763,7 +18757,7 @@
         <v>1077</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>763</v>
@@ -18780,7 +18774,7 @@
         <v>1077</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>1035</v>
@@ -18797,7 +18791,7 @@
         <v>1077</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>547</v>
@@ -18814,7 +18808,7 @@
         <v>1077</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>750</v>
@@ -18924,7 +18918,7 @@
         <v>1077</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F92" s="18" t="s">
         <v>762</v>
@@ -19308,7 +19302,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C110" s="1"/>
       <c r="F110" s="17"/>
@@ -19547,8 +19541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CEB002-A91E-4AEC-95D0-DCF064EE0BB5}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -19730,7 +19723,7 @@
         <v>1081</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1116</v>
+        <v>1151</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>116</v>
@@ -19744,7 +19737,7 @@
         <v>1080</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1117</v>
+        <v>1152</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1090</v>
@@ -19753,7 +19746,7 @@
         <v>983</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -19761,7 +19754,7 @@
         <v>1082</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1091</v>
@@ -19824,7 +19817,7 @@
         <v>1093</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19837,7 +19830,7 @@
         <v>1094</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -19848,7 +19841,7 @@
         <v>1074</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>383</v>
@@ -19868,7 +19861,7 @@
         <v>1074</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>396</v>
@@ -19882,10 +19875,10 @@
         <v>1074</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>639</v>
@@ -19902,10 +19895,10 @@
         <v>1074</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>639</v>
@@ -19922,7 +19915,7 @@
         <v>1074</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>914</v>
@@ -19948,10 +19941,10 @@
         <v>1080</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -19962,16 +19955,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -19996,10 +19989,10 @@
         <v>1076</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -20029,7 +20022,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1077</v>
@@ -20052,21 +20045,21 @@
         <v>761</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -20112,7 +20105,7 @@
         <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -20124,10 +20117,10 @@
         <v>1081</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -20164,13 +20157,13 @@
         <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1082</v>
@@ -20318,7 +20311,6 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20428,7 +20420,6 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21566,7 +21557,6 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23109,7 +23099,6 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24381,7 +24370,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B8816-D435-45B0-91C0-B39C163955A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBE8299-8E7C-4479-AD08-D2DE04D17608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1154">
   <si>
     <t>LINE</t>
   </si>
@@ -16693,8 +16693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16766,9 +16766,7 @@
       <c r="T1" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="U1" s="56" t="s">
-        <v>190</v>
-      </c>
+      <c r="U1" s="56"/>
       <c r="V1" s="34"/>
       <c r="W1" s="32"/>
       <c r="X1" s="33"/>
@@ -19541,8 +19539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CEB002-A91E-4AEC-95D0-DCF064EE0BB5}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19593,9 +19591,7 @@
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
-      <c r="Q2" s="56" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q2" s="56"/>
       <c r="R2" s="33"/>
       <c r="S2" s="34"/>
       <c r="T2" s="32"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C156DC8-EFF8-421A-BB2B-1BA0CDADEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BAA21-D0D3-4F5A-AA27-738E9D361485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
     <workbookView minimized="1" xWindow="14175" yWindow="420" windowWidth="9675" windowHeight="11385" firstSheet="13" activeTab="14" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1223">
   <si>
     <t>LINE</t>
   </si>
@@ -2792,15 +2792,6 @@
     <t>Medicine</t>
   </si>
   <si>
-    <t>Médicaments traditionnels</t>
-  </si>
-  <si>
-    <t>Médicaments modernes</t>
-  </si>
-  <si>
-    <t>Médicaments avancés</t>
-  </si>
-  <si>
     <t>Drogues douces</t>
   </si>
   <si>
@@ -3026,15 +3017,6 @@
     <t>terraform_equipment</t>
   </si>
   <si>
-    <t>medicine_traditional</t>
-  </si>
-  <si>
-    <t>medicine_</t>
-  </si>
-  <si>
-    <t>medicine_advanced</t>
-  </si>
-  <si>
     <t>illicit_drug_hard</t>
   </si>
   <si>
@@ -3162,9 +3144,6 @@
   </si>
   <si>
     <t>Ordinateurs high-Tech</t>
-  </si>
-  <si>
-    <t>Ordinateurs singularity-Tech</t>
   </si>
   <si>
     <t>Ordinateurs ultra-Tech</t>
@@ -3483,9 +3462,6 @@
     <t>hyper-alloy</t>
   </si>
   <si>
-    <t>Méd</t>
-  </si>
-  <si>
     <t>start_quantity</t>
   </si>
   <si>
@@ -3694,6 +3670,57 @@
   </si>
   <si>
     <t># T16</t>
+  </si>
+  <si>
+    <t>medicine_rudimentary</t>
+  </si>
+  <si>
+    <t>medicine_medium_tech</t>
+  </si>
+  <si>
+    <t>medicine_high_tech</t>
+  </si>
+  <si>
+    <t>medicine_ultra_tech</t>
+  </si>
+  <si>
+    <t>medicine_singularity_tech</t>
+  </si>
+  <si>
+    <t>Médecine low-Tech</t>
+  </si>
+  <si>
+    <t>Médecine middle-Tech</t>
+  </si>
+  <si>
+    <t>Médecine high-Tech</t>
+  </si>
+  <si>
+    <t>Médecine ultra-Tech</t>
+  </si>
+  <si>
+    <t>Médecine singularistes</t>
+  </si>
+  <si>
+    <t>Médecine traditionnelle</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t># kg/pop</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Ordinateurs singularistes</t>
   </si>
 </sst>
 </file>
@@ -3917,7 +3944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4175,11 +4202,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4335,6 +4392,59 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12145,193 +12255,193 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" s="48" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B3" s="47" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B4" s="47" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B5" s="47" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>967</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>970</v>
       </c>
       <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B7" s="47" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B8" s="47" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="L8" s="47"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B9" s="47" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="L9" s="47"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B10" s="47" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="L10" s="47"/>
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B11" s="47" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L11" s="47"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B12" s="47" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="L12" s="47"/>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B13" s="47" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="L13" s="47"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B14" s="47" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="L14" s="47"/>
     </row>
     <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B15" s="47" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="L15" s="47"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B16" s="47" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="47" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L17" s="47"/>
     </row>
     <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B18" s="47" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="L18" s="47"/>
     </row>
@@ -12357,182 +12467,182 @@
     </row>
     <row r="25" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B25" s="47" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B26" s="47" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B27" s="47" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C27" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>967</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>974</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>970</v>
       </c>
       <c r="L27" s="47"/>
     </row>
     <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B28" s="47" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="L28" s="47"/>
     </row>
     <row r="29" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B29" s="47" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B30" s="47" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="L30" s="47"/>
     </row>
     <row r="31" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B31" s="47" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="L31" s="47"/>
     </row>
     <row r="32" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="L32" s="47"/>
     </row>
     <row r="33" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B33" s="47" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B34" s="47" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B35" s="47" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="L35" s="47"/>
     </row>
     <row r="36" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B36" s="47" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L36" s="47"/>
     </row>
     <row r="46" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D46" s="47"/>
       <c r="E46" s="49"/>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B47" s="47" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="49"/>
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I47" s="47" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B48" s="47" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>29</v>
@@ -12542,7 +12652,7 @@
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
       <c r="H48" s="47" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I48" s="47" t="s">
         <v>29</v>
@@ -12550,25 +12660,25 @@
     </row>
     <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B49" s="47" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="49"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I49" s="47" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B50" s="47" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>51</v>
@@ -12578,7 +12688,7 @@
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="47" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="I50" s="47" t="s">
         <v>51</v>
@@ -12586,92 +12696,92 @@
     </row>
     <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B51" s="47" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D51" s="47"/>
       <c r="E51" s="49"/>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
       <c r="H51" s="47" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="I51" s="47" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B52" s="47" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="49"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
       <c r="H52" s="47" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I52" s="47" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B53" s="47" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D53" s="47"/>
       <c r="E53" s="49"/>
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="47" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="I53" s="47" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B54" s="47" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D54" s="47"/>
       <c r="E54" s="49"/>
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I54" s="47" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B55" s="47" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D55" s="47"/>
       <c r="E55" s="49"/>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
       <c r="H55" s="47" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="I55" s="47" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="30" x14ac:dyDescent="0.4">
@@ -13481,7 +13591,7 @@
     </row>
     <row r="10" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="18" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>742</v>
@@ -13492,7 +13602,7 @@
         <v>391</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17120,11 +17230,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
-  <dimension ref="A1:AN138"/>
+  <dimension ref="A1:AO136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O90" sqref="O90"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -17136,269 +17246,280 @@
     <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="7" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11" style="18" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="17" style="18" customWidth="1"/>
-    <col min="14" max="29" width="8.140625" style="75" customWidth="1"/>
-    <col min="30" max="31" width="7.5703125" style="1"/>
-    <col min="32" max="32" width="31.7109375" style="53" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" style="1"/>
-    <col min="34" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="7.5703125" style="1"/>
+    <col min="7" max="8" width="4.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11" style="18" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17" style="18" customWidth="1"/>
+    <col min="15" max="23" width="8.140625" style="75" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="81" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" style="91" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="86" customWidth="1"/>
+    <col min="27" max="30" width="8.140625" style="75" customWidth="1"/>
+    <col min="31" max="32" width="7.5703125" style="1"/>
+    <col min="33" max="33" width="31.7109375" style="53" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" style="1"/>
+    <col min="35" max="35" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>998</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>980</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q1" s="52" t="s">
         <v>919</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>983</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>1135</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>1144</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="52" t="s">
+      <c r="R1" s="52" t="s">
         <v>920</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="S1" s="52" t="s">
         <v>921</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="T1" s="52" t="s">
         <v>922</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="U1" s="52" t="s">
         <v>923</v>
       </c>
-      <c r="R1" s="52" t="s">
-        <v>924</v>
-      </c>
-      <c r="S1" s="52" t="s">
-        <v>925</v>
-      </c>
-      <c r="T1" s="52" t="s">
-        <v>926</v>
-      </c>
-      <c r="U1" s="52" t="s">
+      <c r="V1" s="52" t="s">
+        <v>1177</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X1" s="78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Y1" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z1" s="83" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AA1" s="52" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AB1" s="52" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AC1" s="52" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AD1" s="52" t="s">
         <v>1185</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="30"/>
+    </row>
+    <row r="2" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O2" s="74">
+        <v>0</v>
+      </c>
+      <c r="P2" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="74">
+        <v>2</v>
+      </c>
+      <c r="R2" s="74">
+        <v>3</v>
+      </c>
+      <c r="S2" s="74">
+        <v>4</v>
+      </c>
+      <c r="T2" s="74">
+        <v>5</v>
+      </c>
+      <c r="U2" s="74">
+        <v>6</v>
+      </c>
+      <c r="V2" s="74">
+        <v>7</v>
+      </c>
+      <c r="W2" s="74">
+        <v>8</v>
+      </c>
+      <c r="X2" s="79">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="89">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="84">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="74">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="74">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="74">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U3" s="51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="W3" s="51" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X3" s="80" t="s">
         <v>1186</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="Y3" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z3" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC3" s="18" t="s">
         <v>1187</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="AD3" s="18" t="s">
         <v>1188</v>
       </c>
-      <c r="Y1" s="52" t="s">
-        <v>1189</v>
-      </c>
-      <c r="Z1" s="52" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AA1" s="52" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AB1" s="52" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AC1" s="52" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="30"/>
-    </row>
-    <row r="2" spans="1:40" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="M2" s="64" t="s">
-        <v>1146</v>
-      </c>
-      <c r="N2" s="74">
-        <v>0</v>
-      </c>
-      <c r="O2" s="74">
-        <v>1</v>
-      </c>
-      <c r="P2" s="74">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="74">
-        <v>3</v>
-      </c>
-      <c r="R2" s="74">
-        <v>4</v>
-      </c>
-      <c r="S2" s="74">
-        <v>5</v>
-      </c>
-      <c r="T2" s="74">
-        <v>6</v>
-      </c>
-      <c r="U2" s="74">
-        <v>7</v>
-      </c>
-      <c r="V2" s="74">
-        <v>8</v>
-      </c>
-      <c r="W2" s="74">
-        <v>9</v>
-      </c>
-      <c r="X2" s="74">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="74">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="74">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="74">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="74">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="74">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="51" t="s">
-        <v>1198</v>
-      </c>
-      <c r="O3" s="51" t="s">
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI4" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AI5" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="AK5" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="AL5" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="AM5" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="AN5" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="AO5" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="V3" s="51" t="s">
-        <v>1206</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>1194</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AC3" s="75" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH4" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AH5" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>188</v>
@@ -17406,23 +17527,17 @@
       <c r="F7" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="H7" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>1149</v>
+      <c r="I7" s="18">
+        <v>100</v>
       </c>
       <c r="J7" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="L7" s="18">
-        <v>1000</v>
-      </c>
-      <c r="N7" s="75">
-        <v>0</v>
-      </c>
       <c r="O7" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="75">
         <v>1</v>
@@ -17448,13 +17563,13 @@
       <c r="W7" s="75">
         <v>1</v>
       </c>
-      <c r="X7" s="75">
+      <c r="X7" s="81">
         <v>1</v>
       </c>
-      <c r="Y7" s="75">
+      <c r="Y7" s="91">
         <v>1</v>
       </c>
-      <c r="Z7" s="75">
+      <c r="Z7" s="86">
         <v>1</v>
       </c>
       <c r="AA7" s="75">
@@ -17466,19 +17581,18 @@
       <c r="AC7" s="75">
         <v>1</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH7" s="1">
-        <f>(W7*1000000)/1000000</f>
+      <c r="AD7" s="75">
         <v>1</v>
       </c>
+      <c r="AG7" s="1" t="s">
+        <v>1048</v>
+      </c>
       <c r="AI7" s="1">
-        <f t="shared" ref="AI7:AN7" si="0">(X7*1000000)/1000000</f>
+        <f>(X7*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AJ7:AO7" si="0">(Y7*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AK7" s="1">
@@ -17497,13 +17611,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>188</v>
@@ -17511,23 +17629,20 @@
       <c r="F8" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="H8" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>1149</v>
+      <c r="I8" s="18">
+        <v>100</v>
       </c>
       <c r="J8" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="L8" s="18">
-        <v>1000</v>
-      </c>
-      <c r="N8" s="75">
-        <v>0</v>
+      <c r="M8" s="18">
+        <v>15</v>
       </c>
       <c r="O8" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="75">
         <v>1</v>
@@ -17553,13 +17668,13 @@
       <c r="W8" s="75">
         <v>1</v>
       </c>
-      <c r="X8" s="75">
+      <c r="X8" s="81">
         <v>1</v>
       </c>
-      <c r="Y8" s="75">
+      <c r="Y8" s="91">
         <v>1</v>
       </c>
-      <c r="Z8" s="75">
+      <c r="Z8" s="86">
         <v>1</v>
       </c>
       <c r="AA8" s="75">
@@ -17571,44 +17686,47 @@
       <c r="AC8" s="75">
         <v>1</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" ref="AH8:AH10" si="1">(W8*1000000)/1000000</f>
+      <c r="AD8" s="75">
         <v>1</v>
       </c>
+      <c r="AG8" s="1" t="s">
+        <v>1048</v>
+      </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI10" si="2">(X8*1000000)/1000000</f>
+        <f>(X8*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" ref="AJ8:AJ10" si="3">(Y8*1000000)/1000000</f>
+        <f t="shared" ref="AJ8:AJ10" si="1">(Y8*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" ref="AK8:AK10" si="4">(Z8*1000000)/1000000</f>
+        <f t="shared" ref="AK8:AK10" si="2">(Z8*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" ref="AL8:AL10" si="5">(AA8*1000000)/1000000</f>
+        <f t="shared" ref="AL8:AL10" si="3">(AA8*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" ref="AM8:AM10" si="6">(AB8*1000000)/1000000</f>
+        <f t="shared" ref="AM8:AM10" si="4">(AB8*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" ref="AN8:AN10" si="7">(AC8*1000000)/1000000</f>
+        <f t="shared" ref="AN8:AN10" si="5">(AC8*1000000)/1000000</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO8" s="1">
+        <f t="shared" ref="AO8:AO10" si="6">(AD8*1000000)/1000000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>188</v>
@@ -17616,23 +17734,17 @@
       <c r="F9" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="H9" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>1149</v>
+      <c r="I9" s="18">
+        <v>100</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="L9" s="18">
-        <v>1000</v>
-      </c>
-      <c r="N9" s="75">
-        <v>0</v>
-      </c>
       <c r="O9" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="75">
         <v>1</v>
@@ -17658,13 +17770,13 @@
       <c r="W9" s="75">
         <v>1</v>
       </c>
-      <c r="X9" s="75">
+      <c r="X9" s="81">
         <v>1</v>
       </c>
-      <c r="Y9" s="75">
+      <c r="Y9" s="91">
         <v>1</v>
       </c>
-      <c r="Z9" s="75">
+      <c r="Z9" s="86">
         <v>1</v>
       </c>
       <c r="AA9" s="75">
@@ -17676,180 +17788,180 @@
       <c r="AC9" s="75">
         <v>1</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH9" s="1">
+      <c r="AD9" s="75">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" ref="AI8:AI10" si="7">(X9*1000000)/1000000</f>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AN9" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AO9" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AN9" s="1">
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="I10" s="18">
+        <v>100</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="O10" s="75">
+        <v>0</v>
+      </c>
+      <c r="P10" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="75">
+        <v>1</v>
+      </c>
+      <c r="R10" s="75">
+        <v>1</v>
+      </c>
+      <c r="S10" s="75">
+        <v>1</v>
+      </c>
+      <c r="T10" s="75">
+        <v>1</v>
+      </c>
+      <c r="U10" s="75">
+        <v>1</v>
+      </c>
+      <c r="V10" s="75">
+        <v>1</v>
+      </c>
+      <c r="W10" s="75">
+        <v>1</v>
+      </c>
+      <c r="X10" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="91">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="75">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="75">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="75">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI10" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="L10" s="18">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="75">
-        <v>0</v>
-      </c>
-      <c r="O10" s="75">
-        <v>1</v>
-      </c>
-      <c r="P10" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="75">
-        <v>1</v>
-      </c>
-      <c r="R10" s="75">
-        <v>1</v>
-      </c>
-      <c r="S10" s="75">
-        <v>1</v>
-      </c>
-      <c r="T10" s="75">
-        <v>1</v>
-      </c>
-      <c r="U10" s="75">
-        <v>1</v>
-      </c>
-      <c r="V10" s="75">
-        <v>1</v>
-      </c>
-      <c r="W10" s="75">
-        <v>1</v>
-      </c>
-      <c r="X10" s="75">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="75">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="75">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="75">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="75">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="75">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH10" s="1">
+      <c r="AJ10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AL10" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AM10" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AN10" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AO10" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AN10" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="H13" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>1149</v>
+      <c r="I13" s="18">
+        <v>100</v>
       </c>
       <c r="J13" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="N13" s="75">
-        <v>0</v>
+      <c r="M13" s="18">
+        <v>30</v>
       </c>
       <c r="O13" s="75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="75">
         <v>0.2</v>
@@ -17858,10 +17970,10 @@
         <v>0.2</v>
       </c>
       <c r="R13" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="75">
         <v>0.5</v>
-      </c>
-      <c r="S13" s="75">
-        <v>1</v>
       </c>
       <c r="T13" s="75">
         <v>1</v>
@@ -17870,18 +17982,18 @@
         <v>1</v>
       </c>
       <c r="V13" s="75">
+        <v>1</v>
+      </c>
+      <c r="W13" s="75">
         <v>1.5</v>
       </c>
-      <c r="W13" s="75">
+      <c r="X13" s="81">
         <v>2</v>
       </c>
-      <c r="X13" s="75">
+      <c r="Y13" s="91">
         <v>2</v>
       </c>
-      <c r="Y13" s="75">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="75">
+      <c r="Z13" s="86">
         <v>2</v>
       </c>
       <c r="AA13" s="75">
@@ -17893,62 +18005,62 @@
       <c r="AC13" s="75">
         <v>2</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH13" s="1">
-        <f>(W13*1000000)/1000000</f>
+      <c r="AD13" s="75">
         <v>2</v>
       </c>
+      <c r="AG13" s="1" t="s">
+        <v>1048</v>
+      </c>
       <c r="AI13" s="1">
-        <f t="shared" ref="AI13:AI15" si="8">(X13*1000000)/1000000</f>
+        <f>(X13*1000000)/1000000</f>
         <v>2</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" ref="AJ13:AJ15" si="9">(Y13*1000000)/1000000</f>
+        <f t="shared" ref="AJ13:AJ15" si="8">(Y13*1000000)/1000000</f>
         <v>2</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" ref="AK13:AK15" si="10">(Z13*1000000)/1000000</f>
+        <f t="shared" ref="AK13:AK15" si="9">(Z13*1000000)/1000000</f>
         <v>2</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" ref="AL13:AL15" si="11">(AA13*1000000)/1000000</f>
+        <f t="shared" ref="AL13:AL15" si="10">(AA13*1000000)/1000000</f>
         <v>2</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" ref="AM13:AM15" si="12">(AB13*1000000)/1000000</f>
+        <f t="shared" ref="AM13:AM15" si="11">(AB13*1000000)/1000000</f>
         <v>2</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" ref="AN13:AN15" si="13">(AC13*1000000)/1000000</f>
+        <f t="shared" ref="AN13:AN15" si="12">(AC13*1000000)/1000000</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO13" s="1">
+        <f t="shared" ref="AO13:AO15" si="13">(AD13*1000000)/1000000</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>1149</v>
-      </c>
       <c r="J14" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="N14" s="75">
-        <v>0</v>
-      </c>
       <c r="O14" s="75">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P14" s="75">
         <v>0.25</v>
@@ -17974,13 +18086,13 @@
       <c r="W14" s="75">
         <v>0.25</v>
       </c>
-      <c r="X14" s="75">
+      <c r="X14" s="81">
         <v>0.25</v>
       </c>
-      <c r="Y14" s="75">
+      <c r="Y14" s="91">
         <v>0.25</v>
       </c>
-      <c r="Z14" s="75">
+      <c r="Z14" s="86">
         <v>0.25</v>
       </c>
       <c r="AA14" s="75">
@@ -17992,62 +18104,65 @@
       <c r="AC14" s="75">
         <v>0.25</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" ref="AH14:AH15" si="14">(W14*1000000)/1000000</f>
+      <c r="AD14" s="75">
         <v>0.25</v>
       </c>
+      <c r="AG14" s="1" t="s">
+        <v>1048</v>
+      </c>
       <c r="AI14" s="1">
+        <f t="shared" ref="AI14:AI15" si="14">(X14*1000000)/1000000</f>
+        <v>0.25</v>
+      </c>
+      <c r="AJ14" s="1">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AO14" s="1">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="H15" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N15" s="75">
-        <v>0</v>
+      <c r="I15" s="18">
+        <v>100</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M15" s="18">
+        <v>30</v>
       </c>
       <c r="O15" s="75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="75">
         <v>2</v>
@@ -18073,17 +18188,17 @@
       <c r="W15" s="75">
         <v>2</v>
       </c>
-      <c r="X15" s="75">
+      <c r="X15" s="81">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="91">
         <v>1</v>
       </c>
-      <c r="Y15" s="75">
+      <c r="Z15" s="86">
         <v>0.5</v>
       </c>
-      <c r="Z15" s="75">
+      <c r="AA15" s="75">
         <v>0.02</v>
-      </c>
-      <c r="AA15" s="75">
-        <v>0.01</v>
       </c>
       <c r="AB15" s="75">
         <v>0.01</v>
@@ -18091,174 +18206,182 @@
       <c r="AC15" s="75">
         <v>0.01</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH15" s="1">
+      <c r="AD15" s="75">
+        <v>0.01</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI15" s="1">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>1149</v>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
+        <v>100</v>
       </c>
       <c r="J18" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="76">
-        <v>0</v>
-      </c>
-      <c r="O18" s="75">
+      <c r="M18" s="18">
+        <v>12</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="76">
+        <v>0</v>
+      </c>
+      <c r="P18" s="75">
         <v>0.01</v>
       </c>
-      <c r="P18" s="76">
+      <c r="Q18" s="76">
         <v>0.05</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="R18" s="76">
         <v>0.1</v>
       </c>
-      <c r="R18" s="76">
+      <c r="S18" s="76">
         <v>0.2</v>
       </c>
-      <c r="S18" s="76">
+      <c r="T18" s="76">
         <v>0.5</v>
       </c>
-      <c r="T18" s="76">
+      <c r="U18" s="76">
         <v>0.8</v>
       </c>
-      <c r="U18" s="76">
+      <c r="V18" s="76">
         <v>1</v>
       </c>
-      <c r="V18" s="76">
+      <c r="W18" s="76">
         <v>1.5</v>
       </c>
-      <c r="W18" s="75">
+      <c r="X18" s="81">
         <v>1.5</v>
       </c>
-      <c r="X18" s="75">
+      <c r="Y18" s="91">
         <v>1.2</v>
       </c>
-      <c r="Y18" s="75">
+      <c r="Z18" s="86">
         <v>1</v>
       </c>
-      <c r="Z18" s="75">
+      <c r="AA18" s="75">
         <v>0.8</v>
       </c>
-      <c r="AA18" s="75">
+      <c r="AB18" s="75">
         <v>0.5</v>
       </c>
-      <c r="AB18" s="75">
+      <c r="AC18" s="75">
         <v>0.3</v>
       </c>
-      <c r="AC18" s="75">
+      <c r="AD18" s="75">
         <v>0.2</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH18" s="1">
-        <f>(W18*1000000)/1000000</f>
+      <c r="AG18" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI18" s="1">
+        <f>(X18*1000000)/1000000</f>
         <v>1.5</v>
       </c>
-      <c r="AI18" s="1">
-        <f t="shared" ref="AI18" si="15">(X18*1000000)/1000000</f>
+      <c r="AJ18" s="1">
+        <f t="shared" ref="AJ18" si="15">(Y18*1000000)/1000000</f>
         <v>1.2</v>
       </c>
-      <c r="AJ18" s="1">
-        <f t="shared" ref="AJ18" si="16">(Y18*1000000)/1000000</f>
+      <c r="AK18" s="1">
+        <f t="shared" ref="AK18" si="16">(Z18*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AK18" s="1">
-        <f t="shared" ref="AK18" si="17">(Z18*1000000)/1000000</f>
+      <c r="AL18" s="1">
+        <f t="shared" ref="AL18" si="17">(AA18*1000000)/1000000</f>
         <v>0.8</v>
       </c>
-      <c r="AL18" s="1">
-        <f t="shared" ref="AL18" si="18">(AA18*1000000)/1000000</f>
+      <c r="AM18" s="1">
+        <f t="shared" ref="AM18" si="18">(AB18*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AM18" s="1">
-        <f t="shared" ref="AM18" si="19">(AB18*1000000)/1000000</f>
+      <c r="AN18" s="1">
+        <f t="shared" ref="AN18" si="19">(AC18*1000000)/1000000</f>
         <v>0.3</v>
       </c>
-      <c r="AN18" s="1">
-        <f t="shared" ref="AN18" si="20">(AC18*1000000)/1000000</f>
+      <c r="AO18" s="1">
+        <f t="shared" ref="AO18" si="20">(AD18*1000000)/1000000</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>1149</v>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
+        <v>100</v>
       </c>
       <c r="J19" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="76">
-        <v>0</v>
-      </c>
+      <c r="M19" s="18">
+        <v>10</v>
+      </c>
+      <c r="N19" s="17"/>
       <c r="O19" s="76">
         <v>0</v>
       </c>
@@ -18278,85 +18401,85 @@
         <v>0</v>
       </c>
       <c r="U19" s="76">
+        <v>0</v>
+      </c>
+      <c r="V19" s="76">
         <v>0.1</v>
       </c>
-      <c r="V19" s="76">
+      <c r="W19" s="76">
         <v>0.2</v>
       </c>
-      <c r="W19" s="75">
+      <c r="X19" s="81">
         <v>0.5</v>
       </c>
-      <c r="X19" s="75">
+      <c r="Y19" s="91">
         <v>1</v>
       </c>
-      <c r="Y19" s="75">
+      <c r="Z19" s="86">
         <v>1.5</v>
       </c>
-      <c r="Z19" s="75">
+      <c r="AA19" s="75">
         <v>1.8</v>
       </c>
-      <c r="AA19" s="75">
+      <c r="AB19" s="75">
         <v>2</v>
       </c>
-      <c r="AB19" s="75">
+      <c r="AC19" s="75">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC19" s="75">
+      <c r="AD19" s="75">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH19" s="1">
-        <f>(W19*1000000)/1000000</f>
+      <c r="AG19" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI19" s="1">
+        <f>(X19*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AI19" s="1">
-        <f t="shared" ref="AI19:AI21" si="21">(X19*1000000)/1000000</f>
+      <c r="AJ19" s="1">
+        <f t="shared" ref="AJ19:AJ21" si="21">(Y19*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AJ19" s="1">
-        <f t="shared" ref="AJ19:AJ21" si="22">(Y19*1000000)/1000000</f>
+      <c r="AK19" s="1">
+        <f t="shared" ref="AK19:AK21" si="22">(Z19*1000000)/1000000</f>
         <v>1.5</v>
       </c>
-      <c r="AK19" s="1">
-        <f t="shared" ref="AK19:AK21" si="23">(Z19*1000000)/1000000</f>
+      <c r="AL19" s="1">
+        <f t="shared" ref="AL19:AL21" si="23">(AA19*1000000)/1000000</f>
         <v>1.8</v>
       </c>
-      <c r="AL19" s="1">
-        <f t="shared" ref="AL19:AL21" si="24">(AA19*1000000)/1000000</f>
+      <c r="AM19" s="1">
+        <f t="shared" ref="AM19:AM21" si="24">(AB19*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AM19" s="1">
-        <f t="shared" ref="AM19:AM21" si="25">(AB19*1000000)/1000000</f>
+      <c r="AN19" s="1">
+        <f t="shared" ref="AN19:AN21" si="25">(AC19*1000000)/1000000</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AN19" s="1">
-        <f t="shared" ref="AN19:AN21" si="26">(AC19*1000000)/1000000</f>
+      <c r="AO19" s="1">
+        <f t="shared" ref="AO19:AO21" si="26">(AD19*1000000)/1000000</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N20" s="75">
-        <v>0</v>
+        <v>1148</v>
+      </c>
+      <c r="I20" s="17">
+        <v>100</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>1141</v>
       </c>
       <c r="O20" s="75">
         <v>0</v>
@@ -18385,77 +18508,77 @@
       <c r="W20" s="75">
         <v>0</v>
       </c>
-      <c r="X20" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="75">
+      <c r="X20" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="86">
         <v>0.5</v>
       </c>
-      <c r="Z20" s="75">
+      <c r="AA20" s="75">
         <v>1</v>
       </c>
-      <c r="AA20" s="75">
+      <c r="AB20" s="75">
         <v>1.5</v>
       </c>
-      <c r="AB20" s="75">
+      <c r="AC20" s="75">
         <v>2</v>
       </c>
-      <c r="AC20" s="75">
+      <c r="AD20" s="75">
         <v>2.5</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH20" s="1">
-        <f t="shared" ref="AH20:AH21" si="27">(W20*1000000)/1000000</f>
-        <v>0</v>
+      <c r="AG20" s="1" t="s">
+        <v>1048</v>
       </c>
       <c r="AI20" s="1">
+        <f t="shared" ref="AI20:AI21" si="27">(X20*1000000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AK20" s="1">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AN20" s="1">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AO20" s="1">
         <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="18" t="s">
         <v>1149</v>
       </c>
-      <c r="N21" s="75">
-        <v>0</v>
+      <c r="I21" s="17">
+        <v>100</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>1141</v>
       </c>
       <c r="O21" s="75">
         <v>0</v>
@@ -18484,77 +18607,77 @@
       <c r="W21" s="75">
         <v>0</v>
       </c>
-      <c r="X21" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="75">
-        <v>0.5</v>
+      <c r="X21" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="86">
+        <v>0</v>
       </c>
       <c r="AA21" s="75">
         <v>0.5</v>
       </c>
       <c r="AB21" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AC21" s="75">
         <v>1</v>
       </c>
-      <c r="AC21" s="75">
+      <c r="AD21" s="75">
         <v>1.5</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH21" s="1">
+      <c r="AG21" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI21" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AN21" s="1">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>1158</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N22" s="75">
-        <v>0</v>
+        <v>1150</v>
+      </c>
+      <c r="I22" s="17">
+        <v>100</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>1141</v>
       </c>
       <c r="O22" s="75">
         <v>0</v>
@@ -18583,77 +18706,77 @@
       <c r="W22" s="75">
         <v>0</v>
       </c>
-      <c r="X22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="75">
+      <c r="X22" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="86">
         <v>0</v>
       </c>
       <c r="AA22" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="75">
         <v>0.5</v>
       </c>
-      <c r="AB22" s="75">
+      <c r="AC22" s="75">
         <v>1</v>
       </c>
-      <c r="AC22" s="75">
+      <c r="AD22" s="75">
         <v>1.5</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH22" s="1">
-        <f t="shared" ref="AH22:AH23" si="28">(W22*1000000)/1000000</f>
-        <v>0</v>
+      <c r="AG22" s="1" t="s">
+        <v>1048</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" ref="AI22:AI23" si="29">(X22*1000000)/1000000</f>
+        <f t="shared" ref="AI22:AI23" si="28">(X22*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" ref="AJ22:AJ23" si="30">(Y22*1000000)/1000000</f>
+        <f t="shared" ref="AJ22:AJ23" si="29">(Y22*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" ref="AK22:AK23" si="31">(Z22*1000000)/1000000</f>
+        <f t="shared" ref="AK22:AK23" si="30">(Z22*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" ref="AL22:AL23" si="32">(AA22*1000000)/1000000</f>
+        <f t="shared" ref="AL22:AL23" si="31">(AA22*1000000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" ref="AM22:AM23" si="32">(AB22*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AM22" s="1">
-        <f t="shared" ref="AM22:AM23" si="33">(AB22*1000000)/1000000</f>
+      <c r="AN22" s="1">
+        <f t="shared" ref="AN22:AN23" si="33">(AC22*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AN22" s="1">
-        <f t="shared" ref="AN22:AN23" si="34">(AC22*1000000)/1000000</f>
+      <c r="AO22" s="1">
+        <f t="shared" ref="AO22:AO23" si="34">(AD22*1000000)/1000000</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H23" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N23" s="75">
-        <v>0</v>
+        <v>1151</v>
+      </c>
+      <c r="I23" s="17">
+        <v>100</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>1141</v>
       </c>
       <c r="O23" s="75">
         <v>0</v>
@@ -18682,178 +18805,725 @@
       <c r="W23" s="75">
         <v>0</v>
       </c>
-      <c r="X23" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="75">
+      <c r="X23" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="86">
         <v>0</v>
       </c>
       <c r="AA23" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="75">
         <v>0.5</v>
       </c>
-      <c r="AB23" s="75">
+      <c r="AC23" s="75">
         <v>1</v>
       </c>
-      <c r="AC23" s="75">
+      <c r="AD23" s="75">
         <v>1.5</v>
       </c>
-      <c r="AF23" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH23" s="1">
+      <c r="AG23" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI23" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AK23" s="1">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AN23" s="1">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AO23" s="1">
         <f t="shared" si="34"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="H24" s="17"/>
-      <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="I24" s="17"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="H25" s="17"/>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="H26" s="17"/>
-      <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="H27" s="17"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="H28" s="17"/>
-      <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="AF29" s="1"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="18" t="s">
+      <c r="I25" s="17"/>
+      <c r="N25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AI25" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="95" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="AF32" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="18" t="s">
+      <c r="M26" s="18">
+        <v>15</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="76">
+        <v>0</v>
+      </c>
+      <c r="P26" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="76">
+        <v>1</v>
+      </c>
+      <c r="R26" s="76">
+        <v>1.3</v>
+      </c>
+      <c r="S26" s="76">
+        <v>1.6</v>
+      </c>
+      <c r="T26" s="76">
+        <v>2</v>
+      </c>
+      <c r="U26" s="76">
+        <v>2</v>
+      </c>
+      <c r="V26" s="76">
+        <v>1.5</v>
+      </c>
+      <c r="W26" s="76">
+        <v>1</v>
+      </c>
+      <c r="X26" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="Z26" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="AA26" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="AB26" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AC26" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="AD26" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI26" s="1">
+        <f>X26*1000/1000000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" ref="AJ26:AJ31" si="35">(Y26*1000000)/1000000</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" ref="AK26:AK31" si="36">(Z26*1000000)/1000000</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL26" s="1">
+        <f t="shared" ref="AL26:AL31" si="37">(AA26*1000000)/1000000</f>
+        <v>0.3</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" ref="AM26:AM31" si="38">(AB26*1000000)/1000000</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN26" s="1">
+        <f t="shared" ref="AN26:AN31" si="39">(AC26*1000000)/1000000</f>
+        <v>0.1</v>
+      </c>
+      <c r="AO26" s="1">
+        <f t="shared" ref="AO26:AO31" si="40">(AD26*1000000)/1000000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="93" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B27" s="94"/>
+      <c r="C27" s="93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="95" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="AF33" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>915</v>
-      </c>
+      <c r="M27" s="18">
+        <v>30</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="76">
+        <v>0</v>
+      </c>
+      <c r="P27" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="76">
+        <v>0</v>
+      </c>
+      <c r="R27" s="76">
+        <v>0</v>
+      </c>
+      <c r="S27" s="76">
+        <v>0</v>
+      </c>
+      <c r="T27" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="U27" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="V27" s="76">
+        <v>1.5</v>
+      </c>
+      <c r="W27" s="76">
+        <v>2</v>
+      </c>
+      <c r="X27" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="Y27" s="91">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="86">
+        <v>0.8</v>
+      </c>
+      <c r="AA27" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="AB27" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="AC27" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AD27" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI27" s="1">
+        <f>(X27*1000000)/1000000</f>
+        <v>1.5</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="36"/>
+        <v>0.8</v>
+      </c>
+      <c r="AL27" s="1">
+        <f t="shared" si="37"/>
+        <v>0.6</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="38"/>
+        <v>0.4</v>
+      </c>
+      <c r="AN27" s="1">
+        <f t="shared" si="39"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO27" s="1">
+        <f t="shared" si="40"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E28" s="93"/>
+      <c r="F28" s="95" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O28" s="75">
+        <v>0</v>
+      </c>
+      <c r="P28" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="75">
+        <v>0</v>
+      </c>
+      <c r="R28" s="75">
+        <v>0</v>
+      </c>
+      <c r="S28" s="75">
+        <v>0</v>
+      </c>
+      <c r="T28" s="75">
+        <v>0</v>
+      </c>
+      <c r="U28" s="75">
+        <v>0</v>
+      </c>
+      <c r="V28" s="75">
+        <v>0</v>
+      </c>
+      <c r="W28" s="75">
+        <v>0</v>
+      </c>
+      <c r="X28" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="AB28" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="AC28" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="AD28" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" ref="AI28:AI31" si="41">(X28*1000000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="1">
+        <f t="shared" si="37"/>
+        <v>0.8</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="38"/>
+        <v>0.6</v>
+      </c>
+      <c r="AN28" s="1">
+        <f t="shared" si="39"/>
+        <v>0.4</v>
+      </c>
+      <c r="AO28" s="1">
+        <f t="shared" si="40"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B29" s="94"/>
+      <c r="C29" s="93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E29" s="93"/>
+      <c r="F29" s="95" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O29" s="75">
+        <v>0</v>
+      </c>
+      <c r="P29" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="75">
+        <v>0</v>
+      </c>
+      <c r="R29" s="75">
+        <v>0</v>
+      </c>
+      <c r="S29" s="75">
+        <v>0</v>
+      </c>
+      <c r="T29" s="75">
+        <v>0</v>
+      </c>
+      <c r="U29" s="75">
+        <v>0</v>
+      </c>
+      <c r="V29" s="75">
+        <v>0</v>
+      </c>
+      <c r="W29" s="75">
+        <v>0</v>
+      </c>
+      <c r="X29" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="75">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="AC29" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="AD29" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="39"/>
+        <v>0.6</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="40"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="93" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B30" s="94"/>
+      <c r="C30" s="93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E30" s="93"/>
+      <c r="F30" s="95" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O30" s="75">
+        <v>0</v>
+      </c>
+      <c r="P30" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="75">
+        <v>0</v>
+      </c>
+      <c r="R30" s="75">
+        <v>0</v>
+      </c>
+      <c r="S30" s="75">
+        <v>0</v>
+      </c>
+      <c r="T30" s="75">
+        <v>0</v>
+      </c>
+      <c r="U30" s="75">
+        <v>0</v>
+      </c>
+      <c r="V30" s="75">
+        <v>0</v>
+      </c>
+      <c r="W30" s="75">
+        <v>0</v>
+      </c>
+      <c r="X30" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="AD30" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AN30" s="1">
+        <f t="shared" si="39"/>
+        <v>0.8</v>
+      </c>
+      <c r="AO30" s="1">
+        <f t="shared" si="40"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B31" s="94"/>
+      <c r="C31" s="93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E31" s="93"/>
+      <c r="F31" s="95" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O31" s="75">
+        <v>0</v>
+      </c>
+      <c r="P31" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="75">
+        <v>0</v>
+      </c>
+      <c r="R31" s="75">
+        <v>0</v>
+      </c>
+      <c r="S31" s="75">
+        <v>0</v>
+      </c>
+      <c r="T31" s="75">
+        <v>0</v>
+      </c>
+      <c r="U31" s="75">
+        <v>0</v>
+      </c>
+      <c r="V31" s="75">
+        <v>0</v>
+      </c>
+      <c r="W31" s="75">
+        <v>0</v>
+      </c>
+      <c r="X31" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="75">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="75">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="F32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="F33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -18861,341 +19531,507 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="AF34" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1143</v>
-      </c>
+      <c r="N34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="AF35" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AI36" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>913</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="I37" s="18">
+        <v>10</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="75">
+        <v>0</v>
+      </c>
+      <c r="P37" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="R37" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="S37" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="T37" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="U37" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="V37" s="75">
+        <v>1</v>
+      </c>
+      <c r="W37" s="75">
+        <v>1</v>
+      </c>
+      <c r="X37" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="91">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="75">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="75">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="75">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>914</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="I38" s="18">
+        <v>10</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="75">
+        <v>0</v>
+      </c>
+      <c r="P38" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="75">
+        <v>0</v>
+      </c>
+      <c r="R38" s="75">
+        <v>0</v>
+      </c>
+      <c r="S38" s="75">
+        <v>0</v>
+      </c>
+      <c r="T38" s="75">
+        <v>0</v>
+      </c>
+      <c r="U38" s="75">
+        <v>0</v>
+      </c>
+      <c r="V38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="W38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="X38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="Z38" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="AA38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AB38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AC38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AD38" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>915</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AH39" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="75">
+        <v>0</v>
+      </c>
+      <c r="P39" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="75">
+        <v>0</v>
+      </c>
+      <c r="R39" s="75">
+        <v>0</v>
+      </c>
+      <c r="S39" s="75">
+        <v>0</v>
+      </c>
+      <c r="T39" s="75">
+        <v>0</v>
+      </c>
+      <c r="U39" s="75">
+        <v>0</v>
+      </c>
+      <c r="V39" s="75">
+        <v>0</v>
+      </c>
+      <c r="W39" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="X39" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="Y39" s="91">
+        <v>0.1</v>
+      </c>
+      <c r="Z39" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="AA39" s="75">
+        <v>0.15</v>
+      </c>
+      <c r="AB39" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AC39" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AD39" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>916</v>
+        <v>976</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="18">
+        <v>1</v>
+      </c>
       <c r="J40" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="75">
+        <v>0</v>
+      </c>
+      <c r="P40" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="75">
+        <v>0</v>
+      </c>
+      <c r="R40" s="75">
+        <v>0</v>
+      </c>
+      <c r="S40" s="75">
+        <v>0</v>
+      </c>
+      <c r="T40" s="75">
+        <v>0</v>
+      </c>
+      <c r="U40" s="75">
+        <v>0</v>
+      </c>
+      <c r="V40" s="75">
+        <v>0</v>
+      </c>
+      <c r="W40" s="75">
+        <v>0</v>
+      </c>
+      <c r="X40" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="75">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="75">
+        <v>10</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
+        <v>100</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K41" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="W40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="X40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="Y40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="Z40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="AA40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="AB40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="AC40" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH40" s="1">
-        <f t="shared" ref="AH40:AH41" si="35">100000000*Z40</f>
-        <v>5000000</v>
-      </c>
-      <c r="AI40" s="1">
-        <f t="shared" ref="AI40:AI41" si="36">100000000*AA40</f>
-        <v>5000000</v>
-      </c>
-      <c r="AJ40" s="1">
-        <f t="shared" ref="AJ40:AJ41" si="37">100000000*AB40</f>
-        <v>5000000</v>
-      </c>
-      <c r="AK40" s="1">
-        <f t="shared" ref="AK40:AK41" si="38">100000000*AC40</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="M41" s="1"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="75">
+        <v>0</v>
+      </c>
+      <c r="P41" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="75">
+        <v>2</v>
+      </c>
+      <c r="R41" s="75">
+        <v>10</v>
+      </c>
+      <c r="S41" s="75">
+        <v>5</v>
+      </c>
+      <c r="T41" s="75">
+        <v>2</v>
+      </c>
+      <c r="U41" s="75">
+        <v>0</v>
+      </c>
+      <c r="V41" s="75">
+        <v>0</v>
+      </c>
+      <c r="W41" s="75">
+        <v>0</v>
+      </c>
       <c r="X41" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="Z41" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="AA41" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="AB41" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="AC41" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH41" s="1">
-        <f t="shared" si="35"/>
-        <v>1000000</v>
-      </c>
-      <c r="AI41" s="1">
-        <f t="shared" si="36"/>
-        <v>1000000</v>
-      </c>
-      <c r="AJ41" s="1">
-        <f t="shared" si="37"/>
-        <v>1000000</v>
-      </c>
-      <c r="AK41" s="1">
-        <f t="shared" si="38"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="X42" s="75">
-        <v>1E-4</v>
-      </c>
-      <c r="Y42" s="75">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="Z42" s="75">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="AA42" s="75">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="AB42" s="75">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AC42" s="75">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH42" s="1">
-        <f>100000000*Z42</f>
-        <v>6000</v>
-      </c>
-      <c r="AI42" s="1">
-        <f t="shared" ref="AI42:AK42" si="39">100000000*AA42</f>
-        <v>4000.0000000000005</v>
-      </c>
-      <c r="AJ42" s="1">
-        <f t="shared" si="39"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AK42" s="1">
-        <f t="shared" si="39"/>
-        <v>1000.0000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="Z43" s="75">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AA43" s="75">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB43" s="75">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AC43" s="75">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH43" s="1">
-        <f>100000000*Z43</f>
-        <v>500.00000000000006</v>
-      </c>
-      <c r="AI43" s="1">
-        <f t="shared" ref="AI43:AK43" si="40">100000000*AA43</f>
-        <v>1000.0000000000001</v>
-      </c>
-      <c r="AJ43" s="1">
-        <f t="shared" si="40"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AK43" s="1">
-        <f t="shared" si="40"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="87">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="76">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="76">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="76">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="87"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="1"/>
+    </row>
+    <row r="43" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="76"/>
+      <c r="AB43" s="76"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="1"/>
+    </row>
+    <row r="44" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="1"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="18" t="s">
-        <v>637</v>
-      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
       <c r="M44" s="17"/>
-      <c r="N44" s="76"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="76"/>
       <c r="P44" s="76"/>
       <c r="Q44" s="76"/>
@@ -19205,20 +20041,22 @@
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
       <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="87"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
-      <c r="AD44" s="17"/>
+      <c r="AD44" s="76"/>
       <c r="AE44" s="17"/>
-      <c r="AF44" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="1"/>
+    </row>
+    <row r="45" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B45" s="53"/>
       <c r="C45" s="1"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -19228,7 +20066,7 @@
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
-      <c r="N45" s="76"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="76"/>
       <c r="P45" s="76"/>
       <c r="Q45" s="76"/>
@@ -19238,23 +20076,24 @@
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
       <c r="W45" s="76"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="87"/>
       <c r="AA45" s="76"/>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
-      <c r="AD45" s="17"/>
+      <c r="AD45" s="76"/>
       <c r="AE45" s="17"/>
-      <c r="AF45" s="1"/>
-    </row>
-    <row r="46" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="1"/>
+    </row>
+    <row r="46" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="53"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -19262,7 +20101,7 @@
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="76"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="76"/>
       <c r="P46" s="76"/>
       <c r="Q46" s="76"/>
@@ -19272,325 +20111,575 @@
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
       <c r="W46" s="76"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="87"/>
       <c r="AA46" s="76"/>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
-      <c r="AD46" s="17"/>
+      <c r="AD46" s="76"/>
       <c r="AE46" s="17"/>
-      <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="1"/>
+    </row>
+    <row r="47" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1043</v>
+      </c>
       <c r="B47" s="53"/>
-      <c r="C47" s="1"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
-      <c r="AC47" s="76"/>
-      <c r="AD47" s="17"/>
+      <c r="C47" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18">
+        <v>100</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18">
+        <v>100</v>
+      </c>
+      <c r="N47" s="18"/>
+      <c r="O47" s="75">
+        <v>0</v>
+      </c>
+      <c r="P47" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="75">
+        <v>0</v>
+      </c>
+      <c r="R47" s="75">
+        <v>0</v>
+      </c>
+      <c r="S47" s="75">
+        <v>0</v>
+      </c>
+      <c r="T47" s="75">
+        <v>0</v>
+      </c>
+      <c r="U47" s="75">
+        <v>0</v>
+      </c>
+      <c r="V47" s="75">
+        <v>0</v>
+      </c>
+      <c r="W47" s="75">
+        <v>0</v>
+      </c>
+      <c r="X47" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="75">
+        <v>0</v>
+      </c>
       <c r="AE47" s="17"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>1114</v>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1108</v>
       </c>
       <c r="B48" s="53"/>
-      <c r="C48" s="1"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
-      <c r="V48" s="76"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="76"/>
-      <c r="Y48" s="76"/>
-      <c r="Z48" s="76"/>
-      <c r="AA48" s="76"/>
-      <c r="AB48" s="76"/>
-      <c r="AC48" s="76"/>
-      <c r="AD48" s="17"/>
+      <c r="C48" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18">
+        <v>0</v>
+      </c>
+      <c r="N48" s="18"/>
+      <c r="O48" s="75">
+        <v>0</v>
+      </c>
+      <c r="P48" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="75">
+        <v>0</v>
+      </c>
+      <c r="R48" s="75">
+        <v>0</v>
+      </c>
+      <c r="S48" s="75">
+        <v>0</v>
+      </c>
+      <c r="T48" s="75">
+        <v>0</v>
+      </c>
+      <c r="U48" s="75">
+        <v>0</v>
+      </c>
+      <c r="V48" s="75">
+        <v>0</v>
+      </c>
+      <c r="W48" s="75">
+        <v>0</v>
+      </c>
+      <c r="X48" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="75">
+        <v>0</v>
+      </c>
       <c r="AE48" s="17"/>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="53"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="76"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="76"/>
-      <c r="Y49" s="76"/>
-      <c r="Z49" s="76"/>
-      <c r="AA49" s="76"/>
-      <c r="AB49" s="76"/>
-      <c r="AC49" s="76"/>
-      <c r="AD49" s="17"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="75"/>
+      <c r="W49" s="75"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="75"/>
+      <c r="AB49" s="75"/>
+      <c r="AC49" s="75"/>
+      <c r="AD49" s="75"/>
       <c r="AE49" s="17"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="1"/>
+    </row>
+    <row r="50" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1050</v>
+        <v>993</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1116</v>
+        <v>1079</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>1051</v>
+      <c r="F50" s="18" t="s">
+        <v>404</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="I50" s="18">
+        <v>100</v>
+      </c>
       <c r="J50" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="75"/>
-      <c r="U50" s="75"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="75"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="75"/>
-      <c r="Z50" s="75"/>
-      <c r="AA50" s="75"/>
-      <c r="AB50" s="75"/>
-      <c r="AC50" s="75"/>
-      <c r="AD50" s="17"/>
+      <c r="M50" s="18">
+        <v>5</v>
+      </c>
+      <c r="N50" s="18"/>
+      <c r="O50" s="75">
+        <v>0</v>
+      </c>
+      <c r="P50" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="75">
+        <v>0</v>
+      </c>
+      <c r="R50" s="75">
+        <v>0</v>
+      </c>
+      <c r="S50" s="75">
+        <v>0</v>
+      </c>
+      <c r="T50" s="75">
+        <v>0.01</v>
+      </c>
+      <c r="U50" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="V50" s="75">
+        <v>0.7</v>
+      </c>
+      <c r="W50" s="75">
+        <v>1</v>
+      </c>
+      <c r="X50" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="91">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="86">
+        <v>0.9</v>
+      </c>
+      <c r="AA50" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="AB50" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="AC50" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="AD50" s="75">
+        <v>0.2</v>
+      </c>
       <c r="AE50" s="17"/>
-      <c r="AF50" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1115</v>
+        <v>994</v>
       </c>
       <c r="B51" s="53"/>
       <c r="C51" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1116</v>
+        <v>1079</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>1138</v>
+      <c r="F51" s="18" t="s">
+        <v>402</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="I51" s="18">
+        <v>200</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>637</v>
+      </c>
       <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
-      <c r="U51" s="75"/>
-      <c r="V51" s="75"/>
-      <c r="W51" s="75"/>
-      <c r="X51" s="75"/>
-      <c r="Y51" s="75"/>
-      <c r="Z51" s="75"/>
-      <c r="AA51" s="75"/>
-      <c r="AB51" s="75"/>
-      <c r="AC51" s="75"/>
-      <c r="AD51" s="17"/>
+      <c r="M51" s="18">
+        <v>5</v>
+      </c>
+      <c r="N51" s="18"/>
+      <c r="O51" s="75">
+        <v>0</v>
+      </c>
+      <c r="P51" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="75">
+        <v>0</v>
+      </c>
+      <c r="R51" s="75">
+        <v>0</v>
+      </c>
+      <c r="S51" s="75">
+        <v>0</v>
+      </c>
+      <c r="T51" s="75">
+        <v>0.02</v>
+      </c>
+      <c r="U51" s="75">
+        <v>0.03</v>
+      </c>
+      <c r="V51" s="75">
+        <v>0.02</v>
+      </c>
+      <c r="W51" s="75">
+        <v>0.02</v>
+      </c>
+      <c r="X51" s="81">
+        <v>0.02</v>
+      </c>
+      <c r="Y51" s="91">
+        <v>0.02</v>
+      </c>
+      <c r="Z51" s="86">
+        <v>0.02</v>
+      </c>
+      <c r="AA51" s="75">
+        <v>0.02</v>
+      </c>
+      <c r="AB51" s="75">
+        <v>0.03</v>
+      </c>
+      <c r="AC51" s="75">
+        <v>0.04</v>
+      </c>
+      <c r="AD51" s="75">
+        <v>0.05</v>
+      </c>
       <c r="AE51" s="17"/>
-      <c r="AF51" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>995</v>
+      </c>
       <c r="B52" s="53"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1079</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="18" t="s">
+        <v>403</v>
+      </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="I52" s="18">
+        <v>400</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>637</v>
+      </c>
       <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="75"/>
-      <c r="U52" s="75"/>
-      <c r="V52" s="75"/>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="75"/>
-      <c r="AA52" s="75"/>
-      <c r="AB52" s="75"/>
-      <c r="AC52" s="75"/>
-      <c r="AD52" s="17"/>
+      <c r="M52" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N52" s="18"/>
+      <c r="O52" s="75">
+        <v>0</v>
+      </c>
+      <c r="P52" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="75">
+        <v>0</v>
+      </c>
+      <c r="R52" s="75">
+        <v>0</v>
+      </c>
+      <c r="S52" s="75">
+        <v>0</v>
+      </c>
+      <c r="T52" s="75">
+        <v>0</v>
+      </c>
+      <c r="U52" s="75">
+        <v>0</v>
+      </c>
+      <c r="V52" s="75">
+        <v>0</v>
+      </c>
+      <c r="W52" s="75">
+        <v>0</v>
+      </c>
+      <c r="X52" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="75">
+        <v>0</v>
+      </c>
       <c r="AE52" s="17"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="18" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="18">
+        <v>1000</v>
+      </c>
       <c r="J53" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K53" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="K53" s="18"/>
       <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
+      <c r="M53" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="18"/>
+      <c r="O53" s="75">
+        <v>0</v>
+      </c>
+      <c r="P53" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="75">
+        <v>0</v>
+      </c>
+      <c r="R53" s="75">
+        <v>0</v>
+      </c>
+      <c r="S53" s="75">
+        <v>0</v>
+      </c>
+      <c r="T53" s="75">
+        <v>0</v>
+      </c>
+      <c r="U53" s="75">
+        <v>0</v>
+      </c>
+      <c r="V53" s="75">
+        <v>0</v>
+      </c>
       <c r="W53" s="75">
         <v>0</v>
       </c>
-      <c r="X53" s="75">
+      <c r="X53" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="AA53" s="75">
         <v>0.5</v>
       </c>
-      <c r="Y53" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="Z53" s="75">
-        <v>0.4</v>
-      </c>
-      <c r="AA53" s="75">
-        <v>0.3</v>
-      </c>
       <c r="AB53" s="75">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AD53" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="AD53" s="75">
+        <v>3</v>
+      </c>
       <c r="AE53" s="17"/>
-      <c r="AF53" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>1000</v>
-      </c>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="53"/>
-      <c r="C54" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1086</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="18" t="s">
-        <v>402</v>
-      </c>
+      <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="18" t="s">
-        <v>637</v>
-      </c>
+      <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
-      <c r="N54" s="75"/>
+      <c r="N54" s="18"/>
       <c r="O54" s="75"/>
       <c r="P54" s="75"/>
       <c r="Q54" s="75"/>
@@ -19599,48 +20688,25 @@
       <c r="T54" s="75"/>
       <c r="U54" s="75"/>
       <c r="V54" s="75"/>
-      <c r="W54" s="75">
-        <v>0</v>
-      </c>
-      <c r="X54" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="75">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="17"/>
+      <c r="W54" s="75"/>
+      <c r="X54" s="81"/>
+      <c r="Y54" s="91"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="75"/>
+      <c r="AB54" s="75"/>
+      <c r="AC54" s="75"/>
+      <c r="AD54" s="75"/>
       <c r="AE54" s="17"/>
-      <c r="AF54" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>1001</v>
-      </c>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="1"/>
+    </row>
+    <row r="55" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
       <c r="B55" s="53"/>
-      <c r="C55" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1086</v>
-      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="18" t="s">
-        <v>403</v>
-      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
@@ -19648,7 +20714,7 @@
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="75"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="75"/>
       <c r="P55" s="75"/>
       <c r="Q55" s="75"/>
@@ -19657,56 +20723,49 @@
       <c r="T55" s="75"/>
       <c r="U55" s="75"/>
       <c r="V55" s="75"/>
-      <c r="W55" s="75">
-        <v>0</v>
-      </c>
-      <c r="X55" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="75">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="17"/>
+      <c r="W55" s="75"/>
+      <c r="X55" s="81"/>
+      <c r="Y55" s="91"/>
+      <c r="Z55" s="86"/>
+      <c r="AA55" s="75"/>
+      <c r="AB55" s="75"/>
+      <c r="AC55" s="75"/>
+      <c r="AD55" s="75"/>
       <c r="AE55" s="17"/>
-      <c r="AF55" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="1"/>
+    </row>
+    <row r="56" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="18" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
+      <c r="I56" s="18">
+        <v>100</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>637</v>
+      </c>
       <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="75"/>
+      <c r="M56" s="18">
+        <v>20</v>
+      </c>
+      <c r="N56" s="18"/>
       <c r="O56" s="75"/>
       <c r="P56" s="75"/>
       <c r="Q56" s="75"/>
@@ -19715,48 +20774,47 @@
       <c r="T56" s="75"/>
       <c r="U56" s="75"/>
       <c r="V56" s="75"/>
-      <c r="W56" s="75">
-        <v>0</v>
-      </c>
-      <c r="X56" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="Z56" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="AA56" s="75">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="75">
-        <v>2</v>
-      </c>
-      <c r="AC56" s="75">
-        <v>3</v>
-      </c>
-      <c r="AD56" s="17"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="91"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="75"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="75"/>
+      <c r="AD56" s="75"/>
       <c r="AE56" s="17"/>
-      <c r="AF56" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1000</v>
+      </c>
       <c r="B57" s="53"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1080</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="I57" s="18">
+        <v>100</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>1220</v>
+      </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
-      <c r="N57" s="75"/>
+      <c r="N57" s="18"/>
       <c r="O57" s="75"/>
       <c r="P57" s="75"/>
       <c r="Q57" s="75"/>
@@ -19767,30 +20825,49 @@
       <c r="V57" s="75"/>
       <c r="W57" s="75"/>
       <c r="X57" s="75"/>
-      <c r="Y57" s="75"/>
-      <c r="Z57" s="75"/>
+      <c r="Y57" s="91"/>
+      <c r="Z57" s="86"/>
       <c r="AA57" s="75"/>
       <c r="AB57" s="75"/>
       <c r="AC57" s="75"/>
-      <c r="AD57" s="17"/>
+      <c r="AD57" s="75"/>
       <c r="AE57" s="17"/>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1003</v>
+      </c>
       <c r="B58" s="53"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1080</v>
+      </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="18" t="s">
+        <v>1001</v>
+      </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
+      <c r="I58" s="18">
+        <v>100</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>637</v>
+      </c>
       <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="75"/>
+      <c r="M58" s="18">
+        <v>50</v>
+      </c>
+      <c r="N58" s="18"/>
       <c r="O58" s="75"/>
       <c r="P58" s="75"/>
       <c r="Q58" s="75"/>
@@ -19801,40 +20878,45 @@
       <c r="V58" s="75"/>
       <c r="W58" s="75"/>
       <c r="X58" s="75"/>
-      <c r="Y58" s="75"/>
-      <c r="Z58" s="75"/>
+      <c r="Y58" s="91"/>
+      <c r="Z58" s="86"/>
       <c r="AA58" s="75"/>
       <c r="AB58" s="75"/>
       <c r="AC58" s="75"/>
-      <c r="AD58" s="17"/>
+      <c r="AD58" s="75"/>
       <c r="AE58" s="17"/>
-      <c r="AF58" s="1"/>
-    </row>
-    <row r="59" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="18" t="s">
-        <v>392</v>
+        <v>1002</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
+      <c r="I59" s="18">
+        <v>100</v>
+      </c>
       <c r="J59" s="18" t="s">
-        <v>637</v>
+        <v>1220</v>
       </c>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
-      <c r="N59" s="75"/>
+      <c r="N59" s="18"/>
       <c r="O59" s="75"/>
       <c r="P59" s="75"/>
       <c r="Q59" s="75"/>
@@ -19843,48 +20925,27 @@
       <c r="T59" s="75"/>
       <c r="U59" s="75"/>
       <c r="V59" s="75"/>
-      <c r="W59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="X59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Y59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Z59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AA59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AB59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AC59" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AD59" s="17"/>
+      <c r="W59" s="75"/>
+      <c r="X59" s="75"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="86"/>
+      <c r="AA59" s="75"/>
+      <c r="AB59" s="75"/>
+      <c r="AC59" s="75"/>
+      <c r="AD59" s="75"/>
       <c r="AE59" s="17"/>
-      <c r="AF59" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>1006</v>
-      </c>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
       <c r="B60" s="53"/>
-      <c r="C60" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1087</v>
-      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="18" t="s">
-        <v>393</v>
-      </c>
+      <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
@@ -19892,7 +20953,7 @@
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
-      <c r="N60" s="75"/>
+      <c r="N60" s="18"/>
       <c r="O60" s="75"/>
       <c r="P60" s="75"/>
       <c r="Q60" s="75"/>
@@ -19901,871 +20962,1034 @@
       <c r="T60" s="75"/>
       <c r="U60" s="75"/>
       <c r="V60" s="75"/>
-      <c r="W60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="X60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Y60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Z60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AA60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AB60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AC60" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AD60" s="17"/>
+      <c r="W60" s="75"/>
+      <c r="X60" s="81"/>
+      <c r="Y60" s="91"/>
+      <c r="Z60" s="86"/>
+      <c r="AA60" s="75"/>
+      <c r="AB60" s="75"/>
+      <c r="AC60" s="75"/>
+      <c r="AD60" s="75"/>
       <c r="AE60" s="17"/>
-      <c r="AF60" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row r="61" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
       <c r="B61" s="53"/>
-      <c r="C61" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="76"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="82"/>
+      <c r="Y61" s="92"/>
+      <c r="Z61" s="87"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="1"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="AG62" s="1"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="AG63" s="1"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="AG64" s="1"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I65" s="18">
+        <v>10</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K65" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="X61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Y61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Z61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AA61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AB61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AC61" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AD61" s="17"/>
-      <c r="AE61" s="17"/>
-      <c r="AF61" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="75"/>
-      <c r="W62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="X62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Y62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="Z62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AA62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AB62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AC62" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="AD62" s="17"/>
-      <c r="AE62" s="17"/>
-      <c r="AF62" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
-      <c r="AA63" s="75"/>
-      <c r="AB63" s="75"/>
-      <c r="AC63" s="75"/>
-      <c r="AD63" s="17"/>
-      <c r="AE63" s="17"/>
-      <c r="AF63" s="1"/>
-    </row>
-    <row r="64" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="76"/>
-      <c r="S64" s="76"/>
-      <c r="T64" s="76"/>
-      <c r="U64" s="76"/>
-      <c r="V64" s="76"/>
-      <c r="W64" s="76"/>
-      <c r="X64" s="76"/>
-      <c r="Y64" s="76"/>
-      <c r="Z64" s="76"/>
-      <c r="AA64" s="76"/>
-      <c r="AB64" s="76"/>
-      <c r="AC64" s="76"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="17"/>
-      <c r="AF64" s="1"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="AF65" s="1"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="AF66" s="1"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="AF67" s="1"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M65" s="18">
+        <v>20</v>
+      </c>
+      <c r="AG65" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I66" s="18">
+        <v>10</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I67" s="18">
+        <v>10</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG67" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1041</v>
+        <v>1112</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>1042</v>
+        <v>1084</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I68" s="18">
+        <v>10</v>
       </c>
       <c r="J68" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K68" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="AF68" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG68" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>1045</v>
+        <v>727</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF69" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>741</v>
+        <v>1084</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="I70" s="18">
+        <v>0.5</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF70" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1120</v>
+        <v>321</v>
+      </c>
+      <c r="I71" s="18">
+        <v>1</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF71" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="AF72" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>744</v>
-      </c>
-      <c r="AF73" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF74" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+        <v>1221</v>
+      </c>
+      <c r="AG71" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="AG72" s="1"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="AG73" s="1"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="AG74" s="1"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
       <c r="C75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="AG75" s="1"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>609</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="AF77" s="1"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="C78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="AF78" s="1"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="18" t="s">
+      <c r="I76" s="17">
+        <v>100</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K76" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="AF79" s="1" t="s">
+      <c r="M76" s="18">
+        <v>50</v>
+      </c>
+      <c r="AG76" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I77" s="18">
+        <v>10</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="M77" s="18">
+        <v>10</v>
+      </c>
+      <c r="AG77" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="I78" s="18">
+        <v>10</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K78" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="M78" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="AG79" s="1"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="AG80" s="1"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="I81" s="18">
+        <v>1</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AG81" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I82" s="18">
+        <v>1</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AG82" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="J80" s="18" t="s">
+      <c r="C83" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="I83" s="18">
+        <v>1</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AG83" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="I84" s="18">
+        <v>1</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="AG85" s="1"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="I86" s="18">
+        <v>10</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K86" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="AF80" s="1" t="s">
+      <c r="M86" s="18">
+        <v>20</v>
+      </c>
+      <c r="AG86" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="J81" s="18" t="s">
+      <c r="D87" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="I87" s="18">
+        <v>10</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG87" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I88" s="18">
+        <v>10</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG88" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I89" s="18">
+        <v>10</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="AG90" s="1"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="AG91" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="I92" s="18">
+        <v>10</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K92" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="AF81" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="AF82" s="1"/>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="AF83" s="1"/>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AF85" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF86" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="AF87" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="AF88" s="1"/>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF89" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF90" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AF91" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AF92" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M92" s="18">
+        <v>20</v>
+      </c>
+      <c r="AG92" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="AF93" s="1"/>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="J94" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF94" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>760</v>
-      </c>
-      <c r="J95" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF95" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="AG93" s="1"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="76"/>
+      <c r="P95" s="76"/>
+      <c r="Q95" s="76"/>
+      <c r="R95" s="76"/>
+      <c r="S95" s="76"/>
+      <c r="T95" s="76"/>
+      <c r="U95" s="76"/>
+      <c r="V95" s="76"/>
+      <c r="W95" s="76"/>
+      <c r="X95" s="82"/>
+      <c r="Y95" s="92"/>
+      <c r="Z95" s="87"/>
+      <c r="AA95" s="76"/>
+      <c r="AB95" s="76"/>
+      <c r="AC95" s="76"/>
+      <c r="AD95" s="76"/>
+      <c r="AE95" s="17"/>
+      <c r="AF95" s="17"/>
+      <c r="AG95" s="1"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>1014</v>
+      </c>
       <c r="C96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="AF96" s="1"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG96" s="1"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="AG97" s="1"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="76"/>
-      <c r="O98" s="76"/>
-      <c r="P98" s="76"/>
-      <c r="Q98" s="76"/>
-      <c r="R98" s="76"/>
-      <c r="S98" s="76"/>
-      <c r="T98" s="76"/>
-      <c r="U98" s="76"/>
-      <c r="V98" s="76"/>
-      <c r="W98" s="76"/>
-      <c r="X98" s="76"/>
-      <c r="Y98" s="76"/>
-      <c r="Z98" s="76"/>
-      <c r="AA98" s="76"/>
-      <c r="AB98" s="76"/>
-      <c r="AC98" s="76"/>
-      <c r="AD98" s="17"/>
-      <c r="AE98" s="17"/>
-      <c r="AF98" s="1"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="AF99" s="1"/>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="AF100" s="1"/>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="AF101" s="1"/>
-    </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F102" s="17" t="s">
+      <c r="AG98" s="1"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="18">
+        <v>1</v>
+      </c>
+      <c r="J99" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N99" s="17"/>
+      <c r="O99" s="76"/>
+      <c r="P99" s="76"/>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="76"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="76"/>
+      <c r="U99" s="76"/>
+      <c r="V99" s="76"/>
+      <c r="W99" s="76"/>
+      <c r="X99" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="Y99" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="Z99" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="AA99" s="75">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="AC99" s="75">
+        <v>2</v>
+      </c>
+      <c r="AD99" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="AG99" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="18">
+        <v>1</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="AG100" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="AG101" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="AG102" s="1"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="AG103" s="1"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17">
+        <v>5</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N104" s="17"/>
+      <c r="O104" s="76"/>
+      <c r="P104" s="76"/>
+      <c r="Q104" s="76"/>
+      <c r="R104" s="76"/>
+      <c r="S104" s="76"/>
+      <c r="T104" s="76"/>
+      <c r="U104" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="V104" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="W104" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="X104" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="91">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="AA104" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AB104" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AC104" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AD104" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AG104" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17">
+        <v>4</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="76"/>
+      <c r="Q105" s="76"/>
+      <c r="R105" s="76"/>
+      <c r="S105" s="76"/>
+      <c r="T105" s="76"/>
+      <c r="U105" s="76"/>
+      <c r="V105" s="76"/>
+      <c r="W105" s="76"/>
+      <c r="X105" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="AA105" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="AB105" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="75">
+        <v>1.25</v>
+      </c>
+      <c r="AD105" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="AG105" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17">
+        <v>3</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="76"/>
+      <c r="R106" s="76"/>
+      <c r="S106" s="76"/>
+      <c r="T106" s="76"/>
+      <c r="U106" s="76"/>
+      <c r="V106" s="76"/>
+      <c r="W106" s="76"/>
+      <c r="X106" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="AB106" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="75">
+        <v>1.25</v>
+      </c>
+      <c r="AD106" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="AG106" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>1031</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="M102" s="17"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
-      <c r="R102" s="76"/>
-      <c r="S102" s="76"/>
-      <c r="T102" s="76"/>
-      <c r="U102" s="76"/>
-      <c r="V102" s="76"/>
-      <c r="W102" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="X102" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Y102" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="Z102" s="75">
-        <v>1</v>
-      </c>
-      <c r="AA102" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="AB102" s="75">
-        <v>2</v>
-      </c>
-      <c r="AC102" s="75">
-        <v>2.5</v>
-      </c>
-      <c r="AF102" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="AF103" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="AF104" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="AF105" s="1"/>
-    </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="AF106" s="1"/>
-    </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>1034</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="18" t="s">
-        <v>637</v>
-      </c>
+      <c r="I107" s="17">
+        <v>2</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
       <c r="M107" s="17"/>
-      <c r="N107" s="76"/>
+      <c r="N107" s="17"/>
       <c r="O107" s="76"/>
       <c r="P107" s="76"/>
       <c r="Q107" s="76"/>
@@ -20774,52 +21998,57 @@
       <c r="T107" s="76"/>
       <c r="U107" s="76"/>
       <c r="V107" s="76"/>
-      <c r="W107" s="75">
-        <v>0</v>
-      </c>
-      <c r="X107" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="Y107" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="Z107" s="75">
-        <v>0.5</v>
+      <c r="W107" s="76"/>
+      <c r="X107" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="86">
+        <v>0</v>
       </c>
       <c r="AA107" s="75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB107" s="75">
         <v>0.5</v>
       </c>
       <c r="AC107" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="AF107" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="75">
+        <v>1.25</v>
+      </c>
+      <c r="AG107" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>1035</v>
+        <v>1222</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
+      <c r="I108" s="17">
+        <v>1</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>1220</v>
+      </c>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
-      <c r="N108" s="76"/>
+      <c r="N108" s="17"/>
       <c r="O108" s="76"/>
       <c r="P108" s="76"/>
       <c r="Q108" s="76"/>
@@ -20828,44 +22057,36 @@
       <c r="T108" s="76"/>
       <c r="U108" s="76"/>
       <c r="V108" s="76"/>
-      <c r="W108" s="75">
-        <v>0</v>
-      </c>
-      <c r="X108" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="75">
+      <c r="W108" s="76"/>
+      <c r="X108" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="AD108" s="75">
         <v>0.5</v>
       </c>
-      <c r="Z108" s="75">
-        <v>1</v>
-      </c>
-      <c r="AA108" s="75">
-        <v>1.25</v>
-      </c>
-      <c r="AB108" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="AC108" s="75">
-        <v>1.75</v>
-      </c>
-      <c r="AF108" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>1036</v>
-      </c>
+      <c r="AG108" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
@@ -20873,7 +22094,7 @@
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
-      <c r="N109" s="76"/>
+      <c r="N109" s="17"/>
       <c r="O109" s="76"/>
       <c r="P109" s="76"/>
       <c r="Q109" s="76"/>
@@ -20882,44 +22103,13 @@
       <c r="T109" s="76"/>
       <c r="U109" s="76"/>
       <c r="V109" s="76"/>
-      <c r="W109" s="75">
-        <v>0</v>
-      </c>
-      <c r="X109" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="AA109" s="75">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="75">
-        <v>1.25</v>
-      </c>
-      <c r="AC109" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="AF109" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>1038</v>
-      </c>
+      <c r="W109" s="76"/>
+      <c r="AG109" s="1"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
@@ -20927,7 +22117,7 @@
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
-      <c r="N110" s="76"/>
+      <c r="N110" s="17"/>
       <c r="O110" s="76"/>
       <c r="P110" s="76"/>
       <c r="Q110" s="76"/>
@@ -20936,44 +22126,15 @@
       <c r="T110" s="76"/>
       <c r="U110" s="76"/>
       <c r="V110" s="76"/>
-      <c r="W110" s="75">
-        <v>0</v>
-      </c>
-      <c r="X110" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="75">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="AB110" s="75">
-        <v>1</v>
-      </c>
-      <c r="AC110" s="75">
-        <v>1.25</v>
-      </c>
-      <c r="AF110" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>1037</v>
-      </c>
+      <c r="W110" s="76"/>
+      <c r="AG110" s="1"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
@@ -20981,7 +22142,7 @@
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
-      <c r="N111" s="76"/>
+      <c r="N111" s="17"/>
       <c r="O111" s="76"/>
       <c r="P111" s="76"/>
       <c r="Q111" s="76"/>
@@ -20990,32 +22151,10 @@
       <c r="T111" s="76"/>
       <c r="U111" s="76"/>
       <c r="V111" s="76"/>
-      <c r="W111" s="75">
-        <v>0</v>
-      </c>
-      <c r="X111" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z111" s="75">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB111" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="AC111" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="AF111" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W111" s="76"/>
+      <c r="AG111" s="1"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
       <c r="F112" s="17"/>
@@ -21026,7 +22165,7 @@
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
-      <c r="N112" s="76"/>
+      <c r="N112" s="17"/>
       <c r="O112" s="76"/>
       <c r="P112" s="76"/>
       <c r="Q112" s="76"/>
@@ -21035,11 +22174,12 @@
       <c r="T112" s="76"/>
       <c r="U112" s="76"/>
       <c r="V112" s="76"/>
-      <c r="AF112" s="1"/>
-    </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W112" s="76"/>
+      <c r="AG112" s="1"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>1129</v>
+        <v>1045</v>
       </c>
       <c r="C113" s="1"/>
       <c r="F113" s="17"/>
@@ -21050,7 +22190,7 @@
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
-      <c r="N113" s="76"/>
+      <c r="N113" s="17"/>
       <c r="O113" s="76"/>
       <c r="P113" s="76"/>
       <c r="Q113" s="76"/>
@@ -21059,246 +22199,413 @@
       <c r="T113" s="76"/>
       <c r="U113" s="76"/>
       <c r="V113" s="76"/>
-      <c r="AF113" s="1"/>
-    </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W113" s="76"/>
+      <c r="AG113" s="1"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="76"/>
-      <c r="O114" s="76"/>
-      <c r="P114" s="76"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="76"/>
-      <c r="S114" s="76"/>
-      <c r="T114" s="76"/>
-      <c r="U114" s="76"/>
-      <c r="V114" s="76"/>
-      <c r="AF114" s="1"/>
-    </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="AG114" s="1"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I115" s="18">
+        <v>10</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG115" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="I116" s="18">
+        <v>100</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG116" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="AG117" s="1"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="AG118" s="1"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="77"/>
+      <c r="P119" s="77"/>
+      <c r="Q119" s="77"/>
+      <c r="R119" s="77"/>
+      <c r="S119" s="77"/>
+      <c r="T119" s="77"/>
+      <c r="U119" s="77"/>
+      <c r="V119" s="77"/>
+      <c r="W119" s="77"/>
+      <c r="AG119" s="1"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I120" s="18">
+        <v>1</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AG120" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I121" s="18">
+        <v>1</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AG121" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I122" s="18">
+        <v>1</v>
+      </c>
+      <c r="J122" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AG122" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="AG123" s="1"/>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="AG124" s="1"/>
+    </row>
+    <row r="126" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" s="55"/>
+      <c r="AG127" s="55"/>
+    </row>
+    <row r="129" spans="1:33" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="N129" s="64" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O129" s="74">
+        <v>0</v>
+      </c>
+      <c r="P129" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="74">
+        <v>2</v>
+      </c>
+      <c r="R129" s="74">
+        <v>3</v>
+      </c>
+      <c r="S129" s="74">
+        <v>4</v>
+      </c>
+      <c r="T129" s="74">
+        <v>5</v>
+      </c>
+      <c r="U129" s="74">
+        <v>6</v>
+      </c>
+      <c r="V129" s="74">
+        <v>7</v>
+      </c>
+      <c r="W129" s="74">
+        <v>8</v>
+      </c>
+      <c r="X129" s="79">
+        <v>9</v>
+      </c>
+      <c r="Y129" s="89">
+        <v>10</v>
+      </c>
+      <c r="Z129" s="84">
+        <v>11</v>
+      </c>
+      <c r="AA129" s="74">
+        <v>12</v>
+      </c>
+      <c r="AB129" s="74">
+        <v>13</v>
+      </c>
+      <c r="AC129" s="74">
+        <v>14</v>
+      </c>
+      <c r="AD129" s="74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N130" s="65"/>
+      <c r="O130" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P130" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q130" s="51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R130" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="S130" s="51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="T130" s="51" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U130" s="51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V130" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="W130" s="51" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X130" s="80" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Y130" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z130" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA130" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB130" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC130" s="18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AD130" s="18" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="AG132" s="1"/>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="76"/>
-      <c r="O115" s="76"/>
-      <c r="P115" s="76"/>
-      <c r="Q115" s="76"/>
-      <c r="R115" s="76"/>
-      <c r="S115" s="76"/>
-      <c r="T115" s="76"/>
-      <c r="U115" s="76"/>
-      <c r="V115" s="76"/>
-      <c r="AF115" s="1"/>
-    </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="AF116" s="1"/>
-    </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F117" s="18" t="s">
+      <c r="D133" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="K133" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="X133" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="Y133" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="Z133" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="AA133" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AB133" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AC133" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AD133" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AG133" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AF117" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="W118" s="75">
-        <v>0</v>
-      </c>
-      <c r="X118" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y118" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="75">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB118" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC118" s="75">
-        <v>0</v>
-      </c>
-      <c r="AF118" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C119" s="1"/>
-      <c r="AF119" s="1"/>
-    </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="AF120" s="1"/>
-    </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C121" s="1"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="77"/>
-      <c r="Q121" s="77"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="77"/>
-      <c r="AF121" s="1"/>
-    </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="AF122" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="AF123" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="AF124" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="AF125" s="1"/>
-    </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="AF126" s="1"/>
-    </row>
-    <row r="128" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A129" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="C129" s="55"/>
-      <c r="AF129" s="55"/>
-    </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="AF134" s="1"/>
-    </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="K134" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="X134" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="Z134" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="AA134" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AB134" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AC134" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AD134" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AG134" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="J135" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="W135" s="75">
+        <v>1076</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="X135" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="91">
         <v>0.2</v>
       </c>
-      <c r="X135" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Y135" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Z135" s="75">
+      <c r="Z135" s="86">
         <v>0.2</v>
       </c>
       <c r="AA135" s="75">
@@ -21310,36 +22617,38 @@
       <c r="AC135" s="75">
         <v>0.2</v>
       </c>
-      <c r="AF135" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD135" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AG135" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="J136" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="W136" s="75">
-        <v>0</v>
-      </c>
-      <c r="X136" s="75">
+        <v>1076</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="X136" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="91">
         <v>0.2</v>
       </c>
-      <c r="Y136" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Z136" s="75">
+      <c r="Z136" s="86">
         <v>0.2</v>
       </c>
       <c r="AA136" s="75">
@@ -21351,104 +22660,21 @@
       <c r="AC136" s="75">
         <v>0.2</v>
       </c>
-      <c r="AF136" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="W137" s="75">
-        <v>0</v>
-      </c>
-      <c r="X137" s="75">
+      <c r="AD136" s="75">
         <v>0.2</v>
       </c>
-      <c r="Y137" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Z137" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AA137" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AB137" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AC137" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AF137" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="W138" s="75">
-        <v>0</v>
-      </c>
-      <c r="X138" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Y138" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="Z138" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AA138" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AB138" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AC138" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="AF138" s="1" t="s">
-        <v>1055</v>
+      <c r="AG136" s="1" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="2">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N129:N130"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="AF129 A129 C129">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="AG127 A127 C127">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -21458,8 +22684,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2 N2 U2">
-    <cfRule type="iconSet" priority="4">
+  <conditionalFormatting sqref="X2 O2 V2">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -21469,8 +22695,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:AC2 O2:T2 V2">
-    <cfRule type="iconSet" priority="7">
+  <conditionalFormatting sqref="Y2:AD2 P2:U2 W2">
+    <cfRule type="iconSet" priority="9">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -21480,8 +22706,30 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AJ1 AD1:AE1 AG1">
-    <cfRule type="iconSet" priority="9">
+  <conditionalFormatting sqref="AJ1:AK1 AE1:AF1 AH1">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X129 O129 V129">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y129:AD129 P129:U129 W129">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -21522,7 +22770,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="56" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="12"/>
     </row>
@@ -21531,16 +22779,16 @@
         <v>143</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
@@ -21567,7 +22815,7 @@
         <v>189</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="C3" s="67"/>
       <c r="I3" s="18"/>
@@ -21605,120 +22853,120 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="18" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -21753,7 +23001,7 @@
     </row>
     <row r="19" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A19" s="56" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B19" s="12"/>
     </row>
@@ -21762,20 +23010,20 @@
         <v>143</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="45" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21785,10 +23033,10 @@
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="58" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -21796,10 +23044,10 @@
         <v>188</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>383</v>
@@ -21813,13 +23061,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>394</v>
@@ -21827,16 +23075,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>637</v>
@@ -21847,16 +23095,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>637</v>
@@ -21867,13 +23115,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>912</v>
@@ -21893,16 +23141,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -21913,24 +23161,24 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>401</v>
@@ -21941,16 +23189,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -21960,16 +23208,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -21980,44 +23228,44 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>759</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -22035,13 +23283,13 @@
         <v>189</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -22054,31 +23302,31 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -22094,7 +23342,7 @@
         <v>420</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>412</v>
@@ -22106,31 +23354,31 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="H48" s="1"/>
     </row>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BAA21-D0D3-4F5A-AA27-738E9D361485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CAF939-3F6B-42A2-BBF1-3B5EF6FC91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
-    <workbookView minimized="1" xWindow="14175" yWindow="420" windowWidth="9675" windowHeight="11385" firstSheet="13" activeTab="14" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15705" firstSheet="13" activeTab="14" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Resources_categories" sheetId="25" r:id="rId4"/>
     <sheet name="MapGenerator" sheetId="12" r:id="rId5"/>
     <sheet name="MG_sectors" sheetId="11" r:id="rId6"/>
-    <sheet name="MG_system_types" sheetId="22" r:id="rId7"/>
+    <sheet name="MG_systems_types" sheetId="22" r:id="rId7"/>
     <sheet name="MG_systems" sheetId="14" r:id="rId8"/>
     <sheet name="|||" sheetId="10" r:id="rId9"/>
     <sheet name="Units" sheetId="20" r:id="rId10"/>
@@ -3893,14 +3893,14 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3940,6 +3940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4236,7 +4242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4334,7 +4340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4379,7 +4384,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4446,6 +4450,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11897,34 +11923,34 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="69" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="69" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="69" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -12305,7 +12331,7 @@
       <c r="C6" s="47" t="s">
         <v>1170</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="71" t="s">
         <v>1169</v>
       </c>
       <c r="L6" s="47"/>
@@ -13892,24 +13918,24 @@
         <v>189</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="58" t="s">
         <v>831</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58" t="s">
         <v>840</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="59" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="58" t="s">
         <v>845</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60"/>
       <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13917,30 +13943,30 @@
         <v>189</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="59" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="R3" s="61"/>
+      <c r="R3" s="60"/>
       <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -17230,11 +17256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O90" sqref="O90"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V21" sqref="V20:V21"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -17253,19 +17279,20 @@
     <col min="12" max="12" width="11" style="18" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="18" customWidth="1"/>
     <col min="14" max="14" width="17" style="18" customWidth="1"/>
-    <col min="15" max="23" width="8.140625" style="75" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="81" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="91" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="86" customWidth="1"/>
-    <col min="27" max="30" width="8.140625" style="75" customWidth="1"/>
+    <col min="15" max="23" width="8.140625" style="73" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="79" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" style="89" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="84" customWidth="1"/>
+    <col min="27" max="30" width="8.140625" style="73" customWidth="1"/>
     <col min="31" max="32" width="7.5703125" style="1"/>
     <col min="33" max="33" width="31.7109375" style="53" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" style="1"/>
-    <col min="35" max="35" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="7.5703125" style="1"/>
+    <col min="34" max="34" width="7.42578125" style="96" customWidth="1"/>
+    <col min="35" max="35" width="3.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
@@ -17326,13 +17353,13 @@
       <c r="W1" s="52" t="s">
         <v>1178</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="76" t="s">
         <v>1179</v>
       </c>
-      <c r="Y1" s="88" t="s">
+      <c r="Y1" s="86" t="s">
         <v>1180</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="Z1" s="81" t="s">
         <v>1181</v>
       </c>
       <c r="AA1" s="52" t="s">
@@ -17348,85 +17375,86 @@
         <v>1185</v>
       </c>
       <c r="AE1" s="32"/>
-      <c r="AF1" s="57"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="33"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="32"/>
       <c r="AL1" s="33"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="30"/>
-    </row>
-    <row r="2" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="30"/>
+    </row>
+    <row r="2" spans="1:42" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>910</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="N2" s="63" t="s">
         <v>1138</v>
       </c>
-      <c r="O2" s="74">
-        <v>0</v>
-      </c>
-      <c r="P2" s="74">
+      <c r="O2" s="72">
+        <v>0</v>
+      </c>
+      <c r="P2" s="72">
         <v>1</v>
       </c>
-      <c r="Q2" s="74">
+      <c r="Q2" s="72">
         <v>2</v>
       </c>
-      <c r="R2" s="74">
+      <c r="R2" s="72">
         <v>3</v>
       </c>
-      <c r="S2" s="74">
+      <c r="S2" s="72">
         <v>4</v>
       </c>
-      <c r="T2" s="74">
+      <c r="T2" s="72">
         <v>5</v>
       </c>
-      <c r="U2" s="74">
+      <c r="U2" s="72">
         <v>6</v>
       </c>
-      <c r="V2" s="74">
+      <c r="V2" s="72">
         <v>7</v>
       </c>
-      <c r="W2" s="74">
+      <c r="W2" s="72">
         <v>8</v>
       </c>
-      <c r="X2" s="79">
+      <c r="X2" s="77">
         <v>9</v>
       </c>
-      <c r="Y2" s="89">
+      <c r="Y2" s="87">
         <v>10</v>
       </c>
-      <c r="Z2" s="84">
+      <c r="Z2" s="82">
         <v>11</v>
       </c>
-      <c r="AA2" s="74">
+      <c r="AA2" s="72">
         <v>12</v>
       </c>
-      <c r="AB2" s="74">
+      <c r="AB2" s="72">
         <v>13</v>
       </c>
-      <c r="AC2" s="74">
+      <c r="AC2" s="72">
         <v>14</v>
       </c>
-      <c r="AD2" s="74">
+      <c r="AD2" s="72">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="65"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="51" t="s">
         <v>1190</v>
       </c>
@@ -17454,13 +17482,13 @@
       <c r="W3" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="X3" s="80" t="s">
+      <c r="X3" s="78" t="s">
         <v>1186</v>
       </c>
-      <c r="Y3" s="90" t="s">
+      <c r="Y3" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="Z3" s="85" t="s">
+      <c r="Z3" s="83" t="s">
         <v>388</v>
       </c>
       <c r="AA3" s="18" t="s">
@@ -17476,45 +17504,47 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AI4" s="1" t="s">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1087</v>
       </c>
       <c r="C5" s="12"/>
       <c r="AG5" s="12"/>
-      <c r="AI5" s="1" t="s">
+      <c r="AH5" s="105"/>
+      <c r="AJ5" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
       <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH6" s="98"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>981</v>
       </c>
@@ -17536,67 +17566,64 @@
       <c r="K7" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O7" s="75">
-        <v>0</v>
-      </c>
-      <c r="P7" s="75">
+      <c r="O7" s="73">
+        <v>0</v>
+      </c>
+      <c r="P7" s="73">
         <v>1</v>
       </c>
-      <c r="Q7" s="75">
+      <c r="Q7" s="73">
         <v>1</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="73">
         <v>1</v>
       </c>
-      <c r="S7" s="75">
+      <c r="S7" s="73">
         <v>1</v>
       </c>
-      <c r="T7" s="75">
+      <c r="T7" s="73">
         <v>1</v>
       </c>
-      <c r="U7" s="75">
+      <c r="U7" s="73">
         <v>1</v>
       </c>
-      <c r="V7" s="75">
+      <c r="V7" s="73">
         <v>1</v>
       </c>
-      <c r="W7" s="75">
+      <c r="W7" s="73">
         <v>1</v>
       </c>
-      <c r="X7" s="81">
+      <c r="X7" s="79">
         <v>1</v>
       </c>
-      <c r="Y7" s="91">
+      <c r="Y7" s="89">
         <v>1</v>
       </c>
-      <c r="Z7" s="86">
+      <c r="Z7" s="84">
         <v>1</v>
       </c>
-      <c r="AA7" s="75">
+      <c r="AA7" s="73">
         <v>1</v>
       </c>
-      <c r="AB7" s="75">
+      <c r="AB7" s="73">
         <v>1</v>
       </c>
-      <c r="AC7" s="75">
+      <c r="AC7" s="73">
         <v>1</v>
       </c>
-      <c r="AD7" s="75">
+      <c r="AD7" s="73">
         <v>1</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AH7" s="98"/>
+      <c r="AJ7" s="1">
         <f>(X7*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AJ7" s="1">
-        <f t="shared" ref="AJ7:AO7" si="0">(Y7*1000000)/1000000</f>
-        <v>1</v>
-      </c>
       <c r="AK7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AK7:AP7" si="0">(Y7*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AL7" s="1">
@@ -17615,8 +17642,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>982</v>
       </c>
@@ -17641,87 +17672,88 @@
       <c r="M8" s="18">
         <v>15</v>
       </c>
-      <c r="O8" s="75">
-        <v>0</v>
-      </c>
-      <c r="P8" s="75">
+      <c r="O8" s="73">
+        <v>0</v>
+      </c>
+      <c r="P8" s="73">
         <v>1</v>
       </c>
-      <c r="Q8" s="75">
+      <c r="Q8" s="73">
         <v>1</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="73">
         <v>1</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="73">
         <v>1</v>
       </c>
-      <c r="T8" s="75">
+      <c r="T8" s="73">
         <v>1</v>
       </c>
-      <c r="U8" s="75">
+      <c r="U8" s="73">
         <v>1</v>
       </c>
-      <c r="V8" s="75">
+      <c r="V8" s="73">
         <v>1</v>
       </c>
-      <c r="W8" s="75">
+      <c r="W8" s="73">
         <v>1</v>
       </c>
-      <c r="X8" s="81">
+      <c r="X8" s="79">
         <v>1</v>
       </c>
-      <c r="Y8" s="91">
+      <c r="Y8" s="89">
         <v>1</v>
       </c>
-      <c r="Z8" s="86">
+      <c r="Z8" s="84">
         <v>1</v>
       </c>
-      <c r="AA8" s="75">
+      <c r="AA8" s="73">
         <v>1</v>
       </c>
-      <c r="AB8" s="75">
+      <c r="AB8" s="73">
         <v>1</v>
       </c>
-      <c r="AC8" s="75">
+      <c r="AC8" s="73">
         <v>1</v>
       </c>
-      <c r="AD8" s="75">
+      <c r="AD8" s="73">
         <v>1</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AH8" s="98"/>
+      <c r="AJ8" s="1">
         <f>(X8*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AJ8" s="1">
-        <f t="shared" ref="AJ8:AJ10" si="1">(Y8*1000000)/1000000</f>
+      <c r="AK8" s="1">
+        <f t="shared" ref="AK8:AK10" si="1">(Y8*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AK8" s="1">
-        <f t="shared" ref="AK8:AK10" si="2">(Z8*1000000)/1000000</f>
+      <c r="AL8" s="1">
+        <f t="shared" ref="AL8:AL10" si="2">(Z8*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="1">
-        <f t="shared" ref="AL8:AL10" si="3">(AA8*1000000)/1000000</f>
+      <c r="AM8" s="1">
+        <f t="shared" ref="AM8:AM10" si="3">(AA8*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AM8" s="1">
-        <f t="shared" ref="AM8:AM10" si="4">(AB8*1000000)/1000000</f>
+      <c r="AN8" s="1">
+        <f t="shared" ref="AN8:AN10" si="4">(AB8*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AN8" s="1">
-        <f t="shared" ref="AN8:AN10" si="5">(AC8*1000000)/1000000</f>
+      <c r="AO8" s="1">
+        <f t="shared" ref="AO8:AO10" si="5">(AC8*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AO8" s="1">
-        <f t="shared" ref="AO8:AO10" si="6">(AD8*1000000)/1000000</f>
+      <c r="AP8" s="1">
+        <f t="shared" ref="AP8:AP10" si="6">(AD8*1000000)/1000000</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>983</v>
       </c>
@@ -17743,87 +17775,88 @@
       <c r="K9" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O9" s="75">
-        <v>0</v>
-      </c>
-      <c r="P9" s="75">
+      <c r="O9" s="73">
+        <v>0</v>
+      </c>
+      <c r="P9" s="73">
         <v>1</v>
       </c>
-      <c r="Q9" s="75">
+      <c r="Q9" s="73">
         <v>1</v>
       </c>
-      <c r="R9" s="75">
+      <c r="R9" s="73">
         <v>1</v>
       </c>
-      <c r="S9" s="75">
+      <c r="S9" s="73">
         <v>1</v>
       </c>
-      <c r="T9" s="75">
+      <c r="T9" s="73">
         <v>1</v>
       </c>
-      <c r="U9" s="75">
+      <c r="U9" s="73">
         <v>1</v>
       </c>
-      <c r="V9" s="75">
+      <c r="V9" s="73">
         <v>1</v>
       </c>
-      <c r="W9" s="75">
+      <c r="W9" s="73">
         <v>1</v>
       </c>
-      <c r="X9" s="81">
+      <c r="X9" s="79">
         <v>1</v>
       </c>
-      <c r="Y9" s="91">
+      <c r="Y9" s="89">
         <v>1</v>
       </c>
-      <c r="Z9" s="86">
+      <c r="Z9" s="84">
         <v>1</v>
       </c>
-      <c r="AA9" s="75">
+      <c r="AA9" s="73">
         <v>1</v>
       </c>
-      <c r="AB9" s="75">
+      <c r="AB9" s="73">
         <v>1</v>
       </c>
-      <c r="AC9" s="75">
+      <c r="AC9" s="73">
         <v>1</v>
       </c>
-      <c r="AD9" s="75">
+      <c r="AD9" s="73">
         <v>1</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI9" s="1">
-        <f t="shared" ref="AI8:AI10" si="7">(X9*1000000)/1000000</f>
+      <c r="AH9" s="98"/>
+      <c r="AJ9" s="1">
+        <f t="shared" ref="AJ8:AJ10" si="7">(X9*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AP9" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>984</v>
       </c>
@@ -17845,97 +17878,100 @@
       <c r="K10" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O10" s="75">
-        <v>0</v>
-      </c>
-      <c r="P10" s="75">
+      <c r="O10" s="73">
+        <v>0</v>
+      </c>
+      <c r="P10" s="73">
         <v>1</v>
       </c>
-      <c r="Q10" s="75">
+      <c r="Q10" s="73">
         <v>1</v>
       </c>
-      <c r="R10" s="75">
+      <c r="R10" s="73">
         <v>1</v>
       </c>
-      <c r="S10" s="75">
+      <c r="S10" s="73">
         <v>1</v>
       </c>
-      <c r="T10" s="75">
+      <c r="T10" s="73">
         <v>1</v>
       </c>
-      <c r="U10" s="75">
+      <c r="U10" s="73">
         <v>1</v>
       </c>
-      <c r="V10" s="75">
+      <c r="V10" s="73">
         <v>1</v>
       </c>
-      <c r="W10" s="75">
+      <c r="W10" s="73">
         <v>1</v>
       </c>
-      <c r="X10" s="81">
+      <c r="X10" s="79">
         <v>1</v>
       </c>
-      <c r="Y10" s="91">
+      <c r="Y10" s="89">
         <v>1</v>
       </c>
-      <c r="Z10" s="86">
+      <c r="Z10" s="84">
         <v>1</v>
       </c>
-      <c r="AA10" s="75">
+      <c r="AA10" s="73">
         <v>1</v>
       </c>
-      <c r="AB10" s="75">
+      <c r="AB10" s="73">
         <v>1</v>
       </c>
-      <c r="AC10" s="75">
+      <c r="AC10" s="73">
         <v>1</v>
       </c>
-      <c r="AD10" s="75">
+      <c r="AD10" s="73">
         <v>1</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AH10" s="98"/>
+      <c r="AJ10" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AO10" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AP10" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH11" s="98"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH12" s="98"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>985</v>
       </c>
@@ -17960,87 +17996,88 @@
       <c r="M13" s="18">
         <v>30</v>
       </c>
-      <c r="O13" s="75">
-        <v>0</v>
-      </c>
-      <c r="P13" s="75">
+      <c r="O13" s="73">
+        <v>0</v>
+      </c>
+      <c r="P13" s="73">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="75">
+      <c r="Q13" s="73">
         <v>0.2</v>
       </c>
-      <c r="R13" s="75">
+      <c r="R13" s="73">
         <v>0.2</v>
       </c>
-      <c r="S13" s="75">
+      <c r="S13" s="73">
         <v>0.5</v>
       </c>
-      <c r="T13" s="75">
+      <c r="T13" s="73">
         <v>1</v>
       </c>
-      <c r="U13" s="75">
+      <c r="U13" s="73">
         <v>1</v>
       </c>
-      <c r="V13" s="75">
+      <c r="V13" s="73">
         <v>1</v>
       </c>
-      <c r="W13" s="75">
+      <c r="W13" s="73">
         <v>1.5</v>
       </c>
-      <c r="X13" s="81">
+      <c r="X13" s="79">
         <v>2</v>
       </c>
-      <c r="Y13" s="91">
+      <c r="Y13" s="89">
         <v>2</v>
       </c>
-      <c r="Z13" s="86">
+      <c r="Z13" s="84">
         <v>2</v>
       </c>
-      <c r="AA13" s="75">
+      <c r="AA13" s="73">
         <v>2</v>
       </c>
-      <c r="AB13" s="75">
+      <c r="AB13" s="73">
         <v>2</v>
       </c>
-      <c r="AC13" s="75">
+      <c r="AC13" s="73">
         <v>2</v>
       </c>
-      <c r="AD13" s="75">
+      <c r="AD13" s="73">
         <v>2</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AH13" s="98"/>
+      <c r="AJ13" s="1">
         <f>(X13*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AJ13" s="1">
-        <f t="shared" ref="AJ13:AJ15" si="8">(Y13*1000000)/1000000</f>
+      <c r="AK13" s="1">
+        <f t="shared" ref="AK13:AK15" si="8">(Y13*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AK13" s="1">
-        <f t="shared" ref="AK13:AK15" si="9">(Z13*1000000)/1000000</f>
+      <c r="AL13" s="1">
+        <f t="shared" ref="AL13:AL15" si="9">(Z13*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AL13" s="1">
-        <f t="shared" ref="AL13:AL15" si="10">(AA13*1000000)/1000000</f>
+      <c r="AM13" s="1">
+        <f t="shared" ref="AM13:AM15" si="10">(AA13*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AM13" s="1">
-        <f t="shared" ref="AM13:AM15" si="11">(AB13*1000000)/1000000</f>
+      <c r="AN13" s="1">
+        <f t="shared" ref="AN13:AN15" si="11">(AB13*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AN13" s="1">
-        <f t="shared" ref="AN13:AN15" si="12">(AC13*1000000)/1000000</f>
+      <c r="AO13" s="1">
+        <f t="shared" ref="AO13:AO15" si="12">(AC13*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AO13" s="1">
-        <f t="shared" ref="AO13:AO15" si="13">(AD13*1000000)/1000000</f>
+      <c r="AP13" s="1">
+        <f t="shared" ref="AP13:AP15" si="13">(AD13*1000000)/1000000</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>986</v>
       </c>
@@ -18059,87 +18096,88 @@
       <c r="K14" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O14" s="75">
-        <v>0</v>
-      </c>
-      <c r="P14" s="75">
+      <c r="O14" s="73">
+        <v>0</v>
+      </c>
+      <c r="P14" s="73">
         <v>0.25</v>
       </c>
-      <c r="Q14" s="75">
+      <c r="Q14" s="73">
         <v>0.25</v>
       </c>
-      <c r="R14" s="75">
+      <c r="R14" s="73">
         <v>0.25</v>
       </c>
-      <c r="S14" s="75">
+      <c r="S14" s="73">
         <v>0.25</v>
       </c>
-      <c r="T14" s="75">
+      <c r="T14" s="73">
         <v>0.25</v>
       </c>
-      <c r="U14" s="75">
+      <c r="U14" s="73">
         <v>0.25</v>
       </c>
-      <c r="V14" s="75">
+      <c r="V14" s="73">
         <v>0.25</v>
       </c>
-      <c r="W14" s="75">
+      <c r="W14" s="73">
         <v>0.25</v>
       </c>
-      <c r="X14" s="81">
+      <c r="X14" s="79">
         <v>0.25</v>
       </c>
-      <c r="Y14" s="91">
+      <c r="Y14" s="89">
         <v>0.25</v>
       </c>
-      <c r="Z14" s="86">
+      <c r="Z14" s="84">
         <v>0.25</v>
       </c>
-      <c r="AA14" s="75">
+      <c r="AA14" s="73">
         <v>0.25</v>
       </c>
-      <c r="AB14" s="75">
+      <c r="AB14" s="73">
         <v>0.25</v>
       </c>
-      <c r="AC14" s="75">
+      <c r="AC14" s="73">
         <v>0.25</v>
       </c>
-      <c r="AD14" s="75">
+      <c r="AD14" s="73">
         <v>0.25</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI14" s="1">
-        <f t="shared" ref="AI14:AI15" si="14">(X14*1000000)/1000000</f>
+      <c r="AH14" s="98"/>
+      <c r="AJ14" s="1">
+        <f t="shared" ref="AJ14:AJ15" si="14">(X14*1000000)/1000000</f>
         <v>0.25</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AO14" s="1">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AP14" s="1">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1046</v>
       </c>
@@ -18161,92 +18199,94 @@
       <c r="M15" s="18">
         <v>30</v>
       </c>
-      <c r="O15" s="75">
-        <v>0</v>
-      </c>
-      <c r="P15" s="75">
+      <c r="O15" s="73">
+        <v>0</v>
+      </c>
+      <c r="P15" s="73">
         <v>2</v>
       </c>
-      <c r="Q15" s="75">
+      <c r="Q15" s="73">
         <v>2</v>
       </c>
-      <c r="R15" s="75">
+      <c r="R15" s="73">
         <v>2</v>
       </c>
-      <c r="S15" s="75">
+      <c r="S15" s="73">
         <v>2</v>
       </c>
-      <c r="T15" s="75">
+      <c r="T15" s="73">
         <v>2</v>
       </c>
-      <c r="U15" s="75">
+      <c r="U15" s="73">
         <v>2</v>
       </c>
-      <c r="V15" s="75">
+      <c r="V15" s="73">
         <v>2</v>
       </c>
-      <c r="W15" s="75">
+      <c r="W15" s="73">
         <v>2</v>
       </c>
-      <c r="X15" s="81">
+      <c r="X15" s="79">
         <v>2</v>
       </c>
-      <c r="Y15" s="91">
+      <c r="Y15" s="89">
         <v>1</v>
       </c>
-      <c r="Z15" s="86">
+      <c r="Z15" s="84">
         <v>0.5</v>
       </c>
-      <c r="AA15" s="75">
+      <c r="AA15" s="73">
         <v>0.02</v>
       </c>
-      <c r="AB15" s="75">
+      <c r="AB15" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC15" s="75">
+      <c r="AC15" s="73">
         <v>0.01</v>
       </c>
-      <c r="AD15" s="75">
+      <c r="AD15" s="73">
         <v>0.01</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AH15" s="98"/>
+      <c r="AJ15" s="1">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AP15" s="1">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH17" s="98"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1157</v>
       </c>
@@ -18274,87 +18314,88 @@
         <v>12</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="76">
-        <v>0</v>
-      </c>
-      <c r="P18" s="75">
+      <c r="O18" s="74">
+        <v>0</v>
+      </c>
+      <c r="P18" s="73">
         <v>0.01</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="74">
         <v>0.05</v>
       </c>
-      <c r="R18" s="76">
+      <c r="R18" s="74">
         <v>0.1</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="74">
         <v>0.2</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="74">
         <v>0.5</v>
       </c>
-      <c r="U18" s="76">
+      <c r="U18" s="74">
         <v>0.8</v>
       </c>
-      <c r="V18" s="76">
+      <c r="V18" s="74">
         <v>1</v>
       </c>
-      <c r="W18" s="76">
+      <c r="W18" s="74">
         <v>1.5</v>
       </c>
-      <c r="X18" s="81">
+      <c r="X18" s="79">
         <v>1.5</v>
       </c>
-      <c r="Y18" s="91">
+      <c r="Y18" s="89">
         <v>1.2</v>
       </c>
-      <c r="Z18" s="86">
+      <c r="Z18" s="84">
         <v>1</v>
       </c>
-      <c r="AA18" s="75">
+      <c r="AA18" s="73">
         <v>0.8</v>
       </c>
-      <c r="AB18" s="75">
+      <c r="AB18" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC18" s="75">
+      <c r="AC18" s="73">
         <v>0.3</v>
       </c>
-      <c r="AD18" s="75">
+      <c r="AD18" s="73">
         <v>0.2</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AH18" s="98"/>
+      <c r="AJ18" s="1">
         <f>(X18*1000000)/1000000</f>
         <v>1.5</v>
       </c>
-      <c r="AJ18" s="1">
-        <f t="shared" ref="AJ18" si="15">(Y18*1000000)/1000000</f>
+      <c r="AK18" s="1">
+        <f t="shared" ref="AK18" si="15">(Y18*1000000)/1000000</f>
         <v>1.2</v>
       </c>
-      <c r="AK18" s="1">
-        <f t="shared" ref="AK18" si="16">(Z18*1000000)/1000000</f>
+      <c r="AL18" s="1">
+        <f t="shared" ref="AL18" si="16">(Z18*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AL18" s="1">
-        <f t="shared" ref="AL18" si="17">(AA18*1000000)/1000000</f>
+      <c r="AM18" s="1">
+        <f t="shared" ref="AM18" si="17">(AA18*1000000)/1000000</f>
         <v>0.8</v>
       </c>
-      <c r="AM18" s="1">
-        <f t="shared" ref="AM18" si="18">(AB18*1000000)/1000000</f>
+      <c r="AN18" s="1">
+        <f t="shared" ref="AN18" si="18">(AB18*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AN18" s="1">
-        <f t="shared" ref="AN18" si="19">(AC18*1000000)/1000000</f>
+      <c r="AO18" s="1">
+        <f t="shared" ref="AO18" si="19">(AC18*1000000)/1000000</f>
         <v>0.3</v>
       </c>
-      <c r="AO18" s="1">
-        <f t="shared" ref="AO18" si="20">(AD18*1000000)/1000000</f>
+      <c r="AP18" s="1">
+        <f t="shared" ref="AP18" si="20">(AD18*1000000)/1000000</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1152</v>
       </c>
@@ -18382,87 +18423,88 @@
         <v>10</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="76">
-        <v>0</v>
-      </c>
-      <c r="P19" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="76">
-        <v>0</v>
-      </c>
-      <c r="R19" s="76">
-        <v>0</v>
-      </c>
-      <c r="S19" s="76">
-        <v>0</v>
-      </c>
-      <c r="T19" s="76">
-        <v>0</v>
-      </c>
-      <c r="U19" s="76">
-        <v>0</v>
-      </c>
-      <c r="V19" s="76">
+      <c r="O19" s="74">
+        <v>0</v>
+      </c>
+      <c r="P19" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="74">
+        <v>0</v>
+      </c>
+      <c r="R19" s="74">
+        <v>0</v>
+      </c>
+      <c r="S19" s="74">
+        <v>0</v>
+      </c>
+      <c r="T19" s="74">
+        <v>0</v>
+      </c>
+      <c r="U19" s="74">
+        <v>0</v>
+      </c>
+      <c r="V19" s="74">
         <v>0.1</v>
       </c>
-      <c r="W19" s="76">
+      <c r="W19" s="74">
         <v>0.2</v>
       </c>
-      <c r="X19" s="81">
+      <c r="X19" s="79">
         <v>0.5</v>
       </c>
-      <c r="Y19" s="91">
+      <c r="Y19" s="89">
         <v>1</v>
       </c>
-      <c r="Z19" s="86">
+      <c r="Z19" s="84">
         <v>1.5</v>
       </c>
-      <c r="AA19" s="75">
+      <c r="AA19" s="73">
         <v>1.8</v>
       </c>
-      <c r="AB19" s="75">
+      <c r="AB19" s="73">
         <v>2</v>
       </c>
-      <c r="AC19" s="75">
+      <c r="AC19" s="73">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD19" s="75">
+      <c r="AD19" s="73">
         <v>2.2999999999999998</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AH19" s="98"/>
+      <c r="AJ19" s="1">
         <f>(X19*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="1">
-        <f t="shared" ref="AJ19:AJ21" si="21">(Y19*1000000)/1000000</f>
+      <c r="AK19" s="1">
+        <f t="shared" ref="AK19:AK21" si="21">(Y19*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AK19" s="1">
-        <f t="shared" ref="AK19:AK21" si="22">(Z19*1000000)/1000000</f>
+      <c r="AL19" s="1">
+        <f t="shared" ref="AL19:AL21" si="22">(Z19*1000000)/1000000</f>
         <v>1.5</v>
       </c>
-      <c r="AL19" s="1">
-        <f t="shared" ref="AL19:AL21" si="23">(AA19*1000000)/1000000</f>
+      <c r="AM19" s="1">
+        <f t="shared" ref="AM19:AM21" si="23">(AA19*1000000)/1000000</f>
         <v>1.8</v>
       </c>
-      <c r="AM19" s="1">
-        <f t="shared" ref="AM19:AM21" si="24">(AB19*1000000)/1000000</f>
+      <c r="AN19" s="1">
+        <f t="shared" ref="AN19:AN21" si="24">(AB19*1000000)/1000000</f>
         <v>2</v>
       </c>
-      <c r="AN19" s="1">
-        <f t="shared" ref="AN19:AN21" si="25">(AC19*1000000)/1000000</f>
+      <c r="AO19" s="1">
+        <f t="shared" ref="AO19:AO21" si="25">(AC19*1000000)/1000000</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AO19" s="1">
-        <f t="shared" ref="AO19:AO21" si="26">(AD19*1000000)/1000000</f>
+      <c r="AP19" s="1">
+        <f t="shared" ref="AP19:AP21" si="26">(AD19*1000000)/1000000</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18481,87 +18523,88 @@
       <c r="J20" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O20" s="75">
-        <v>0</v>
-      </c>
-      <c r="P20" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="75">
-        <v>0</v>
-      </c>
-      <c r="R20" s="75">
-        <v>0</v>
-      </c>
-      <c r="S20" s="75">
-        <v>0</v>
-      </c>
-      <c r="T20" s="75">
-        <v>0</v>
-      </c>
-      <c r="U20" s="75">
-        <v>0</v>
-      </c>
-      <c r="V20" s="75">
-        <v>0</v>
-      </c>
-      <c r="W20" s="75">
-        <v>0</v>
-      </c>
-      <c r="X20" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="86">
+      <c r="O20" s="73">
+        <v>0</v>
+      </c>
+      <c r="P20" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="73">
+        <v>0</v>
+      </c>
+      <c r="R20" s="73">
+        <v>0</v>
+      </c>
+      <c r="S20" s="73">
+        <v>0</v>
+      </c>
+      <c r="T20" s="73">
+        <v>0</v>
+      </c>
+      <c r="U20" s="73">
+        <v>0</v>
+      </c>
+      <c r="V20" s="73">
+        <v>0</v>
+      </c>
+      <c r="W20" s="73">
+        <v>0</v>
+      </c>
+      <c r="X20" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="84">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="75">
+      <c r="AA20" s="73">
         <v>1</v>
       </c>
-      <c r="AB20" s="75">
+      <c r="AB20" s="73">
         <v>1.5</v>
       </c>
-      <c r="AC20" s="75">
+      <c r="AC20" s="73">
         <v>2</v>
       </c>
-      <c r="AD20" s="75">
+      <c r="AD20" s="73">
         <v>2.5</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI20" s="1">
-        <f t="shared" ref="AI20:AI21" si="27">(X20*1000000)/1000000</f>
-        <v>0</v>
-      </c>
+      <c r="AH20" s="98"/>
       <c r="AJ20" s="1">
+        <f t="shared" ref="AJ20:AJ21" si="27">(X20*1000000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AN20" s="1">
         <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AO20" s="1">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AP20" s="1">
         <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1154</v>
       </c>
@@ -18580,87 +18623,88 @@
       <c r="J21" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O21" s="75">
-        <v>0</v>
-      </c>
-      <c r="P21" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="75">
-        <v>0</v>
-      </c>
-      <c r="R21" s="75">
-        <v>0</v>
-      </c>
-      <c r="S21" s="75">
-        <v>0</v>
-      </c>
-      <c r="T21" s="75">
-        <v>0</v>
-      </c>
-      <c r="U21" s="75">
-        <v>0</v>
-      </c>
-      <c r="V21" s="75">
-        <v>0</v>
-      </c>
-      <c r="W21" s="75">
-        <v>0</v>
-      </c>
-      <c r="X21" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="75">
+      <c r="O21" s="73">
+        <v>0</v>
+      </c>
+      <c r="P21" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="73">
+        <v>0</v>
+      </c>
+      <c r="R21" s="73">
+        <v>0</v>
+      </c>
+      <c r="S21" s="73">
+        <v>0</v>
+      </c>
+      <c r="T21" s="73">
+        <v>0</v>
+      </c>
+      <c r="U21" s="73">
+        <v>0</v>
+      </c>
+      <c r="V21" s="73">
+        <v>0</v>
+      </c>
+      <c r="W21" s="73">
+        <v>0</v>
+      </c>
+      <c r="X21" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="73">
         <v>0.5</v>
       </c>
-      <c r="AB21" s="75">
+      <c r="AB21" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC21" s="75">
+      <c r="AC21" s="73">
         <v>1</v>
       </c>
-      <c r="AD21" s="75">
+      <c r="AD21" s="73">
         <v>1.5</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AH21" s="98"/>
+      <c r="AJ21" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AN21" s="1">
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AP21" s="1">
         <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18679,87 +18723,88 @@
       <c r="J22" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O22" s="75">
-        <v>0</v>
-      </c>
-      <c r="P22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="75">
-        <v>0</v>
-      </c>
-      <c r="R22" s="75">
-        <v>0</v>
-      </c>
-      <c r="S22" s="75">
-        <v>0</v>
-      </c>
-      <c r="T22" s="75">
-        <v>0</v>
-      </c>
-      <c r="U22" s="75">
-        <v>0</v>
-      </c>
-      <c r="V22" s="75">
-        <v>0</v>
-      </c>
-      <c r="W22" s="75">
-        <v>0</v>
-      </c>
-      <c r="X22" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="75">
+      <c r="O22" s="73">
+        <v>0</v>
+      </c>
+      <c r="P22" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="73">
+        <v>0</v>
+      </c>
+      <c r="R22" s="73">
+        <v>0</v>
+      </c>
+      <c r="S22" s="73">
+        <v>0</v>
+      </c>
+      <c r="T22" s="73">
+        <v>0</v>
+      </c>
+      <c r="U22" s="73">
+        <v>0</v>
+      </c>
+      <c r="V22" s="73">
+        <v>0</v>
+      </c>
+      <c r="W22" s="73">
+        <v>0</v>
+      </c>
+      <c r="X22" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC22" s="75">
+      <c r="AC22" s="73">
         <v>1</v>
       </c>
-      <c r="AD22" s="75">
+      <c r="AD22" s="73">
         <v>1.5</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI22" s="1">
-        <f t="shared" ref="AI22:AI23" si="28">(X22*1000000)/1000000</f>
-        <v>0</v>
-      </c>
+      <c r="AH22" s="98"/>
       <c r="AJ22" s="1">
-        <f t="shared" ref="AJ22:AJ23" si="29">(Y22*1000000)/1000000</f>
+        <f t="shared" ref="AJ22:AJ23" si="28">(X22*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" ref="AK22:AK23" si="30">(Z22*1000000)/1000000</f>
+        <f t="shared" ref="AK22:AK23" si="29">(Y22*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" ref="AL22:AL23" si="31">(AA22*1000000)/1000000</f>
+        <f t="shared" ref="AL22:AL23" si="30">(Z22*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" ref="AM22:AM23" si="32">(AB22*1000000)/1000000</f>
+        <f t="shared" ref="AM22:AM23" si="31">(AA22*1000000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <f t="shared" ref="AN22:AN23" si="32">(AB22*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AN22" s="1">
-        <f t="shared" ref="AN22:AN23" si="33">(AC22*1000000)/1000000</f>
+      <c r="AO22" s="1">
+        <f t="shared" ref="AO22:AO23" si="33">(AC22*1000000)/1000000</f>
         <v>1</v>
       </c>
-      <c r="AO22" s="1">
-        <f t="shared" ref="AO22:AO23" si="34">(AD22*1000000)/1000000</f>
+      <c r="AP22" s="1">
+        <f t="shared" ref="AP22:AP23" si="34">(AD22*1000000)/1000000</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1156</v>
       </c>
@@ -18778,119 +18823,122 @@
       <c r="J23" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O23" s="75">
-        <v>0</v>
-      </c>
-      <c r="P23" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="75">
-        <v>0</v>
-      </c>
-      <c r="R23" s="75">
-        <v>0</v>
-      </c>
-      <c r="S23" s="75">
-        <v>0</v>
-      </c>
-      <c r="T23" s="75">
-        <v>0</v>
-      </c>
-      <c r="U23" s="75">
-        <v>0</v>
-      </c>
-      <c r="V23" s="75">
-        <v>0</v>
-      </c>
-      <c r="W23" s="75">
-        <v>0</v>
-      </c>
-      <c r="X23" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="75">
+      <c r="O23" s="73">
+        <v>0</v>
+      </c>
+      <c r="P23" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="73">
+        <v>0</v>
+      </c>
+      <c r="R23" s="73">
+        <v>0</v>
+      </c>
+      <c r="S23" s="73">
+        <v>0</v>
+      </c>
+      <c r="T23" s="73">
+        <v>0</v>
+      </c>
+      <c r="U23" s="73">
+        <v>0</v>
+      </c>
+      <c r="V23" s="73">
+        <v>0</v>
+      </c>
+      <c r="W23" s="73">
+        <v>0</v>
+      </c>
+      <c r="X23" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC23" s="75">
+      <c r="AC23" s="73">
         <v>1</v>
       </c>
-      <c r="AD23" s="75">
+      <c r="AD23" s="73">
         <v>1.5</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AH23" s="98"/>
+      <c r="AJ23" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AK23" s="1">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AN23" s="1">
         <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AO23" s="1">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AP23" s="1">
         <f t="shared" si="34"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="I24" s="17"/>
       <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH24" s="98"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="I25" s="17"/>
       <c r="N25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AI25" s="1" t="s">
+      <c r="AH25" s="98"/>
+      <c r="AJ25" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26" s="91" t="s">
         <v>1206</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="93" t="s">
+      <c r="B26" s="92"/>
+      <c r="C26" s="91" t="s">
         <v>1052</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="95" t="s">
+      <c r="E26" s="91"/>
+      <c r="F26" s="93" t="s">
         <v>1216</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="17">
         <v>1</v>
       </c>
@@ -18904,103 +18952,104 @@
         <v>15</v>
       </c>
       <c r="N26" s="17"/>
-      <c r="O26" s="76">
-        <v>0</v>
-      </c>
-      <c r="P26" s="75">
+      <c r="O26" s="74">
+        <v>0</v>
+      </c>
+      <c r="P26" s="73">
         <v>0.5</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="74">
         <v>1</v>
       </c>
-      <c r="R26" s="76">
+      <c r="R26" s="74">
         <v>1.3</v>
       </c>
-      <c r="S26" s="76">
+      <c r="S26" s="74">
         <v>1.6</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="74">
         <v>2</v>
       </c>
-      <c r="U26" s="76">
+      <c r="U26" s="74">
         <v>2</v>
       </c>
-      <c r="V26" s="76">
+      <c r="V26" s="74">
         <v>1.5</v>
       </c>
-      <c r="W26" s="76">
+      <c r="W26" s="74">
         <v>1</v>
       </c>
-      <c r="X26" s="81">
+      <c r="X26" s="79">
         <v>1</v>
       </c>
-      <c r="Y26" s="91">
+      <c r="Y26" s="89">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="75">
+      <c r="Z26" s="73">
         <v>0.4</v>
       </c>
-      <c r="AA26" s="75">
+      <c r="AA26" s="73">
         <v>0.3</v>
       </c>
-      <c r="AB26" s="75">
+      <c r="AB26" s="73">
         <v>0.2</v>
       </c>
-      <c r="AC26" s="75">
+      <c r="AC26" s="73">
         <v>0.1</v>
       </c>
-      <c r="AD26" s="75">
+      <c r="AD26" s="73">
         <v>0.1</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AH26" s="98"/>
+      <c r="AJ26" s="1">
         <f>X26*1000/1000000</f>
         <v>1E-3</v>
       </c>
-      <c r="AJ26" s="1">
-        <f t="shared" ref="AJ26:AJ31" si="35">(Y26*1000000)/1000000</f>
+      <c r="AK26" s="1">
+        <f t="shared" ref="AK26:AK31" si="35">(Y26*1000000)/1000000</f>
         <v>0.5</v>
       </c>
-      <c r="AK26" s="1">
-        <f t="shared" ref="AK26:AK31" si="36">(Z26*1000000)/1000000</f>
+      <c r="AL26" s="1">
+        <f t="shared" ref="AL26:AL31" si="36">(Z26*1000000)/1000000</f>
         <v>0.4</v>
       </c>
-      <c r="AL26" s="1">
-        <f t="shared" ref="AL26:AL31" si="37">(AA26*1000000)/1000000</f>
+      <c r="AM26" s="1">
+        <f t="shared" ref="AM26:AM31" si="37">(AA26*1000000)/1000000</f>
         <v>0.3</v>
       </c>
-      <c r="AM26" s="1">
-        <f t="shared" ref="AM26:AM31" si="38">(AB26*1000000)/1000000</f>
+      <c r="AN26" s="1">
+        <f t="shared" ref="AN26:AN31" si="38">(AB26*1000000)/1000000</f>
         <v>0.2</v>
       </c>
-      <c r="AN26" s="1">
-        <f t="shared" ref="AN26:AN31" si="39">(AC26*1000000)/1000000</f>
+      <c r="AO26" s="1">
+        <f t="shared" ref="AO26:AO31" si="39">(AC26*1000000)/1000000</f>
         <v>0.1</v>
       </c>
-      <c r="AO26" s="1">
-        <f t="shared" ref="AO26:AO31" si="40">(AD26*1000000)/1000000</f>
+      <c r="AP26" s="1">
+        <f t="shared" ref="AP26:AP31" si="40">(AD26*1000000)/1000000</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
         <v>1142</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="93" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="91" t="s">
         <v>1052</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="95" t="s">
+      <c r="E27" s="91"/>
+      <c r="F27" s="93" t="s">
         <v>1211</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="17">
         <v>1</v>
       </c>
@@ -19014,513 +19063,520 @@
         <v>30</v>
       </c>
       <c r="N27" s="17"/>
-      <c r="O27" s="76">
-        <v>0</v>
-      </c>
-      <c r="P27" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="76">
-        <v>0</v>
-      </c>
-      <c r="R27" s="76">
-        <v>0</v>
-      </c>
-      <c r="S27" s="76">
-        <v>0</v>
-      </c>
-      <c r="T27" s="76">
+      <c r="O27" s="74">
+        <v>0</v>
+      </c>
+      <c r="P27" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="74">
+        <v>0</v>
+      </c>
+      <c r="R27" s="74">
+        <v>0</v>
+      </c>
+      <c r="S27" s="74">
+        <v>0</v>
+      </c>
+      <c r="T27" s="74">
         <v>0.2</v>
       </c>
-      <c r="U27" s="76">
+      <c r="U27" s="74">
         <v>0.5</v>
       </c>
-      <c r="V27" s="76">
+      <c r="V27" s="74">
         <v>1.5</v>
       </c>
-      <c r="W27" s="76">
+      <c r="W27" s="74">
         <v>2</v>
       </c>
-      <c r="X27" s="81">
+      <c r="X27" s="79">
         <v>1.5</v>
       </c>
-      <c r="Y27" s="91">
+      <c r="Y27" s="89">
         <v>1</v>
       </c>
-      <c r="Z27" s="86">
+      <c r="Z27" s="84">
         <v>0.8</v>
       </c>
-      <c r="AA27" s="75">
+      <c r="AA27" s="73">
         <v>0.6</v>
       </c>
-      <c r="AB27" s="75">
+      <c r="AB27" s="73">
         <v>0.4</v>
       </c>
-      <c r="AC27" s="75">
+      <c r="AC27" s="73">
         <v>0.2</v>
       </c>
-      <c r="AD27" s="75">
+      <c r="AD27" s="73">
         <v>0.2</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AH27" s="98"/>
+      <c r="AJ27" s="1">
         <f>(X27*1000000)/1000000</f>
         <v>1.5</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AK27" s="1">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AL27" s="1">
         <f t="shared" si="36"/>
         <v>0.8</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <f t="shared" si="37"/>
         <v>0.6</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AN27" s="1">
         <f t="shared" si="38"/>
         <v>0.4</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AO27" s="1">
         <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AP27" s="1">
         <f t="shared" si="40"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" s="91" t="s">
         <v>1207</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="93" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="91" t="s">
         <v>1052</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="95" t="s">
+      <c r="E28" s="91"/>
+      <c r="F28" s="93" t="s">
         <v>1212</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="17">
         <v>1</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O28" s="75">
-        <v>0</v>
-      </c>
-      <c r="P28" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="75">
-        <v>0</v>
-      </c>
-      <c r="R28" s="75">
-        <v>0</v>
-      </c>
-      <c r="S28" s="75">
-        <v>0</v>
-      </c>
-      <c r="T28" s="75">
-        <v>0</v>
-      </c>
-      <c r="U28" s="75">
-        <v>0</v>
-      </c>
-      <c r="V28" s="75">
-        <v>0</v>
-      </c>
-      <c r="W28" s="75">
-        <v>0</v>
-      </c>
-      <c r="X28" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="86">
+      <c r="O28" s="73">
+        <v>0</v>
+      </c>
+      <c r="P28" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="73">
+        <v>0</v>
+      </c>
+      <c r="R28" s="73">
+        <v>0</v>
+      </c>
+      <c r="S28" s="73">
+        <v>0</v>
+      </c>
+      <c r="T28" s="73">
+        <v>0</v>
+      </c>
+      <c r="U28" s="73">
+        <v>0</v>
+      </c>
+      <c r="V28" s="73">
+        <v>0</v>
+      </c>
+      <c r="W28" s="73">
+        <v>0</v>
+      </c>
+      <c r="X28" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="84">
         <v>1</v>
       </c>
-      <c r="AA28" s="75">
+      <c r="AA28" s="73">
         <v>0.8</v>
       </c>
-      <c r="AB28" s="75">
+      <c r="AB28" s="73">
         <v>0.6</v>
       </c>
-      <c r="AC28" s="75">
+      <c r="AC28" s="73">
         <v>0.4</v>
       </c>
-      <c r="AD28" s="75">
+      <c r="AD28" s="73">
         <v>0.2</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI28" s="1">
-        <f t="shared" ref="AI28:AI31" si="41">(X28*1000000)/1000000</f>
-        <v>0</v>
-      </c>
+      <c r="AH28" s="98"/>
       <c r="AJ28" s="1">
+        <f t="shared" ref="AJ28:AJ31" si="41">(X28*1000000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <f t="shared" si="37"/>
         <v>0.8</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AN28" s="1">
         <f t="shared" si="38"/>
         <v>0.6</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AO28" s="1">
         <f t="shared" si="39"/>
         <v>0.4</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AP28" s="1">
         <f t="shared" si="40"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="91" t="s">
         <v>1208</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="93" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="91" t="s">
         <v>1052</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="95" t="s">
+      <c r="E29" s="91"/>
+      <c r="F29" s="93" t="s">
         <v>1213</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="17">
         <v>1</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O29" s="75">
-        <v>0</v>
-      </c>
-      <c r="P29" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="75">
-        <v>0</v>
-      </c>
-      <c r="R29" s="75">
-        <v>0</v>
-      </c>
-      <c r="S29" s="75">
-        <v>0</v>
-      </c>
-      <c r="T29" s="75">
-        <v>0</v>
-      </c>
-      <c r="U29" s="75">
-        <v>0</v>
-      </c>
-      <c r="V29" s="75">
-        <v>0</v>
-      </c>
-      <c r="W29" s="75">
-        <v>0</v>
-      </c>
-      <c r="X29" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="75">
+      <c r="O29" s="73">
+        <v>0</v>
+      </c>
+      <c r="P29" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="73">
+        <v>0</v>
+      </c>
+      <c r="R29" s="73">
+        <v>0</v>
+      </c>
+      <c r="S29" s="73">
+        <v>0</v>
+      </c>
+      <c r="T29" s="73">
+        <v>0</v>
+      </c>
+      <c r="U29" s="73">
+        <v>0</v>
+      </c>
+      <c r="V29" s="73">
+        <v>0</v>
+      </c>
+      <c r="W29" s="73">
+        <v>0</v>
+      </c>
+      <c r="X29" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="73">
         <v>1</v>
       </c>
-      <c r="AB29" s="75">
+      <c r="AB29" s="73">
         <v>0.8</v>
       </c>
-      <c r="AC29" s="75">
+      <c r="AC29" s="73">
         <v>0.6</v>
       </c>
-      <c r="AD29" s="75">
+      <c r="AD29" s="73">
         <v>0.4</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AH29" s="98"/>
+      <c r="AJ29" s="1">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AK29" s="1">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AN29" s="1">
         <f t="shared" si="38"/>
         <v>0.8</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AO29" s="1">
         <f t="shared" si="39"/>
         <v>0.6</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AP29" s="1">
         <f t="shared" si="40"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="91" t="s">
         <v>1209</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="93" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="91" t="s">
         <v>1052</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="95" t="s">
+      <c r="E30" s="91"/>
+      <c r="F30" s="93" t="s">
         <v>1214</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="17">
         <v>1</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O30" s="75">
-        <v>0</v>
-      </c>
-      <c r="P30" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="75">
-        <v>0</v>
-      </c>
-      <c r="R30" s="75">
-        <v>0</v>
-      </c>
-      <c r="S30" s="75">
-        <v>0</v>
-      </c>
-      <c r="T30" s="75">
-        <v>0</v>
-      </c>
-      <c r="U30" s="75">
-        <v>0</v>
-      </c>
-      <c r="V30" s="75">
-        <v>0</v>
-      </c>
-      <c r="W30" s="75">
-        <v>0</v>
-      </c>
-      <c r="X30" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="75">
+      <c r="O30" s="73">
+        <v>0</v>
+      </c>
+      <c r="P30" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="73">
+        <v>0</v>
+      </c>
+      <c r="R30" s="73">
+        <v>0</v>
+      </c>
+      <c r="S30" s="73">
+        <v>0</v>
+      </c>
+      <c r="T30" s="73">
+        <v>0</v>
+      </c>
+      <c r="U30" s="73">
+        <v>0</v>
+      </c>
+      <c r="V30" s="73">
+        <v>0</v>
+      </c>
+      <c r="W30" s="73">
+        <v>0</v>
+      </c>
+      <c r="X30" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="73">
         <v>1</v>
       </c>
-      <c r="AC30" s="75">
+      <c r="AC30" s="73">
         <v>0.8</v>
       </c>
-      <c r="AD30" s="75">
+      <c r="AD30" s="73">
         <v>0.6</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AH30" s="98"/>
+      <c r="AJ30" s="1">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AK30" s="1">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AN30" s="1">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AO30" s="1">
         <f t="shared" si="39"/>
         <v>0.8</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AP30" s="1">
         <f t="shared" si="40"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A31" s="91" t="s">
         <v>1210</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="93" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="91" t="s">
         <v>1052</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E31" s="93"/>
-      <c r="F31" s="95" t="s">
+      <c r="E31" s="91"/>
+      <c r="F31" s="93" t="s">
         <v>1215</v>
       </c>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="17">
         <v>1</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O31" s="75">
-        <v>0</v>
-      </c>
-      <c r="P31" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="75">
-        <v>0</v>
-      </c>
-      <c r="R31" s="75">
-        <v>0</v>
-      </c>
-      <c r="S31" s="75">
-        <v>0</v>
-      </c>
-      <c r="T31" s="75">
-        <v>0</v>
-      </c>
-      <c r="U31" s="75">
-        <v>0</v>
-      </c>
-      <c r="V31" s="75">
-        <v>0</v>
-      </c>
-      <c r="W31" s="75">
-        <v>0</v>
-      </c>
-      <c r="X31" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="75">
+      <c r="O31" s="73">
+        <v>0</v>
+      </c>
+      <c r="P31" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="73">
+        <v>0</v>
+      </c>
+      <c r="R31" s="73">
+        <v>0</v>
+      </c>
+      <c r="S31" s="73">
+        <v>0</v>
+      </c>
+      <c r="T31" s="73">
+        <v>0</v>
+      </c>
+      <c r="U31" s="73">
+        <v>0</v>
+      </c>
+      <c r="V31" s="73">
+        <v>0</v>
+      </c>
+      <c r="W31" s="73">
+        <v>0</v>
+      </c>
+      <c r="X31" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="73">
         <v>1</v>
       </c>
-      <c r="AD31" s="75">
+      <c r="AD31" s="73">
         <v>2</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AH31" s="98"/>
+      <c r="AJ31" s="1">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AK31" s="1">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AN31" s="1">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AO31" s="1">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AP31" s="1">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="F32" s="17"/>
       <c r="I32" s="17"/>
       <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH32" s="98"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="F33" s="17"/>
       <c r="I33" s="17"/>
       <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH33" s="98"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="F34" s="1"/>
@@ -19533,8 +19589,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH34" s="98"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>1098</v>
       </c>
@@ -19548,8 +19605,9 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH35" s="98"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="F36" s="1"/>
@@ -19561,11 +19619,12 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AI36" s="1" t="s">
+      <c r="AH36" s="98"/>
+      <c r="AJ36" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>989</v>
       </c>
@@ -19590,59 +19649,60 @@
         <v>637</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="75">
-        <v>0</v>
-      </c>
-      <c r="P37" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="75">
+      <c r="O37" s="73">
+        <v>0</v>
+      </c>
+      <c r="P37" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="73">
         <v>0.1</v>
       </c>
-      <c r="R37" s="75">
+      <c r="R37" s="73">
         <v>0.5</v>
       </c>
-      <c r="S37" s="75">
+      <c r="S37" s="73">
         <v>0.5</v>
       </c>
-      <c r="T37" s="75">
+      <c r="T37" s="73">
         <v>0.5</v>
       </c>
-      <c r="U37" s="75">
+      <c r="U37" s="73">
         <v>0.5</v>
       </c>
-      <c r="V37" s="75">
+      <c r="V37" s="73">
         <v>1</v>
       </c>
-      <c r="W37" s="75">
+      <c r="W37" s="73">
         <v>1</v>
       </c>
-      <c r="X37" s="75">
+      <c r="X37" s="73">
         <v>1</v>
       </c>
-      <c r="Y37" s="91">
+      <c r="Y37" s="89">
         <v>1</v>
       </c>
-      <c r="Z37" s="86">
+      <c r="Z37" s="84">
         <v>1</v>
       </c>
-      <c r="AA37" s="75">
+      <c r="AA37" s="73">
         <v>1</v>
       </c>
-      <c r="AB37" s="75">
+      <c r="AB37" s="73">
         <v>1</v>
       </c>
-      <c r="AC37" s="75">
+      <c r="AC37" s="73">
         <v>1</v>
       </c>
-      <c r="AD37" s="75">
+      <c r="AD37" s="73">
         <v>1</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH37" s="98"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>988</v>
       </c>
@@ -19667,59 +19727,60 @@
         <v>637</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="75">
-        <v>0</v>
-      </c>
-      <c r="P38" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="75">
-        <v>0</v>
-      </c>
-      <c r="R38" s="75">
-        <v>0</v>
-      </c>
-      <c r="S38" s="75">
-        <v>0</v>
-      </c>
-      <c r="T38" s="75">
-        <v>0</v>
-      </c>
-      <c r="U38" s="75">
-        <v>0</v>
-      </c>
-      <c r="V38" s="75">
+      <c r="O38" s="73">
+        <v>0</v>
+      </c>
+      <c r="P38" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="73">
+        <v>0</v>
+      </c>
+      <c r="R38" s="73">
+        <v>0</v>
+      </c>
+      <c r="S38" s="73">
+        <v>0</v>
+      </c>
+      <c r="T38" s="73">
+        <v>0</v>
+      </c>
+      <c r="U38" s="73">
+        <v>0</v>
+      </c>
+      <c r="V38" s="73">
         <v>0.5</v>
       </c>
-      <c r="W38" s="75">
+      <c r="W38" s="73">
         <v>0.5</v>
       </c>
-      <c r="X38" s="75">
+      <c r="X38" s="73">
         <v>0.5</v>
       </c>
-      <c r="Y38" s="91">
+      <c r="Y38" s="89">
         <v>0.5</v>
       </c>
-      <c r="Z38" s="86">
+      <c r="Z38" s="84">
         <v>0.5</v>
       </c>
-      <c r="AA38" s="75">
+      <c r="AA38" s="73">
         <v>0.5</v>
       </c>
-      <c r="AB38" s="75">
+      <c r="AB38" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC38" s="75">
+      <c r="AC38" s="73">
         <v>0.5</v>
       </c>
-      <c r="AD38" s="75">
+      <c r="AD38" s="73">
         <v>0.5</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH38" s="98"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>990</v>
       </c>
@@ -19744,59 +19805,60 @@
         <v>637</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="75">
-        <v>0</v>
-      </c>
-      <c r="P39" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="75">
-        <v>0</v>
-      </c>
-      <c r="R39" s="75">
-        <v>0</v>
-      </c>
-      <c r="S39" s="75">
-        <v>0</v>
-      </c>
-      <c r="T39" s="75">
-        <v>0</v>
-      </c>
-      <c r="U39" s="75">
-        <v>0</v>
-      </c>
-      <c r="V39" s="75">
-        <v>0</v>
-      </c>
-      <c r="W39" s="75">
+      <c r="O39" s="73">
+        <v>0</v>
+      </c>
+      <c r="P39" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="73">
+        <v>0</v>
+      </c>
+      <c r="R39" s="73">
+        <v>0</v>
+      </c>
+      <c r="S39" s="73">
+        <v>0</v>
+      </c>
+      <c r="T39" s="73">
+        <v>0</v>
+      </c>
+      <c r="U39" s="73">
+        <v>0</v>
+      </c>
+      <c r="V39" s="73">
+        <v>0</v>
+      </c>
+      <c r="W39" s="73">
         <v>0.1</v>
       </c>
-      <c r="X39" s="75">
+      <c r="X39" s="73">
         <v>0.1</v>
       </c>
-      <c r="Y39" s="91">
+      <c r="Y39" s="89">
         <v>0.1</v>
       </c>
-      <c r="Z39" s="86">
+      <c r="Z39" s="84">
         <v>0.1</v>
       </c>
-      <c r="AA39" s="75">
+      <c r="AA39" s="73">
         <v>0.15</v>
       </c>
-      <c r="AB39" s="75">
+      <c r="AB39" s="73">
         <v>0.2</v>
       </c>
-      <c r="AC39" s="75">
+      <c r="AC39" s="73">
         <v>0.25</v>
       </c>
-      <c r="AD39" s="75">
+      <c r="AD39" s="73">
         <v>0.3</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH39" s="98"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>992</v>
       </c>
@@ -19821,59 +19883,60 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="75">
-        <v>0</v>
-      </c>
-      <c r="P40" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="75">
-        <v>0</v>
-      </c>
-      <c r="R40" s="75">
-        <v>0</v>
-      </c>
-      <c r="S40" s="75">
-        <v>0</v>
-      </c>
-      <c r="T40" s="75">
-        <v>0</v>
-      </c>
-      <c r="U40" s="75">
-        <v>0</v>
-      </c>
-      <c r="V40" s="75">
-        <v>0</v>
-      </c>
-      <c r="W40" s="75">
-        <v>0</v>
-      </c>
-      <c r="X40" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="75">
+      <c r="O40" s="73">
+        <v>0</v>
+      </c>
+      <c r="P40" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="73">
+        <v>0</v>
+      </c>
+      <c r="R40" s="73">
+        <v>0</v>
+      </c>
+      <c r="S40" s="73">
+        <v>0</v>
+      </c>
+      <c r="T40" s="73">
+        <v>0</v>
+      </c>
+      <c r="U40" s="73">
+        <v>0</v>
+      </c>
+      <c r="V40" s="73">
+        <v>0</v>
+      </c>
+      <c r="W40" s="73">
+        <v>0</v>
+      </c>
+      <c r="X40" s="73">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="73">
         <v>1</v>
       </c>
-      <c r="AC40" s="75">
+      <c r="AC40" s="73">
         <v>5</v>
       </c>
-      <c r="AD40" s="75">
+      <c r="AD40" s="73">
         <v>10</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH40" s="98"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>991</v>
       </c>
@@ -19898,52 +19961,52 @@
         <v>637</v>
       </c>
       <c r="N41" s="17"/>
-      <c r="O41" s="75">
-        <v>0</v>
-      </c>
-      <c r="P41" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="75">
+      <c r="O41" s="73">
+        <v>0</v>
+      </c>
+      <c r="P41" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="73">
         <v>2</v>
       </c>
-      <c r="R41" s="75">
+      <c r="R41" s="73">
         <v>10</v>
       </c>
-      <c r="S41" s="75">
+      <c r="S41" s="73">
         <v>5</v>
       </c>
-      <c r="T41" s="75">
+      <c r="T41" s="73">
         <v>2</v>
       </c>
-      <c r="U41" s="75">
-        <v>0</v>
-      </c>
-      <c r="V41" s="75">
-        <v>0</v>
-      </c>
-      <c r="W41" s="75">
-        <v>0</v>
-      </c>
-      <c r="X41" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="92">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="87">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="76">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="76">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="76">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="76">
+      <c r="U41" s="73">
+        <v>0</v>
+      </c>
+      <c r="V41" s="73">
+        <v>0</v>
+      </c>
+      <c r="W41" s="73">
+        <v>0</v>
+      </c>
+      <c r="X41" s="73">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="90">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="74">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="74">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="74">
         <v>0</v>
       </c>
       <c r="AE41" s="17"/>
@@ -19951,8 +20014,9 @@
       <c r="AG41" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH41" s="98"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
       <c r="F42" s="17"/>
@@ -19964,27 +20028,28 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="92"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="76"/>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
       <c r="AE42" s="17"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH42" s="98"/>
+    </row>
+    <row r="43" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="53"/>
       <c r="C43" s="1"/>
@@ -19999,27 +20064,28 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="76"/>
-      <c r="W43" s="76"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="76"/>
-      <c r="AB43" s="76"/>
-      <c r="AC43" s="76"/>
-      <c r="AD43" s="76"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="74"/>
       <c r="AE43" s="17"/>
       <c r="AF43" s="17"/>
       <c r="AG43" s="1"/>
-    </row>
-    <row r="44" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH43" s="98"/>
+    </row>
+    <row r="44" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="53"/>
       <c r="C44" s="1"/>
@@ -20032,27 +20098,28 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="87"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
       <c r="AE44" s="17"/>
       <c r="AF44" s="17"/>
       <c r="AG44" s="1"/>
-    </row>
-    <row r="45" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH44" s="98"/>
+    </row>
+    <row r="45" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>1107</v>
       </c>
@@ -20067,27 +20134,28 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="87"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
+      <c r="AD45" s="74"/>
       <c r="AE45" s="17"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="1"/>
-    </row>
-    <row r="46" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH45" s="98"/>
+    </row>
+    <row r="46" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="53"/>
       <c r="C46" s="1"/>
@@ -20102,27 +20170,28 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="87"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="76"/>
-      <c r="AC46" s="76"/>
-      <c r="AD46" s="76"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="74"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="74"/>
+      <c r="W46" s="74"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="74"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="74"/>
+      <c r="AD46" s="74"/>
       <c r="AE46" s="17"/>
       <c r="AF46" s="17"/>
       <c r="AG46" s="1"/>
-    </row>
-    <row r="47" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH46" s="98"/>
+    </row>
+    <row r="47" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1043</v>
       </c>
@@ -20153,52 +20222,52 @@
         <v>100</v>
       </c>
       <c r="N47" s="18"/>
-      <c r="O47" s="75">
-        <v>0</v>
-      </c>
-      <c r="P47" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="75">
-        <v>0</v>
-      </c>
-      <c r="R47" s="75">
-        <v>0</v>
-      </c>
-      <c r="S47" s="75">
-        <v>0</v>
-      </c>
-      <c r="T47" s="75">
-        <v>0</v>
-      </c>
-      <c r="U47" s="75">
-        <v>0</v>
-      </c>
-      <c r="V47" s="75">
-        <v>0</v>
-      </c>
-      <c r="W47" s="75">
-        <v>0</v>
-      </c>
-      <c r="X47" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="75">
+      <c r="O47" s="73">
+        <v>0</v>
+      </c>
+      <c r="P47" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="73">
+        <v>0</v>
+      </c>
+      <c r="R47" s="73">
+        <v>0</v>
+      </c>
+      <c r="S47" s="73">
+        <v>0</v>
+      </c>
+      <c r="T47" s="73">
+        <v>0</v>
+      </c>
+      <c r="U47" s="73">
+        <v>0</v>
+      </c>
+      <c r="V47" s="73">
+        <v>0</v>
+      </c>
+      <c r="W47" s="73">
+        <v>0</v>
+      </c>
+      <c r="X47" s="73">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="73">
         <v>0</v>
       </c>
       <c r="AE47" s="17"/>
@@ -20206,8 +20275,9 @@
       <c r="AG47" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH47" s="98"/>
+    </row>
+    <row r="48" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1108</v>
       </c>
@@ -20236,52 +20306,52 @@
         <v>0</v>
       </c>
       <c r="N48" s="18"/>
-      <c r="O48" s="75">
-        <v>0</v>
-      </c>
-      <c r="P48" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="75">
-        <v>0</v>
-      </c>
-      <c r="R48" s="75">
-        <v>0</v>
-      </c>
-      <c r="S48" s="75">
-        <v>0</v>
-      </c>
-      <c r="T48" s="75">
-        <v>0</v>
-      </c>
-      <c r="U48" s="75">
-        <v>0</v>
-      </c>
-      <c r="V48" s="75">
-        <v>0</v>
-      </c>
-      <c r="W48" s="75">
-        <v>0</v>
-      </c>
-      <c r="X48" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="75">
+      <c r="O48" s="73">
+        <v>0</v>
+      </c>
+      <c r="P48" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="73">
+        <v>0</v>
+      </c>
+      <c r="R48" s="73">
+        <v>0</v>
+      </c>
+      <c r="S48" s="73">
+        <v>0</v>
+      </c>
+      <c r="T48" s="73">
+        <v>0</v>
+      </c>
+      <c r="U48" s="73">
+        <v>0</v>
+      </c>
+      <c r="V48" s="73">
+        <v>0</v>
+      </c>
+      <c r="W48" s="73">
+        <v>0</v>
+      </c>
+      <c r="X48" s="73">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="73">
         <v>0</v>
       </c>
       <c r="AE48" s="17"/>
@@ -20289,8 +20359,9 @@
       <c r="AG48" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH48" s="98"/>
+    </row>
+    <row r="49" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="53"/>
       <c r="C49" s="1"/>
@@ -20305,27 +20376,28 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="75"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="75"/>
-      <c r="W49" s="75"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="91"/>
-      <c r="Z49" s="86"/>
-      <c r="AA49" s="75"/>
-      <c r="AB49" s="75"/>
-      <c r="AC49" s="75"/>
-      <c r="AD49" s="75"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="84"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="73"/>
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH49" s="98"/>
+    </row>
+    <row r="50" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>993</v>
       </c>
@@ -20356,52 +20428,52 @@
         <v>5</v>
       </c>
       <c r="N50" s="18"/>
-      <c r="O50" s="75">
-        <v>0</v>
-      </c>
-      <c r="P50" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="75">
-        <v>0</v>
-      </c>
-      <c r="R50" s="75">
-        <v>0</v>
-      </c>
-      <c r="S50" s="75">
-        <v>0</v>
-      </c>
-      <c r="T50" s="75">
+      <c r="O50" s="73">
+        <v>0</v>
+      </c>
+      <c r="P50" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="73">
+        <v>0</v>
+      </c>
+      <c r="R50" s="73">
+        <v>0</v>
+      </c>
+      <c r="S50" s="73">
+        <v>0</v>
+      </c>
+      <c r="T50" s="73">
         <v>0.01</v>
       </c>
-      <c r="U50" s="75">
+      <c r="U50" s="73">
         <v>0.3</v>
       </c>
-      <c r="V50" s="75">
+      <c r="V50" s="73">
         <v>0.7</v>
       </c>
-      <c r="W50" s="75">
+      <c r="W50" s="73">
         <v>1</v>
       </c>
-      <c r="X50" s="81">
+      <c r="X50" s="79">
         <v>1</v>
       </c>
-      <c r="Y50" s="91">
+      <c r="Y50" s="89">
         <v>1</v>
       </c>
-      <c r="Z50" s="86">
+      <c r="Z50" s="84">
         <v>0.9</v>
       </c>
-      <c r="AA50" s="75">
+      <c r="AA50" s="73">
         <v>0.8</v>
       </c>
-      <c r="AB50" s="75">
+      <c r="AB50" s="73">
         <v>0.6</v>
       </c>
-      <c r="AC50" s="75">
+      <c r="AC50" s="73">
         <v>0.4</v>
       </c>
-      <c r="AD50" s="75">
+      <c r="AD50" s="73">
         <v>0.2</v>
       </c>
       <c r="AE50" s="17"/>
@@ -20409,8 +20481,9 @@
       <c r="AG50" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH50" s="98"/>
+    </row>
+    <row r="51" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>994</v>
       </c>
@@ -20441,52 +20514,52 @@
         <v>5</v>
       </c>
       <c r="N51" s="18"/>
-      <c r="O51" s="75">
-        <v>0</v>
-      </c>
-      <c r="P51" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="75">
-        <v>0</v>
-      </c>
-      <c r="R51" s="75">
-        <v>0</v>
-      </c>
-      <c r="S51" s="75">
-        <v>0</v>
-      </c>
-      <c r="T51" s="75">
+      <c r="O51" s="73">
+        <v>0</v>
+      </c>
+      <c r="P51" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="73">
+        <v>0</v>
+      </c>
+      <c r="R51" s="73">
+        <v>0</v>
+      </c>
+      <c r="S51" s="73">
+        <v>0</v>
+      </c>
+      <c r="T51" s="73">
         <v>0.02</v>
       </c>
-      <c r="U51" s="75">
+      <c r="U51" s="73">
         <v>0.03</v>
       </c>
-      <c r="V51" s="75">
+      <c r="V51" s="73">
         <v>0.02</v>
       </c>
-      <c r="W51" s="75">
+      <c r="W51" s="73">
         <v>0.02</v>
       </c>
-      <c r="X51" s="81">
+      <c r="X51" s="79">
         <v>0.02</v>
       </c>
-      <c r="Y51" s="91">
+      <c r="Y51" s="89">
         <v>0.02</v>
       </c>
-      <c r="Z51" s="86">
+      <c r="Z51" s="84">
         <v>0.02</v>
       </c>
-      <c r="AA51" s="75">
+      <c r="AA51" s="73">
         <v>0.02</v>
       </c>
-      <c r="AB51" s="75">
+      <c r="AB51" s="73">
         <v>0.03</v>
       </c>
-      <c r="AC51" s="75">
+      <c r="AC51" s="73">
         <v>0.04</v>
       </c>
-      <c r="AD51" s="75">
+      <c r="AD51" s="73">
         <v>0.05</v>
       </c>
       <c r="AE51" s="17"/>
@@ -20494,8 +20567,9 @@
       <c r="AG51" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH51" s="98"/>
+    </row>
+    <row r="52" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>995</v>
       </c>
@@ -20526,52 +20600,52 @@
         <v>0.1</v>
       </c>
       <c r="N52" s="18"/>
-      <c r="O52" s="75">
-        <v>0</v>
-      </c>
-      <c r="P52" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="75">
-        <v>0</v>
-      </c>
-      <c r="R52" s="75">
-        <v>0</v>
-      </c>
-      <c r="S52" s="75">
-        <v>0</v>
-      </c>
-      <c r="T52" s="75">
-        <v>0</v>
-      </c>
-      <c r="U52" s="75">
-        <v>0</v>
-      </c>
-      <c r="V52" s="75">
-        <v>0</v>
-      </c>
-      <c r="W52" s="75">
-        <v>0</v>
-      </c>
-      <c r="X52" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="75">
+      <c r="O52" s="73">
+        <v>0</v>
+      </c>
+      <c r="P52" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="73">
+        <v>0</v>
+      </c>
+      <c r="R52" s="73">
+        <v>0</v>
+      </c>
+      <c r="S52" s="73">
+        <v>0</v>
+      </c>
+      <c r="T52" s="73">
+        <v>0</v>
+      </c>
+      <c r="U52" s="73">
+        <v>0</v>
+      </c>
+      <c r="V52" s="73">
+        <v>0</v>
+      </c>
+      <c r="W52" s="73">
+        <v>0</v>
+      </c>
+      <c r="X52" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="73">
         <v>0</v>
       </c>
       <c r="AE52" s="17"/>
@@ -20579,8 +20653,9 @@
       <c r="AG52" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH52" s="98"/>
+    </row>
+    <row r="53" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>996</v>
       </c>
@@ -20611,52 +20686,52 @@
         <v>0.1</v>
       </c>
       <c r="N53" s="18"/>
-      <c r="O53" s="75">
-        <v>0</v>
-      </c>
-      <c r="P53" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="75">
-        <v>0</v>
-      </c>
-      <c r="R53" s="75">
-        <v>0</v>
-      </c>
-      <c r="S53" s="75">
-        <v>0</v>
-      </c>
-      <c r="T53" s="75">
-        <v>0</v>
-      </c>
-      <c r="U53" s="75">
-        <v>0</v>
-      </c>
-      <c r="V53" s="75">
-        <v>0</v>
-      </c>
-      <c r="W53" s="75">
-        <v>0</v>
-      </c>
-      <c r="X53" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="86">
+      <c r="O53" s="73">
+        <v>0</v>
+      </c>
+      <c r="P53" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="73">
+        <v>0</v>
+      </c>
+      <c r="R53" s="73">
+        <v>0</v>
+      </c>
+      <c r="S53" s="73">
+        <v>0</v>
+      </c>
+      <c r="T53" s="73">
+        <v>0</v>
+      </c>
+      <c r="U53" s="73">
+        <v>0</v>
+      </c>
+      <c r="V53" s="73">
+        <v>0</v>
+      </c>
+      <c r="W53" s="73">
+        <v>0</v>
+      </c>
+      <c r="X53" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="84">
         <v>0.1</v>
       </c>
-      <c r="AA53" s="75">
+      <c r="AA53" s="73">
         <v>0.5</v>
       </c>
-      <c r="AB53" s="75">
+      <c r="AB53" s="73">
         <v>1</v>
       </c>
-      <c r="AC53" s="75">
+      <c r="AC53" s="73">
         <v>2</v>
       </c>
-      <c r="AD53" s="75">
+      <c r="AD53" s="73">
         <v>3</v>
       </c>
       <c r="AE53" s="17"/>
@@ -20664,8 +20739,9 @@
       <c r="AG53" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH53" s="98"/>
+    </row>
+    <row r="54" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="53"/>
       <c r="C54" s="1"/>
@@ -20680,27 +20756,28 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
-      <c r="W54" s="75"/>
-      <c r="X54" s="81"/>
-      <c r="Y54" s="91"/>
-      <c r="Z54" s="86"/>
-      <c r="AA54" s="75"/>
-      <c r="AB54" s="75"/>
-      <c r="AC54" s="75"/>
-      <c r="AD54" s="75"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="79"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
+      <c r="AD54" s="73"/>
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="1"/>
-    </row>
-    <row r="55" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH54" s="98"/>
+    </row>
+    <row r="55" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="53"/>
       <c r="C55" s="1"/>
@@ -20715,27 +20792,28 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
-      <c r="W55" s="75"/>
-      <c r="X55" s="81"/>
-      <c r="Y55" s="91"/>
-      <c r="Z55" s="86"/>
-      <c r="AA55" s="75"/>
-      <c r="AB55" s="75"/>
-      <c r="AC55" s="75"/>
-      <c r="AD55" s="75"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="84"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="73"/>
+      <c r="AC55" s="73"/>
+      <c r="AD55" s="73"/>
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH55" s="98"/>
+    </row>
+    <row r="56" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>999</v>
       </c>
@@ -20766,29 +20844,30 @@
         <v>20</v>
       </c>
       <c r="N56" s="18"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="75"/>
-      <c r="U56" s="75"/>
-      <c r="V56" s="75"/>
-      <c r="W56" s="75"/>
-      <c r="X56" s="75"/>
-      <c r="Y56" s="91"/>
-      <c r="Z56" s="86"/>
-      <c r="AA56" s="75"/>
-      <c r="AB56" s="75"/>
-      <c r="AC56" s="75"/>
-      <c r="AD56" s="75"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="84"/>
+      <c r="AA56" s="73"/>
+      <c r="AB56" s="73"/>
+      <c r="AC56" s="73"/>
+      <c r="AD56" s="73"/>
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH56" s="98"/>
+    </row>
+    <row r="57" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1000</v>
       </c>
@@ -20815,29 +20894,30 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="86"/>
-      <c r="AA57" s="75"/>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="75"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="73"/>
+      <c r="AC57" s="73"/>
+      <c r="AD57" s="73"/>
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH57" s="98"/>
+    </row>
+    <row r="58" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1003</v>
       </c>
@@ -20868,29 +20948,30 @@
         <v>50</v>
       </c>
       <c r="N58" s="18"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="75"/>
-      <c r="S58" s="75"/>
-      <c r="T58" s="75"/>
-      <c r="U58" s="75"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
-      <c r="Y58" s="91"/>
-      <c r="Z58" s="86"/>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="75"/>
-      <c r="AD58" s="75"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="84"/>
+      <c r="AA58" s="73"/>
+      <c r="AB58" s="73"/>
+      <c r="AC58" s="73"/>
+      <c r="AD58" s="73"/>
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH58" s="98"/>
+    </row>
+    <row r="59" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1004</v>
       </c>
@@ -20917,29 +20998,30 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="75"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="75"/>
-      <c r="T59" s="75"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="75"/>
-      <c r="W59" s="75"/>
-      <c r="X59" s="75"/>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="86"/>
-      <c r="AA59" s="75"/>
-      <c r="AB59" s="75"/>
-      <c r="AC59" s="75"/>
-      <c r="AD59" s="75"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="89"/>
+      <c r="Z59" s="84"/>
+      <c r="AA59" s="73"/>
+      <c r="AB59" s="73"/>
+      <c r="AC59" s="73"/>
+      <c r="AD59" s="73"/>
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH59" s="98"/>
+    </row>
+    <row r="60" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="53"/>
       <c r="C60" s="1"/>
@@ -20954,27 +21036,28 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="75"/>
-      <c r="R60" s="75"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="75"/>
-      <c r="U60" s="75"/>
-      <c r="V60" s="75"/>
-      <c r="W60" s="75"/>
-      <c r="X60" s="81"/>
-      <c r="Y60" s="91"/>
-      <c r="Z60" s="86"/>
-      <c r="AA60" s="75"/>
-      <c r="AB60" s="75"/>
-      <c r="AC60" s="75"/>
-      <c r="AD60" s="75"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="89"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="73"/>
+      <c r="AB60" s="73"/>
+      <c r="AC60" s="73"/>
+      <c r="AD60" s="73"/>
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH60" s="98"/>
+    </row>
+    <row r="61" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="53"/>
       <c r="C61" s="1"/>
@@ -20989,44 +21072,48 @@
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="76"/>
-      <c r="T61" s="76"/>
-      <c r="U61" s="76"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="82"/>
-      <c r="Y61" s="92"/>
-      <c r="Z61" s="87"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="76"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="74"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="90"/>
+      <c r="Z61" s="85"/>
+      <c r="AA61" s="74"/>
+      <c r="AB61" s="74"/>
+      <c r="AC61" s="74"/>
+      <c r="AD61" s="74"/>
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="1"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH61" s="98"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
       <c r="AG62" s="1"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH62" s="98"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>232</v>
       </c>
       <c r="C63" s="1"/>
       <c r="AG63" s="1"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH63" s="98"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
       <c r="AG64" s="1"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH64" s="98"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1034</v>
       </c>
@@ -21054,8 +21141,9 @@
       <c r="AG65" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH65" s="98"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1037</v>
       </c>
@@ -21080,8 +21168,9 @@
       <c r="AG66" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH66" s="98"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1039</v>
       </c>
@@ -21106,8 +21195,9 @@
       <c r="AG67" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH67" s="98"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1112</v>
       </c>
@@ -21132,8 +21222,9 @@
       <c r="AG68" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH68" s="98"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1032</v>
       </c>
@@ -21155,8 +21246,9 @@
       <c r="AG69" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH69" s="98"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1033</v>
       </c>
@@ -21178,8 +21270,9 @@
       <c r="AG70" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH70" s="98"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1114</v>
       </c>
@@ -21201,14 +21294,16 @@
       <c r="AG71" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH71" s="98"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
       <c r="F72" s="1"/>
       <c r="AG72" s="1"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH72" s="98"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
       <c r="F73" s="1"/>
@@ -21219,8 +21314,9 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="AG73" s="1"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH73" s="98"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>1116</v>
       </c>
@@ -21233,8 +21329,9 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="AG74" s="1"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH74" s="98"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="C75" s="1"/>
       <c r="F75" s="1"/>
@@ -21245,8 +21342,9 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="AG75" s="1"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH75" s="98"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1019</v>
       </c>
@@ -21276,8 +21374,9 @@
       <c r="AG76" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH76" s="98"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1015</v>
       </c>
@@ -21305,8 +21404,9 @@
       <c r="AG77" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH77" s="98"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1016</v>
       </c>
@@ -21334,19 +21434,22 @@
       <c r="AG78" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH78" s="98"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
       <c r="AG79" s="1"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH79" s="98"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
       <c r="AG80" s="1"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH80" s="98"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1017</v>
       </c>
@@ -21368,8 +21471,9 @@
       <c r="AG81" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH81" s="98"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1020</v>
       </c>
@@ -21391,8 +21495,9 @@
       <c r="AG82" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH82" s="98"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1021</v>
       </c>
@@ -21414,8 +21519,9 @@
       <c r="AG83" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH83" s="98"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1022</v>
       </c>
@@ -21437,13 +21543,15 @@
       <c r="AG84" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH84" s="98"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
       <c r="AG85" s="1"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH85" s="98"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1132</v>
       </c>
@@ -21471,8 +21579,9 @@
       <c r="AG86" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH86" s="98"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1133</v>
       </c>
@@ -21494,8 +21603,9 @@
       <c r="AG87" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH87" s="98"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1134</v>
       </c>
@@ -21517,8 +21627,9 @@
       <c r="AG88" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH88" s="98"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1135</v>
       </c>
@@ -21540,13 +21651,15 @@
       <c r="AG89" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH89" s="98"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
       <c r="AG90" s="1"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH90" s="98"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -21554,8 +21667,9 @@
       <c r="AG91" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH91" s="98"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1036</v>
       </c>
@@ -21583,8 +21697,9 @@
       <c r="AG92" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH92" s="98"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -21597,8 +21712,9 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="AG93" s="1"/>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH93" s="98"/>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="17"/>
@@ -21612,44 +21728,48 @@
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
-      <c r="O95" s="76"/>
-      <c r="P95" s="76"/>
-      <c r="Q95" s="76"/>
-      <c r="R95" s="76"/>
-      <c r="S95" s="76"/>
-      <c r="T95" s="76"/>
-      <c r="U95" s="76"/>
-      <c r="V95" s="76"/>
-      <c r="W95" s="76"/>
-      <c r="X95" s="82"/>
-      <c r="Y95" s="92"/>
-      <c r="Z95" s="87"/>
-      <c r="AA95" s="76"/>
-      <c r="AB95" s="76"/>
-      <c r="AC95" s="76"/>
-      <c r="AD95" s="76"/>
+      <c r="O95" s="74"/>
+      <c r="P95" s="74"/>
+      <c r="Q95" s="74"/>
+      <c r="R95" s="74"/>
+      <c r="S95" s="74"/>
+      <c r="T95" s="74"/>
+      <c r="U95" s="74"/>
+      <c r="V95" s="74"/>
+      <c r="W95" s="74"/>
+      <c r="X95" s="80"/>
+      <c r="Y95" s="90"/>
+      <c r="Z95" s="85"/>
+      <c r="AA95" s="74"/>
+      <c r="AB95" s="74"/>
+      <c r="AC95" s="74"/>
+      <c r="AD95" s="74"/>
       <c r="AE95" s="17"/>
       <c r="AF95" s="17"/>
       <c r="AG95" s="1"/>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH95" s="98"/>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>1014</v>
       </c>
       <c r="C96" s="1"/>
       <c r="AG96" s="1"/>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH96" s="98"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
       <c r="AG97" s="1"/>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH97" s="98"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
       <c r="AG98" s="1"/>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH98" s="98"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1007</v>
       </c>
@@ -21674,41 +21794,42 @@
         <v>637</v>
       </c>
       <c r="N99" s="17"/>
-      <c r="O99" s="76"/>
-      <c r="P99" s="76"/>
-      <c r="Q99" s="76"/>
-      <c r="R99" s="76"/>
-      <c r="S99" s="76"/>
-      <c r="T99" s="76"/>
-      <c r="U99" s="76"/>
-      <c r="V99" s="76"/>
-      <c r="W99" s="76"/>
-      <c r="X99" s="81">
+      <c r="O99" s="74"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="74"/>
+      <c r="R99" s="74"/>
+      <c r="S99" s="74"/>
+      <c r="T99" s="74"/>
+      <c r="U99" s="74"/>
+      <c r="V99" s="74"/>
+      <c r="W99" s="74"/>
+      <c r="X99" s="79">
         <v>0.1</v>
       </c>
-      <c r="Y99" s="91">
+      <c r="Y99" s="89">
         <v>0.2</v>
       </c>
-      <c r="Z99" s="86">
+      <c r="Z99" s="84">
         <v>0.5</v>
       </c>
-      <c r="AA99" s="75">
+      <c r="AA99" s="73">
         <v>1</v>
       </c>
-      <c r="AB99" s="75">
+      <c r="AB99" s="73">
         <v>1.5</v>
       </c>
-      <c r="AC99" s="75">
+      <c r="AC99" s="73">
         <v>2</v>
       </c>
-      <c r="AD99" s="75">
+      <c r="AD99" s="73">
         <v>2.5</v>
       </c>
       <c r="AG99" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH99" s="98"/>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1006</v>
       </c>
@@ -21736,8 +21857,9 @@
       <c r="AG100" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH100" s="98"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1005</v>
       </c>
@@ -21763,8 +21885,9 @@
       <c r="AG101" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH101" s="98"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
       <c r="F102" s="1"/>
@@ -21776,13 +21899,15 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="AG102" s="1"/>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH102" s="98"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
       <c r="AG103" s="1"/>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH103" s="98"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1008</v>
       </c>
@@ -21807,47 +21932,48 @@
         <v>637</v>
       </c>
       <c r="N104" s="17"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
-      <c r="R104" s="76"/>
-      <c r="S104" s="76"/>
-      <c r="T104" s="76"/>
-      <c r="U104" s="76">
+      <c r="O104" s="74"/>
+      <c r="P104" s="74"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="74"/>
+      <c r="S104" s="74"/>
+      <c r="T104" s="74"/>
+      <c r="U104" s="74">
         <v>0.01</v>
       </c>
-      <c r="V104" s="76">
+      <c r="V104" s="74">
         <v>0.05</v>
       </c>
-      <c r="W104" s="76">
+      <c r="W104" s="74">
         <v>0.1</v>
       </c>
-      <c r="X104" s="81">
+      <c r="X104" s="79">
         <v>1</v>
       </c>
-      <c r="Y104" s="91">
+      <c r="Y104" s="89">
         <v>1</v>
       </c>
-      <c r="Z104" s="86">
+      <c r="Z104" s="84">
         <v>0.5</v>
       </c>
-      <c r="AA104" s="75">
+      <c r="AA104" s="73">
         <v>0.5</v>
       </c>
-      <c r="AB104" s="75">
+      <c r="AB104" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC104" s="75">
+      <c r="AC104" s="73">
         <v>0.5</v>
       </c>
-      <c r="AD104" s="75">
+      <c r="AD104" s="73">
         <v>0.5</v>
       </c>
       <c r="AG104" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH104" s="98"/>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1012</v>
       </c>
@@ -21872,41 +21998,42 @@
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="R105" s="76"/>
-      <c r="S105" s="76"/>
-      <c r="T105" s="76"/>
-      <c r="U105" s="76"/>
-      <c r="V105" s="76"/>
-      <c r="W105" s="76"/>
-      <c r="X105" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z105" s="86">
+      <c r="O105" s="74"/>
+      <c r="P105" s="74"/>
+      <c r="Q105" s="74"/>
+      <c r="R105" s="74"/>
+      <c r="S105" s="74"/>
+      <c r="T105" s="74"/>
+      <c r="U105" s="74"/>
+      <c r="V105" s="74"/>
+      <c r="W105" s="74"/>
+      <c r="X105" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="84">
         <v>0.5</v>
       </c>
-      <c r="AA105" s="75">
+      <c r="AA105" s="73">
         <v>0.8</v>
       </c>
-      <c r="AB105" s="75">
+      <c r="AB105" s="73">
         <v>1</v>
       </c>
-      <c r="AC105" s="75">
+      <c r="AC105" s="73">
         <v>1.25</v>
       </c>
-      <c r="AD105" s="75">
+      <c r="AD105" s="73">
         <v>1.5</v>
       </c>
       <c r="AG105" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH105" s="98"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1009</v>
       </c>
@@ -21931,41 +22058,42 @@
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
-      <c r="R106" s="76"/>
-      <c r="S106" s="76"/>
-      <c r="T106" s="76"/>
-      <c r="U106" s="76"/>
-      <c r="V106" s="76"/>
-      <c r="W106" s="76"/>
-      <c r="X106" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="75">
+      <c r="O106" s="74"/>
+      <c r="P106" s="74"/>
+      <c r="Q106" s="74"/>
+      <c r="R106" s="74"/>
+      <c r="S106" s="74"/>
+      <c r="T106" s="74"/>
+      <c r="U106" s="74"/>
+      <c r="V106" s="74"/>
+      <c r="W106" s="74"/>
+      <c r="X106" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="73">
         <v>0.5</v>
       </c>
-      <c r="AB106" s="75">
+      <c r="AB106" s="73">
         <v>1</v>
       </c>
-      <c r="AC106" s="75">
+      <c r="AC106" s="73">
         <v>1.25</v>
       </c>
-      <c r="AD106" s="75">
+      <c r="AD106" s="73">
         <v>1.5</v>
       </c>
       <c r="AG106" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH106" s="98"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1010</v>
       </c>
@@ -21990,41 +22118,42 @@
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
-      <c r="O107" s="76"/>
-      <c r="P107" s="76"/>
-      <c r="Q107" s="76"/>
-      <c r="R107" s="76"/>
-      <c r="S107" s="76"/>
-      <c r="T107" s="76"/>
-      <c r="U107" s="76"/>
-      <c r="V107" s="76"/>
-      <c r="W107" s="76"/>
-      <c r="X107" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="75">
+      <c r="O107" s="74"/>
+      <c r="P107" s="74"/>
+      <c r="Q107" s="74"/>
+      <c r="R107" s="74"/>
+      <c r="S107" s="74"/>
+      <c r="T107" s="74"/>
+      <c r="U107" s="74"/>
+      <c r="V107" s="74"/>
+      <c r="W107" s="74"/>
+      <c r="X107" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="73">
         <v>0.5</v>
       </c>
-      <c r="AC107" s="75">
+      <c r="AC107" s="73">
         <v>1</v>
       </c>
-      <c r="AD107" s="75">
+      <c r="AD107" s="73">
         <v>1.25</v>
       </c>
       <c r="AG107" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH107" s="98"/>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1011</v>
       </c>
@@ -22049,41 +22178,42 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
-      <c r="S108" s="76"/>
-      <c r="T108" s="76"/>
-      <c r="U108" s="76"/>
-      <c r="V108" s="76"/>
-      <c r="W108" s="76"/>
-      <c r="X108" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="75">
+      <c r="O108" s="74"/>
+      <c r="P108" s="74"/>
+      <c r="Q108" s="74"/>
+      <c r="R108" s="74"/>
+      <c r="S108" s="74"/>
+      <c r="T108" s="74"/>
+      <c r="U108" s="74"/>
+      <c r="V108" s="74"/>
+      <c r="W108" s="74"/>
+      <c r="X108" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="73">
         <v>0.1</v>
       </c>
-      <c r="AD108" s="75">
+      <c r="AD108" s="73">
         <v>0.5</v>
       </c>
       <c r="AG108" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH108" s="98"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
       <c r="F109" s="17"/>
@@ -22095,18 +22225,19 @@
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
-      <c r="S109" s="76"/>
-      <c r="T109" s="76"/>
-      <c r="U109" s="76"/>
-      <c r="V109" s="76"/>
-      <c r="W109" s="76"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="74"/>
+      <c r="R109" s="74"/>
+      <c r="S109" s="74"/>
+      <c r="T109" s="74"/>
+      <c r="U109" s="74"/>
+      <c r="V109" s="74"/>
+      <c r="W109" s="74"/>
       <c r="AG109" s="1"/>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH109" s="98"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
       <c r="F110" s="17"/>
@@ -22118,18 +22249,19 @@
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-      <c r="S110" s="76"/>
-      <c r="T110" s="76"/>
-      <c r="U110" s="76"/>
-      <c r="V110" s="76"/>
-      <c r="W110" s="76"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="74"/>
+      <c r="Q110" s="74"/>
+      <c r="R110" s="74"/>
+      <c r="S110" s="74"/>
+      <c r="T110" s="74"/>
+      <c r="U110" s="74"/>
+      <c r="V110" s="74"/>
+      <c r="W110" s="74"/>
       <c r="AG110" s="1"/>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH110" s="98"/>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>1122</v>
       </c>
@@ -22143,18 +22275,19 @@
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
-      <c r="O111" s="76"/>
-      <c r="P111" s="76"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="76"/>
-      <c r="S111" s="76"/>
-      <c r="T111" s="76"/>
-      <c r="U111" s="76"/>
-      <c r="V111" s="76"/>
-      <c r="W111" s="76"/>
+      <c r="O111" s="74"/>
+      <c r="P111" s="74"/>
+      <c r="Q111" s="74"/>
+      <c r="R111" s="74"/>
+      <c r="S111" s="74"/>
+      <c r="T111" s="74"/>
+      <c r="U111" s="74"/>
+      <c r="V111" s="74"/>
+      <c r="W111" s="74"/>
       <c r="AG111" s="1"/>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH111" s="98"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
       <c r="F112" s="17"/>
@@ -22166,18 +22299,19 @@
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
-      <c r="O112" s="76"/>
-      <c r="P112" s="76"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="76"/>
-      <c r="S112" s="76"/>
-      <c r="T112" s="76"/>
-      <c r="U112" s="76"/>
-      <c r="V112" s="76"/>
-      <c r="W112" s="76"/>
+      <c r="O112" s="74"/>
+      <c r="P112" s="74"/>
+      <c r="Q112" s="74"/>
+      <c r="R112" s="74"/>
+      <c r="S112" s="74"/>
+      <c r="T112" s="74"/>
+      <c r="U112" s="74"/>
+      <c r="V112" s="74"/>
+      <c r="W112" s="74"/>
       <c r="AG112" s="1"/>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH112" s="98"/>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>1045</v>
       </c>
@@ -22191,18 +22325,19 @@
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
-      <c r="O113" s="76"/>
-      <c r="P113" s="76"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="76"/>
-      <c r="S113" s="76"/>
-      <c r="T113" s="76"/>
-      <c r="U113" s="76"/>
-      <c r="V113" s="76"/>
-      <c r="W113" s="76"/>
+      <c r="O113" s="74"/>
+      <c r="P113" s="74"/>
+      <c r="Q113" s="74"/>
+      <c r="R113" s="74"/>
+      <c r="S113" s="74"/>
+      <c r="T113" s="74"/>
+      <c r="U113" s="74"/>
+      <c r="V113" s="74"/>
+      <c r="W113" s="74"/>
       <c r="AG113" s="1"/>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH113" s="98"/>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
       <c r="F114" s="1"/>
@@ -22214,8 +22349,9 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="AG114" s="1"/>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH114" s="98"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1040</v>
       </c>
@@ -22237,8 +22373,9 @@
       <c r="AG115" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH115" s="98"/>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>987</v>
       </c>
@@ -22260,33 +22397,37 @@
       <c r="AG116" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH116" s="98"/>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="AG117" s="1"/>
-    </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH117" s="98"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>1045</v>
       </c>
       <c r="C118" s="1"/>
       <c r="AG118" s="1"/>
-    </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH118" s="98"/>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="N119" s="21"/>
-      <c r="O119" s="77"/>
-      <c r="P119" s="77"/>
-      <c r="Q119" s="77"/>
-      <c r="R119" s="77"/>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="77"/>
-      <c r="V119" s="77"/>
-      <c r="W119" s="77"/>
+      <c r="O119" s="75"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="75"/>
+      <c r="S119" s="75"/>
+      <c r="T119" s="75"/>
+      <c r="U119" s="75"/>
+      <c r="V119" s="75"/>
+      <c r="W119" s="75"/>
       <c r="AG119" s="1"/>
-    </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH119" s="98"/>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>261</v>
       </c>
@@ -22308,8 +22449,9 @@
       <c r="AG120" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH120" s="98"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>262</v>
       </c>
@@ -22331,8 +22473,9 @@
       <c r="AG121" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH121" s="98"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>263</v>
       </c>
@@ -22354,94 +22497,124 @@
       <c r="AG122" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH122" s="98"/>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
       <c r="F123" s="1"/>
       <c r="AG123" s="1"/>
-    </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH123" s="98"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
       <c r="F124" s="1"/>
       <c r="AG124" s="1"/>
-    </row>
-    <row r="126" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A127" s="72" t="s">
+      <c r="AH124" s="98"/>
+    </row>
+    <row r="126" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:34" s="98" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="55"/>
-      <c r="AG127" s="55"/>
-    </row>
-    <row r="129" spans="1:33" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B127" s="96"/>
+      <c r="C127" s="97"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="99"/>
+      <c r="J127" s="99"/>
+      <c r="K127" s="99"/>
+      <c r="L127" s="99"/>
+      <c r="M127" s="99"/>
+      <c r="N127" s="99"/>
+      <c r="O127" s="100"/>
+      <c r="P127" s="100"/>
+      <c r="Q127" s="100"/>
+      <c r="R127" s="100"/>
+      <c r="S127" s="100"/>
+      <c r="T127" s="100"/>
+      <c r="U127" s="100"/>
+      <c r="V127" s="100"/>
+      <c r="W127" s="100"/>
+      <c r="X127" s="101"/>
+      <c r="Y127" s="102"/>
+      <c r="Z127" s="103"/>
+      <c r="AA127" s="100"/>
+      <c r="AB127" s="100"/>
+      <c r="AC127" s="100"/>
+      <c r="AD127" s="100"/>
+      <c r="AG127" s="97"/>
+      <c r="AH127" s="97"/>
+    </row>
+    <row r="129" spans="1:34" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>910</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N129" s="64" t="s">
+      <c r="N129" s="63" t="s">
         <v>1138</v>
       </c>
-      <c r="O129" s="74">
-        <v>0</v>
-      </c>
-      <c r="P129" s="74">
+      <c r="O129" s="72">
+        <v>0</v>
+      </c>
+      <c r="P129" s="72">
         <v>1</v>
       </c>
-      <c r="Q129" s="74">
+      <c r="Q129" s="72">
         <v>2</v>
       </c>
-      <c r="R129" s="74">
+      <c r="R129" s="72">
         <v>3</v>
       </c>
-      <c r="S129" s="74">
+      <c r="S129" s="72">
         <v>4</v>
       </c>
-      <c r="T129" s="74">
+      <c r="T129" s="72">
         <v>5</v>
       </c>
-      <c r="U129" s="74">
+      <c r="U129" s="72">
         <v>6</v>
       </c>
-      <c r="V129" s="74">
+      <c r="V129" s="72">
         <v>7</v>
       </c>
-      <c r="W129" s="74">
+      <c r="W129" s="72">
         <v>8</v>
       </c>
-      <c r="X129" s="79">
+      <c r="X129" s="77">
         <v>9</v>
       </c>
-      <c r="Y129" s="89">
+      <c r="Y129" s="87">
         <v>10</v>
       </c>
-      <c r="Z129" s="84">
+      <c r="Z129" s="82">
         <v>11</v>
       </c>
-      <c r="AA129" s="74">
+      <c r="AA129" s="72">
         <v>12</v>
       </c>
-      <c r="AB129" s="74">
+      <c r="AB129" s="72">
         <v>13</v>
       </c>
-      <c r="AC129" s="74">
+      <c r="AC129" s="72">
         <v>14</v>
       </c>
-      <c r="AD129" s="74">
+      <c r="AD129" s="72">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>189</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N130" s="65"/>
+      <c r="N130" s="64"/>
       <c r="O130" s="51" t="s">
         <v>1190</v>
       </c>
@@ -22469,13 +22642,13 @@
       <c r="W130" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="X130" s="80" t="s">
+      <c r="X130" s="78" t="s">
         <v>1186</v>
       </c>
-      <c r="Y130" s="90" t="s">
+      <c r="Y130" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="Z130" s="85" t="s">
+      <c r="Z130" s="83" t="s">
         <v>388</v>
       </c>
       <c r="AA130" s="18" t="s">
@@ -22491,12 +22664,13 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
       <c r="AG132" s="1"/>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH132" s="98"/>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1143</v>
       </c>
@@ -22512,32 +22686,33 @@
       <c r="K133" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="X133" s="81">
+      <c r="X133" s="79">
         <v>0.2</v>
       </c>
-      <c r="Y133" s="91">
+      <c r="Y133" s="89">
         <v>0.2</v>
       </c>
-      <c r="Z133" s="86">
+      <c r="Z133" s="84">
         <v>0.2</v>
       </c>
-      <c r="AA133" s="75">
+      <c r="AA133" s="73">
         <v>0.2</v>
       </c>
-      <c r="AB133" s="75">
+      <c r="AB133" s="73">
         <v>0.2</v>
       </c>
-      <c r="AC133" s="75">
+      <c r="AC133" s="73">
         <v>0.2</v>
       </c>
-      <c r="AD133" s="75">
+      <c r="AD133" s="73">
         <v>0.2</v>
       </c>
       <c r="AG133" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH133" s="98"/>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1144</v>
       </c>
@@ -22553,32 +22728,33 @@
       <c r="K134" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="X134" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="91">
+      <c r="X134" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="89">
         <v>0.2</v>
       </c>
-      <c r="Z134" s="86">
+      <c r="Z134" s="84">
         <v>0.2</v>
       </c>
-      <c r="AA134" s="75">
+      <c r="AA134" s="73">
         <v>0.2</v>
       </c>
-      <c r="AB134" s="75">
+      <c r="AB134" s="73">
         <v>0.2</v>
       </c>
-      <c r="AC134" s="75">
+      <c r="AC134" s="73">
         <v>0.2</v>
       </c>
-      <c r="AD134" s="75">
+      <c r="AD134" s="73">
         <v>0.2</v>
       </c>
       <c r="AG134" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH134" s="98"/>
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1145</v>
       </c>
@@ -22599,32 +22775,33 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="X135" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="91">
+      <c r="X135" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="89">
         <v>0.2</v>
       </c>
-      <c r="Z135" s="86">
+      <c r="Z135" s="84">
         <v>0.2</v>
       </c>
-      <c r="AA135" s="75">
+      <c r="AA135" s="73">
         <v>0.2</v>
       </c>
-      <c r="AB135" s="75">
+      <c r="AB135" s="73">
         <v>0.2</v>
       </c>
-      <c r="AC135" s="75">
+      <c r="AC135" s="73">
         <v>0.2</v>
       </c>
-      <c r="AD135" s="75">
+      <c r="AD135" s="73">
         <v>0.2</v>
       </c>
       <c r="AG135" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH135" s="98"/>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1146</v>
       </c>
@@ -22642,30 +22819,31 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="X136" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="91">
+      <c r="X136" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="89">
         <v>0.2</v>
       </c>
-      <c r="Z136" s="86">
+      <c r="Z136" s="84">
         <v>0.2</v>
       </c>
-      <c r="AA136" s="75">
+      <c r="AA136" s="73">
         <v>0.2</v>
       </c>
-      <c r="AB136" s="75">
+      <c r="AB136" s="73">
         <v>0.2</v>
       </c>
-      <c r="AC136" s="75">
+      <c r="AC136" s="73">
         <v>0.2</v>
       </c>
-      <c r="AD136" s="75">
+      <c r="AD136" s="73">
         <v>0.2</v>
       </c>
       <c r="AG136" s="1" t="s">
         <v>1048</v>
       </c>
+      <c r="AH136" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22673,7 +22851,7 @@
     <mergeCell ref="N129:N130"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="AG127 A127 C127">
+  <conditionalFormatting sqref="AG127:AH127 A127 C127">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -22706,7 +22884,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AK1 AE1:AF1 AH1">
+  <conditionalFormatting sqref="AK1:AL1 AE1:AF1 AI1">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -22749,7 +22927,7 @@
   <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -22769,7 +22947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>1051</v>
       </c>
       <c r="B1" s="12"/>
@@ -22814,10 +22992,10 @@
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>1050</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="66"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -23000,7 +23178,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>1086</v>
       </c>
       <c r="B19" s="12"/>
@@ -23032,10 +23210,10 @@
       <c r="C21" s="11"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="57" t="s">
         <v>1072</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="57" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -23398,7 +23576,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
@@ -23407,12 +23585,12 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="H52" s="1"/>
+    <row r="52" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -23472,11 +23650,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="54" t="s">
-        <v>190</v>
-      </c>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -23485,7 +23659,7 @@
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A52">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
@@ -24764,7 +24938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68E02A-CC6E-4AA2-9AB8-6B95286EE8C0}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26154,9 +26330,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K51" s="1" t="e">
-        <f>IF(#REF!*$B$34&lt;&gt;0,#REF!* $B$34, "")</f>
-        <v>#REF!</v>
+      <c r="K51" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="1"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CAF939-3F6B-42A2-BBF1-3B5EF6FC91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE4F94-CB55-4823-882B-581CA8D673DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15705" firstSheet="13" activeTab="14" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
+    <workbookView minimized="1" xWindow="15885" yWindow="585" windowWidth="9675" windowHeight="11385" firstSheet="4" activeTab="11" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1224">
   <si>
     <t>LINE</t>
   </si>
@@ -3721,6 +3721,9 @@
   </si>
   <si>
     <t>Ordinateurs singularistes</t>
+  </si>
+  <si>
+    <t>TECH</t>
   </si>
 </sst>
 </file>
@@ -8526,7 +8529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BD8DD-86FC-4A07-AC68-DC0D3DFAF7A0}">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11283,98 +11288,105 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C953A2-E348-45BD-94BB-9853905028F2}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="1" customWidth="1"/>
-    <col min="2" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="21.140625" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="M4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="2"/>
+      <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -11382,19 +11394,19 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="2"/>
+      <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -11402,331 +11414,331 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="2"/>
+      <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="L47" s="1" t="s">
+      <c r="I47" s="3"/>
+      <c r="M47" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="L48" s="1" t="s">
+      <c r="I48" s="3"/>
+      <c r="M48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -11735,12 +11747,12 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -11749,12 +11761,12 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -11763,12 +11775,12 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -11777,12 +11789,12 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -11791,12 +11803,12 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -11805,12 +11817,12 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -11819,12 +11831,12 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -11833,12 +11845,12 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -11847,12 +11859,12 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11860,19 +11872,19 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="2"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11880,14 +11892,15 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="2"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="J76" s="3"/>
+      <c r="C76" s="2"/>
+      <c r="K76" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12256,8 +12269,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B3" sqref="B3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13563,7 +13576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CB1DF-D23F-4AAE-96B5-181EBEC611E6}">
   <dimension ref="A3:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17258,9 +17273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V21" sqref="V20:V21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -24938,8 +24953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68E02A-CC6E-4AA2-9AB8-6B95286EE8C0}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE4F94-CB55-4823-882B-581CA8D673DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5A337-12FC-4568-AFA5-328664A83B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{0B1E411E-C41C-40BF-92AF-52F4E913E376}"/>
-    <workbookView minimized="1" xWindow="15885" yWindow="585" windowWidth="9675" windowHeight="11385" firstSheet="4" activeTab="11" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView minimized="1" xWindow="16230" yWindow="930" windowWidth="9675" windowHeight="11385" firstSheet="6" activeTab="17" xr2:uid="{9DD1E0F3-0C2C-449D-A01B-FF0BEE1DAC18}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -34,8 +34,11 @@
     <sheet name="Productions" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Buildings!$A$178:$D$253</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipment!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Techs!$A$1:$P$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Buildings!$B$89:$B$162</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Buildings!$B$89:$B$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1277">
   <si>
     <t>LINE</t>
   </si>
@@ -3724,6 +3727,165 @@
   </si>
   <si>
     <t>TECH</t>
+  </si>
+  <si>
+    <t># BATIMENTS RETRO-TECH</t>
+  </si>
+  <si>
+    <t>Zone de chasse</t>
+  </si>
+  <si>
+    <t>Fermes anciennes</t>
+  </si>
+  <si>
+    <t>Pâturages</t>
+  </si>
+  <si>
+    <t>Citernes</t>
+  </si>
+  <si>
+    <t>Puit</t>
+  </si>
+  <si>
+    <t>Artisans de marchandises</t>
+  </si>
+  <si>
+    <t>Manufacture d'équipement</t>
+  </si>
+  <si>
+    <t>Manufacture de marchandises</t>
+  </si>
+  <si>
+    <t>Herboriste</t>
+  </si>
+  <si>
+    <t>Champs fertilisés</t>
+  </si>
+  <si>
+    <t>Apothicaire</t>
+  </si>
+  <si>
+    <t>Pharmacie</t>
+  </si>
+  <si>
+    <t>Champs de psychotropes</t>
+  </si>
+  <si>
+    <t>Site de prélèvement d'organes</t>
+  </si>
+  <si>
+    <t>Expédition esclavagiste</t>
+  </si>
+  <si>
+    <t>Carrière ancienne de pierre</t>
+  </si>
+  <si>
+    <t>Briquetterie</t>
+  </si>
+  <si>
+    <t>Cimenterie</t>
+  </si>
+  <si>
+    <t>Champs mécanisés</t>
+  </si>
+  <si>
+    <t>Atelier automobile</t>
+  </si>
+  <si>
+    <t>Atelier de trains</t>
+  </si>
+  <si>
+    <t>Chantier naval à voile</t>
+  </si>
+  <si>
+    <t>Chantier naval à vapeur</t>
+  </si>
+  <si>
+    <t>Atelier de dirigeables</t>
+  </si>
+  <si>
+    <t>Atelier d'aéronef</t>
+  </si>
+  <si>
+    <t>Atelier aéronautique</t>
+  </si>
+  <si>
+    <t>Programme spatial pionnier</t>
+  </si>
+  <si>
+    <t>Atelier de fusée</t>
+  </si>
+  <si>
+    <t>Atelier de tracteurs</t>
+  </si>
+  <si>
+    <t>Artisans outilleurs</t>
+  </si>
+  <si>
+    <t>Atelier de machine-outils</t>
+  </si>
+  <si>
+    <t>Atelier mécanique</t>
+  </si>
+  <si>
+    <t>Puits de pétrole</t>
+  </si>
+  <si>
+    <t>Houillère</t>
+  </si>
+  <si>
+    <t>Centrale à charbon</t>
+  </si>
+  <si>
+    <t>Centrale à fuel</t>
+  </si>
+  <si>
+    <t>Mine d'uranium</t>
+  </si>
+  <si>
+    <t>Centrifugeuses</t>
+  </si>
+  <si>
+    <t>Calutrons</t>
+  </si>
+  <si>
+    <t>(énergie)</t>
+  </si>
+  <si>
+    <t>Programme nucléaire</t>
+  </si>
+  <si>
+    <t>(armes)</t>
+  </si>
+  <si>
+    <t>Mine mécanisée de fer</t>
+  </si>
+  <si>
+    <t>Mine ancienne de fer</t>
+  </si>
+  <si>
+    <t>Mine ancienne de cuivre</t>
+  </si>
+  <si>
+    <t>Usine ancienne d'automobile</t>
+  </si>
+  <si>
+    <t>Usine pharmaceutique</t>
+  </si>
+  <si>
+    <t>Mine mécanisée d'alumine</t>
+  </si>
+  <si>
+    <t>Atelier de calculateurs mécaniques</t>
+  </si>
+  <si>
+    <t>Fonderie électronique ancienne</t>
+  </si>
+  <si>
+    <t>Atelier de supercalculateurs</t>
+  </si>
+  <si>
+    <t>Usine ancienne d'informatique</t>
   </si>
 </sst>
 </file>
@@ -4245,7 +4407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4475,6 +4637,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4497,7 +4661,996 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Buildings!$B$179:$B$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD99-474A-8154-8D8BF7B16CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="563530671"/>
+        <c:axId val="563531151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="563530671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563531151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="563531151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563530671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>971549</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7083675-63F4-4E17-D6BF-E92F9EA45AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6452,7 +7605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8529,9 +9682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BD8DD-86FC-4A07-AC68-DC0D3DFAF7A0}">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11288,18 +12439,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C953A2-E348-45BD-94BB-9853905028F2}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="J220" sqref="J220"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
     <col min="3" max="11" width="14" style="1" customWidth="1"/>
     <col min="12" max="16384" width="21.140625" style="1"/>
@@ -11902,9 +13051,1422 @@
       <c r="C76" s="2"/>
       <c r="K76" s="3"/>
     </row>
+    <row r="83" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="98" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A86" s="55" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L87" s="18"/>
+      <c r="N87" s="73" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N88" s="73" t="s">
+        <v>941</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="N89" s="73" t="s">
+        <v>942</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="L90" s="94"/>
+      <c r="N90" s="73" t="s">
+        <v>943</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="L91" s="94"/>
+      <c r="N91" s="73" t="s">
+        <v>944</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="L92" s="94"/>
+      <c r="N92" s="73" t="s">
+        <v>945</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="L93" s="94"/>
+      <c r="N93" s="73" t="s">
+        <v>946</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L94" s="18"/>
+      <c r="N94" s="73" t="s">
+        <v>947</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="L95" s="18"/>
+      <c r="N95" s="73" t="s">
+        <v>948</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="L96" s="107"/>
+      <c r="N96" s="73" t="s">
+        <v>949</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L97" s="107"/>
+      <c r="N97" s="73" t="s">
+        <v>950</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L98" s="107"/>
+      <c r="N98" s="73" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L99" s="107"/>
+      <c r="N99" s="73" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L100" s="107"/>
+      <c r="N100" s="73" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L101" s="107"/>
+      <c r="N101" s="73" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L102" s="107"/>
+      <c r="N102" s="73" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="94" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L104" s="18"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4</v>
+      </c>
+      <c r="D105" s="94" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L105" s="18"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B106" s="1">
+        <v>6</v>
+      </c>
+      <c r="D106" s="94" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L106" s="18"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B107" s="1">
+        <v>8</v>
+      </c>
+      <c r="D107" s="94" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L109" s="107"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D110" s="107" t="s">
+        <v>913</v>
+      </c>
+      <c r="L110" s="107"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L111" s="107"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7</v>
+      </c>
+      <c r="D112" s="107" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="107" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L116" s="18"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B117" s="1">
+        <v>4</v>
+      </c>
+      <c r="D117" s="107" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L117" s="18"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B118" s="1">
+        <v>6</v>
+      </c>
+      <c r="D118" s="107" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L119" s="18"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B121" s="1">
+        <v>8</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="L121" s="18"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L122" s="18"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="L123" s="18"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="L124" s="18"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B125" s="1">
+        <v>6</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="L125" s="18"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L126" s="18"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B128" s="1">
+        <v>6</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="L128" s="18"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B129" s="1">
+        <v>8</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="L129" s="107"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L130" s="107"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B131" s="1">
+        <v>7</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B132" s="1">
+        <v>9</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L133" s="107"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L134" s="107"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D135" s="18"/>
+      <c r="L135" s="107"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L136" s="107"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B137" s="1">
+        <v>7</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L137" s="107"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D138" s="18"/>
+      <c r="L138" s="108"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B140" s="1">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L140" s="18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L141" s="18"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B142" s="1">
+        <v>6</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L142" s="107"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B143" s="1">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L143" s="18" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L144" s="18" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L145" s="18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B146" s="1">
+        <v>7</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="L146" s="18" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B147" s="1">
+        <v>7</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="L147" s="18"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B148" s="1">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L148" s="18" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L149" s="18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B150" s="1">
+        <v>8</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" s="1">
+        <v>8</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L151" s="18" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L152" s="18"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="108" t="s">
+        <v>609</v>
+      </c>
+      <c r="L153" s="107"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3</v>
+      </c>
+      <c r="D154" s="108" t="s">
+        <v>609</v>
+      </c>
+      <c r="L154" s="18" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B155" s="1">
+        <v>6</v>
+      </c>
+      <c r="D155" s="108" t="s">
+        <v>609</v>
+      </c>
+      <c r="L155" s="107"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L156" s="18"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B157" s="1">
+        <v>6</v>
+      </c>
+      <c r="D157" s="107" t="s">
+        <v>613</v>
+      </c>
+      <c r="L157" s="18"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L158" s="18"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B159" s="1">
+        <v>6</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L159" s="18"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B160" s="1">
+        <v>7</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B161" s="1">
+        <v>7</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L161" s="107"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B162" s="1">
+        <v>8</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L162" s="107"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L163" s="107"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L164" s="18"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L166" s="18"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L167" s="18"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L168" s="18"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L169" s="18"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L170" s="18"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L171" s="18"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L172" s="18"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L173" s="18"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L174" s="18"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L175" s="107"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L176" s="18"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L177" s="18"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L178" s="18"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="L179" s="18"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="L180" s="18"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="L181" s="107"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L182" s="107"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="94" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L183" s="107"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="107" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L184" s="107"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D187" s="108" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B188" s="1">
+        <v>3</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B189" s="1">
+        <v>3</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B190" s="1">
+        <v>3</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B191" s="1">
+        <v>3</v>
+      </c>
+      <c r="D191" s="108" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B192" s="1">
+        <v>4</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B193" s="1">
+        <v>4</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="94" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4</v>
+      </c>
+      <c r="D195" s="107" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B196" s="1">
+        <v>5</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B197" s="1">
+        <v>5</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B198" s="1">
+        <v>5</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B199" s="1">
+        <v>5</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B201" s="1">
+        <v>5</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B202" s="1">
+        <v>6</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B203" s="1">
+        <v>6</v>
+      </c>
+      <c r="D203" s="94" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B204" s="1">
+        <v>6</v>
+      </c>
+      <c r="D204" s="107" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B205" s="1">
+        <v>6</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B206" s="1">
+        <v>6</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B207" s="1">
+        <v>6</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B208" s="1">
+        <v>6</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B209" s="1">
+        <v>6</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B210" s="1">
+        <v>6</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B211" s="1">
+        <v>6</v>
+      </c>
+      <c r="D211" s="108" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B212" s="1">
+        <v>6</v>
+      </c>
+      <c r="D212" s="107" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B213" s="1">
+        <v>6</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B214" s="1">
+        <v>7</v>
+      </c>
+      <c r="D214" s="107" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B215" s="1">
+        <v>7</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B216" s="1">
+        <v>7</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B217" s="1">
+        <v>7</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B218" s="1">
+        <v>7</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B219" s="1">
+        <v>7</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B220" s="1">
+        <v>7</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B221" s="1">
+        <v>7</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B222" s="1">
+        <v>8</v>
+      </c>
+      <c r="D222" s="94" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B223" s="1">
+        <v>8</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B224" s="1">
+        <v>8</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B225" s="1">
+        <v>8</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B226" s="1">
+        <v>8</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B227" s="1">
+        <v>8</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B228" s="1">
+        <v>9</v>
+      </c>
+      <c r="D228" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D236" s="107" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="18"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="18"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A178:D253" xr:uid="{E8C953A2-E348-45BD-94BB-9853905028F2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A179:D253">
+      <sortCondition ref="B178:B253"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12267,11 +14829,9 @@
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="B3" sqref="B3:C18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12977,7 +15537,7 @@
   <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A19" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13576,10 +16136,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CB1DF-D23F-4AAE-96B5-181EBEC611E6}">
   <dimension ref="A3:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17273,11 +19833,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A4" workbookViewId="1">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22941,9 +25502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CEB002-A91E-4AEC-95D0-DCF064EE0BB5}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24953,9 +27512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68E02A-CC6E-4AA2-9AB8-6B95286EE8C0}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5A337-12FC-4568-AFA5-328664A83B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62808399-F8C7-43EA-A3A4-331C84B24044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
-    <workbookView minimized="1" xWindow="16230" yWindow="930" windowWidth="9675" windowHeight="11385" firstSheet="6" activeTab="17" xr2:uid="{9DD1E0F3-0C2C-449D-A01B-FF0BEE1DAC18}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15705" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -37,8 +36,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Buildings!$A$178:$D$253</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipment!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Techs!$A$1:$P$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Buildings!$B$89:$B$162</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Buildings!$B$89:$B$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1285">
   <si>
     <t>LINE</t>
   </si>
@@ -3886,6 +3883,30 @@
   </si>
   <si>
     <t>Usine ancienne d'informatique</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/food_standard.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/food_substitue.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/water.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/drug_hard.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/graviton.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/transport_spaceshuttle.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/electronical_quantum_communicator.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/biomass.png</t>
   </si>
 </sst>
 </file>
@@ -4407,7 +4428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4510,45 +4531,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4607,14 +4589,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4637,8 +4611,45 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9683,7 +9694,6 @@
   <dimension ref="A1:P384"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12254,7 +12264,6 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12305,7 +12314,6 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12441,10 +12449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C953A2-E348-45BD-94BB-9853905028F2}">
   <dimension ref="A1:P246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="J220" sqref="J220"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13051,8 +13058,8 @@
       <c r="C76" s="2"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="83" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
+    <row r="83" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="81" t="s">
         <v>190</v>
       </c>
     </row>
@@ -13063,7 +13070,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L87" s="18"/>
-      <c r="N87" s="73" t="s">
+      <c r="N87" s="60" t="s">
         <v>1159</v>
       </c>
       <c r="O87" s="1" t="s">
@@ -13071,7 +13078,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N88" s="73" t="s">
+      <c r="N88" s="60" t="s">
         <v>941</v>
       </c>
       <c r="O88" s="1" t="s">
@@ -13088,7 +13095,7 @@
       <c r="D89" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="N89" s="73" t="s">
+      <c r="N89" s="60" t="s">
         <v>942</v>
       </c>
       <c r="O89" s="1" t="s">
@@ -13105,8 +13112,8 @@
       <c r="D90" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="L90" s="94"/>
-      <c r="N90" s="73" t="s">
+      <c r="L90" s="18"/>
+      <c r="N90" s="60" t="s">
         <v>943</v>
       </c>
       <c r="O90" s="1" t="s">
@@ -13123,8 +13130,8 @@
       <c r="D91" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="L91" s="94"/>
-      <c r="N91" s="73" t="s">
+      <c r="L91" s="18"/>
+      <c r="N91" s="60" t="s">
         <v>944</v>
       </c>
       <c r="O91" s="1" t="s">
@@ -13141,8 +13148,8 @@
       <c r="D92" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="L92" s="94"/>
-      <c r="N92" s="73" t="s">
+      <c r="L92" s="18"/>
+      <c r="N92" s="60" t="s">
         <v>945</v>
       </c>
       <c r="O92" s="1" t="s">
@@ -13159,8 +13166,8 @@
       <c r="D93" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="L93" s="94"/>
-      <c r="N93" s="73" t="s">
+      <c r="L93" s="18"/>
+      <c r="N93" s="60" t="s">
         <v>946</v>
       </c>
       <c r="O93" s="1" t="s">
@@ -13169,7 +13176,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L94" s="18"/>
-      <c r="N94" s="73" t="s">
+      <c r="N94" s="60" t="s">
         <v>947</v>
       </c>
       <c r="O94" s="1" t="s">
@@ -13187,7 +13194,7 @@
         <v>395</v>
       </c>
       <c r="L95" s="18"/>
-      <c r="N95" s="73" t="s">
+      <c r="N95" s="60" t="s">
         <v>948</v>
       </c>
       <c r="O95" s="1" t="s">
@@ -13204,8 +13211,7 @@
       <c r="D96" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="L96" s="107"/>
-      <c r="N96" s="73" t="s">
+      <c r="N96" s="60" t="s">
         <v>949</v>
       </c>
       <c r="O96" s="1" t="s">
@@ -13213,8 +13219,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L97" s="107"/>
-      <c r="N97" s="73" t="s">
+      <c r="N97" s="60" t="s">
         <v>950</v>
       </c>
       <c r="O97" s="1" t="s">
@@ -13231,8 +13236,7 @@
       <c r="D98" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="L98" s="107"/>
-      <c r="N98" s="73" t="s">
+      <c r="N98" s="60" t="s">
         <v>1160</v>
       </c>
       <c r="O98" s="1" t="s">
@@ -13249,8 +13253,7 @@
       <c r="D99" s="18" t="s">
         <v>1158</v>
       </c>
-      <c r="L99" s="107"/>
-      <c r="N99" s="73" t="s">
+      <c r="N99" s="60" t="s">
         <v>1161</v>
       </c>
       <c r="O99" s="1" t="s">
@@ -13258,8 +13261,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="107"/>
-      <c r="N100" s="73" t="s">
+      <c r="N100" s="60" t="s">
         <v>1162</v>
       </c>
       <c r="O100" s="1" t="s">
@@ -13276,8 +13278,7 @@
       <c r="D101" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="L101" s="107"/>
-      <c r="N101" s="73" t="s">
+      <c r="N101" s="60" t="s">
         <v>1163</v>
       </c>
       <c r="O101" s="1" t="s">
@@ -13294,8 +13295,7 @@
       <c r="D102" s="18" t="s">
         <v>1158</v>
       </c>
-      <c r="L102" s="107"/>
-      <c r="N102" s="73" t="s">
+      <c r="N102" s="60" t="s">
         <v>1164</v>
       </c>
       <c r="O102" s="1" t="s">
@@ -13309,7 +13309,7 @@
       <c r="B104" s="1">
         <v>1</v>
       </c>
-      <c r="D104" s="94" t="s">
+      <c r="D104" s="18" t="s">
         <v>1216</v>
       </c>
       <c r="L104" s="18"/>
@@ -13321,7 +13321,7 @@
       <c r="B105" s="1">
         <v>4</v>
       </c>
-      <c r="D105" s="94" t="s">
+      <c r="D105" s="18" t="s">
         <v>1216</v>
       </c>
       <c r="L105" s="18"/>
@@ -13333,7 +13333,7 @@
       <c r="B106" s="1">
         <v>6</v>
       </c>
-      <c r="D106" s="94" t="s">
+      <c r="D106" s="18" t="s">
         <v>1216</v>
       </c>
       <c r="L106" s="18"/>
@@ -13345,28 +13345,21 @@
       <c r="B107" s="1">
         <v>8</v>
       </c>
-      <c r="D107" s="94" t="s">
+      <c r="D107" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L108" s="18"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L109" s="107"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D110" s="107" t="s">
+      <c r="D110" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="L110" s="107"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L111" s="107"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -13375,7 +13368,7 @@
       <c r="B112" s="1">
         <v>7</v>
       </c>
-      <c r="D112" s="107" t="s">
+      <c r="D112" s="1" t="s">
         <v>915</v>
       </c>
     </row>
@@ -13397,7 +13390,7 @@
       <c r="B116" s="1">
         <v>1</v>
       </c>
-      <c r="D116" s="107" t="s">
+      <c r="D116" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="L116" s="18"/>
@@ -13409,7 +13402,7 @@
       <c r="B117" s="1">
         <v>4</v>
       </c>
-      <c r="D117" s="107" t="s">
+      <c r="D117" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="L117" s="18"/>
@@ -13421,7 +13414,7 @@
       <c r="B118" s="1">
         <v>6</v>
       </c>
-      <c r="D118" s="107" t="s">
+      <c r="D118" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -13526,10 +13519,6 @@
       <c r="D129" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="L129" s="107"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L130" s="107"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -13553,9 +13542,6 @@
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L133" s="107"/>
-    </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1253</v>
@@ -13566,11 +13552,9 @@
       <c r="D134" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="L134" s="107"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D135" s="18"/>
-      <c r="L135" s="107"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -13582,7 +13566,6 @@
       <c r="D136" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="L136" s="107"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -13594,11 +13577,10 @@
       <c r="D137" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="L137" s="107"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D138" s="18"/>
-      <c r="L138" s="108"/>
+      <c r="L138" s="27"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -13638,7 +13620,6 @@
       <c r="D142" s="18" t="s">
         <v>1035</v>
       </c>
-      <c r="L142" s="107"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -13747,10 +13728,9 @@
       <c r="B153" s="1">
         <v>2</v>
       </c>
-      <c r="D153" s="108" t="s">
+      <c r="D153" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="L153" s="107"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -13759,7 +13739,7 @@
       <c r="B154" s="1">
         <v>3</v>
       </c>
-      <c r="D154" s="108" t="s">
+      <c r="D154" s="27" t="s">
         <v>609</v>
       </c>
       <c r="L154" s="18" t="s">
@@ -13773,10 +13753,9 @@
       <c r="B155" s="1">
         <v>6</v>
       </c>
-      <c r="D155" s="108" t="s">
+      <c r="D155" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="L155" s="107"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L156" s="18"/>
@@ -13788,7 +13767,7 @@
       <c r="B157" s="1">
         <v>6</v>
       </c>
-      <c r="D157" s="107" t="s">
+      <c r="D157" s="1" t="s">
         <v>613</v>
       </c>
       <c r="L157" s="18"/>
@@ -13829,7 +13808,6 @@
       <c r="D161" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="L161" s="107"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -13841,10 +13819,6 @@
       <c r="D162" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="L162" s="107"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L163" s="107"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L164" s="18"/>
@@ -13875,9 +13849,6 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L174" s="18"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L175" s="107"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L176" s="18"/>
@@ -13922,7 +13893,6 @@
       <c r="D181" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="L181" s="107"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -13934,7 +13904,6 @@
       <c r="D182" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="L182" s="107"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -13943,10 +13912,9 @@
       <c r="B183" s="1">
         <v>1</v>
       </c>
-      <c r="D183" s="94" t="s">
+      <c r="D183" s="18" t="s">
         <v>1216</v>
       </c>
-      <c r="L183" s="107"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -13955,10 +13923,9 @@
       <c r="B184" s="1">
         <v>1</v>
       </c>
-      <c r="D184" s="107" t="s">
+      <c r="D184" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="L184" s="107"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -13989,7 +13956,7 @@
       <c r="B187" s="1">
         <v>2</v>
       </c>
-      <c r="D187" s="108" t="s">
+      <c r="D187" s="27" t="s">
         <v>609</v>
       </c>
     </row>
@@ -14033,7 +14000,7 @@
       <c r="B191" s="1">
         <v>3</v>
       </c>
-      <c r="D191" s="108" t="s">
+      <c r="D191" s="27" t="s">
         <v>609</v>
       </c>
     </row>
@@ -14066,7 +14033,7 @@
       <c r="B194" s="1">
         <v>4</v>
       </c>
-      <c r="D194" s="94" t="s">
+      <c r="D194" s="18" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -14077,7 +14044,7 @@
       <c r="B195" s="1">
         <v>4</v>
       </c>
-      <c r="D195" s="107" t="s">
+      <c r="D195" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -14165,7 +14132,7 @@
       <c r="B203" s="1">
         <v>6</v>
       </c>
-      <c r="D203" s="94" t="s">
+      <c r="D203" s="18" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -14176,7 +14143,7 @@
       <c r="B204" s="1">
         <v>6</v>
       </c>
-      <c r="D204" s="107" t="s">
+      <c r="D204" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -14253,7 +14220,7 @@
       <c r="B211" s="1">
         <v>6</v>
       </c>
-      <c r="D211" s="108" t="s">
+      <c r="D211" s="27" t="s">
         <v>609</v>
       </c>
     </row>
@@ -14264,7 +14231,7 @@
       <c r="B212" s="1">
         <v>6</v>
       </c>
-      <c r="D212" s="107" t="s">
+      <c r="D212" s="1" t="s">
         <v>613</v>
       </c>
     </row>
@@ -14286,7 +14253,7 @@
       <c r="B214" s="1">
         <v>7</v>
       </c>
-      <c r="D214" s="107" t="s">
+      <c r="D214" s="1" t="s">
         <v>915</v>
       </c>
     </row>
@@ -14374,7 +14341,7 @@
       <c r="B222" s="1">
         <v>8</v>
       </c>
-      <c r="D222" s="94" t="s">
+      <c r="D222" s="18" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -14448,7 +14415,7 @@
       <c r="A236" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D236" s="107" t="s">
+      <c r="D236" s="1" t="s">
         <v>913</v>
       </c>
     </row>
@@ -14475,7 +14442,6 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14498,34 +14464,34 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="68" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="68" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="69"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -14697,7 +14663,6 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14831,7 +14796,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14904,7 +14868,7 @@
       <c r="C6" s="47" t="s">
         <v>1170</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="58" t="s">
         <v>1169</v>
       </c>
       <c r="L6" s="47"/>
@@ -15424,7 +15388,6 @@
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15537,7 +15500,6 @@
   <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView topLeftCell="A19" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16137,9 +16099,6 @@
   <dimension ref="A3:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16405,7 +16364,6 @@
   <dimension ref="A1:S497"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16493,24 +16451,24 @@
         <v>189</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="90" t="s">
         <v>831</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="90" t="s">
         <v>840</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="58" t="s">
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="90" t="s">
         <v>845</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
       <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16518,30 +16476,30 @@
         <v>189</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="90" t="s">
         <v>832</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="94" t="s">
         <v>835</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="58" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="90" t="s">
         <v>832</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="93"/>
+      <c r="M3" s="94" t="s">
         <v>835</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="58" t="s">
+      <c r="N3" s="92"/>
+      <c r="O3" s="90" t="s">
         <v>832</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62" t="s">
+      <c r="P3" s="93"/>
+      <c r="Q3" s="94" t="s">
         <v>835</v>
       </c>
-      <c r="R3" s="60"/>
+      <c r="R3" s="92"/>
       <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -19833,11 +19791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
-    </sheetView>
-    <sheetView topLeftCell="A4" workbookViewId="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="Y46" workbookViewId="0">
+      <selection activeCell="AG66" sqref="AG66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19855,14 +19810,14 @@
     <col min="12" max="12" width="11" style="18" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="18" customWidth="1"/>
     <col min="14" max="14" width="17" style="18" customWidth="1"/>
-    <col min="15" max="23" width="8.140625" style="73" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="79" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="89" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="84" customWidth="1"/>
-    <col min="27" max="30" width="8.140625" style="73" customWidth="1"/>
+    <col min="15" max="23" width="8.140625" style="60" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="66" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" style="76" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="71" customWidth="1"/>
+    <col min="27" max="30" width="8.140625" style="60" customWidth="1"/>
     <col min="31" max="32" width="7.5703125" style="1"/>
-    <col min="33" max="33" width="31.7109375" style="53" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="96" customWidth="1"/>
+    <col min="33" max="33" width="45.42578125" style="53" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="79" customWidth="1"/>
     <col min="35" max="35" width="3.42578125" style="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="7.5703125" style="1"/>
@@ -19929,13 +19884,13 @@
       <c r="W1" s="52" t="s">
         <v>1178</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="X1" s="63" t="s">
         <v>1179</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="73" t="s">
         <v>1180</v>
       </c>
-      <c r="Z1" s="81" t="s">
+      <c r="Z1" s="68" t="s">
         <v>1181</v>
       </c>
       <c r="AA1" s="52" t="s">
@@ -19955,7 +19910,7 @@
       <c r="AG1" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="AH1" s="104"/>
+      <c r="AH1" s="87"/>
       <c r="AI1" s="54"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="32"/>
@@ -19971,55 +19926,55 @@
       <c r="M2" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="95" t="s">
         <v>1138</v>
       </c>
-      <c r="O2" s="72">
-        <v>0</v>
-      </c>
-      <c r="P2" s="72">
+      <c r="O2" s="59">
+        <v>0</v>
+      </c>
+      <c r="P2" s="59">
         <v>1</v>
       </c>
-      <c r="Q2" s="72">
+      <c r="Q2" s="59">
         <v>2</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="59">
         <v>3</v>
       </c>
-      <c r="S2" s="72">
+      <c r="S2" s="59">
         <v>4</v>
       </c>
-      <c r="T2" s="72">
+      <c r="T2" s="59">
         <v>5</v>
       </c>
-      <c r="U2" s="72">
+      <c r="U2" s="59">
         <v>6</v>
       </c>
-      <c r="V2" s="72">
+      <c r="V2" s="59">
         <v>7</v>
       </c>
-      <c r="W2" s="72">
+      <c r="W2" s="59">
         <v>8</v>
       </c>
-      <c r="X2" s="77">
+      <c r="X2" s="64">
         <v>9</v>
       </c>
-      <c r="Y2" s="87">
+      <c r="Y2" s="74">
         <v>10</v>
       </c>
-      <c r="Z2" s="82">
+      <c r="Z2" s="69">
         <v>11</v>
       </c>
-      <c r="AA2" s="72">
+      <c r="AA2" s="59">
         <v>12</v>
       </c>
-      <c r="AB2" s="72">
+      <c r="AB2" s="59">
         <v>13</v>
       </c>
-      <c r="AC2" s="72">
+      <c r="AC2" s="59">
         <v>14</v>
       </c>
-      <c r="AD2" s="72">
+      <c r="AD2" s="59">
         <v>15</v>
       </c>
     </row>
@@ -20030,7 +19985,7 @@
       <c r="M3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="64"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="51" t="s">
         <v>1190</v>
       </c>
@@ -20058,13 +20013,13 @@
       <c r="W3" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="65" t="s">
         <v>1186</v>
       </c>
-      <c r="Y3" s="88" t="s">
+      <c r="Y3" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="Z3" s="83" t="s">
+      <c r="Z3" s="70" t="s">
         <v>388</v>
       </c>
       <c r="AA3" s="18" t="s">
@@ -20090,8 +20045,8 @@
         <v>1087</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="105"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="88"/>
       <c r="AJ5" s="1" t="s">
         <v>1199</v>
       </c>
@@ -20118,7 +20073,7 @@
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="98"/>
+      <c r="AH6" s="81"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -20142,58 +20097,58 @@
       <c r="K7" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O7" s="73">
-        <v>0</v>
-      </c>
-      <c r="P7" s="73">
+      <c r="O7" s="60">
+        <v>0</v>
+      </c>
+      <c r="P7" s="60">
         <v>1</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="60">
         <v>1</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="60">
         <v>1</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="60">
         <v>1</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="60">
         <v>1</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="60">
         <v>1</v>
       </c>
-      <c r="V7" s="73">
+      <c r="V7" s="60">
         <v>1</v>
       </c>
-      <c r="W7" s="73">
+      <c r="W7" s="60">
         <v>1</v>
       </c>
-      <c r="X7" s="79">
+      <c r="X7" s="66">
         <v>1</v>
       </c>
-      <c r="Y7" s="89">
+      <c r="Y7" s="76">
         <v>1</v>
       </c>
-      <c r="Z7" s="84">
+      <c r="Z7" s="71">
         <v>1</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="AA7" s="60">
         <v>1</v>
       </c>
-      <c r="AB7" s="73">
+      <c r="AB7" s="60">
         <v>1</v>
       </c>
-      <c r="AC7" s="73">
+      <c r="AC7" s="60">
         <v>1</v>
       </c>
-      <c r="AD7" s="73">
+      <c r="AD7" s="60">
         <v>1</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH7" s="98"/>
+        <v>1278</v>
+      </c>
+      <c r="AH7" s="81"/>
       <c r="AJ7" s="1">
         <f>(X7*1000000)/1000000</f>
         <v>1</v>
@@ -20248,58 +20203,58 @@
       <c r="M8" s="18">
         <v>15</v>
       </c>
-      <c r="O8" s="73">
-        <v>0</v>
-      </c>
-      <c r="P8" s="73">
+      <c r="O8" s="60">
+        <v>0</v>
+      </c>
+      <c r="P8" s="60">
         <v>1</v>
       </c>
-      <c r="Q8" s="73">
+      <c r="Q8" s="60">
         <v>1</v>
       </c>
-      <c r="R8" s="73">
+      <c r="R8" s="60">
         <v>1</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S8" s="60">
         <v>1</v>
       </c>
-      <c r="T8" s="73">
+      <c r="T8" s="60">
         <v>1</v>
       </c>
-      <c r="U8" s="73">
+      <c r="U8" s="60">
         <v>1</v>
       </c>
-      <c r="V8" s="73">
+      <c r="V8" s="60">
         <v>1</v>
       </c>
-      <c r="W8" s="73">
+      <c r="W8" s="60">
         <v>1</v>
       </c>
-      <c r="X8" s="79">
+      <c r="X8" s="66">
         <v>1</v>
       </c>
-      <c r="Y8" s="89">
+      <c r="Y8" s="76">
         <v>1</v>
       </c>
-      <c r="Z8" s="84">
+      <c r="Z8" s="71">
         <v>1</v>
       </c>
-      <c r="AA8" s="73">
+      <c r="AA8" s="60">
         <v>1</v>
       </c>
-      <c r="AB8" s="73">
+      <c r="AB8" s="60">
         <v>1</v>
       </c>
-      <c r="AC8" s="73">
+      <c r="AC8" s="60">
         <v>1</v>
       </c>
-      <c r="AD8" s="73">
+      <c r="AD8" s="60">
         <v>1</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH8" s="98"/>
+      <c r="AH8" s="81"/>
       <c r="AJ8" s="1">
         <f>(X8*1000000)/1000000</f>
         <v>1</v>
@@ -20351,60 +20306,60 @@
       <c r="K9" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O9" s="73">
-        <v>0</v>
-      </c>
-      <c r="P9" s="73">
+      <c r="O9" s="60">
+        <v>0</v>
+      </c>
+      <c r="P9" s="60">
         <v>1</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="60">
         <v>1</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="60">
         <v>1</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S9" s="60">
         <v>1</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="60">
         <v>1</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="60">
         <v>1</v>
       </c>
-      <c r="V9" s="73">
+      <c r="V9" s="60">
         <v>1</v>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="60">
         <v>1</v>
       </c>
-      <c r="X9" s="79">
+      <c r="X9" s="66">
         <v>1</v>
       </c>
-      <c r="Y9" s="89">
+      <c r="Y9" s="76">
         <v>1</v>
       </c>
-      <c r="Z9" s="84">
+      <c r="Z9" s="71">
         <v>1</v>
       </c>
-      <c r="AA9" s="73">
+      <c r="AA9" s="60">
         <v>1</v>
       </c>
-      <c r="AB9" s="73">
+      <c r="AB9" s="60">
         <v>1</v>
       </c>
-      <c r="AC9" s="73">
+      <c r="AC9" s="60">
         <v>1</v>
       </c>
-      <c r="AD9" s="73">
+      <c r="AD9" s="60">
         <v>1</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH9" s="98"/>
+        <v>1277</v>
+      </c>
+      <c r="AH9" s="81"/>
       <c r="AJ9" s="1">
-        <f t="shared" ref="AJ8:AJ10" si="7">(X9*1000000)/1000000</f>
+        <f t="shared" ref="AJ9:AJ10" si="7">(X9*1000000)/1000000</f>
         <v>1</v>
       </c>
       <c r="AK9" s="1">
@@ -20454,58 +20409,58 @@
       <c r="K10" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O10" s="73">
-        <v>0</v>
-      </c>
-      <c r="P10" s="73">
+      <c r="O10" s="60">
+        <v>0</v>
+      </c>
+      <c r="P10" s="60">
         <v>1</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="Q10" s="60">
         <v>1</v>
       </c>
-      <c r="R10" s="73">
+      <c r="R10" s="60">
         <v>1</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="60">
         <v>1</v>
       </c>
-      <c r="T10" s="73">
+      <c r="T10" s="60">
         <v>1</v>
       </c>
-      <c r="U10" s="73">
+      <c r="U10" s="60">
         <v>1</v>
       </c>
-      <c r="V10" s="73">
+      <c r="V10" s="60">
         <v>1</v>
       </c>
-      <c r="W10" s="73">
+      <c r="W10" s="60">
         <v>1</v>
       </c>
-      <c r="X10" s="79">
+      <c r="X10" s="66">
         <v>1</v>
       </c>
-      <c r="Y10" s="89">
+      <c r="Y10" s="76">
         <v>1</v>
       </c>
-      <c r="Z10" s="84">
+      <c r="Z10" s="71">
         <v>1</v>
       </c>
-      <c r="AA10" s="73">
+      <c r="AA10" s="60">
         <v>1</v>
       </c>
-      <c r="AB10" s="73">
+      <c r="AB10" s="60">
         <v>1</v>
       </c>
-      <c r="AC10" s="73">
+      <c r="AC10" s="60">
         <v>1</v>
       </c>
-      <c r="AD10" s="73">
+      <c r="AD10" s="60">
         <v>1</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH10" s="98"/>
+      <c r="AH10" s="81"/>
       <c r="AJ10" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -20539,13 +20494,13 @@
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="98"/>
+      <c r="AH11" s="81"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="98"/>
+      <c r="AH12" s="81"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -20572,58 +20527,58 @@
       <c r="M13" s="18">
         <v>30</v>
       </c>
-      <c r="O13" s="73">
-        <v>0</v>
-      </c>
-      <c r="P13" s="73">
+      <c r="O13" s="60">
+        <v>0</v>
+      </c>
+      <c r="P13" s="60">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="60">
         <v>0.2</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="60">
         <v>0.2</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="60">
         <v>0.5</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="60">
         <v>1</v>
       </c>
-      <c r="U13" s="73">
+      <c r="U13" s="60">
         <v>1</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="60">
         <v>1</v>
       </c>
-      <c r="W13" s="73">
+      <c r="W13" s="60">
         <v>1.5</v>
       </c>
-      <c r="X13" s="79">
+      <c r="X13" s="66">
         <v>2</v>
       </c>
-      <c r="Y13" s="89">
+      <c r="Y13" s="76">
         <v>2</v>
       </c>
-      <c r="Z13" s="84">
+      <c r="Z13" s="71">
         <v>2</v>
       </c>
-      <c r="AA13" s="73">
+      <c r="AA13" s="60">
         <v>2</v>
       </c>
-      <c r="AB13" s="73">
+      <c r="AB13" s="60">
         <v>2</v>
       </c>
-      <c r="AC13" s="73">
+      <c r="AC13" s="60">
         <v>2</v>
       </c>
-      <c r="AD13" s="73">
+      <c r="AD13" s="60">
         <v>2</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH13" s="98"/>
+        <v>1279</v>
+      </c>
+      <c r="AH13" s="81"/>
       <c r="AJ13" s="1">
         <f>(X13*1000000)/1000000</f>
         <v>2</v>
@@ -20672,58 +20627,58 @@
       <c r="K14" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="O14" s="73">
-        <v>0</v>
-      </c>
-      <c r="P14" s="73">
+      <c r="O14" s="60">
+        <v>0</v>
+      </c>
+      <c r="P14" s="60">
         <v>0.25</v>
       </c>
-      <c r="Q14" s="73">
+      <c r="Q14" s="60">
         <v>0.25</v>
       </c>
-      <c r="R14" s="73">
+      <c r="R14" s="60">
         <v>0.25</v>
       </c>
-      <c r="S14" s="73">
+      <c r="S14" s="60">
         <v>0.25</v>
       </c>
-      <c r="T14" s="73">
+      <c r="T14" s="60">
         <v>0.25</v>
       </c>
-      <c r="U14" s="73">
+      <c r="U14" s="60">
         <v>0.25</v>
       </c>
-      <c r="V14" s="73">
+      <c r="V14" s="60">
         <v>0.25</v>
       </c>
-      <c r="W14" s="73">
+      <c r="W14" s="60">
         <v>0.25</v>
       </c>
-      <c r="X14" s="79">
+      <c r="X14" s="66">
         <v>0.25</v>
       </c>
-      <c r="Y14" s="89">
+      <c r="Y14" s="76">
         <v>0.25</v>
       </c>
-      <c r="Z14" s="84">
+      <c r="Z14" s="71">
         <v>0.25</v>
       </c>
-      <c r="AA14" s="73">
+      <c r="AA14" s="60">
         <v>0.25</v>
       </c>
-      <c r="AB14" s="73">
+      <c r="AB14" s="60">
         <v>0.25</v>
       </c>
-      <c r="AC14" s="73">
+      <c r="AC14" s="60">
         <v>0.25</v>
       </c>
-      <c r="AD14" s="73">
+      <c r="AD14" s="60">
         <v>0.25</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH14" s="98"/>
+      <c r="AH14" s="81"/>
       <c r="AJ14" s="1">
         <f t="shared" ref="AJ14:AJ15" si="14">(X14*1000000)/1000000</f>
         <v>0.25</v>
@@ -20775,58 +20730,58 @@
       <c r="M15" s="18">
         <v>30</v>
       </c>
-      <c r="O15" s="73">
-        <v>0</v>
-      </c>
-      <c r="P15" s="73">
+      <c r="O15" s="60">
+        <v>0</v>
+      </c>
+      <c r="P15" s="60">
         <v>2</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="Q15" s="60">
         <v>2</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="60">
         <v>2</v>
       </c>
-      <c r="S15" s="73">
+      <c r="S15" s="60">
         <v>2</v>
       </c>
-      <c r="T15" s="73">
+      <c r="T15" s="60">
         <v>2</v>
       </c>
-      <c r="U15" s="73">
+      <c r="U15" s="60">
         <v>2</v>
       </c>
-      <c r="V15" s="73">
+      <c r="V15" s="60">
         <v>2</v>
       </c>
-      <c r="W15" s="73">
+      <c r="W15" s="60">
         <v>2</v>
       </c>
-      <c r="X15" s="79">
+      <c r="X15" s="66">
         <v>2</v>
       </c>
-      <c r="Y15" s="89">
+      <c r="Y15" s="76">
         <v>1</v>
       </c>
-      <c r="Z15" s="84">
+      <c r="Z15" s="71">
         <v>0.5</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="AA15" s="60">
         <v>0.02</v>
       </c>
-      <c r="AB15" s="73">
+      <c r="AB15" s="60">
         <v>0.01</v>
       </c>
-      <c r="AC15" s="73">
+      <c r="AC15" s="60">
         <v>0.01</v>
       </c>
-      <c r="AD15" s="73">
+      <c r="AD15" s="60">
         <v>0.01</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH15" s="98"/>
+      <c r="AH15" s="81"/>
       <c r="AJ15" s="1">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -20860,7 +20815,7 @@
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="98"/>
+      <c r="AH17" s="81"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -20890,58 +20845,58 @@
         <v>12</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="74">
-        <v>0</v>
-      </c>
-      <c r="P18" s="73">
+      <c r="O18" s="61">
+        <v>0</v>
+      </c>
+      <c r="P18" s="60">
         <v>0.01</v>
       </c>
-      <c r="Q18" s="74">
+      <c r="Q18" s="61">
         <v>0.05</v>
       </c>
-      <c r="R18" s="74">
+      <c r="R18" s="61">
         <v>0.1</v>
       </c>
-      <c r="S18" s="74">
+      <c r="S18" s="61">
         <v>0.2</v>
       </c>
-      <c r="T18" s="74">
+      <c r="T18" s="61">
         <v>0.5</v>
       </c>
-      <c r="U18" s="74">
+      <c r="U18" s="61">
         <v>0.8</v>
       </c>
-      <c r="V18" s="74">
+      <c r="V18" s="61">
         <v>1</v>
       </c>
-      <c r="W18" s="74">
+      <c r="W18" s="61">
         <v>1.5</v>
       </c>
-      <c r="X18" s="79">
+      <c r="X18" s="66">
         <v>1.5</v>
       </c>
-      <c r="Y18" s="89">
+      <c r="Y18" s="76">
         <v>1.2</v>
       </c>
-      <c r="Z18" s="84">
+      <c r="Z18" s="71">
         <v>1</v>
       </c>
-      <c r="AA18" s="73">
+      <c r="AA18" s="60">
         <v>0.8</v>
       </c>
-      <c r="AB18" s="73">
+      <c r="AB18" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC18" s="73">
+      <c r="AC18" s="60">
         <v>0.3</v>
       </c>
-      <c r="AD18" s="73">
+      <c r="AD18" s="60">
         <v>0.2</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH18" s="98"/>
+      <c r="AH18" s="81"/>
       <c r="AJ18" s="1">
         <f>(X18*1000000)/1000000</f>
         <v>1.5</v>
@@ -20999,58 +20954,58 @@
         <v>10</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="74">
-        <v>0</v>
-      </c>
-      <c r="P19" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="74">
-        <v>0</v>
-      </c>
-      <c r="R19" s="74">
-        <v>0</v>
-      </c>
-      <c r="S19" s="74">
-        <v>0</v>
-      </c>
-      <c r="T19" s="74">
-        <v>0</v>
-      </c>
-      <c r="U19" s="74">
-        <v>0</v>
-      </c>
-      <c r="V19" s="74">
+      <c r="O19" s="61">
+        <v>0</v>
+      </c>
+      <c r="P19" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="61">
+        <v>0</v>
+      </c>
+      <c r="R19" s="61">
+        <v>0</v>
+      </c>
+      <c r="S19" s="61">
+        <v>0</v>
+      </c>
+      <c r="T19" s="61">
+        <v>0</v>
+      </c>
+      <c r="U19" s="61">
+        <v>0</v>
+      </c>
+      <c r="V19" s="61">
         <v>0.1</v>
       </c>
-      <c r="W19" s="74">
+      <c r="W19" s="61">
         <v>0.2</v>
       </c>
-      <c r="X19" s="79">
+      <c r="X19" s="66">
         <v>0.5</v>
       </c>
-      <c r="Y19" s="89">
+      <c r="Y19" s="76">
         <v>1</v>
       </c>
-      <c r="Z19" s="84">
+      <c r="Z19" s="71">
         <v>1.5</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="60">
         <v>1.8</v>
       </c>
-      <c r="AB19" s="73">
+      <c r="AB19" s="60">
         <v>2</v>
       </c>
-      <c r="AC19" s="73">
+      <c r="AC19" s="60">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AD19" s="60">
         <v>2.2999999999999998</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH19" s="98"/>
+      <c r="AH19" s="81"/>
       <c r="AJ19" s="1">
         <f>(X19*1000000)/1000000</f>
         <v>0.5</v>
@@ -21099,58 +21054,58 @@
       <c r="J20" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O20" s="73">
-        <v>0</v>
-      </c>
-      <c r="P20" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="73">
-        <v>0</v>
-      </c>
-      <c r="R20" s="73">
-        <v>0</v>
-      </c>
-      <c r="S20" s="73">
-        <v>0</v>
-      </c>
-      <c r="T20" s="73">
-        <v>0</v>
-      </c>
-      <c r="U20" s="73">
-        <v>0</v>
-      </c>
-      <c r="V20" s="73">
-        <v>0</v>
-      </c>
-      <c r="W20" s="73">
-        <v>0</v>
-      </c>
-      <c r="X20" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="84">
+      <c r="O20" s="60">
+        <v>0</v>
+      </c>
+      <c r="P20" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="60">
+        <v>0</v>
+      </c>
+      <c r="R20" s="60">
+        <v>0</v>
+      </c>
+      <c r="S20" s="60">
+        <v>0</v>
+      </c>
+      <c r="T20" s="60">
+        <v>0</v>
+      </c>
+      <c r="U20" s="60">
+        <v>0</v>
+      </c>
+      <c r="V20" s="60">
+        <v>0</v>
+      </c>
+      <c r="W20" s="60">
+        <v>0</v>
+      </c>
+      <c r="X20" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="71">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="60">
         <v>1</v>
       </c>
-      <c r="AB20" s="73">
+      <c r="AB20" s="60">
         <v>1.5</v>
       </c>
-      <c r="AC20" s="73">
+      <c r="AC20" s="60">
         <v>2</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AD20" s="60">
         <v>2.5</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH20" s="98"/>
+      <c r="AH20" s="81"/>
       <c r="AJ20" s="1">
         <f t="shared" ref="AJ20:AJ21" si="27">(X20*1000000)/1000000</f>
         <v>0</v>
@@ -21199,58 +21154,58 @@
       <c r="J21" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O21" s="73">
-        <v>0</v>
-      </c>
-      <c r="P21" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="73">
-        <v>0</v>
-      </c>
-      <c r="R21" s="73">
-        <v>0</v>
-      </c>
-      <c r="S21" s="73">
-        <v>0</v>
-      </c>
-      <c r="T21" s="73">
-        <v>0</v>
-      </c>
-      <c r="U21" s="73">
-        <v>0</v>
-      </c>
-      <c r="V21" s="73">
-        <v>0</v>
-      </c>
-      <c r="W21" s="73">
-        <v>0</v>
-      </c>
-      <c r="X21" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="73">
+      <c r="O21" s="60">
+        <v>0</v>
+      </c>
+      <c r="P21" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="60">
+        <v>0</v>
+      </c>
+      <c r="R21" s="60">
+        <v>0</v>
+      </c>
+      <c r="S21" s="60">
+        <v>0</v>
+      </c>
+      <c r="T21" s="60">
+        <v>0</v>
+      </c>
+      <c r="U21" s="60">
+        <v>0</v>
+      </c>
+      <c r="V21" s="60">
+        <v>0</v>
+      </c>
+      <c r="W21" s="60">
+        <v>0</v>
+      </c>
+      <c r="X21" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="60">
         <v>0.5</v>
       </c>
-      <c r="AB21" s="73">
+      <c r="AB21" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC21" s="73">
+      <c r="AC21" s="60">
         <v>1</v>
       </c>
-      <c r="AD21" s="73">
+      <c r="AD21" s="60">
         <v>1.5</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH21" s="98"/>
+      <c r="AH21" s="81"/>
       <c r="AJ21" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
@@ -21299,58 +21254,58 @@
       <c r="J22" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O22" s="73">
-        <v>0</v>
-      </c>
-      <c r="P22" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="73">
-        <v>0</v>
-      </c>
-      <c r="R22" s="73">
-        <v>0</v>
-      </c>
-      <c r="S22" s="73">
-        <v>0</v>
-      </c>
-      <c r="T22" s="73">
-        <v>0</v>
-      </c>
-      <c r="U22" s="73">
-        <v>0</v>
-      </c>
-      <c r="V22" s="73">
-        <v>0</v>
-      </c>
-      <c r="W22" s="73">
-        <v>0</v>
-      </c>
-      <c r="X22" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="73">
+      <c r="O22" s="60">
+        <v>0</v>
+      </c>
+      <c r="P22" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="60">
+        <v>0</v>
+      </c>
+      <c r="R22" s="60">
+        <v>0</v>
+      </c>
+      <c r="S22" s="60">
+        <v>0</v>
+      </c>
+      <c r="T22" s="60">
+        <v>0</v>
+      </c>
+      <c r="U22" s="60">
+        <v>0</v>
+      </c>
+      <c r="V22" s="60">
+        <v>0</v>
+      </c>
+      <c r="W22" s="60">
+        <v>0</v>
+      </c>
+      <c r="X22" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC22" s="73">
+      <c r="AC22" s="60">
         <v>1</v>
       </c>
-      <c r="AD22" s="73">
+      <c r="AD22" s="60">
         <v>1.5</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH22" s="98"/>
+      <c r="AH22" s="81"/>
       <c r="AJ22" s="1">
         <f t="shared" ref="AJ22:AJ23" si="28">(X22*1000000)/1000000</f>
         <v>0</v>
@@ -21399,58 +21354,58 @@
       <c r="J23" s="18" t="s">
         <v>1141</v>
       </c>
-      <c r="O23" s="73">
-        <v>0</v>
-      </c>
-      <c r="P23" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="73">
-        <v>0</v>
-      </c>
-      <c r="R23" s="73">
-        <v>0</v>
-      </c>
-      <c r="S23" s="73">
-        <v>0</v>
-      </c>
-      <c r="T23" s="73">
-        <v>0</v>
-      </c>
-      <c r="U23" s="73">
-        <v>0</v>
-      </c>
-      <c r="V23" s="73">
-        <v>0</v>
-      </c>
-      <c r="W23" s="73">
-        <v>0</v>
-      </c>
-      <c r="X23" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="73">
+      <c r="O23" s="60">
+        <v>0</v>
+      </c>
+      <c r="P23" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="60">
+        <v>0</v>
+      </c>
+      <c r="R23" s="60">
+        <v>0</v>
+      </c>
+      <c r="S23" s="60">
+        <v>0</v>
+      </c>
+      <c r="T23" s="60">
+        <v>0</v>
+      </c>
+      <c r="U23" s="60">
+        <v>0</v>
+      </c>
+      <c r="V23" s="60">
+        <v>0</v>
+      </c>
+      <c r="W23" s="60">
+        <v>0</v>
+      </c>
+      <c r="X23" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC23" s="73">
+      <c r="AC23" s="60">
         <v>1</v>
       </c>
-      <c r="AD23" s="73">
+      <c r="AD23" s="60">
         <v>1.5</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH23" s="98"/>
+      <c r="AH23" s="81"/>
       <c r="AJ23" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21485,7 +21440,7 @@
       <c r="C24" s="1"/>
       <c r="I24" s="17"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="98"/>
+      <c r="AH24" s="81"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -21493,28 +21448,26 @@
       <c r="I25" s="17"/>
       <c r="N25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="98"/>
+      <c r="AH25" s="81"/>
       <c r="AJ25" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="17" t="s">
         <v>1216</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="17">
         <v>1</v>
       </c>
@@ -21528,58 +21481,58 @@
         <v>15</v>
       </c>
       <c r="N26" s="17"/>
-      <c r="O26" s="74">
-        <v>0</v>
-      </c>
-      <c r="P26" s="73">
+      <c r="O26" s="61">
+        <v>0</v>
+      </c>
+      <c r="P26" s="60">
         <v>0.5</v>
       </c>
-      <c r="Q26" s="74">
+      <c r="Q26" s="61">
         <v>1</v>
       </c>
-      <c r="R26" s="74">
+      <c r="R26" s="61">
         <v>1.3</v>
       </c>
-      <c r="S26" s="74">
+      <c r="S26" s="61">
         <v>1.6</v>
       </c>
-      <c r="T26" s="74">
+      <c r="T26" s="61">
         <v>2</v>
       </c>
-      <c r="U26" s="74">
+      <c r="U26" s="61">
         <v>2</v>
       </c>
-      <c r="V26" s="74">
+      <c r="V26" s="61">
         <v>1.5</v>
       </c>
-      <c r="W26" s="74">
+      <c r="W26" s="61">
         <v>1</v>
       </c>
-      <c r="X26" s="79">
+      <c r="X26" s="66">
         <v>1</v>
       </c>
-      <c r="Y26" s="89">
+      <c r="Y26" s="76">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="73">
+      <c r="Z26" s="60">
         <v>0.4</v>
       </c>
-      <c r="AA26" s="73">
+      <c r="AA26" s="60">
         <v>0.3</v>
       </c>
-      <c r="AB26" s="73">
+      <c r="AB26" s="60">
         <v>0.2</v>
       </c>
-      <c r="AC26" s="73">
+      <c r="AC26" s="60">
         <v>0.1</v>
       </c>
-      <c r="AD26" s="73">
+      <c r="AD26" s="60">
         <v>0.1</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH26" s="98"/>
+      <c r="AH26" s="81"/>
       <c r="AJ26" s="1">
         <f>X26*1000/1000000</f>
         <v>1E-3</v>
@@ -21610,22 +21563,20 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="17" t="s">
         <v>1211</v>
       </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="17">
         <v>1</v>
       </c>
@@ -21639,58 +21590,58 @@
         <v>30</v>
       </c>
       <c r="N27" s="17"/>
-      <c r="O27" s="74">
-        <v>0</v>
-      </c>
-      <c r="P27" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="74">
-        <v>0</v>
-      </c>
-      <c r="R27" s="74">
-        <v>0</v>
-      </c>
-      <c r="S27" s="74">
-        <v>0</v>
-      </c>
-      <c r="T27" s="74">
+      <c r="O27" s="61">
+        <v>0</v>
+      </c>
+      <c r="P27" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="61">
+        <v>0</v>
+      </c>
+      <c r="R27" s="61">
+        <v>0</v>
+      </c>
+      <c r="S27" s="61">
+        <v>0</v>
+      </c>
+      <c r="T27" s="61">
         <v>0.2</v>
       </c>
-      <c r="U27" s="74">
+      <c r="U27" s="61">
         <v>0.5</v>
       </c>
-      <c r="V27" s="74">
+      <c r="V27" s="61">
         <v>1.5</v>
       </c>
-      <c r="W27" s="74">
+      <c r="W27" s="61">
         <v>2</v>
       </c>
-      <c r="X27" s="79">
+      <c r="X27" s="66">
         <v>1.5</v>
       </c>
-      <c r="Y27" s="89">
+      <c r="Y27" s="76">
         <v>1</v>
       </c>
-      <c r="Z27" s="84">
+      <c r="Z27" s="71">
         <v>0.8</v>
       </c>
-      <c r="AA27" s="73">
+      <c r="AA27" s="60">
         <v>0.6</v>
       </c>
-      <c r="AB27" s="73">
+      <c r="AB27" s="60">
         <v>0.4</v>
       </c>
-      <c r="AC27" s="73">
+      <c r="AC27" s="60">
         <v>0.2</v>
       </c>
-      <c r="AD27" s="73">
+      <c r="AD27" s="60">
         <v>0.2</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH27" s="98"/>
+      <c r="AH27" s="81"/>
       <c r="AJ27" s="1">
         <f>(X27*1000000)/1000000</f>
         <v>1.5</v>
@@ -21721,80 +21672,76 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="17" t="s">
         <v>1212</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
       <c r="I28" s="17">
         <v>1</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O28" s="73">
-        <v>0</v>
-      </c>
-      <c r="P28" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="73">
-        <v>0</v>
-      </c>
-      <c r="R28" s="73">
-        <v>0</v>
-      </c>
-      <c r="S28" s="73">
-        <v>0</v>
-      </c>
-      <c r="T28" s="73">
-        <v>0</v>
-      </c>
-      <c r="U28" s="73">
-        <v>0</v>
-      </c>
-      <c r="V28" s="73">
-        <v>0</v>
-      </c>
-      <c r="W28" s="73">
-        <v>0</v>
-      </c>
-      <c r="X28" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="84">
+      <c r="O28" s="60">
+        <v>0</v>
+      </c>
+      <c r="P28" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="60">
+        <v>0</v>
+      </c>
+      <c r="R28" s="60">
+        <v>0</v>
+      </c>
+      <c r="S28" s="60">
+        <v>0</v>
+      </c>
+      <c r="T28" s="60">
+        <v>0</v>
+      </c>
+      <c r="U28" s="60">
+        <v>0</v>
+      </c>
+      <c r="V28" s="60">
+        <v>0</v>
+      </c>
+      <c r="W28" s="60">
+        <v>0</v>
+      </c>
+      <c r="X28" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="71">
         <v>1</v>
       </c>
-      <c r="AA28" s="73">
+      <c r="AA28" s="60">
         <v>0.8</v>
       </c>
-      <c r="AB28" s="73">
+      <c r="AB28" s="60">
         <v>0.6</v>
       </c>
-      <c r="AC28" s="73">
+      <c r="AC28" s="60">
         <v>0.4</v>
       </c>
-      <c r="AD28" s="73">
+      <c r="AD28" s="60">
         <v>0.2</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH28" s="98"/>
+      <c r="AH28" s="81"/>
       <c r="AJ28" s="1">
         <f t="shared" ref="AJ28:AJ31" si="41">(X28*1000000)/1000000</f>
         <v>0</v>
@@ -21825,80 +21772,76 @@
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="17" t="s">
         <v>1213</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
       <c r="I29" s="17">
         <v>1</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O29" s="73">
-        <v>0</v>
-      </c>
-      <c r="P29" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="73">
-        <v>0</v>
-      </c>
-      <c r="R29" s="73">
-        <v>0</v>
-      </c>
-      <c r="S29" s="73">
-        <v>0</v>
-      </c>
-      <c r="T29" s="73">
-        <v>0</v>
-      </c>
-      <c r="U29" s="73">
-        <v>0</v>
-      </c>
-      <c r="V29" s="73">
-        <v>0</v>
-      </c>
-      <c r="W29" s="73">
-        <v>0</v>
-      </c>
-      <c r="X29" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="73">
+      <c r="O29" s="60">
+        <v>0</v>
+      </c>
+      <c r="P29" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="60">
+        <v>0</v>
+      </c>
+      <c r="R29" s="60">
+        <v>0</v>
+      </c>
+      <c r="S29" s="60">
+        <v>0</v>
+      </c>
+      <c r="T29" s="60">
+        <v>0</v>
+      </c>
+      <c r="U29" s="60">
+        <v>0</v>
+      </c>
+      <c r="V29" s="60">
+        <v>0</v>
+      </c>
+      <c r="W29" s="60">
+        <v>0</v>
+      </c>
+      <c r="X29" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="60">
         <v>1</v>
       </c>
-      <c r="AB29" s="73">
+      <c r="AB29" s="60">
         <v>0.8</v>
       </c>
-      <c r="AC29" s="73">
+      <c r="AC29" s="60">
         <v>0.6</v>
       </c>
-      <c r="AD29" s="73">
+      <c r="AD29" s="60">
         <v>0.4</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH29" s="98"/>
+      <c r="AH29" s="81"/>
       <c r="AJ29" s="1">
         <f t="shared" si="41"/>
         <v>0</v>
@@ -21929,80 +21872,76 @@
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="17" t="s">
         <v>1214</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
       <c r="I30" s="17">
         <v>1</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O30" s="73">
-        <v>0</v>
-      </c>
-      <c r="P30" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="73">
-        <v>0</v>
-      </c>
-      <c r="R30" s="73">
-        <v>0</v>
-      </c>
-      <c r="S30" s="73">
-        <v>0</v>
-      </c>
-      <c r="T30" s="73">
-        <v>0</v>
-      </c>
-      <c r="U30" s="73">
-        <v>0</v>
-      </c>
-      <c r="V30" s="73">
-        <v>0</v>
-      </c>
-      <c r="W30" s="73">
-        <v>0</v>
-      </c>
-      <c r="X30" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="73">
+      <c r="O30" s="60">
+        <v>0</v>
+      </c>
+      <c r="P30" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="60">
+        <v>0</v>
+      </c>
+      <c r="R30" s="60">
+        <v>0</v>
+      </c>
+      <c r="S30" s="60">
+        <v>0</v>
+      </c>
+      <c r="T30" s="60">
+        <v>0</v>
+      </c>
+      <c r="U30" s="60">
+        <v>0</v>
+      </c>
+      <c r="V30" s="60">
+        <v>0</v>
+      </c>
+      <c r="W30" s="60">
+        <v>0</v>
+      </c>
+      <c r="X30" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="60">
         <v>1</v>
       </c>
-      <c r="AC30" s="73">
+      <c r="AC30" s="60">
         <v>0.8</v>
       </c>
-      <c r="AD30" s="73">
+      <c r="AD30" s="60">
         <v>0.6</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH30" s="98"/>
+      <c r="AH30" s="81"/>
       <c r="AJ30" s="1">
         <f t="shared" si="41"/>
         <v>0</v>
@@ -22033,80 +21972,76 @@
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="17" t="s">
         <v>1215</v>
       </c>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
       <c r="I31" s="17">
         <v>1</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="O31" s="73">
-        <v>0</v>
-      </c>
-      <c r="P31" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="73">
-        <v>0</v>
-      </c>
-      <c r="R31" s="73">
-        <v>0</v>
-      </c>
-      <c r="S31" s="73">
-        <v>0</v>
-      </c>
-      <c r="T31" s="73">
-        <v>0</v>
-      </c>
-      <c r="U31" s="73">
-        <v>0</v>
-      </c>
-      <c r="V31" s="73">
-        <v>0</v>
-      </c>
-      <c r="W31" s="73">
-        <v>0</v>
-      </c>
-      <c r="X31" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="73">
+      <c r="O31" s="60">
+        <v>0</v>
+      </c>
+      <c r="P31" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="60">
+        <v>0</v>
+      </c>
+      <c r="R31" s="60">
+        <v>0</v>
+      </c>
+      <c r="S31" s="60">
+        <v>0</v>
+      </c>
+      <c r="T31" s="60">
+        <v>0</v>
+      </c>
+      <c r="U31" s="60">
+        <v>0</v>
+      </c>
+      <c r="V31" s="60">
+        <v>0</v>
+      </c>
+      <c r="W31" s="60">
+        <v>0</v>
+      </c>
+      <c r="X31" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="60">
         <v>1</v>
       </c>
-      <c r="AD31" s="73">
+      <c r="AD31" s="60">
         <v>2</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH31" s="98"/>
+      <c r="AH31" s="81"/>
       <c r="AJ31" s="1">
         <f t="shared" si="41"/>
         <v>0</v>
@@ -22142,7 +22077,7 @@
       <c r="F32" s="17"/>
       <c r="I32" s="17"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="98"/>
+      <c r="AH32" s="81"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -22150,7 +22085,7 @@
       <c r="F33" s="17"/>
       <c r="I33" s="17"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="98"/>
+      <c r="AH33" s="81"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -22165,7 +22100,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="AG34" s="1"/>
-      <c r="AH34" s="98"/>
+      <c r="AH34" s="81"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
@@ -22181,7 +22116,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="AG35" s="1"/>
-      <c r="AH35" s="98"/>
+      <c r="AH35" s="81"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -22195,7 +22130,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="98"/>
+      <c r="AH36" s="81"/>
       <c r="AJ36" s="1" t="s">
         <v>978</v>
       </c>
@@ -22225,58 +22160,58 @@
         <v>637</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="73">
-        <v>0</v>
-      </c>
-      <c r="P37" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="73">
+      <c r="O37" s="60">
+        <v>0</v>
+      </c>
+      <c r="P37" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="60">
         <v>0.1</v>
       </c>
-      <c r="R37" s="73">
+      <c r="R37" s="60">
         <v>0.5</v>
       </c>
-      <c r="S37" s="73">
+      <c r="S37" s="60">
         <v>0.5</v>
       </c>
-      <c r="T37" s="73">
+      <c r="T37" s="60">
         <v>0.5</v>
       </c>
-      <c r="U37" s="73">
+      <c r="U37" s="60">
         <v>0.5</v>
       </c>
-      <c r="V37" s="73">
+      <c r="V37" s="60">
         <v>1</v>
       </c>
-      <c r="W37" s="73">
+      <c r="W37" s="60">
         <v>1</v>
       </c>
-      <c r="X37" s="73">
+      <c r="X37" s="60">
         <v>1</v>
       </c>
-      <c r="Y37" s="89">
+      <c r="Y37" s="76">
         <v>1</v>
       </c>
-      <c r="Z37" s="84">
+      <c r="Z37" s="71">
         <v>1</v>
       </c>
-      <c r="AA37" s="73">
+      <c r="AA37" s="60">
         <v>1</v>
       </c>
-      <c r="AB37" s="73">
+      <c r="AB37" s="60">
         <v>1</v>
       </c>
-      <c r="AC37" s="73">
+      <c r="AC37" s="60">
         <v>1</v>
       </c>
-      <c r="AD37" s="73">
+      <c r="AD37" s="60">
         <v>1</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH37" s="98"/>
+      <c r="AH37" s="81"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -22303,58 +22238,58 @@
         <v>637</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="73">
-        <v>0</v>
-      </c>
-      <c r="P38" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="73">
-        <v>0</v>
-      </c>
-      <c r="R38" s="73">
-        <v>0</v>
-      </c>
-      <c r="S38" s="73">
-        <v>0</v>
-      </c>
-      <c r="T38" s="73">
-        <v>0</v>
-      </c>
-      <c r="U38" s="73">
-        <v>0</v>
-      </c>
-      <c r="V38" s="73">
+      <c r="O38" s="60">
+        <v>0</v>
+      </c>
+      <c r="P38" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="60">
+        <v>0</v>
+      </c>
+      <c r="R38" s="60">
+        <v>0</v>
+      </c>
+      <c r="S38" s="60">
+        <v>0</v>
+      </c>
+      <c r="T38" s="60">
+        <v>0</v>
+      </c>
+      <c r="U38" s="60">
+        <v>0</v>
+      </c>
+      <c r="V38" s="60">
         <v>0.5</v>
       </c>
-      <c r="W38" s="73">
+      <c r="W38" s="60">
         <v>0.5</v>
       </c>
-      <c r="X38" s="73">
+      <c r="X38" s="60">
         <v>0.5</v>
       </c>
-      <c r="Y38" s="89">
+      <c r="Y38" s="76">
         <v>0.5</v>
       </c>
-      <c r="Z38" s="84">
+      <c r="Z38" s="71">
         <v>0.5</v>
       </c>
-      <c r="AA38" s="73">
+      <c r="AA38" s="60">
         <v>0.5</v>
       </c>
-      <c r="AB38" s="73">
+      <c r="AB38" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC38" s="73">
+      <c r="AC38" s="60">
         <v>0.5</v>
       </c>
-      <c r="AD38" s="73">
+      <c r="AD38" s="60">
         <v>0.5</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH38" s="98"/>
+        <v>1280</v>
+      </c>
+      <c r="AH38" s="81"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -22381,58 +22316,58 @@
         <v>637</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="73">
-        <v>0</v>
-      </c>
-      <c r="P39" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="73">
-        <v>0</v>
-      </c>
-      <c r="R39" s="73">
-        <v>0</v>
-      </c>
-      <c r="S39" s="73">
-        <v>0</v>
-      </c>
-      <c r="T39" s="73">
-        <v>0</v>
-      </c>
-      <c r="U39" s="73">
-        <v>0</v>
-      </c>
-      <c r="V39" s="73">
-        <v>0</v>
-      </c>
-      <c r="W39" s="73">
+      <c r="O39" s="60">
+        <v>0</v>
+      </c>
+      <c r="P39" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="60">
+        <v>0</v>
+      </c>
+      <c r="R39" s="60">
+        <v>0</v>
+      </c>
+      <c r="S39" s="60">
+        <v>0</v>
+      </c>
+      <c r="T39" s="60">
+        <v>0</v>
+      </c>
+      <c r="U39" s="60">
+        <v>0</v>
+      </c>
+      <c r="V39" s="60">
+        <v>0</v>
+      </c>
+      <c r="W39" s="60">
         <v>0.1</v>
       </c>
-      <c r="X39" s="73">
+      <c r="X39" s="60">
         <v>0.1</v>
       </c>
-      <c r="Y39" s="89">
+      <c r="Y39" s="76">
         <v>0.1</v>
       </c>
-      <c r="Z39" s="84">
+      <c r="Z39" s="71">
         <v>0.1</v>
       </c>
-      <c r="AA39" s="73">
+      <c r="AA39" s="60">
         <v>0.15</v>
       </c>
-      <c r="AB39" s="73">
+      <c r="AB39" s="60">
         <v>0.2</v>
       </c>
-      <c r="AC39" s="73">
+      <c r="AC39" s="60">
         <v>0.25</v>
       </c>
-      <c r="AD39" s="73">
+      <c r="AD39" s="60">
         <v>0.3</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH39" s="98"/>
+      <c r="AH39" s="81"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -22459,58 +22394,58 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="73">
-        <v>0</v>
-      </c>
-      <c r="P40" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="73">
-        <v>0</v>
-      </c>
-      <c r="R40" s="73">
-        <v>0</v>
-      </c>
-      <c r="S40" s="73">
-        <v>0</v>
-      </c>
-      <c r="T40" s="73">
-        <v>0</v>
-      </c>
-      <c r="U40" s="73">
-        <v>0</v>
-      </c>
-      <c r="V40" s="73">
-        <v>0</v>
-      </c>
-      <c r="W40" s="73">
-        <v>0</v>
-      </c>
-      <c r="X40" s="73">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="73">
+      <c r="O40" s="60">
+        <v>0</v>
+      </c>
+      <c r="P40" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="60">
+        <v>0</v>
+      </c>
+      <c r="R40" s="60">
+        <v>0</v>
+      </c>
+      <c r="S40" s="60">
+        <v>0</v>
+      </c>
+      <c r="T40" s="60">
+        <v>0</v>
+      </c>
+      <c r="U40" s="60">
+        <v>0</v>
+      </c>
+      <c r="V40" s="60">
+        <v>0</v>
+      </c>
+      <c r="W40" s="60">
+        <v>0</v>
+      </c>
+      <c r="X40" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="60">
         <v>1</v>
       </c>
-      <c r="AC40" s="73">
+      <c r="AC40" s="60">
         <v>5</v>
       </c>
-      <c r="AD40" s="73">
+      <c r="AD40" s="60">
         <v>10</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH40" s="98"/>
+      <c r="AH40" s="81"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -22537,52 +22472,52 @@
         <v>637</v>
       </c>
       <c r="N41" s="17"/>
-      <c r="O41" s="73">
-        <v>0</v>
-      </c>
-      <c r="P41" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="73">
+      <c r="O41" s="60">
+        <v>0</v>
+      </c>
+      <c r="P41" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="60">
         <v>2</v>
       </c>
-      <c r="R41" s="73">
+      <c r="R41" s="60">
         <v>10</v>
       </c>
-      <c r="S41" s="73">
+      <c r="S41" s="60">
         <v>5</v>
       </c>
-      <c r="T41" s="73">
+      <c r="T41" s="60">
         <v>2</v>
       </c>
-      <c r="U41" s="73">
-        <v>0</v>
-      </c>
-      <c r="V41" s="73">
-        <v>0</v>
-      </c>
-      <c r="W41" s="73">
-        <v>0</v>
-      </c>
-      <c r="X41" s="73">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="90">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="74">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="74">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="74">
+      <c r="U41" s="60">
+        <v>0</v>
+      </c>
+      <c r="V41" s="60">
+        <v>0</v>
+      </c>
+      <c r="W41" s="60">
+        <v>0</v>
+      </c>
+      <c r="X41" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="77">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="61">
         <v>0</v>
       </c>
       <c r="AE41" s="17"/>
@@ -22590,7 +22525,7 @@
       <c r="AG41" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH41" s="98"/>
+      <c r="AH41" s="81"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -22604,26 +22539,26 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="77"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
       <c r="AE42" s="17"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="1"/>
-      <c r="AH42" s="98"/>
+      <c r="AH42" s="81"/>
     </row>
     <row r="43" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
@@ -22640,26 +22575,26 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
       <c r="AE43" s="17"/>
       <c r="AF43" s="17"/>
       <c r="AG43" s="1"/>
-      <c r="AH43" s="98"/>
+      <c r="AH43" s="81"/>
     </row>
     <row r="44" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
@@ -22674,26 +22609,26 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
-      <c r="AD44" s="74"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
       <c r="AE44" s="17"/>
       <c r="AF44" s="17"/>
       <c r="AG44" s="1"/>
-      <c r="AH44" s="98"/>
+      <c r="AH44" s="81"/>
     </row>
     <row r="45" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -22710,26 +22645,26 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="85"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
       <c r="AE45" s="17"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="1"/>
-      <c r="AH45" s="98"/>
+      <c r="AH45" s="81"/>
     </row>
     <row r="46" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -22746,26 +22681,26 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="85"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="77"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
       <c r="AE46" s="17"/>
       <c r="AF46" s="17"/>
       <c r="AG46" s="1"/>
-      <c r="AH46" s="98"/>
+      <c r="AH46" s="81"/>
     </row>
     <row r="47" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -22798,52 +22733,52 @@
         <v>100</v>
       </c>
       <c r="N47" s="18"/>
-      <c r="O47" s="73">
-        <v>0</v>
-      </c>
-      <c r="P47" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="73">
-        <v>0</v>
-      </c>
-      <c r="R47" s="73">
-        <v>0</v>
-      </c>
-      <c r="S47" s="73">
-        <v>0</v>
-      </c>
-      <c r="T47" s="73">
-        <v>0</v>
-      </c>
-      <c r="U47" s="73">
-        <v>0</v>
-      </c>
-      <c r="V47" s="73">
-        <v>0</v>
-      </c>
-      <c r="W47" s="73">
-        <v>0</v>
-      </c>
-      <c r="X47" s="73">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="73">
+      <c r="O47" s="60">
+        <v>0</v>
+      </c>
+      <c r="P47" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="60">
+        <v>0</v>
+      </c>
+      <c r="R47" s="60">
+        <v>0</v>
+      </c>
+      <c r="S47" s="60">
+        <v>0</v>
+      </c>
+      <c r="T47" s="60">
+        <v>0</v>
+      </c>
+      <c r="U47" s="60">
+        <v>0</v>
+      </c>
+      <c r="V47" s="60">
+        <v>0</v>
+      </c>
+      <c r="W47" s="60">
+        <v>0</v>
+      </c>
+      <c r="X47" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="60">
         <v>0</v>
       </c>
       <c r="AE47" s="17"/>
@@ -22851,7 +22786,7 @@
       <c r="AG47" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH47" s="98"/>
+      <c r="AH47" s="81"/>
     </row>
     <row r="48" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -22882,60 +22817,60 @@
         <v>0</v>
       </c>
       <c r="N48" s="18"/>
-      <c r="O48" s="73">
-        <v>0</v>
-      </c>
-      <c r="P48" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="73">
-        <v>0</v>
-      </c>
-      <c r="R48" s="73">
-        <v>0</v>
-      </c>
-      <c r="S48" s="73">
-        <v>0</v>
-      </c>
-      <c r="T48" s="73">
-        <v>0</v>
-      </c>
-      <c r="U48" s="73">
-        <v>0</v>
-      </c>
-      <c r="V48" s="73">
-        <v>0</v>
-      </c>
-      <c r="W48" s="73">
-        <v>0</v>
-      </c>
-      <c r="X48" s="73">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="73">
+      <c r="O48" s="60">
+        <v>0</v>
+      </c>
+      <c r="P48" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="60">
+        <v>0</v>
+      </c>
+      <c r="R48" s="60">
+        <v>0</v>
+      </c>
+      <c r="S48" s="60">
+        <v>0</v>
+      </c>
+      <c r="T48" s="60">
+        <v>0</v>
+      </c>
+      <c r="U48" s="60">
+        <v>0</v>
+      </c>
+      <c r="V48" s="60">
+        <v>0</v>
+      </c>
+      <c r="W48" s="60">
+        <v>0</v>
+      </c>
+      <c r="X48" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="60">
         <v>0</v>
       </c>
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH48" s="98"/>
+        <v>1281</v>
+      </c>
+      <c r="AH48" s="81"/>
     </row>
     <row r="49" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -22952,26 +22887,26 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="66"/>
+      <c r="Y49" s="76"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="1"/>
-      <c r="AH49" s="98"/>
+      <c r="AH49" s="81"/>
     </row>
     <row r="50" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -23004,52 +22939,52 @@
         <v>5</v>
       </c>
       <c r="N50" s="18"/>
-      <c r="O50" s="73">
-        <v>0</v>
-      </c>
-      <c r="P50" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="73">
-        <v>0</v>
-      </c>
-      <c r="R50" s="73">
-        <v>0</v>
-      </c>
-      <c r="S50" s="73">
-        <v>0</v>
-      </c>
-      <c r="T50" s="73">
+      <c r="O50" s="60">
+        <v>0</v>
+      </c>
+      <c r="P50" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="60">
+        <v>0</v>
+      </c>
+      <c r="R50" s="60">
+        <v>0</v>
+      </c>
+      <c r="S50" s="60">
+        <v>0</v>
+      </c>
+      <c r="T50" s="60">
         <v>0.01</v>
       </c>
-      <c r="U50" s="73">
+      <c r="U50" s="60">
         <v>0.3</v>
       </c>
-      <c r="V50" s="73">
+      <c r="V50" s="60">
         <v>0.7</v>
       </c>
-      <c r="W50" s="73">
+      <c r="W50" s="60">
         <v>1</v>
       </c>
-      <c r="X50" s="79">
+      <c r="X50" s="66">
         <v>1</v>
       </c>
-      <c r="Y50" s="89">
+      <c r="Y50" s="76">
         <v>1</v>
       </c>
-      <c r="Z50" s="84">
+      <c r="Z50" s="71">
         <v>0.9</v>
       </c>
-      <c r="AA50" s="73">
+      <c r="AA50" s="60">
         <v>0.8</v>
       </c>
-      <c r="AB50" s="73">
+      <c r="AB50" s="60">
         <v>0.6</v>
       </c>
-      <c r="AC50" s="73">
+      <c r="AC50" s="60">
         <v>0.4</v>
       </c>
-      <c r="AD50" s="73">
+      <c r="AD50" s="60">
         <v>0.2</v>
       </c>
       <c r="AE50" s="17"/>
@@ -23057,7 +22992,7 @@
       <c r="AG50" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH50" s="98"/>
+      <c r="AH50" s="81"/>
     </row>
     <row r="51" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -23090,52 +23025,52 @@
         <v>5</v>
       </c>
       <c r="N51" s="18"/>
-      <c r="O51" s="73">
-        <v>0</v>
-      </c>
-      <c r="P51" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="73">
-        <v>0</v>
-      </c>
-      <c r="R51" s="73">
-        <v>0</v>
-      </c>
-      <c r="S51" s="73">
-        <v>0</v>
-      </c>
-      <c r="T51" s="73">
+      <c r="O51" s="60">
+        <v>0</v>
+      </c>
+      <c r="P51" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="60">
+        <v>0</v>
+      </c>
+      <c r="R51" s="60">
+        <v>0</v>
+      </c>
+      <c r="S51" s="60">
+        <v>0</v>
+      </c>
+      <c r="T51" s="60">
         <v>0.02</v>
       </c>
-      <c r="U51" s="73">
+      <c r="U51" s="60">
         <v>0.03</v>
       </c>
-      <c r="V51" s="73">
+      <c r="V51" s="60">
         <v>0.02</v>
       </c>
-      <c r="W51" s="73">
+      <c r="W51" s="60">
         <v>0.02</v>
       </c>
-      <c r="X51" s="79">
+      <c r="X51" s="66">
         <v>0.02</v>
       </c>
-      <c r="Y51" s="89">
+      <c r="Y51" s="76">
         <v>0.02</v>
       </c>
-      <c r="Z51" s="84">
+      <c r="Z51" s="71">
         <v>0.02</v>
       </c>
-      <c r="AA51" s="73">
+      <c r="AA51" s="60">
         <v>0.02</v>
       </c>
-      <c r="AB51" s="73">
+      <c r="AB51" s="60">
         <v>0.03</v>
       </c>
-      <c r="AC51" s="73">
+      <c r="AC51" s="60">
         <v>0.04</v>
       </c>
-      <c r="AD51" s="73">
+      <c r="AD51" s="60">
         <v>0.05</v>
       </c>
       <c r="AE51" s="17"/>
@@ -23143,7 +23078,7 @@
       <c r="AG51" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH51" s="98"/>
+      <c r="AH51" s="81"/>
     </row>
     <row r="52" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -23176,52 +23111,52 @@
         <v>0.1</v>
       </c>
       <c r="N52" s="18"/>
-      <c r="O52" s="73">
-        <v>0</v>
-      </c>
-      <c r="P52" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="73">
-        <v>0</v>
-      </c>
-      <c r="R52" s="73">
-        <v>0</v>
-      </c>
-      <c r="S52" s="73">
-        <v>0</v>
-      </c>
-      <c r="T52" s="73">
-        <v>0</v>
-      </c>
-      <c r="U52" s="73">
-        <v>0</v>
-      </c>
-      <c r="V52" s="73">
-        <v>0</v>
-      </c>
-      <c r="W52" s="73">
-        <v>0</v>
-      </c>
-      <c r="X52" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="73">
+      <c r="O52" s="60">
+        <v>0</v>
+      </c>
+      <c r="P52" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="60">
+        <v>0</v>
+      </c>
+      <c r="R52" s="60">
+        <v>0</v>
+      </c>
+      <c r="S52" s="60">
+        <v>0</v>
+      </c>
+      <c r="T52" s="60">
+        <v>0</v>
+      </c>
+      <c r="U52" s="60">
+        <v>0</v>
+      </c>
+      <c r="V52" s="60">
+        <v>0</v>
+      </c>
+      <c r="W52" s="60">
+        <v>0</v>
+      </c>
+      <c r="X52" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="60">
         <v>0</v>
       </c>
       <c r="AE52" s="17"/>
@@ -23229,7 +23164,7 @@
       <c r="AG52" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH52" s="98"/>
+      <c r="AH52" s="81"/>
     </row>
     <row r="53" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -23262,60 +23197,60 @@
         <v>0.1</v>
       </c>
       <c r="N53" s="18"/>
-      <c r="O53" s="73">
-        <v>0</v>
-      </c>
-      <c r="P53" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="73">
-        <v>0</v>
-      </c>
-      <c r="R53" s="73">
-        <v>0</v>
-      </c>
-      <c r="S53" s="73">
-        <v>0</v>
-      </c>
-      <c r="T53" s="73">
-        <v>0</v>
-      </c>
-      <c r="U53" s="73">
-        <v>0</v>
-      </c>
-      <c r="V53" s="73">
-        <v>0</v>
-      </c>
-      <c r="W53" s="73">
-        <v>0</v>
-      </c>
-      <c r="X53" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="84">
+      <c r="O53" s="60">
+        <v>0</v>
+      </c>
+      <c r="P53" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="60">
+        <v>0</v>
+      </c>
+      <c r="R53" s="60">
+        <v>0</v>
+      </c>
+      <c r="S53" s="60">
+        <v>0</v>
+      </c>
+      <c r="T53" s="60">
+        <v>0</v>
+      </c>
+      <c r="U53" s="60">
+        <v>0</v>
+      </c>
+      <c r="V53" s="60">
+        <v>0</v>
+      </c>
+      <c r="W53" s="60">
+        <v>0</v>
+      </c>
+      <c r="X53" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="71">
         <v>0.1</v>
       </c>
-      <c r="AA53" s="73">
+      <c r="AA53" s="60">
         <v>0.5</v>
       </c>
-      <c r="AB53" s="73">
+      <c r="AB53" s="60">
         <v>1</v>
       </c>
-      <c r="AC53" s="73">
+      <c r="AC53" s="60">
         <v>2</v>
       </c>
-      <c r="AD53" s="73">
+      <c r="AD53" s="60">
         <v>3</v>
       </c>
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH53" s="98"/>
+        <v>1282</v>
+      </c>
+      <c r="AH53" s="81"/>
     </row>
     <row r="54" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -23332,26 +23267,26 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="79"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="73"/>
-      <c r="AD54" s="73"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="66"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="71"/>
+      <c r="AA54" s="60"/>
+      <c r="AB54" s="60"/>
+      <c r="AC54" s="60"/>
+      <c r="AD54" s="60"/>
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="1"/>
-      <c r="AH54" s="98"/>
+      <c r="AH54" s="81"/>
     </row>
     <row r="55" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -23368,26 +23303,26 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="84"/>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
-      <c r="AC55" s="73"/>
-      <c r="AD55" s="73"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="71"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="60"/>
+      <c r="AC55" s="60"/>
+      <c r="AD55" s="60"/>
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="1"/>
-      <c r="AH55" s="98"/>
+      <c r="AH55" s="81"/>
     </row>
     <row r="56" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -23420,28 +23355,28 @@
         <v>20</v>
       </c>
       <c r="N56" s="18"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="84"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AD56" s="60"/>
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH56" s="98"/>
+      <c r="AH56" s="81"/>
     </row>
     <row r="57" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -23470,28 +23405,28 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="89"/>
-      <c r="Z57" s="84"/>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="73"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="60"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="60"/>
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH57" s="98"/>
+      <c r="AH57" s="81"/>
     </row>
     <row r="58" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -23524,28 +23459,28 @@
         <v>50</v>
       </c>
       <c r="N58" s="18"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="73"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="84"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
-      <c r="AC58" s="73"/>
-      <c r="AD58" s="73"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="60"/>
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH58" s="98"/>
+      <c r="AH58" s="81"/>
     </row>
     <row r="59" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -23574,28 +23509,28 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="89"/>
-      <c r="Z59" s="84"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
-      <c r="AC59" s="73"/>
-      <c r="AD59" s="73"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="60"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="60"/>
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH59" s="98"/>
+      <c r="AH59" s="81"/>
     </row>
     <row r="60" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -23612,26 +23547,26 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="89"/>
-      <c r="Z60" s="84"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="73"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="1"/>
-      <c r="AH60" s="98"/>
+      <c r="AH60" s="81"/>
     </row>
     <row r="61" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -23648,32 +23583,32 @@
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="74"/>
-      <c r="R61" s="74"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="74"/>
-      <c r="W61" s="74"/>
-      <c r="X61" s="80"/>
-      <c r="Y61" s="90"/>
-      <c r="Z61" s="85"/>
-      <c r="AA61" s="74"/>
-      <c r="AB61" s="74"/>
-      <c r="AC61" s="74"/>
-      <c r="AD61" s="74"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="61"/>
+      <c r="W61" s="61"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="77"/>
+      <c r="Z61" s="72"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="61"/>
+      <c r="AC61" s="61"/>
+      <c r="AD61" s="61"/>
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="1"/>
-      <c r="AH61" s="98"/>
+      <c r="AH61" s="81"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
       <c r="AG62" s="1"/>
-      <c r="AH62" s="98"/>
+      <c r="AH62" s="81"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -23681,13 +23616,13 @@
       </c>
       <c r="C63" s="1"/>
       <c r="AG63" s="1"/>
-      <c r="AH63" s="98"/>
+      <c r="AH63" s="81"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
       <c r="AG64" s="1"/>
-      <c r="AH64" s="98"/>
+      <c r="AH64" s="81"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -23717,7 +23652,7 @@
       <c r="AG65" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH65" s="98"/>
+      <c r="AH65" s="81"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -23742,9 +23677,9 @@
         <v>637</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH66" s="98"/>
+        <v>1284</v>
+      </c>
+      <c r="AH66" s="81"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -23771,7 +23706,7 @@
       <c r="AG67" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH67" s="98"/>
+      <c r="AH67" s="81"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -23798,7 +23733,7 @@
       <c r="AG68" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH68" s="98"/>
+      <c r="AH68" s="81"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -23822,7 +23757,7 @@
       <c r="AG69" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH69" s="98"/>
+      <c r="AH69" s="81"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -23846,7 +23781,7 @@
       <c r="AG70" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH70" s="98"/>
+      <c r="AH70" s="81"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -23870,14 +23805,14 @@
       <c r="AG71" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH71" s="98"/>
+      <c r="AH71" s="81"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
       <c r="F72" s="1"/>
       <c r="AG72" s="1"/>
-      <c r="AH72" s="98"/>
+      <c r="AH72" s="81"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -23890,7 +23825,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="AG73" s="1"/>
-      <c r="AH73" s="98"/>
+      <c r="AH73" s="81"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
@@ -23905,7 +23840,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="AG74" s="1"/>
-      <c r="AH74" s="98"/>
+      <c r="AH74" s="81"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
@@ -23918,7 +23853,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="AG75" s="1"/>
-      <c r="AH75" s="98"/>
+      <c r="AH75" s="81"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -23950,7 +23885,7 @@
       <c r="AG76" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH76" s="98"/>
+      <c r="AH76" s="81"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -23980,7 +23915,7 @@
       <c r="AG77" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH77" s="98"/>
+      <c r="AH77" s="81"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -24010,20 +23945,20 @@
       <c r="AG78" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH78" s="98"/>
+      <c r="AH78" s="81"/>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
       <c r="AG79" s="1"/>
-      <c r="AH79" s="98"/>
+      <c r="AH79" s="81"/>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
       <c r="AG80" s="1"/>
-      <c r="AH80" s="98"/>
+      <c r="AH80" s="81"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -24047,7 +23982,7 @@
       <c r="AG81" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH81" s="98"/>
+      <c r="AH81" s="81"/>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -24071,7 +24006,7 @@
       <c r="AG82" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH82" s="98"/>
+      <c r="AH82" s="81"/>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -24095,7 +24030,7 @@
       <c r="AG83" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH83" s="98"/>
+      <c r="AH83" s="81"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -24119,13 +24054,13 @@
       <c r="AG84" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH84" s="98"/>
+      <c r="AH84" s="81"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
       <c r="AG85" s="1"/>
-      <c r="AH85" s="98"/>
+      <c r="AH85" s="81"/>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -24155,7 +24090,7 @@
       <c r="AG86" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH86" s="98"/>
+      <c r="AH86" s="81"/>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -24179,7 +24114,7 @@
       <c r="AG87" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH87" s="98"/>
+      <c r="AH87" s="81"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -24203,7 +24138,7 @@
       <c r="AG88" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH88" s="98"/>
+      <c r="AH88" s="81"/>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -24227,13 +24162,13 @@
       <c r="AG89" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH89" s="98"/>
+      <c r="AH89" s="81"/>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
       <c r="AG90" s="1"/>
-      <c r="AH90" s="98"/>
+      <c r="AH90" s="81"/>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -24243,7 +24178,7 @@
       <c r="AG91" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH91" s="98"/>
+      <c r="AH91" s="81"/>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -24273,7 +24208,7 @@
       <c r="AG92" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH92" s="98"/>
+      <c r="AH92" s="81"/>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
@@ -24288,7 +24223,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="AG93" s="1"/>
-      <c r="AH93" s="98"/>
+      <c r="AH93" s="81"/>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
@@ -24304,26 +24239,26 @@
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
-      <c r="O95" s="74"/>
-      <c r="P95" s="74"/>
-      <c r="Q95" s="74"/>
-      <c r="R95" s="74"/>
-      <c r="S95" s="74"/>
-      <c r="T95" s="74"/>
-      <c r="U95" s="74"/>
-      <c r="V95" s="74"/>
-      <c r="W95" s="74"/>
-      <c r="X95" s="80"/>
-      <c r="Y95" s="90"/>
-      <c r="Z95" s="85"/>
-      <c r="AA95" s="74"/>
-      <c r="AB95" s="74"/>
-      <c r="AC95" s="74"/>
-      <c r="AD95" s="74"/>
+      <c r="O95" s="61"/>
+      <c r="P95" s="61"/>
+      <c r="Q95" s="61"/>
+      <c r="R95" s="61"/>
+      <c r="S95" s="61"/>
+      <c r="T95" s="61"/>
+      <c r="U95" s="61"/>
+      <c r="V95" s="61"/>
+      <c r="W95" s="61"/>
+      <c r="X95" s="67"/>
+      <c r="Y95" s="77"/>
+      <c r="Z95" s="72"/>
+      <c r="AA95" s="61"/>
+      <c r="AB95" s="61"/>
+      <c r="AC95" s="61"/>
+      <c r="AD95" s="61"/>
       <c r="AE95" s="17"/>
       <c r="AF95" s="17"/>
       <c r="AG95" s="1"/>
-      <c r="AH95" s="98"/>
+      <c r="AH95" s="81"/>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
@@ -24331,19 +24266,19 @@
       </c>
       <c r="C96" s="1"/>
       <c r="AG96" s="1"/>
-      <c r="AH96" s="98"/>
+      <c r="AH96" s="81"/>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
       <c r="AG97" s="1"/>
-      <c r="AH97" s="98"/>
+      <c r="AH97" s="81"/>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
       <c r="AG98" s="1"/>
-      <c r="AH98" s="98"/>
+      <c r="AH98" s="81"/>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -24370,40 +24305,40 @@
         <v>637</v>
       </c>
       <c r="N99" s="17"/>
-      <c r="O99" s="74"/>
-      <c r="P99" s="74"/>
-      <c r="Q99" s="74"/>
-      <c r="R99" s="74"/>
-      <c r="S99" s="74"/>
-      <c r="T99" s="74"/>
-      <c r="U99" s="74"/>
-      <c r="V99" s="74"/>
-      <c r="W99" s="74"/>
-      <c r="X99" s="79">
+      <c r="O99" s="61"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="61"/>
+      <c r="S99" s="61"/>
+      <c r="T99" s="61"/>
+      <c r="U99" s="61"/>
+      <c r="V99" s="61"/>
+      <c r="W99" s="61"/>
+      <c r="X99" s="66">
         <v>0.1</v>
       </c>
-      <c r="Y99" s="89">
+      <c r="Y99" s="76">
         <v>0.2</v>
       </c>
-      <c r="Z99" s="84">
+      <c r="Z99" s="71">
         <v>0.5</v>
       </c>
-      <c r="AA99" s="73">
+      <c r="AA99" s="60">
         <v>1</v>
       </c>
-      <c r="AB99" s="73">
+      <c r="AB99" s="60">
         <v>1.5</v>
       </c>
-      <c r="AC99" s="73">
+      <c r="AC99" s="60">
         <v>2</v>
       </c>
-      <c r="AD99" s="73">
+      <c r="AD99" s="60">
         <v>2.5</v>
       </c>
       <c r="AG99" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH99" s="98"/>
+      <c r="AH99" s="81"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -24433,7 +24368,7 @@
       <c r="AG100" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH100" s="98"/>
+      <c r="AH100" s="81"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -24459,9 +24394,9 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="AG101" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AH101" s="98"/>
+        <v>1283</v>
+      </c>
+      <c r="AH101" s="81"/>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -24475,13 +24410,13 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="AG102" s="1"/>
-      <c r="AH102" s="98"/>
+      <c r="AH102" s="81"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
       <c r="AG103" s="1"/>
-      <c r="AH103" s="98"/>
+      <c r="AH103" s="81"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -24508,46 +24443,46 @@
         <v>637</v>
       </c>
       <c r="N104" s="17"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="74"/>
-      <c r="S104" s="74"/>
-      <c r="T104" s="74"/>
-      <c r="U104" s="74">
+      <c r="O104" s="61"/>
+      <c r="P104" s="61"/>
+      <c r="Q104" s="61"/>
+      <c r="R104" s="61"/>
+      <c r="S104" s="61"/>
+      <c r="T104" s="61"/>
+      <c r="U104" s="61">
         <v>0.01</v>
       </c>
-      <c r="V104" s="74">
+      <c r="V104" s="61">
         <v>0.05</v>
       </c>
-      <c r="W104" s="74">
+      <c r="W104" s="61">
         <v>0.1</v>
       </c>
-      <c r="X104" s="79">
+      <c r="X104" s="66">
         <v>1</v>
       </c>
-      <c r="Y104" s="89">
+      <c r="Y104" s="76">
         <v>1</v>
       </c>
-      <c r="Z104" s="84">
+      <c r="Z104" s="71">
         <v>0.5</v>
       </c>
-      <c r="AA104" s="73">
+      <c r="AA104" s="60">
         <v>0.5</v>
       </c>
-      <c r="AB104" s="73">
+      <c r="AB104" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC104" s="73">
+      <c r="AC104" s="60">
         <v>0.5</v>
       </c>
-      <c r="AD104" s="73">
+      <c r="AD104" s="60">
         <v>0.5</v>
       </c>
       <c r="AG104" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH104" s="98"/>
+      <c r="AH104" s="81"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -24574,40 +24509,40 @@
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
-      <c r="T105" s="74"/>
-      <c r="U105" s="74"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="74"/>
-      <c r="X105" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z105" s="84">
+      <c r="O105" s="61"/>
+      <c r="P105" s="61"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="61"/>
+      <c r="S105" s="61"/>
+      <c r="T105" s="61"/>
+      <c r="U105" s="61"/>
+      <c r="V105" s="61"/>
+      <c r="W105" s="61"/>
+      <c r="X105" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="71">
         <v>0.5</v>
       </c>
-      <c r="AA105" s="73">
+      <c r="AA105" s="60">
         <v>0.8</v>
       </c>
-      <c r="AB105" s="73">
+      <c r="AB105" s="60">
         <v>1</v>
       </c>
-      <c r="AC105" s="73">
+      <c r="AC105" s="60">
         <v>1.25</v>
       </c>
-      <c r="AD105" s="73">
+      <c r="AD105" s="60">
         <v>1.5</v>
       </c>
       <c r="AG105" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH105" s="98"/>
+      <c r="AH105" s="81"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -24634,40 +24569,40 @@
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
-      <c r="T106" s="74"/>
-      <c r="U106" s="74"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="74"/>
-      <c r="X106" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="73">
+      <c r="O106" s="61"/>
+      <c r="P106" s="61"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="61"/>
+      <c r="S106" s="61"/>
+      <c r="T106" s="61"/>
+      <c r="U106" s="61"/>
+      <c r="V106" s="61"/>
+      <c r="W106" s="61"/>
+      <c r="X106" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="60">
         <v>0.5</v>
       </c>
-      <c r="AB106" s="73">
+      <c r="AB106" s="60">
         <v>1</v>
       </c>
-      <c r="AC106" s="73">
+      <c r="AC106" s="60">
         <v>1.25</v>
       </c>
-      <c r="AD106" s="73">
+      <c r="AD106" s="60">
         <v>1.5</v>
       </c>
       <c r="AG106" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH106" s="98"/>
+      <c r="AH106" s="81"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -24694,40 +24629,40 @@
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="74"/>
-      <c r="S107" s="74"/>
-      <c r="T107" s="74"/>
-      <c r="U107" s="74"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="74"/>
-      <c r="X107" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="73">
+      <c r="O107" s="61"/>
+      <c r="P107" s="61"/>
+      <c r="Q107" s="61"/>
+      <c r="R107" s="61"/>
+      <c r="S107" s="61"/>
+      <c r="T107" s="61"/>
+      <c r="U107" s="61"/>
+      <c r="V107" s="61"/>
+      <c r="W107" s="61"/>
+      <c r="X107" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="60">
         <v>0.5</v>
       </c>
-      <c r="AC107" s="73">
+      <c r="AC107" s="60">
         <v>1</v>
       </c>
-      <c r="AD107" s="73">
+      <c r="AD107" s="60">
         <v>1.25</v>
       </c>
       <c r="AG107" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH107" s="98"/>
+      <c r="AH107" s="81"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -24754,40 +24689,40 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="74"/>
-      <c r="S108" s="74"/>
-      <c r="T108" s="74"/>
-      <c r="U108" s="74"/>
-      <c r="V108" s="74"/>
-      <c r="W108" s="74"/>
-      <c r="X108" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="73">
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="61"/>
+      <c r="S108" s="61"/>
+      <c r="T108" s="61"/>
+      <c r="U108" s="61"/>
+      <c r="V108" s="61"/>
+      <c r="W108" s="61"/>
+      <c r="X108" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="60">
         <v>0.1</v>
       </c>
-      <c r="AD108" s="73">
+      <c r="AD108" s="60">
         <v>0.5</v>
       </c>
       <c r="AG108" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH108" s="98"/>
+      <c r="AH108" s="81"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
@@ -24801,17 +24736,17 @@
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="74"/>
-      <c r="V109" s="74"/>
-      <c r="W109" s="74"/>
+      <c r="O109" s="61"/>
+      <c r="P109" s="61"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="61"/>
+      <c r="S109" s="61"/>
+      <c r="T109" s="61"/>
+      <c r="U109" s="61"/>
+      <c r="V109" s="61"/>
+      <c r="W109" s="61"/>
       <c r="AG109" s="1"/>
-      <c r="AH109" s="98"/>
+      <c r="AH109" s="81"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -24825,17 +24760,17 @@
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
-      <c r="O110" s="74"/>
-      <c r="P110" s="74"/>
-      <c r="Q110" s="74"/>
-      <c r="R110" s="74"/>
-      <c r="S110" s="74"/>
-      <c r="T110" s="74"/>
-      <c r="U110" s="74"/>
-      <c r="V110" s="74"/>
-      <c r="W110" s="74"/>
+      <c r="O110" s="61"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="61"/>
+      <c r="S110" s="61"/>
+      <c r="T110" s="61"/>
+      <c r="U110" s="61"/>
+      <c r="V110" s="61"/>
+      <c r="W110" s="61"/>
       <c r="AG110" s="1"/>
-      <c r="AH110" s="98"/>
+      <c r="AH110" s="81"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
@@ -24851,17 +24786,17 @@
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
-      <c r="R111" s="74"/>
-      <c r="S111" s="74"/>
-      <c r="T111" s="74"/>
-      <c r="U111" s="74"/>
-      <c r="V111" s="74"/>
-      <c r="W111" s="74"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
+      <c r="U111" s="61"/>
+      <c r="V111" s="61"/>
+      <c r="W111" s="61"/>
       <c r="AG111" s="1"/>
-      <c r="AH111" s="98"/>
+      <c r="AH111" s="81"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
@@ -24875,17 +24810,17 @@
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
+      <c r="O112" s="61"/>
+      <c r="P112" s="61"/>
+      <c r="Q112" s="61"/>
+      <c r="R112" s="61"/>
+      <c r="S112" s="61"/>
+      <c r="T112" s="61"/>
+      <c r="U112" s="61"/>
+      <c r="V112" s="61"/>
+      <c r="W112" s="61"/>
       <c r="AG112" s="1"/>
-      <c r="AH112" s="98"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
@@ -24901,17 +24836,17 @@
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
-      <c r="O113" s="74"/>
-      <c r="P113" s="74"/>
-      <c r="Q113" s="74"/>
-      <c r="R113" s="74"/>
-      <c r="S113" s="74"/>
-      <c r="T113" s="74"/>
-      <c r="U113" s="74"/>
-      <c r="V113" s="74"/>
-      <c r="W113" s="74"/>
+      <c r="O113" s="61"/>
+      <c r="P113" s="61"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="61"/>
+      <c r="S113" s="61"/>
+      <c r="T113" s="61"/>
+      <c r="U113" s="61"/>
+      <c r="V113" s="61"/>
+      <c r="W113" s="61"/>
       <c r="AG113" s="1"/>
-      <c r="AH113" s="98"/>
+      <c r="AH113" s="81"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -24925,7 +24860,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="AG114" s="1"/>
-      <c r="AH114" s="98"/>
+      <c r="AH114" s="81"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -24949,7 +24884,7 @@
       <c r="AG115" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH115" s="98"/>
+      <c r="AH115" s="81"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -24973,12 +24908,12 @@
       <c r="AG116" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH116" s="98"/>
+      <c r="AH116" s="81"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="AG117" s="1"/>
-      <c r="AH117" s="98"/>
+      <c r="AH117" s="81"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
@@ -24986,22 +24921,22 @@
       </c>
       <c r="C118" s="1"/>
       <c r="AG118" s="1"/>
-      <c r="AH118" s="98"/>
+      <c r="AH118" s="81"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="N119" s="21"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
-      <c r="R119" s="75"/>
-      <c r="S119" s="75"/>
-      <c r="T119" s="75"/>
-      <c r="U119" s="75"/>
-      <c r="V119" s="75"/>
-      <c r="W119" s="75"/>
+      <c r="O119" s="62"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="62"/>
+      <c r="S119" s="62"/>
+      <c r="T119" s="62"/>
+      <c r="U119" s="62"/>
+      <c r="V119" s="62"/>
+      <c r="W119" s="62"/>
       <c r="AG119" s="1"/>
-      <c r="AH119" s="98"/>
+      <c r="AH119" s="81"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -25025,7 +24960,7 @@
       <c r="AG120" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH120" s="98"/>
+      <c r="AH120" s="81"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -25049,7 +24984,7 @@
       <c r="AG121" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH121" s="98"/>
+      <c r="AH121" s="81"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -25073,56 +25008,56 @@
       <c r="AG122" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH122" s="98"/>
+      <c r="AH122" s="81"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
       <c r="F123" s="1"/>
       <c r="AG123" s="1"/>
-      <c r="AH123" s="98"/>
+      <c r="AH123" s="81"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
       <c r="F124" s="1"/>
       <c r="AG124" s="1"/>
-      <c r="AH124" s="98"/>
+      <c r="AH124" s="81"/>
     </row>
     <row r="126" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:34" s="98" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A127" s="95" t="s">
+    <row r="127" spans="1:34" s="81" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="B127" s="96"/>
-      <c r="C127" s="97"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="99"/>
-      <c r="H127" s="99"/>
-      <c r="I127" s="99"/>
-      <c r="J127" s="99"/>
-      <c r="K127" s="99"/>
-      <c r="L127" s="99"/>
-      <c r="M127" s="99"/>
-      <c r="N127" s="99"/>
-      <c r="O127" s="100"/>
-      <c r="P127" s="100"/>
-      <c r="Q127" s="100"/>
-      <c r="R127" s="100"/>
-      <c r="S127" s="100"/>
-      <c r="T127" s="100"/>
-      <c r="U127" s="100"/>
-      <c r="V127" s="100"/>
-      <c r="W127" s="100"/>
-      <c r="X127" s="101"/>
-      <c r="Y127" s="102"/>
-      <c r="Z127" s="103"/>
-      <c r="AA127" s="100"/>
-      <c r="AB127" s="100"/>
-      <c r="AC127" s="100"/>
-      <c r="AD127" s="100"/>
-      <c r="AG127" s="97"/>
-      <c r="AH127" s="97"/>
+      <c r="B127" s="79"/>
+      <c r="C127" s="80"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
+      <c r="I127" s="82"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="82"/>
+      <c r="L127" s="82"/>
+      <c r="M127" s="82"/>
+      <c r="N127" s="82"/>
+      <c r="O127" s="83"/>
+      <c r="P127" s="83"/>
+      <c r="Q127" s="83"/>
+      <c r="R127" s="83"/>
+      <c r="S127" s="83"/>
+      <c r="T127" s="83"/>
+      <c r="U127" s="83"/>
+      <c r="V127" s="83"/>
+      <c r="W127" s="83"/>
+      <c r="X127" s="84"/>
+      <c r="Y127" s="85"/>
+      <c r="Z127" s="86"/>
+      <c r="AA127" s="83"/>
+      <c r="AB127" s="83"/>
+      <c r="AC127" s="83"/>
+      <c r="AD127" s="83"/>
+      <c r="AG127" s="80"/>
+      <c r="AH127" s="80"/>
     </row>
     <row r="129" spans="1:34" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
@@ -25131,55 +25066,55 @@
       <c r="M129" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N129" s="63" t="s">
+      <c r="N129" s="95" t="s">
         <v>1138</v>
       </c>
-      <c r="O129" s="72">
-        <v>0</v>
-      </c>
-      <c r="P129" s="72">
+      <c r="O129" s="59">
+        <v>0</v>
+      </c>
+      <c r="P129" s="59">
         <v>1</v>
       </c>
-      <c r="Q129" s="72">
+      <c r="Q129" s="59">
         <v>2</v>
       </c>
-      <c r="R129" s="72">
+      <c r="R129" s="59">
         <v>3</v>
       </c>
-      <c r="S129" s="72">
+      <c r="S129" s="59">
         <v>4</v>
       </c>
-      <c r="T129" s="72">
+      <c r="T129" s="59">
         <v>5</v>
       </c>
-      <c r="U129" s="72">
+      <c r="U129" s="59">
         <v>6</v>
       </c>
-      <c r="V129" s="72">
+      <c r="V129" s="59">
         <v>7</v>
       </c>
-      <c r="W129" s="72">
+      <c r="W129" s="59">
         <v>8</v>
       </c>
-      <c r="X129" s="77">
+      <c r="X129" s="64">
         <v>9</v>
       </c>
-      <c r="Y129" s="87">
+      <c r="Y129" s="74">
         <v>10</v>
       </c>
-      <c r="Z129" s="82">
+      <c r="Z129" s="69">
         <v>11</v>
       </c>
-      <c r="AA129" s="72">
+      <c r="AA129" s="59">
         <v>12</v>
       </c>
-      <c r="AB129" s="72">
+      <c r="AB129" s="59">
         <v>13</v>
       </c>
-      <c r="AC129" s="72">
+      <c r="AC129" s="59">
         <v>14</v>
       </c>
-      <c r="AD129" s="72">
+      <c r="AD129" s="59">
         <v>15</v>
       </c>
     </row>
@@ -25190,7 +25125,7 @@
       <c r="M130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N130" s="64"/>
+      <c r="N130" s="96"/>
       <c r="O130" s="51" t="s">
         <v>1190</v>
       </c>
@@ -25218,13 +25153,13 @@
       <c r="W130" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="X130" s="78" t="s">
+      <c r="X130" s="65" t="s">
         <v>1186</v>
       </c>
-      <c r="Y130" s="88" t="s">
+      <c r="Y130" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="Z130" s="83" t="s">
+      <c r="Z130" s="70" t="s">
         <v>388</v>
       </c>
       <c r="AA130" s="18" t="s">
@@ -25244,7 +25179,7 @@
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
       <c r="AG132" s="1"/>
-      <c r="AH132" s="98"/>
+      <c r="AH132" s="81"/>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -25262,31 +25197,31 @@
       <c r="K133" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="X133" s="79">
+      <c r="X133" s="66">
         <v>0.2</v>
       </c>
-      <c r="Y133" s="89">
+      <c r="Y133" s="76">
         <v>0.2</v>
       </c>
-      <c r="Z133" s="84">
+      <c r="Z133" s="71">
         <v>0.2</v>
       </c>
-      <c r="AA133" s="73">
+      <c r="AA133" s="60">
         <v>0.2</v>
       </c>
-      <c r="AB133" s="73">
+      <c r="AB133" s="60">
         <v>0.2</v>
       </c>
-      <c r="AC133" s="73">
+      <c r="AC133" s="60">
         <v>0.2</v>
       </c>
-      <c r="AD133" s="73">
+      <c r="AD133" s="60">
         <v>0.2</v>
       </c>
       <c r="AG133" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH133" s="98"/>
+      <c r="AH133" s="81"/>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -25304,31 +25239,31 @@
       <c r="K134" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="X134" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="89">
+      <c r="X134" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="76">
         <v>0.2</v>
       </c>
-      <c r="Z134" s="84">
+      <c r="Z134" s="71">
         <v>0.2</v>
       </c>
-      <c r="AA134" s="73">
+      <c r="AA134" s="60">
         <v>0.2</v>
       </c>
-      <c r="AB134" s="73">
+      <c r="AB134" s="60">
         <v>0.2</v>
       </c>
-      <c r="AC134" s="73">
+      <c r="AC134" s="60">
         <v>0.2</v>
       </c>
-      <c r="AD134" s="73">
+      <c r="AD134" s="60">
         <v>0.2</v>
       </c>
       <c r="AG134" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH134" s="98"/>
+      <c r="AH134" s="81"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -25351,31 +25286,31 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="X135" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="89">
+      <c r="X135" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="76">
         <v>0.2</v>
       </c>
-      <c r="Z135" s="84">
+      <c r="Z135" s="71">
         <v>0.2</v>
       </c>
-      <c r="AA135" s="73">
+      <c r="AA135" s="60">
         <v>0.2</v>
       </c>
-      <c r="AB135" s="73">
+      <c r="AB135" s="60">
         <v>0.2</v>
       </c>
-      <c r="AC135" s="73">
+      <c r="AC135" s="60">
         <v>0.2</v>
       </c>
-      <c r="AD135" s="73">
+      <c r="AD135" s="60">
         <v>0.2</v>
       </c>
       <c r="AG135" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH135" s="98"/>
+      <c r="AH135" s="81"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -25395,31 +25330,31 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="X136" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="89">
+      <c r="X136" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="76">
         <v>0.2</v>
       </c>
-      <c r="Z136" s="84">
+      <c r="Z136" s="71">
         <v>0.2</v>
       </c>
-      <c r="AA136" s="73">
+      <c r="AA136" s="60">
         <v>0.2</v>
       </c>
-      <c r="AB136" s="73">
+      <c r="AB136" s="60">
         <v>0.2</v>
       </c>
-      <c r="AC136" s="73">
+      <c r="AC136" s="60">
         <v>0.2</v>
       </c>
-      <c r="AD136" s="73">
+      <c r="AD136" s="60">
         <v>0.2</v>
       </c>
       <c r="AG136" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AH136" s="98"/>
+      <c r="AH136" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25427,9 +25362,9 @@
     <mergeCell ref="N129:N130"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="AG127:AH127 A127 C127">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="5Rating">
+  <conditionalFormatting sqref="X2 O2 V2">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
         <cfvo type="percent" val="40"/>
@@ -25438,8 +25373,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2 O2 V2">
-    <cfRule type="iconSet" priority="6">
+  <conditionalFormatting sqref="X129 O129 V129">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Rating" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -25460,8 +25395,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK1:AL1 AE1:AF1 AI1">
-    <cfRule type="iconSet" priority="11">
+  <conditionalFormatting sqref="Y129:AD129 P129:U129 W129">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -25471,9 +25406,9 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X129 O129 V129">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="5Rating" reverse="1">
+  <conditionalFormatting sqref="AG127:AH127 A127 C127">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
         <cfvo type="percent" val="40"/>
@@ -25482,8 +25417,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y129:AD129 P129:U129 W129">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="AK1:AL1 AE1:AF1 AI1">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -25503,7 +25438,6 @@
   <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25566,10 +25500,10 @@
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="97" t="s">
         <v>1050</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="98"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -26159,12 +26093,12 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="106" t="s">
+    <row r="52" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -26265,7 +26199,6 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26375,7 +26308,6 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27513,7 +27445,6 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29056,7 +28987,6 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30328,7 +30258,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62808399-F8C7-43EA-A3A4-331C84B24044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9163FEE-03C9-4CE6-A7F7-0181822EE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15705" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1293">
   <si>
     <t>LINE</t>
   </si>
@@ -3888,9 +3888,6 @@
     <t>images/resources/pre_alpha/food_standard.png</t>
   </si>
   <si>
-    <t>images/resources/pre_alpha/food_substitue.png</t>
-  </si>
-  <si>
     <t>images/resources/pre_alpha/water.png</t>
   </si>
   <si>
@@ -3907,6 +3904,33 @@
   </si>
   <si>
     <t>images/resources/pre_alpha/biomass.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/food_substitute.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/food_synthetic.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/antimater.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/common_metal.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/steel.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/illicit_ai.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/terraformation_gaz.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/terraform_equipment.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/electronical_components.png</t>
   </si>
 </sst>
 </file>
@@ -19791,8 +19815,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y46" workbookViewId="0">
-      <selection activeCell="AG66" sqref="AG66"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="AF95" sqref="AF95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20146,7 +20172,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="AH7" s="81"/>
       <c r="AJ7" s="1">
@@ -20252,7 +20278,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>1048</v>
+        <v>1285</v>
       </c>
       <c r="AH8" s="81"/>
       <c r="AJ8" s="1">
@@ -20576,7 +20602,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AH13" s="81"/>
       <c r="AJ13" s="1">
@@ -22287,7 +22313,7 @@
         <v>0.5</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AH38" s="81"/>
     </row>
@@ -22443,7 +22469,7 @@
         <v>10</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>1048</v>
+        <v>1289</v>
       </c>
       <c r="AH40" s="81"/>
     </row>
@@ -22868,7 +22894,7 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AH48" s="81"/>
     </row>
@@ -23248,7 +23274,7 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AH53" s="81"/>
     </row>
@@ -23677,7 +23703,7 @@
         <v>637</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AH66" s="81"/>
     </row>
@@ -23803,7 +23829,7 @@
         <v>1221</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>1048</v>
+        <v>1286</v>
       </c>
       <c r="AH71" s="81"/>
     </row>
@@ -23883,7 +23909,7 @@
         <v>50</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>1048</v>
+        <v>1287</v>
       </c>
       <c r="AH76" s="81"/>
     </row>
@@ -24088,7 +24114,7 @@
         <v>20</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>1048</v>
+        <v>1288</v>
       </c>
       <c r="AH86" s="81"/>
     </row>
@@ -24336,7 +24362,7 @@
         <v>2.5</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>1048</v>
+        <v>1292</v>
       </c>
       <c r="AH99" s="81"/>
     </row>
@@ -24394,7 +24420,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="AG101" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AH101" s="81"/>
     </row>
@@ -24882,7 +24908,7 @@
         <v>1219</v>
       </c>
       <c r="AG115" s="1" t="s">
-        <v>1048</v>
+        <v>1290</v>
       </c>
       <c r="AH115" s="81"/>
     </row>
@@ -24906,7 +24932,7 @@
         <v>1219</v>
       </c>
       <c r="AG116" s="1" t="s">
-        <v>1048</v>
+        <v>1291</v>
       </c>
       <c r="AH116" s="81"/>
     </row>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9163FEE-03C9-4CE6-A7F7-0181822EE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB9035-8F38-44F5-8B24-D64F9FD66D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView minimized="1" xWindow="15885" yWindow="585" windowWidth="9675" windowHeight="11385" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1296">
   <si>
     <t>LINE</t>
   </si>
@@ -3931,6 +3931,15 @@
   </si>
   <si>
     <t>images/resources/pre_alpha/electronical_components.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/computer_low_tech.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/computer_medium_tech.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/transport_car.png</t>
   </si>
 </sst>
 </file>
@@ -19815,10 +19824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="AF95" sqref="AF95"/>
+      <selection pane="topRight" activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22931,7 +22940,6 @@
       <c r="AD49" s="60"/>
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
-      <c r="AG49" s="1"/>
       <c r="AH49" s="81"/>
     </row>
     <row r="50" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -23016,7 +23024,7 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="1" t="s">
-        <v>1048</v>
+        <v>1295</v>
       </c>
       <c r="AH50" s="81"/>
     </row>
@@ -24506,7 +24514,7 @@
         <v>0.5</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>1048</v>
+        <v>1293</v>
       </c>
       <c r="AH104" s="81"/>
     </row>
@@ -24566,7 +24574,7 @@
         <v>1.5</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>1048</v>
+        <v>1294</v>
       </c>
       <c r="AH105" s="81"/>
     </row>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB9035-8F38-44F5-8B24-D64F9FD66D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A05E79-5A58-4044-B456-F282D1BFAD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15885" yWindow="585" windowWidth="9675" windowHeight="11385" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1299">
   <si>
     <t>LINE</t>
   </si>
@@ -3197,9 +3197,6 @@
     <t>icon</t>
   </si>
   <si>
-    <t>images/resources/resource.png</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -3940,6 +3937,18 @@
   </si>
   <si>
     <t>images/resources/pre_alpha/transport_car.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/food_luxury.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/r.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/computer_high_tech.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/survival_equipment.png</t>
   </si>
 </sst>
 </file>
@@ -12499,7 +12508,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
@@ -13098,13 +13107,13 @@
     </row>
     <row r="86" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A86" s="55" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L87" s="18"/>
       <c r="N87" s="60" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>925</v>
@@ -13120,7 +13129,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -13137,7 +13146,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -13150,12 +13159,12 @@
         <v>943</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -13173,7 +13182,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B92" s="1">
         <v>5</v>
@@ -13191,7 +13200,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B93" s="1">
         <v>6</v>
@@ -13204,7 +13213,7 @@
         <v>946</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -13213,12 +13222,12 @@
         <v>947</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
@@ -13236,7 +13245,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -13261,7 +13270,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -13270,7 +13279,7 @@
         <v>391</v>
       </c>
       <c r="N98" s="60" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>938</v>
@@ -13278,16 +13287,16 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N99" s="60" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>939</v>
@@ -13295,7 +13304,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N100" s="60" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>1013</v>
@@ -13303,7 +13312,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B101" s="1">
         <v>4</v>
@@ -13312,7 +13321,7 @@
         <v>391</v>
       </c>
       <c r="N101" s="60" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>940</v>
@@ -13320,66 +13329,66 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B102" s="1">
         <v>4</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N102" s="60" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="L104" s="18"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B105" s="1">
         <v>4</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="L105" s="18"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B106" s="1">
         <v>6</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B107" s="1">
         <v>8</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L107" s="18"/>
     </row>
@@ -13388,7 +13397,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>913</v>
@@ -13396,7 +13405,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B112" s="1">
         <v>7</v>
@@ -13407,7 +13416,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
@@ -13418,7 +13427,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
@@ -13430,7 +13439,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B117" s="1">
         <v>4</v>
@@ -13442,7 +13451,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B118" s="1">
         <v>6</v>
@@ -13456,7 +13465,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B120" s="1">
         <v>6</v>
@@ -13467,7 +13476,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B121" s="1">
         <v>8</v>
@@ -13482,7 +13491,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B123" s="1">
         <v>3</v>
@@ -13494,7 +13503,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B124" s="1">
         <v>5</v>
@@ -13506,7 +13515,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B125" s="1">
         <v>6</v>
@@ -13521,7 +13530,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B127" s="1">
         <v>5</v>
@@ -13532,7 +13541,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B128" s="1">
         <v>6</v>
@@ -13544,7 +13553,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B129" s="1">
         <v>8</v>
@@ -13555,7 +13564,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B131" s="1">
         <v>7</v>
@@ -13566,7 +13575,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B132" s="1">
         <v>9</v>
@@ -13577,7 +13586,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B134" s="1">
         <v>6</v>
@@ -13591,7 +13600,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B136" s="1">
         <v>5</v>
@@ -13602,7 +13611,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B137" s="1">
         <v>7</v>
@@ -13617,7 +13626,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B139" s="1">
         <v>5</v>
@@ -13628,13 +13637,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B140" s="1">
         <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L140" s="18" t="s">
         <v>611</v>
@@ -13645,7 +13654,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B142" s="1">
         <v>6</v>
@@ -13656,13 +13665,13 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B143" s="1">
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L143" s="18" t="s">
         <v>761</v>
@@ -13680,7 +13689,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B146" s="1">
         <v>7</v>
@@ -13694,7 +13703,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B147" s="1">
         <v>7</v>
@@ -13706,13 +13715,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B148" s="1">
         <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L148" s="18" t="s">
         <v>747</v>
@@ -13725,7 +13734,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B150" s="1">
         <v>8</v>
@@ -13745,7 +13754,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L151" s="18" t="s">
         <v>1024</v>
@@ -13756,7 +13765,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B153" s="1">
         <v>2</v>
@@ -13767,7 +13776,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
@@ -13781,7 +13790,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B155" s="1">
         <v>6</v>
@@ -13795,7 +13804,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B157" s="1">
         <v>6</v>
@@ -13810,7 +13819,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B159" s="1">
         <v>6</v>
@@ -13822,7 +13831,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B160" s="1">
         <v>7</v>
@@ -13833,7 +13842,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B161" s="1">
         <v>7</v>
@@ -13844,7 +13853,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B162" s="1">
         <v>8</v>
@@ -13894,7 +13903,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -13906,7 +13915,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B180" s="1">
         <v>1</v>
@@ -13918,7 +13927,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B181" s="1">
         <v>1</v>
@@ -13929,7 +13938,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B182" s="1">
         <v>1</v>
@@ -13940,18 +13949,18 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B183" s="1">
         <v>1</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B184" s="1">
         <v>1</v>
@@ -13962,18 +13971,18 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B186" s="1">
         <v>2</v>
@@ -13984,7 +13993,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B187" s="1">
         <v>2</v>
@@ -13995,7 +14004,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B188" s="1">
         <v>3</v>
@@ -14006,7 +14015,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B189" s="1">
         <v>3</v>
@@ -14017,7 +14026,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B190" s="1">
         <v>3</v>
@@ -14028,7 +14037,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B191" s="1">
         <v>3</v>
@@ -14039,7 +14048,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B192" s="1">
         <v>4</v>
@@ -14050,29 +14059,29 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B193" s="1">
         <v>4</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B195" s="1">
         <v>4</v>
@@ -14083,7 +14092,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B196" s="1">
         <v>5</v>
@@ -14094,7 +14103,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B197" s="1">
         <v>5</v>
@@ -14105,7 +14114,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B198" s="1">
         <v>5</v>
@@ -14116,7 +14125,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B199" s="1">
         <v>5</v>
@@ -14127,7 +14136,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B200" s="1">
         <v>5</v>
@@ -14138,18 +14147,18 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B201" s="1">
         <v>5</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B202" s="1">
         <v>6</v>
@@ -14160,18 +14169,18 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B203" s="1">
         <v>6</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B204" s="1">
         <v>6</v>
@@ -14182,7 +14191,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B205" s="1">
         <v>6</v>
@@ -14193,7 +14202,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B206" s="1">
         <v>6</v>
@@ -14204,7 +14213,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B207" s="1">
         <v>6</v>
@@ -14215,7 +14224,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B208" s="1">
         <v>6</v>
@@ -14226,7 +14235,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B209" s="1">
         <v>6</v>
@@ -14237,18 +14246,18 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B210" s="1">
         <v>6</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B211" s="1">
         <v>6</v>
@@ -14259,7 +14268,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B212" s="1">
         <v>6</v>
@@ -14270,7 +14279,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B213" s="1">
         <v>6</v>
@@ -14281,7 +14290,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B214" s="1">
         <v>7</v>
@@ -14292,7 +14301,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B215" s="1">
         <v>7</v>
@@ -14303,7 +14312,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B216" s="1">
         <v>7</v>
@@ -14314,7 +14323,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B217" s="1">
         <v>7</v>
@@ -14325,7 +14334,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B218" s="1">
         <v>7</v>
@@ -14336,18 +14345,18 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B219" s="1">
         <v>7</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B220" s="1">
         <v>7</v>
@@ -14358,7 +14367,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B221" s="1">
         <v>7</v>
@@ -14369,18 +14378,18 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B222" s="1">
         <v>8</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B223" s="1">
         <v>8</v>
@@ -14391,7 +14400,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B224" s="1">
         <v>8</v>
@@ -14402,7 +14411,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B225" s="1">
         <v>8</v>
@@ -14419,12 +14428,12 @@
         <v>8</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B227" s="1">
         <v>8</v>
@@ -14435,7 +14444,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B228" s="1">
         <v>9</v>
@@ -14446,7 +14455,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>913</v>
@@ -14851,12 +14860,12 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" s="48" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B3" s="47" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>925</v>
@@ -14887,7 +14896,7 @@
         <v>964</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>967</v>
@@ -14899,10 +14908,10 @@
         <v>943</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L6" s="47"/>
     </row>
@@ -14929,7 +14938,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>969</v>
@@ -14941,10 +14950,10 @@
         <v>946</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L9" s="47"/>
     </row>
@@ -14953,10 +14962,10 @@
         <v>947</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L10" s="47"/>
     </row>
@@ -14968,7 +14977,7 @@
         <v>936</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L11" s="47"/>
     </row>
@@ -14980,7 +14989,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L12" s="47"/>
     </row>
@@ -14992,13 +15001,13 @@
         <v>937</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L13" s="47"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B14" s="47" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>938</v>
@@ -15007,7 +15016,7 @@
     </row>
     <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B15" s="47" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>939</v>
@@ -15016,7 +15025,7 @@
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B16" s="47" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>1013</v>
@@ -15025,7 +15034,7 @@
     </row>
     <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="47" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>940</v>
@@ -15034,10 +15043,10 @@
     </row>
     <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B18" s="47" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L18" s="47"/>
     </row>
@@ -19824,10 +19833,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="AF59" sqref="AF59"/>
+      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19867,7 +19876,7 @@
         <v>916</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>997</v>
@@ -19877,19 +19886,19 @@
       </c>
       <c r="H1" s="45"/>
       <c r="I1" s="52" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="K1" s="52" t="s">
         <v>980</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="N1" s="45"/>
       <c r="O1" s="52" t="s">
@@ -19914,31 +19923,31 @@
         <v>923</v>
       </c>
       <c r="V1" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="W1" s="52" t="s">
         <v>1177</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="X1" s="63" t="s">
         <v>1178</v>
       </c>
-      <c r="X1" s="63" t="s">
+      <c r="Y1" s="73" t="s">
         <v>1179</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="Z1" s="68" t="s">
         <v>1180</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="AA1" s="52" t="s">
         <v>1181</v>
       </c>
-      <c r="AA1" s="52" t="s">
+      <c r="AB1" s="52" t="s">
         <v>1182</v>
       </c>
-      <c r="AB1" s="52" t="s">
+      <c r="AC1" s="52" t="s">
         <v>1183</v>
       </c>
-      <c r="AC1" s="52" t="s">
+      <c r="AD1" s="52" t="s">
         <v>1184</v>
-      </c>
-      <c r="AD1" s="52" t="s">
-        <v>1185</v>
       </c>
       <c r="AE1" s="32"/>
       <c r="AF1" s="56"/>
@@ -19962,7 +19971,7 @@
         <v>910</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -20022,34 +20031,34 @@
       </c>
       <c r="N3" s="96"/>
       <c r="O3" s="51" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P3" s="51" t="s">
         <v>1190</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="Q3" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="R3" s="51" t="s">
         <v>1192</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="S3" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="T3" s="51" t="s">
         <v>1194</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="U3" s="51" t="s">
         <v>1195</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="V3" s="51" t="s">
         <v>1196</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="W3" s="51" t="s">
         <v>1197</v>
       </c>
-      <c r="W3" s="51" t="s">
-        <v>1198</v>
-      </c>
       <c r="X3" s="65" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Y3" s="75" t="s">
         <v>387</v>
@@ -20064,44 +20073,44 @@
         <v>390</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AD3" s="18" t="s">
         <v>1187</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AJ4" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C5" s="12"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="88"/>
       <c r="AJ5" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -20115,7 +20124,7 @@
         <v>981</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>188</v>
@@ -20127,7 +20136,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>637</v>
@@ -20181,7 +20190,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AH7" s="81"/>
       <c r="AJ7" s="1">
@@ -20218,7 +20227,7 @@
         <v>982</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>188</v>
@@ -20230,7 +20239,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>637</v>
@@ -20287,7 +20296,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AH8" s="81"/>
       <c r="AJ8" s="1">
@@ -20324,7 +20333,7 @@
         <v>983</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>188</v>
@@ -20336,7 +20345,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>637</v>
@@ -20390,7 +20399,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AH9" s="81"/>
       <c r="AJ9" s="1">
@@ -20427,7 +20436,7 @@
         <v>984</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>188</v>
@@ -20439,7 +20448,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>637</v>
@@ -20493,7 +20502,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>1048</v>
+        <v>1295</v>
       </c>
       <c r="AH10" s="81"/>
       <c r="AJ10" s="1">
@@ -20542,10 +20551,10 @@
         <v>985</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>395</v>
@@ -20554,7 +20563,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>637</v>
@@ -20611,7 +20620,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AH13" s="81"/>
       <c r="AJ13" s="1">
@@ -20648,16 +20657,16 @@
         <v>986</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>396</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>637</v>
@@ -20711,7 +20720,7 @@
         <v>0.25</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH14" s="81"/>
       <c r="AJ14" s="1">
@@ -20748,10 +20757,10 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>391</v>
@@ -20760,7 +20769,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="M15" s="18">
         <v>30</v>
@@ -20814,7 +20823,7 @@
         <v>0.01</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>1048</v>
+        <v>1298</v>
       </c>
       <c r="AH15" s="81"/>
       <c r="AJ15" s="1">
@@ -20854,16 +20863,16 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>1157</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>1158</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -20871,7 +20880,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>637</v>
@@ -20929,7 +20938,7 @@
         <v>0.2</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH18" s="81"/>
       <c r="AJ18" s="1">
@@ -20963,16 +20972,16 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -20980,7 +20989,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>637</v>
@@ -21038,7 +21047,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH19" s="81"/>
       <c r="AJ19" s="1">
@@ -21072,22 +21081,22 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I20" s="17">
         <v>100</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O20" s="60">
         <v>0</v>
@@ -21138,7 +21147,7 @@
         <v>2.5</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH20" s="81"/>
       <c r="AJ20" s="1">
@@ -21172,22 +21181,22 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I21" s="17">
         <v>100</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O21" s="60">
         <v>0</v>
@@ -21238,7 +21247,7 @@
         <v>1.5</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH21" s="81"/>
       <c r="AJ21" s="1">
@@ -21272,22 +21281,22 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I22" s="17">
         <v>100</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O22" s="60">
         <v>0</v>
@@ -21338,7 +21347,7 @@
         <v>1.5</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH22" s="81"/>
       <c r="AJ22" s="1">
@@ -21372,22 +21381,22 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I23" s="17">
         <v>100</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O23" s="60">
         <v>0</v>
@@ -21438,7 +21447,7 @@
         <v>1.5</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AJ23" s="1">
@@ -21485,21 +21494,21 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="81"/>
       <c r="AJ25" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -21507,7 +21516,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>637</v>
@@ -21565,7 +21574,7 @@
         <v>0.1</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH26" s="81"/>
       <c r="AJ26" s="1">
@@ -21599,16 +21608,16 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -21616,7 +21625,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>637</v>
@@ -21674,7 +21683,7 @@
         <v>0.2</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH27" s="81"/>
       <c r="AJ27" s="1">
@@ -21708,22 +21717,22 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I28" s="17">
         <v>1</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O28" s="60">
         <v>0</v>
@@ -21774,7 +21783,7 @@
         <v>0.2</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH28" s="81"/>
       <c r="AJ28" s="1">
@@ -21808,22 +21817,22 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I29" s="17">
         <v>1</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O29" s="60">
         <v>0</v>
@@ -21874,7 +21883,7 @@
         <v>0.4</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH29" s="81"/>
       <c r="AJ29" s="1">
@@ -21908,22 +21917,22 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I30" s="17">
         <v>1</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O30" s="60">
         <v>0</v>
@@ -21974,7 +21983,7 @@
         <v>0.6</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH30" s="81"/>
       <c r="AJ30" s="1">
@@ -22008,22 +22017,22 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I31" s="17">
         <v>1</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O31" s="60">
         <v>0</v>
@@ -22074,7 +22083,7 @@
         <v>2</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH31" s="81"/>
       <c r="AJ31" s="1">
@@ -22139,7 +22148,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
@@ -22175,10 +22184,10 @@
         <v>989</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>913</v>
@@ -22189,7 +22198,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K37" s="18" t="s">
         <v>637</v>
@@ -22244,7 +22253,7 @@
         <v>1</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH37" s="81"/>
     </row>
@@ -22253,10 +22262,10 @@
         <v>988</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>914</v>
@@ -22267,7 +22276,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K38" s="18" t="s">
         <v>637</v>
@@ -22322,7 +22331,7 @@
         <v>0.5</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AH38" s="81"/>
     </row>
@@ -22331,10 +22340,10 @@
         <v>990</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>915</v>
@@ -22345,7 +22354,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>637</v>
@@ -22400,7 +22409,7 @@
         <v>0.3</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH39" s="81"/>
     </row>
@@ -22409,10 +22418,10 @@
         <v>992</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>976</v>
@@ -22423,7 +22432,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -22478,7 +22487,7 @@
         <v>10</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AH40" s="81"/>
     </row>
@@ -22487,10 +22496,10 @@
         <v>991</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>979</v>
@@ -22501,7 +22510,7 @@
         <v>100</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K41" s="18" t="s">
         <v>637</v>
@@ -22558,7 +22567,7 @@
       <c r="AE41" s="17"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH41" s="81"/>
     </row>
@@ -22667,7 +22676,7 @@
     </row>
     <row r="45" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B45" s="53"/>
       <c r="C45" s="1"/>
@@ -22743,10 +22752,10 @@
       </c>
       <c r="B47" s="53"/>
       <c r="C47" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
@@ -22758,7 +22767,7 @@
         <v>100</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K47" s="18" t="s">
         <v>637</v>
@@ -22819,24 +22828,24 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH47" s="81"/>
     </row>
     <row r="48" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B48" s="53"/>
       <c r="C48" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -22844,7 +22853,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
@@ -22903,7 +22912,7 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AH48" s="81"/>
     </row>
@@ -22948,10 +22957,10 @@
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="18" t="s">
@@ -22963,7 +22972,7 @@
         <v>100</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K50" s="18" t="s">
         <v>637</v>
@@ -23024,7 +23033,7 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AH50" s="81"/>
     </row>
@@ -23034,10 +23043,10 @@
       </c>
       <c r="B51" s="53"/>
       <c r="C51" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="18" t="s">
@@ -23049,7 +23058,7 @@
         <v>200</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K51" s="18" t="s">
         <v>637</v>
@@ -23110,7 +23119,7 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH51" s="81"/>
     </row>
@@ -23120,10 +23129,10 @@
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="18" t="s">
@@ -23135,7 +23144,7 @@
         <v>400</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K52" s="18" t="s">
         <v>637</v>
@@ -23196,7 +23205,7 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="17"/>
       <c r="AG52" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH52" s="81"/>
     </row>
@@ -23206,10 +23215,10 @@
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="18" t="s">
@@ -23221,7 +23230,7 @@
         <v>1000</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K53" s="18" t="s">
         <v>637</v>
@@ -23282,7 +23291,7 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AH53" s="81"/>
     </row>
@@ -23364,10 +23373,10 @@
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="18" t="s">
@@ -23379,7 +23388,7 @@
         <v>100</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K56" s="18" t="s">
         <v>637</v>
@@ -23408,7 +23417,7 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH56" s="81"/>
     </row>
@@ -23418,10 +23427,10 @@
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="18" t="s">
@@ -23433,7 +23442,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -23458,7 +23467,7 @@
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH57" s="81"/>
     </row>
@@ -23468,10 +23477,10 @@
       </c>
       <c r="B58" s="53"/>
       <c r="C58" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="18" t="s">
@@ -23483,7 +23492,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K58" s="18" t="s">
         <v>637</v>
@@ -23512,7 +23521,7 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH58" s="81"/>
     </row>
@@ -23522,10 +23531,10 @@
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="18" t="s">
@@ -23537,7 +23546,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
@@ -23562,7 +23571,7 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH59" s="81"/>
     </row>
@@ -23663,10 +23672,10 @@
         <v>1034</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>1035</v>
@@ -23675,7 +23684,7 @@
         <v>10</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K65" s="18" t="s">
         <v>637</v>
@@ -23684,7 +23693,7 @@
         <v>20</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH65" s="81"/>
     </row>
@@ -23693,10 +23702,10 @@
         <v>1037</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>1038</v>
@@ -23705,13 +23714,13 @@
         <v>10</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K66" s="18" t="s">
         <v>637</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AH66" s="81"/>
     </row>
@@ -23720,10 +23729,10 @@
         <v>1039</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>741</v>
@@ -23732,40 +23741,40 @@
         <v>10</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K67" s="18" t="s">
         <v>637</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH67" s="81"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="I68" s="18">
         <v>10</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K68" s="18" t="s">
         <v>637</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH68" s="81"/>
     </row>
@@ -23774,10 +23783,10 @@
         <v>1032</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>727</v>
@@ -23786,10 +23795,10 @@
         <v>1</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH69" s="81"/>
     </row>
@@ -23798,10 +23807,10 @@
         <v>1033</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>744</v>
@@ -23810,22 +23819,22 @@
         <v>0.5</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH70" s="81"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>321</v>
@@ -23834,10 +23843,10 @@
         <v>1</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AH71" s="81"/>
     </row>
@@ -23863,7 +23872,7 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C74" s="1"/>
       <c r="F74" s="1"/>
@@ -23894,10 +23903,10 @@
         <v>1019</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>609</v>
@@ -23908,7 +23917,7 @@
         <v>100</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K76" s="18" t="s">
         <v>637</v>
@@ -23917,7 +23926,7 @@
         <v>50</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AH76" s="81"/>
     </row>
@@ -23926,10 +23935,10 @@
         <v>1015</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>613</v>
@@ -23938,7 +23947,7 @@
         <v>10</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K77" s="18" t="s">
         <v>637</v>
@@ -23947,7 +23956,7 @@
         <v>10</v>
       </c>
       <c r="AG77" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH77" s="81"/>
     </row>
@@ -23956,10 +23965,10 @@
         <v>1016</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>611</v>
@@ -23968,7 +23977,7 @@
         <v>10</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K78" s="18" t="s">
         <v>637</v>
@@ -23977,7 +23986,7 @@
         <v>1</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH78" s="81"/>
     </row>
@@ -23999,10 +24008,10 @@
         <v>1017</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>761</v>
@@ -24011,10 +24020,10 @@
         <v>1</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AG81" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH81" s="81"/>
     </row>
@@ -24023,10 +24032,10 @@
         <v>1020</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>1018</v>
@@ -24035,10 +24044,10 @@
         <v>1</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH82" s="81"/>
     </row>
@@ -24047,10 +24056,10 @@
         <v>1021</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>545</v>
@@ -24059,10 +24068,10 @@
         <v>1</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH83" s="81"/>
     </row>
@@ -24071,10 +24080,10 @@
         <v>1022</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>748</v>
@@ -24083,10 +24092,10 @@
         <v>1</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH84" s="81"/>
     </row>
@@ -24098,13 +24107,13 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>747</v>
@@ -24113,7 +24122,7 @@
         <v>10</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K86" s="18" t="s">
         <v>637</v>
@@ -24122,19 +24131,19 @@
         <v>20</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AH86" s="81"/>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>759</v>
@@ -24143,22 +24152,22 @@
         <v>10</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH87" s="81"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>1023</v>
@@ -24167,22 +24176,22 @@
         <v>10</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH88" s="81"/>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F89" s="18" t="s">
         <v>1024</v>
@@ -24191,10 +24200,10 @@
         <v>10</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH89" s="81"/>
     </row>
@@ -24210,7 +24219,7 @@
       <c r="C91" s="1"/>
       <c r="F91" s="1"/>
       <c r="AG91" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH91" s="81"/>
     </row>
@@ -24219,10 +24228,10 @@
         <v>1036</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F92" s="18" t="s">
         <v>760</v>
@@ -24231,7 +24240,7 @@
         <v>10</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K92" s="18" t="s">
         <v>637</v>
@@ -24240,7 +24249,7 @@
         <v>20</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH92" s="81"/>
     </row>
@@ -24319,10 +24328,10 @@
         <v>1007</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>1025</v>
@@ -24333,7 +24342,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K99" s="18" t="s">
         <v>637</v>
@@ -24370,7 +24379,7 @@
         <v>2.5</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AH99" s="81"/>
     </row>
@@ -24379,10 +24388,10 @@
         <v>1006</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>1026</v>
@@ -24393,14 +24402,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="AG100" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH100" s="81"/>
     </row>
@@ -24409,10 +24418,10 @@
         <v>1005</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>1027</v>
@@ -24428,7 +24437,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="AG101" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AH101" s="81"/>
     </row>
@@ -24457,10 +24466,10 @@
         <v>1008</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>1028</v>
@@ -24471,7 +24480,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K104" s="18" t="s">
         <v>637</v>
@@ -24514,7 +24523,7 @@
         <v>0.5</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AH104" s="81"/>
     </row>
@@ -24523,10 +24532,10 @@
         <v>1012</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F105" s="17" t="s">
         <v>1029</v>
@@ -24537,7 +24546,7 @@
         <v>4</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
@@ -24574,7 +24583,7 @@
         <v>1.5</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AH105" s="81"/>
     </row>
@@ -24583,10 +24592,10 @@
         <v>1009</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>1030</v>
@@ -24597,7 +24606,7 @@
         <v>3</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K106" s="17"/>
       <c r="L106" s="17"/>
@@ -24634,7 +24643,7 @@
         <v>1.5</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>1048</v>
+        <v>1297</v>
       </c>
       <c r="AH106" s="81"/>
     </row>
@@ -24643,10 +24652,10 @@
         <v>1010</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>1031</v>
@@ -24657,7 +24666,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
@@ -24694,7 +24703,7 @@
         <v>1.25</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH107" s="81"/>
     </row>
@@ -24703,13 +24712,13 @@
         <v>1011</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -24717,7 +24726,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
@@ -24754,7 +24763,7 @@
         <v>0.5</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH108" s="81"/>
     </row>
@@ -24808,7 +24817,7 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C111" s="1"/>
       <c r="F111" s="17"/>
@@ -24901,7 +24910,7 @@
         <v>1040</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>420</v>
@@ -24913,10 +24922,10 @@
         <v>10</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AG115" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AH115" s="81"/>
     </row>
@@ -24925,7 +24934,7 @@
         <v>987</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>420</v>
@@ -24937,10 +24946,10 @@
         <v>100</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AG116" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AH116" s="81"/>
     </row>
@@ -24977,10 +24986,10 @@
         <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>754</v>
@@ -24989,10 +24998,10 @@
         <v>1</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AG120" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH120" s="81"/>
     </row>
@@ -25001,10 +25010,10 @@
         <v>262</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>755</v>
@@ -25013,10 +25022,10 @@
         <v>1</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AG121" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH121" s="81"/>
     </row>
@@ -25025,10 +25034,10 @@
         <v>263</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>756</v>
@@ -25037,10 +25046,10 @@
         <v>1</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AG122" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH122" s="81"/>
     </row>
@@ -25101,7 +25110,7 @@
         <v>910</v>
       </c>
       <c r="N129" s="95" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O129" s="59">
         <v>0</v>
@@ -25161,34 +25170,34 @@
       </c>
       <c r="N130" s="96"/>
       <c r="O130" s="51" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P130" s="51" t="s">
         <v>1190</v>
       </c>
-      <c r="P130" s="51" t="s">
+      <c r="Q130" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="Q130" s="51" t="s">
+      <c r="R130" s="51" t="s">
         <v>1192</v>
       </c>
-      <c r="R130" s="51" t="s">
+      <c r="S130" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="S130" s="51" t="s">
+      <c r="T130" s="51" t="s">
         <v>1194</v>
       </c>
-      <c r="T130" s="51" t="s">
+      <c r="U130" s="51" t="s">
         <v>1195</v>
       </c>
-      <c r="U130" s="51" t="s">
+      <c r="V130" s="51" t="s">
         <v>1196</v>
       </c>
-      <c r="V130" s="51" t="s">
+      <c r="W130" s="51" t="s">
         <v>1197</v>
       </c>
-      <c r="W130" s="51" t="s">
-        <v>1198</v>
-      </c>
       <c r="X130" s="65" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Y130" s="75" t="s">
         <v>387</v>
@@ -25203,10 +25212,10 @@
         <v>390</v>
       </c>
       <c r="AC130" s="18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AD130" s="18" t="s">
         <v>1187</v>
-      </c>
-      <c r="AD130" s="18" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
@@ -25217,13 +25226,13 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F133" s="18" t="s">
         <v>397</v>
@@ -25253,19 +25262,19 @@
         <v>0.2</v>
       </c>
       <c r="AG133" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH133" s="81"/>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F134" s="18" t="s">
         <v>398</v>
@@ -25295,19 +25304,19 @@
         <v>0.2</v>
       </c>
       <c r="AG134" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH134" s="81"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>399</v>
@@ -25342,19 +25351,19 @@
         <v>0.2</v>
       </c>
       <c r="AG135" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH135" s="81"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>400</v>
@@ -25386,7 +25395,7 @@
         <v>0.2</v>
       </c>
       <c r="AG136" s="1" t="s">
-        <v>1048</v>
+        <v>1296</v>
       </c>
       <c r="AH136" s="81"/>
     </row>
@@ -25490,7 +25499,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="55" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="12"/>
     </row>
@@ -25502,7 +25511,7 @@
         <v>1047</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>997</v>
@@ -25535,7 +25544,7 @@
         <v>189</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C3" s="98"/>
       <c r="I3" s="18"/>
@@ -25573,39 +25582,39 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>1053</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1042</v>
@@ -25613,80 +25622,80 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="18" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>977</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -25721,7 +25730,7 @@
     </row>
     <row r="19" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A19" s="55" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B19" s="12"/>
     </row>
@@ -25730,7 +25739,7 @@
         <v>143</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="45" t="s">
@@ -25740,10 +25749,10 @@
         <v>998</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25753,10 +25762,10 @@
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -25764,10 +25773,10 @@
         <v>188</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>383</v>
@@ -25781,13 +25790,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>394</v>
@@ -25795,16 +25804,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>637</v>
@@ -25815,16 +25824,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>637</v>
@@ -25835,13 +25844,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>912</v>
@@ -25861,16 +25870,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -25881,24 +25890,24 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1110</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>401</v>
@@ -25909,16 +25918,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -25928,13 +25937,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1042</v>
@@ -25948,44 +25957,44 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>759</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -26003,13 +26012,13 @@
         <v>189</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -26022,31 +26031,31 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -26062,7 +26071,7 @@
         <v>420</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>412</v>
@@ -26074,31 +26083,31 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H48" s="1"/>
     </row>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A05E79-5A58-4044-B456-F282D1BFAD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA60E10B-7D03-4899-A748-0A8A3DACB27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1302">
   <si>
     <t>LINE</t>
   </si>
@@ -3949,6 +3949,15 @@
   </si>
   <si>
     <t>images/resources/pre_alpha/survival_equipment.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/illicit_organs.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/medicine_rudimentary.png</t>
+  </si>
+  <si>
+    <t>images/resources/pre_alpha/merchandises_rudimentary.png</t>
   </si>
 </sst>
 </file>
@@ -19833,10 +19842,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
+      <selection pane="topRight" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20938,7 +20947,7 @@
         <v>0.2</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="AH18" s="81"/>
       <c r="AJ18" s="1">
@@ -21574,7 +21583,7 @@
         <v>0.1</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="AH26" s="81"/>
       <c r="AJ26" s="1">
@@ -22409,7 +22418,7 @@
         <v>0.3</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="AH39" s="81"/>
     </row>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA60E10B-7D03-4899-A748-0A8A3DACB27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3378867B-789A-447A-BB33-51C0104C28F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="12015" yWindow="0" windowWidth="16890" windowHeight="15705" activeTab="4" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="4" r:id="rId1"/>
     <sheet name="Equipment" sheetId="18" r:id="rId2"/>
     <sheet name="Resources" sheetId="5" r:id="rId3"/>
     <sheet name="Resources_categories" sheetId="25" r:id="rId4"/>
-    <sheet name="MapGenerator" sheetId="12" r:id="rId5"/>
-    <sheet name="MG_sectors" sheetId="11" r:id="rId6"/>
-    <sheet name="MG_systems_types" sheetId="22" r:id="rId7"/>
-    <sheet name="MG_systems" sheetId="14" r:id="rId8"/>
-    <sheet name="|||" sheetId="10" r:id="rId9"/>
-    <sheet name="Units" sheetId="20" r:id="rId10"/>
-    <sheet name="Fleet" sheetId="1" r:id="rId11"/>
-    <sheet name="Buildings" sheetId="2" r:id="rId12"/>
-    <sheet name="Special techs" sheetId="3" r:id="rId13"/>
-    <sheet name="Era" sheetId="6" r:id="rId14"/>
-    <sheet name="Era 2" sheetId="24" r:id="rId15"/>
-    <sheet name="CTime" sheetId="7" r:id="rId16"/>
-    <sheet name="Ressources" sheetId="8" r:id="rId17"/>
-    <sheet name="Productions" sheetId="17" r:id="rId18"/>
+    <sheet name="Colonies_sizes" sheetId="26" r:id="rId5"/>
+    <sheet name="MapGenerator" sheetId="12" r:id="rId6"/>
+    <sheet name="MG_sectors" sheetId="11" r:id="rId7"/>
+    <sheet name="MG_systems_types" sheetId="22" r:id="rId8"/>
+    <sheet name="MG_systems" sheetId="14" r:id="rId9"/>
+    <sheet name="|||" sheetId="10" r:id="rId10"/>
+    <sheet name="Units" sheetId="20" r:id="rId11"/>
+    <sheet name="Fleet" sheetId="1" r:id="rId12"/>
+    <sheet name="Buildings" sheetId="2" r:id="rId13"/>
+    <sheet name="Special techs" sheetId="3" r:id="rId14"/>
+    <sheet name="Era" sheetId="6" r:id="rId15"/>
+    <sheet name="Era 2" sheetId="24" r:id="rId16"/>
+    <sheet name="CTime" sheetId="7" r:id="rId17"/>
+    <sheet name="Ressources" sheetId="8" r:id="rId18"/>
+    <sheet name="Productions" sheetId="17" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Buildings!$A$178:$D$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Buildings!$A$178:$D$253</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipment!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Techs!$A$1:$P$1</definedName>
   </definedNames>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1343">
   <si>
     <t>LINE</t>
   </si>
@@ -3958,6 +3959,129 @@
   </si>
   <si>
     <t>images/resources/pre_alpha/merchandises_rudimentary.png</t>
+  </si>
+  <si>
+    <t>allowed_districts</t>
+  </si>
+  <si>
+    <t>fa-landmark</t>
+  </si>
+  <si>
+    <t>revendication_system</t>
+  </si>
+  <si>
+    <t>revendication_strong</t>
+  </si>
+  <si>
+    <t>revendication_weak</t>
+  </si>
+  <si>
+    <t>revendication_claim</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Megalopolis</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Outpost</t>
+  </si>
+  <si>
+    <t>System-wide revendication</t>
+  </si>
+  <si>
+    <t>Strong revendication</t>
+  </si>
+  <si>
+    <t>Weak revendication</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Capitale</t>
+  </si>
+  <si>
+    <t>Mégalopole</t>
+  </si>
+  <si>
+    <t>Métropole</t>
+  </si>
+  <si>
+    <t>Territoire</t>
+  </si>
+  <si>
+    <t>Cité</t>
+  </si>
+  <si>
+    <t>Avant-poste</t>
+  </si>
+  <si>
+    <t>Revendication du système</t>
+  </si>
+  <si>
+    <t>Revendication forte</t>
+  </si>
+  <si>
+    <t>Revendication faible</t>
+  </si>
+  <si>
+    <t>Réclamation</t>
+  </si>
+  <si>
+    <t>fa-building</t>
+  </si>
+  <si>
+    <t>fa-school-flag</t>
+  </si>
+  <si>
+    <t>fa-tree-city</t>
+  </si>
+  <si>
+    <t>fa-house-flag</t>
+  </si>
+  <si>
+    <t>fa-tower-observation</t>
+  </si>
+  <si>
+    <t>fa-flag</t>
+  </si>
+  <si>
+    <t>unlocked_by_tech</t>
+  </si>
+  <si>
+    <t>land_capital</t>
+  </si>
+  <si>
+    <t>land_megalopolis</t>
+  </si>
+  <si>
+    <t>land_metropolis</t>
+  </si>
+  <si>
+    <t>land_territory</t>
+  </si>
+  <si>
+    <t>land_city</t>
+  </si>
+  <si>
+    <t>land_outpost</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>revendication</t>
   </si>
 </sst>
 </file>
@@ -4479,7 +4603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4701,6 +4825,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12311,6 +12436,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF4D59-07DC-4B11-89EF-3DB1ECAA5045}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963F84F3-BF1E-48E6-9C26-FF31DF2F4C98}">
   <dimension ref="A2:E17"/>
   <sheetViews>
@@ -12360,7 +12497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -12496,7 +12633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C953A2-E348-45BD-94BB-9853905028F2}">
   <dimension ref="A1:P246"/>
   <sheetViews>
@@ -14488,7 +14625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E86F81-7F57-40AE-8939-5BABDAC71F1F}">
   <dimension ref="A1:S30"/>
   <sheetViews>
@@ -14709,7 +14846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802CCB9-6BC1-466B-9FA9-DB5D5BC9B97C}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -14840,7 +14977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91323A4E-CCD2-4FF7-9D4F-85F20DA5AE48}">
   <dimension ref="B1:L58"/>
   <sheetViews>
@@ -15434,7 +15571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D22487-644E-4B42-9A8A-B5107716524C}">
   <dimension ref="B3:C15"/>
   <sheetViews>
@@ -15546,7 +15683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF702CCC-AF75-4717-ACFB-3CC6C4991068}">
   <dimension ref="A2:K50"/>
   <sheetViews>
@@ -16145,7 +16282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CB1DF-D23F-4AAE-96B5-181EBEC611E6}">
   <dimension ref="A3:O53"/>
   <sheetViews>
@@ -19842,10 +19979,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="X36" sqref="X36"/>
+      <selection pane="topRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26247,6 +26384,487 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0707AC-6DEC-4D31-8335-6B9F5A598722}">
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22" style="18" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14" style="18" customWidth="1"/>
+    <col min="10" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="7.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>998</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="30"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D2" s="98"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G5" s="103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G6" s="103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G7" s="103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G8" s="103">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G9" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G10" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G12" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G13" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G14" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G15" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="103"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="103"/>
+    </row>
+    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="34" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:V1 R1">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F62D196-CE0D-4FC4-B594-4D58D173DB05}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -26355,7 +26973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B8AE4-0FD4-4126-AACD-9736F4C81F06}">
   <dimension ref="A1:M49"/>
   <sheetViews>
@@ -27492,7 +28110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE68E02A-CC6E-4AA2-9AB8-6B95286EE8C0}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
@@ -29034,7 +29652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E8EA3-1B3E-49AE-A55E-4ECE414BACF3}">
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -30303,16 +30921,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF4D59-07DC-4B11-89EF-3DB1ECAA5045}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF8566-9424-4C77-9497-47B2D824DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374EE9E-C95E-4614-9288-4757FF78FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="1587">
   <si>
     <t>LINE</t>
   </si>
@@ -4804,6 +4804,18 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>build_time</t>
+  </si>
+  <si>
+    <t>build_cost</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>build_population</t>
   </si>
 </sst>
 </file>
@@ -32009,10 +32021,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
-  <dimension ref="A1:AC315"/>
+  <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32026,29 +32038,29 @@
     <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
     <col min="8" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="125" customWidth="1"/>
-    <col min="15" max="16" width="4.5703125" style="120" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="91" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="95" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" style="103" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" style="99" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" style="107" customWidth="1"/>
-    <col min="23" max="23" width="4.5703125" style="116" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" style="111" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" style="114" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" style="114" customWidth="1"/>
-    <col min="27" max="16384" width="21.140625" style="1"/>
+    <col min="12" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="125" customWidth="1"/>
+    <col min="18" max="19" width="4.5703125" style="120" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" style="91" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" style="95" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" style="103" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" style="99" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" style="107" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" style="116" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="111" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="114" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="114" customWidth="1"/>
+    <col min="30" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="147" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" ht="168.75" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>143</v>
       </c>
@@ -32076,40 +32088,52 @@
       <c r="J2" s="130" t="s">
         <v>1412</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131" t="s">
+      <c r="L2" s="130" t="s">
+        <v>1586</v>
+      </c>
+      <c r="M2" s="130" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N2" s="130" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O2" s="130" t="s">
+        <v>1585</v>
+      </c>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131" t="s">
         <v>1367</v>
       </c>
-      <c r="O2" s="132" t="s">
+      <c r="R2" s="132" t="s">
         <v>1368</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="130" t="s">
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="130" t="s">
         <v>1582</v>
       </c>
-      <c r="AA2" s="130" t="s">
+      <c r="AD2" s="130" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z3" s="46"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC3" s="46"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="164" t="s">
         <v>1436</v>
       </c>
-      <c r="Z4" s="46"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC4" s="46"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1384</v>
       </c>
@@ -32131,17 +32155,17 @@
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="Q5" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="AC5" s="46">
         <v>250</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1385</v>
       </c>
@@ -32163,17 +32187,17 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="125" t="s">
+      <c r="Q6" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="AC6" s="46">
         <v>300</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1386</v>
       </c>
@@ -32198,17 +32222,17 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="Q7" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="AC7" s="46">
         <v>500</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1387</v>
       </c>
@@ -32233,18 +32257,18 @@
       <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="N8" s="125" t="s">
+      <c r="Q8" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="X8" s="113"/>
-      <c r="Z8" s="46">
+      <c r="AA8" s="113"/>
+      <c r="AC8" s="46">
         <v>750</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1388</v>
       </c>
@@ -32269,17 +32293,17 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="N9" s="125" t="s">
+      <c r="Q9" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="AC9" s="46">
         <v>1000</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1389</v>
       </c>
@@ -32304,17 +32328,17 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="N10" s="125" t="s">
+      <c r="Q10" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="AC10" s="46">
         <v>1250</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1390</v>
       </c>
@@ -32339,32 +32363,32 @@
       <c r="J11" s="1">
         <v>5</v>
       </c>
-      <c r="N11" s="125" t="s">
+      <c r="Q11" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="AC11" s="46">
         <v>1500</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="155"/>
-      <c r="Z12" s="46"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC12" s="46"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="155"/>
-      <c r="Z13" s="46"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC13" s="46"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="164" t="s">
         <v>1415</v>
       </c>
       <c r="B14" s="155"/>
-      <c r="Z14" s="46"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC14" s="46"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1424</v>
       </c>
@@ -32383,20 +32407,20 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="125" t="s">
+      <c r="Q15" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O15" s="120" t="s">
+      <c r="R15" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="AC15" s="46">
         <v>10</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1417</v>
       </c>
@@ -32418,20 +32442,23 @@
       <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="N16" s="125" t="s">
+      <c r="L16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q16" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O16" s="120" t="s">
+      <c r="R16" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="AC16" s="46">
         <v>250</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1418</v>
       </c>
@@ -32456,20 +32483,23 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="125" t="s">
+      <c r="L17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="Q17" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O17" s="120" t="s">
+      <c r="R17" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="AC17" s="46">
         <v>750</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1419</v>
       </c>
@@ -32494,20 +32524,23 @@
       <c r="J18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="125" t="s">
+      <c r="L18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="Q18" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O18" s="120" t="s">
+      <c r="R18" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z18" s="46">
+      <c r="AC18" s="46">
         <v>1000</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1420</v>
       </c>
@@ -32532,20 +32565,23 @@
       <c r="J19" s="1">
         <v>5</v>
       </c>
-      <c r="N19" s="125" t="s">
+      <c r="L19" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="Q19" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O19" s="120" t="s">
+      <c r="R19" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z19" s="46">
+      <c r="AC19" s="46">
         <v>1500</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1421</v>
       </c>
@@ -32570,20 +32606,23 @@
       <c r="J20" s="1">
         <v>10</v>
       </c>
-      <c r="N20" s="125" t="s">
+      <c r="L20" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="Q20" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O20" s="120" t="s">
+      <c r="R20" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="AC20" s="46">
         <v>2000</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1422</v>
       </c>
@@ -32608,36 +32647,39 @@
       <c r="J21" s="1">
         <v>15</v>
       </c>
-      <c r="N21" s="125" t="s">
+      <c r="L21" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="Q21" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O21" s="120" t="s">
+      <c r="R21" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z21" s="46">
+      <c r="AC21" s="46">
         <v>2500</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B22" s="155"/>
-      <c r="Z22" s="46"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="46"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B23" s="155"/>
-      <c r="Z23" s="46"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="46"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="164" t="s">
         <v>1416</v>
       </c>
       <c r="B24" s="155"/>
-      <c r="X24" s="113"/>
-      <c r="Z24" s="46"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA24" s="113"/>
+      <c r="AC24" s="46"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1401</v>
       </c>
@@ -32662,18 +32704,18 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="125" t="s">
+      <c r="Q25" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="X25" s="113"/>
-      <c r="Z25" s="46">
+      <c r="AA25" s="113"/>
+      <c r="AC25" s="46">
         <v>1000</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1388</v>
       </c>
@@ -32698,21 +32740,21 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="125" t="s">
+      <c r="Q26" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O26" s="120" t="s">
+      <c r="R26" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="X26" s="113"/>
-      <c r="Z26" s="46">
+      <c r="AA26" s="113"/>
+      <c r="AC26" s="46">
         <v>1000</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1402</v>
       </c>
@@ -32737,21 +32779,21 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="Q27" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O27" s="120" t="s">
+      <c r="R27" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="X27" s="113"/>
-      <c r="Z27" s="46">
+      <c r="AA27" s="113"/>
+      <c r="AC27" s="46">
         <v>1000</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1403</v>
       </c>
@@ -32776,20 +32818,20 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="Q28" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O28" s="120" t="s">
+      <c r="R28" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z28" s="46">
+      <c r="AC28" s="46">
         <v>1000</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1404</v>
       </c>
@@ -32814,21 +32856,21 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="125" t="s">
+      <c r="Q29" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O29" s="120" t="s">
+      <c r="R29" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z29" s="46">
+      <c r="AC29" s="46">
         <v>1000</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="AB29" s="60"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE29" s="60"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1407</v>
       </c>
@@ -32855,20 +32897,23 @@
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
-      <c r="N30" s="125" t="s">
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O30" s="120" t="s">
+      <c r="R30" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z30" s="46">
+      <c r="AC30" s="46">
         <v>1000</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>1406</v>
       </c>
@@ -32893,21 +32938,21 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="125" t="s">
+      <c r="Q31" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O31" s="120" t="s">
+      <c r="R31" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Z31" s="46">
+      <c r="AC31" s="46">
         <v>1000</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="AB31" s="60"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE31" s="60"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1405</v>
       </c>
@@ -32932,22 +32977,22 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="125" t="s">
+      <c r="Q32" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O32" s="120" t="s">
+      <c r="R32" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="P32" s="124"/>
-      <c r="Z32" s="46">
+      <c r="S32" s="124"/>
+      <c r="AC32" s="46">
         <v>1000</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="AB32" s="60"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE32" s="60"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1408</v>
       </c>
@@ -32974,52 +33019,58 @@
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="125" t="s">
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O33" s="120" t="s">
+      <c r="R33" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="P33" s="124"/>
-      <c r="Z33" s="46">
+      <c r="S33" s="124"/>
+      <c r="AC33" s="46">
         <v>1000</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="AB33" s="60"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE33" s="60"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="P34" s="124"/>
-      <c r="AB34" s="60"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="AB35" s="60"/>
-    </row>
-    <row r="36" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N36" s="165"/>
-      <c r="O36" s="166"/>
-      <c r="P36" s="166"/>
-      <c r="R36" s="167"/>
-      <c r="S36" s="168"/>
-      <c r="T36" s="169"/>
-      <c r="U36" s="170"/>
-      <c r="V36" s="171"/>
-      <c r="W36" s="172"/>
-      <c r="X36" s="173"/>
-      <c r="Y36" s="174"/>
-      <c r="Z36" s="174"/>
-    </row>
-    <row r="38" spans="1:28" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="S34" s="124"/>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="AE35" s="60"/>
+    </row>
+    <row r="36" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="165"/>
+      <c r="R36" s="166"/>
+      <c r="S36" s="166"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="168"/>
+      <c r="W36" s="169"/>
+      <c r="X36" s="170"/>
+      <c r="Y36" s="171"/>
+      <c r="Z36" s="172"/>
+      <c r="AA36" s="173"/>
+      <c r="AB36" s="174"/>
+      <c r="AC36" s="174"/>
+    </row>
+    <row r="38" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A38" s="55" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="201" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" ht="201" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>143</v>
       </c>
@@ -33056,47 +33107,58 @@
       <c r="L39" s="130" t="s">
         <v>1371</v>
       </c>
-      <c r="M39" s="130"/>
-      <c r="N39" s="131" t="s">
+      <c r="M39" s="130" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N39" s="130" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O39" s="130" t="s">
+        <v>1585</v>
+      </c>
+      <c r="P39" s="130"/>
+      <c r="Q39" s="131" t="s">
         <v>1367</v>
       </c>
-      <c r="O39" s="132" t="s">
+      <c r="R39" s="132" t="s">
         <v>1368</v>
       </c>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="133" t="s">
+      <c r="S39" s="132"/>
+      <c r="T39" s="133" t="s">
         <v>1423</v>
       </c>
-      <c r="R39" s="134" t="s">
+      <c r="U39" s="134" t="s">
         <v>1354</v>
       </c>
-      <c r="S39" s="135" t="s">
+      <c r="V39" s="135" t="s">
         <v>1355</v>
       </c>
-      <c r="T39" s="136" t="s">
+      <c r="W39" s="136" t="s">
         <v>1356</v>
       </c>
-      <c r="U39" s="137" t="s">
+      <c r="X39" s="137" t="s">
         <v>1357</v>
       </c>
-      <c r="V39" s="138" t="s">
+      <c r="Y39" s="138" t="s">
         <v>1358</v>
       </c>
-      <c r="W39" s="139" t="s">
+      <c r="Z39" s="139" t="s">
         <v>1359</v>
       </c>
-      <c r="X39" s="140" t="s">
+      <c r="AA39" s="140" t="s">
         <v>1360</v>
       </c>
-      <c r="Y39" s="141" t="s">
+      <c r="AB39" s="141" t="s">
         <v>1361</v>
       </c>
-      <c r="Z39" s="141"/>
-      <c r="AA39" s="130" t="s">
+      <c r="AC39" s="130" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AD39" s="130" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1349</v>
       </c>
@@ -33118,20 +33180,20 @@
       <c r="K41" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N41" s="125" t="s">
+      <c r="Q41" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R41" s="91" t="s">
+      <c r="U41" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1437</v>
       </c>
@@ -33153,20 +33215,20 @@
       <c r="K42" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N42" s="125" t="s">
+      <c r="Q42" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R42" s="91" t="s">
+      <c r="U42" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1438</v>
       </c>
@@ -33188,20 +33250,20 @@
       <c r="K43" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N43" s="125" t="s">
+      <c r="Q43" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R43" s="91" t="s">
+      <c r="U43" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1439</v>
       </c>
@@ -33223,24 +33285,24 @@
       <c r="K44" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N44" s="125" t="s">
+      <c r="Q44" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R44" s="91" t="s">
+      <c r="U44" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="W44" s="116" t="s">
+      <c r="Z44" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X44" s="113"/>
-      <c r="AA44" s="1" t="s">
+      <c r="AA44" s="113"/>
+      <c r="AD44" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1440</v>
       </c>
@@ -33262,29 +33324,29 @@
       <c r="L45" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N45" s="125" t="s">
+      <c r="Q45" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O45" s="120" t="s">
+      <c r="R45" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R45" s="91" t="s">
+      <c r="U45" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="W45" s="116" t="s">
+      <c r="Z45" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X45" s="111" t="s">
+      <c r="AA45" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1441</v>
       </c>
@@ -33306,20 +33368,20 @@
       <c r="K47" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N47" s="125" t="s">
+      <c r="Q47" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="T47" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R47" s="91" t="s">
+      <c r="U47" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AD47" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1442</v>
       </c>
@@ -33341,21 +33403,21 @@
       <c r="K48" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N48" s="125" t="s">
+      <c r="Q48" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R48" s="91" t="s">
+      <c r="U48" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="X48" s="113"/>
-      <c r="AA48" s="1" t="s">
+      <c r="AA48" s="113"/>
+      <c r="AD48" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1443</v>
       </c>
@@ -33377,21 +33439,21 @@
       <c r="K49" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N49" s="125" t="s">
+      <c r="Q49" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R49" s="91" t="s">
+      <c r="U49" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="X49" s="113"/>
-      <c r="AA49" s="1" t="s">
+      <c r="AA49" s="113"/>
+      <c r="AD49" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1445</v>
       </c>
@@ -33413,21 +33475,21 @@
       <c r="K50" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N50" s="125" t="s">
+      <c r="Q50" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="T50" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R50" s="91" t="s">
+      <c r="U50" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="X50" s="113"/>
-      <c r="AA50" s="1" t="s">
+      <c r="AA50" s="113"/>
+      <c r="AD50" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1446</v>
       </c>
@@ -33449,58 +33511,58 @@
       <c r="L51" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N51" s="125" t="s">
+      <c r="Q51" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O51" s="120" t="s">
+      <c r="R51" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="T51" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R51" s="91" t="s">
+      <c r="U51" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S51" s="95" t="s">
+      <c r="V51" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T51" s="103" t="s">
+      <c r="W51" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U51" s="99" t="s">
+      <c r="X51" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V51" s="107" t="s">
+      <c r="Y51" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W51" s="116" t="s">
+      <c r="Z51" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X51" s="111" t="s">
+      <c r="AA51" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y51" s="114" t="s">
+      <c r="AB51" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1447</v>
       </c>
@@ -33522,24 +33584,24 @@
       <c r="K53" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N53" s="125" t="s">
+      <c r="Q53" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="T53" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R53" s="91" t="s">
+      <c r="U53" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="W53" s="116" t="s">
+      <c r="Z53" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X53" s="113"/>
-      <c r="AA53" s="1" t="s">
+      <c r="AA53" s="113"/>
+      <c r="AD53" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1449</v>
       </c>
@@ -33558,44 +33620,44 @@
       <c r="G54" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="N54" s="125" t="s">
+      <c r="Q54" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O54" s="120" t="s">
+      <c r="R54" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R54" s="91" t="s">
+      <c r="U54" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S54" s="95" t="s">
+      <c r="V54" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T54" s="103" t="s">
+      <c r="W54" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U54" s="99" t="s">
+      <c r="X54" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V54" s="107" t="s">
+      <c r="Y54" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W54" s="116" t="s">
+      <c r="Z54" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X54" s="111" t="s">
+      <c r="AA54" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y54" s="114" t="s">
+      <c r="AB54" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1448</v>
       </c>
@@ -33614,58 +33676,58 @@
       <c r="G55" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="N55" s="125" t="s">
+      <c r="Q55" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O55" s="120" t="s">
+      <c r="R55" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R55" s="91" t="s">
+      <c r="U55" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S55" s="95" t="s">
+      <c r="V55" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T55" s="103" t="s">
+      <c r="W55" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U55" s="99" t="s">
+      <c r="X55" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V55" s="107" t="s">
+      <c r="Y55" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W55" s="116" t="s">
+      <c r="Z55" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X55" s="111" t="s">
+      <c r="AA55" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y55" s="114" t="s">
+      <c r="AB55" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA55" s="1" t="s">
+      <c r="AD55" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1450</v>
       </c>
@@ -33684,44 +33746,44 @@
       <c r="G57" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="N57" s="125" t="s">
+      <c r="Q57" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O57" s="120" t="s">
+      <c r="R57" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="T57" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R57" s="91" t="s">
+      <c r="U57" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S57" s="95" t="s">
+      <c r="V57" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T57" s="103" t="s">
+      <c r="W57" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U57" s="99" t="s">
+      <c r="X57" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V57" s="107" t="s">
+      <c r="Y57" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W57" s="116" t="s">
+      <c r="Z57" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X57" s="111" t="s">
+      <c r="AA57" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y57" s="114" t="s">
+      <c r="AB57" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
@@ -33729,12 +33791,15 @@
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="124"/>
-      <c r="P59" s="124"/>
-      <c r="X59" s="113"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="124"/>
+      <c r="S59" s="124"/>
+      <c r="AA59" s="113"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1565</v>
       </c>
@@ -33761,43 +33826,46 @@
       </c>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
-      <c r="N60" s="125" t="s">
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O60" s="124"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" s="124"/>
+      <c r="S60" s="124"/>
+      <c r="T60" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R60" s="91" t="s">
+      <c r="U60" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S60" s="95" t="s">
+      <c r="V60" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T60" s="103" t="s">
+      <c r="W60" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U60" s="99" t="s">
+      <c r="X60" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V60" s="107" t="s">
+      <c r="Y60" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W60" s="116" t="s">
+      <c r="Z60" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X60" s="111" t="s">
+      <c r="AA60" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y60" s="114" t="s">
+      <c r="AB60" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1566</v>
       </c>
@@ -33824,43 +33892,46 @@
       </c>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
-      <c r="N61" s="125" t="s">
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O61" s="124"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="124"/>
+      <c r="S61" s="124"/>
+      <c r="T61" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R61" s="91" t="s">
+      <c r="U61" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S61" s="95" t="s">
+      <c r="V61" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T61" s="103" t="s">
+      <c r="W61" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U61" s="99" t="s">
+      <c r="X61" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V61" s="107" t="s">
+      <c r="Y61" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W61" s="116" t="s">
+      <c r="Z61" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X61" s="111" t="s">
+      <c r="AA61" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y61" s="114" t="s">
+      <c r="AB61" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1567</v>
       </c>
@@ -33887,43 +33958,46 @@
       </c>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
-      <c r="N62" s="125" t="s">
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O62" s="124"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="124"/>
+      <c r="S62" s="124"/>
+      <c r="T62" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R62" s="91" t="s">
+      <c r="U62" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S62" s="95" t="s">
+      <c r="V62" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T62" s="103" t="s">
+      <c r="W62" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U62" s="99" t="s">
+      <c r="X62" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V62" s="107" t="s">
+      <c r="Y62" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W62" s="116" t="s">
+      <c r="Z62" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X62" s="111" t="s">
+      <c r="AA62" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y62" s="114" t="s">
+      <c r="AB62" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1568</v>
       </c>
@@ -33950,43 +34024,46 @@
       </c>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
-      <c r="N63" s="125" t="s">
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="124"/>
+      <c r="S63" s="124"/>
+      <c r="T63" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R63" s="91" t="s">
+      <c r="U63" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S63" s="95" t="s">
+      <c r="V63" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T63" s="103" t="s">
+      <c r="W63" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U63" s="99" t="s">
+      <c r="X63" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V63" s="107" t="s">
+      <c r="Y63" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W63" s="116" t="s">
+      <c r="Z63" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X63" s="111" t="s">
+      <c r="AA63" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y63" s="114" t="s">
+      <c r="AB63" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1569</v>
       </c>
@@ -34013,43 +34090,46 @@
       </c>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="125" t="s">
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O64" s="124"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" s="124"/>
+      <c r="S64" s="124"/>
+      <c r="T64" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R64" s="91" t="s">
+      <c r="U64" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S64" s="95" t="s">
+      <c r="V64" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T64" s="103" t="s">
+      <c r="W64" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U64" s="99" t="s">
+      <c r="X64" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V64" s="107" t="s">
+      <c r="Y64" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W64" s="116" t="s">
+      <c r="Z64" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X64" s="111" t="s">
+      <c r="AA64" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y64" s="114" t="s">
+      <c r="AB64" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1451</v>
       </c>
@@ -34076,43 +34156,46 @@
       </c>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="125" t="s">
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O65" s="124"/>
-      <c r="P65" s="124"/>
-      <c r="Q65" s="1" t="s">
+      <c r="R65" s="124"/>
+      <c r="S65" s="124"/>
+      <c r="T65" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R65" s="91" t="s">
+      <c r="U65" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S65" s="95" t="s">
+      <c r="V65" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T65" s="103" t="s">
+      <c r="W65" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U65" s="99" t="s">
+      <c r="X65" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V65" s="107" t="s">
+      <c r="Y65" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W65" s="116" t="s">
+      <c r="Z65" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X65" s="111" t="s">
+      <c r="AA65" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y65" s="114" t="s">
+      <c r="AB65" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1570</v>
       </c>
@@ -34137,30 +34220,33 @@
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="129"/>
-      <c r="O66" s="120" t="s">
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="129"/>
+      <c r="R66" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R66" s="91" t="s">
+      <c r="U66" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="X66" s="111" t="s">
+      <c r="AA66" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB67" s="60"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB68" s="60"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE67" s="60"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE68" s="60"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1453</v>
       </c>
@@ -34182,45 +34268,45 @@
       <c r="K69" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="N69" s="125" t="s">
+      <c r="Q69" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O69" s="120" t="s">
+      <c r="R69" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R69" s="91" t="s">
+      <c r="U69" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S69" s="95" t="s">
+      <c r="V69" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T69" s="103" t="s">
+      <c r="W69" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U69" s="99" t="s">
+      <c r="X69" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V69" s="107" t="s">
+      <c r="Y69" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W69" s="116" t="s">
+      <c r="Z69" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X69" s="111" t="s">
+      <c r="AA69" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y69" s="114" t="s">
+      <c r="AB69" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="AB69" s="60"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE69" s="60"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1452</v>
       </c>
@@ -34242,45 +34328,45 @@
       <c r="K70" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="N70" s="125" t="s">
+      <c r="Q70" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O70" s="120" t="s">
+      <c r="R70" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="T70" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R70" s="91" t="s">
+      <c r="U70" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S70" s="95" t="s">
+      <c r="V70" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T70" s="103" t="s">
+      <c r="W70" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U70" s="99" t="s">
+      <c r="X70" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V70" s="107" t="s">
+      <c r="Y70" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W70" s="116" t="s">
+      <c r="Z70" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X70" s="111" t="s">
+      <c r="AA70" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y70" s="114" t="s">
+      <c r="AB70" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="AB70" s="60"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE70" s="60"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1454</v>
       </c>
@@ -34305,45 +34391,45 @@
       <c r="L71" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="N71" s="125" t="s">
+      <c r="Q71" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O71" s="120" t="s">
+      <c r="R71" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R71" s="91" t="s">
+      <c r="U71" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S71" s="95" t="s">
+      <c r="V71" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T71" s="103" t="s">
+      <c r="W71" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U71" s="99" t="s">
+      <c r="X71" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V71" s="107" t="s">
+      <c r="Y71" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W71" s="116" t="s">
+      <c r="Z71" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X71" s="111" t="s">
+      <c r="AA71" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y71" s="114" t="s">
+      <c r="AB71" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA71" s="1" t="s">
+      <c r="AD71" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="AB71" s="60"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE71" s="60"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1455</v>
       </c>
@@ -34369,45 +34455,45 @@
       <c r="L72" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="N72" s="125" t="s">
+      <c r="Q72" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O72" s="120" t="s">
+      <c r="R72" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="T72" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R72" s="91" t="s">
+      <c r="U72" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="S72" s="95" t="s">
+      <c r="V72" s="95" t="s">
         <v>637</v>
       </c>
-      <c r="T72" s="103" t="s">
+      <c r="W72" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="U72" s="99" t="s">
+      <c r="X72" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="V72" s="107" t="s">
+      <c r="Y72" s="107" t="s">
         <v>637</v>
       </c>
-      <c r="W72" s="116" t="s">
+      <c r="Z72" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="X72" s="111" t="s">
+      <c r="AA72" s="111" t="s">
         <v>637</v>
       </c>
-      <c r="Y72" s="114" t="s">
+      <c r="AB72" s="114" t="s">
         <v>637</v>
       </c>
-      <c r="AA72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="AB72" s="60"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE72" s="60"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
@@ -34415,12 +34501,15 @@
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="124"/>
-      <c r="P73" s="124"/>
-      <c r="AB73" s="60"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="124"/>
+      <c r="S73" s="124"/>
+      <c r="AE73" s="60"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
@@ -34428,15 +34517,18 @@
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
-      <c r="N74" s="129"/>
-      <c r="O74" s="124"/>
-      <c r="P74" s="124"/>
-      <c r="AA74" s="1" t="s">
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="129"/>
+      <c r="R74" s="124"/>
+      <c r="S74" s="124"/>
+      <c r="AD74" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="AB74" s="60"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE74" s="60"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1577</v>
       </c>
@@ -34461,27 +34553,30 @@
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
-      <c r="N75" s="125" t="s">
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O75" s="120" t="s">
+      <c r="R75" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="T75" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="U75" s="99" t="s">
+      <c r="X75" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="W75" s="116" t="s">
+      <c r="Z75" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="AB75" s="60"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE75" s="60"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1578</v>
       </c>
@@ -34506,27 +34601,30 @@
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
-      <c r="N76" s="125" t="s">
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O76" s="120" t="s">
+      <c r="R76" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="U76" s="99" t="s">
+      <c r="X76" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="W76" s="116" t="s">
+      <c r="Z76" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AD76" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="AB76" s="60"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE76" s="60"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1575</v>
       </c>
@@ -34551,27 +34649,30 @@
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
-      <c r="N77" s="125" t="s">
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O77" s="120" t="s">
+      <c r="R77" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="T77" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="U77" s="99" t="s">
+      <c r="X77" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="W77" s="116" t="s">
+      <c r="Z77" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="AA77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="AB77" s="60"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE77" s="60"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1576</v>
       </c>
@@ -34596,27 +34697,30 @@
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
-      <c r="N78" s="125" t="s">
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="O78" s="120" t="s">
+      <c r="R78" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="U78" s="99" t="s">
+      <c r="X78" s="99" t="s">
         <v>637</v>
       </c>
-      <c r="W78" s="116" t="s">
+      <c r="Z78" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="AA78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="AB78" s="60"/>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE78" s="60"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -34624,12 +34728,15 @@
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
-      <c r="N79" s="129"/>
-      <c r="O79" s="124"/>
-      <c r="P79" s="124"/>
-      <c r="AB79" s="60"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="129"/>
+      <c r="R79" s="124"/>
+      <c r="S79" s="124"/>
+      <c r="AE79" s="60"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -34637,12 +34744,15 @@
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
-      <c r="N80" s="129"/>
-      <c r="O80" s="124"/>
-      <c r="P80" s="124"/>
-      <c r="AB80" s="60"/>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="129"/>
+      <c r="R80" s="124"/>
+      <c r="S80" s="124"/>
+      <c r="AE80" s="60"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1456</v>
       </c>
@@ -34661,15 +34771,18 @@
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
-      <c r="N81" s="129"/>
-      <c r="O81" s="124"/>
-      <c r="P81" s="124"/>
-      <c r="AA81" s="1" t="s">
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="129"/>
+      <c r="R81" s="124"/>
+      <c r="S81" s="124"/>
+      <c r="AD81" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="AB81" s="60"/>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE81" s="60"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1457</v>
       </c>
@@ -34688,15 +34801,18 @@
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
-      <c r="N82" s="129"/>
-      <c r="O82" s="124"/>
-      <c r="P82" s="124"/>
-      <c r="AA82" s="1" t="s">
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="129"/>
+      <c r="R82" s="124"/>
+      <c r="S82" s="124"/>
+      <c r="AD82" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="AB82" s="60"/>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE82" s="60"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1458</v>
       </c>
@@ -34712,15 +34828,18 @@
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
-      <c r="N83" s="129"/>
-      <c r="O83" s="124"/>
-      <c r="P83" s="124"/>
-      <c r="AA83" s="1" t="s">
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="129"/>
+      <c r="R83" s="124"/>
+      <c r="S83" s="124"/>
+      <c r="AD83" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="AB83" s="60"/>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE83" s="60"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G84" s="1" t="s">
         <v>1152</v>
       </c>
@@ -34730,15 +34849,18 @@
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
-      <c r="N84" s="129"/>
-      <c r="O84" s="124"/>
-      <c r="P84" s="124"/>
-      <c r="AA84" s="1" t="s">
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="129"/>
+      <c r="R84" s="124"/>
+      <c r="S84" s="124"/>
+      <c r="AD84" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="AB84" s="60"/>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE84" s="60"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G85" s="1" t="s">
         <v>1153</v>
       </c>
@@ -34748,15 +34870,18 @@
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
-      <c r="N85" s="129"/>
-      <c r="O85" s="124"/>
-      <c r="P85" s="124"/>
-      <c r="AA85" s="1" t="s">
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="129"/>
+      <c r="R85" s="124"/>
+      <c r="S85" s="124"/>
+      <c r="AD85" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="AB85" s="60"/>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE85" s="60"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G86" s="1" t="s">
         <v>1154</v>
       </c>
@@ -34766,15 +34891,18 @@
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
-      <c r="N86" s="129"/>
-      <c r="O86" s="124"/>
-      <c r="P86" s="124"/>
-      <c r="AA86" s="1" t="s">
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="129"/>
+      <c r="R86" s="124"/>
+      <c r="S86" s="124"/>
+      <c r="AD86" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="AB86" s="60"/>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE86" s="60"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G87" s="1" t="s">
         <v>1155</v>
       </c>
@@ -34784,15 +34912,18 @@
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
-      <c r="N87" s="129"/>
-      <c r="O87" s="124"/>
-      <c r="P87" s="124"/>
-      <c r="AA87" s="1" t="s">
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="129"/>
+      <c r="R87" s="124"/>
+      <c r="S87" s="124"/>
+      <c r="AD87" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="AB87" s="60"/>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE87" s="60"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
@@ -34800,15 +34931,18 @@
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
-      <c r="N88" s="129"/>
-      <c r="O88" s="124"/>
-      <c r="P88" s="124"/>
-      <c r="AB88" s="60"/>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB89" s="60"/>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="129"/>
+      <c r="R88" s="124"/>
+      <c r="S88" s="124"/>
+      <c r="AE88" s="60"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE89" s="60"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
@@ -34816,12 +34950,15 @@
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
-      <c r="N90" s="129"/>
-      <c r="O90" s="124"/>
-      <c r="P90" s="124"/>
-      <c r="AB90" s="60"/>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="129"/>
+      <c r="R90" s="124"/>
+      <c r="S90" s="124"/>
+      <c r="AE90" s="60"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="18"/>
@@ -34829,27 +34966,33 @@
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
-      <c r="N92" s="129"/>
-      <c r="O92" s="124"/>
-      <c r="P92" s="124"/>
-      <c r="AB92" s="60"/>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="129"/>
+      <c r="R92" s="124"/>
+      <c r="S92" s="124"/>
+      <c r="AE92" s="60"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
-      <c r="N93" s="129"/>
-      <c r="O93" s="124"/>
-      <c r="P93" s="124"/>
-      <c r="AB93" s="60"/>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB94" s="60"/>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="129"/>
+      <c r="R93" s="124"/>
+      <c r="S93" s="124"/>
+      <c r="AE93" s="60"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE94" s="60"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
@@ -34857,27 +35000,33 @@
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
-      <c r="N95" s="129"/>
-      <c r="O95" s="124"/>
-      <c r="P95" s="124"/>
-      <c r="AB95" s="60"/>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="129"/>
+      <c r="R95" s="124"/>
+      <c r="S95" s="124"/>
+      <c r="AE95" s="60"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
-      <c r="N96" s="129"/>
-      <c r="O96" s="124"/>
-      <c r="P96" s="124"/>
-      <c r="AB96" s="60"/>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB97" s="60"/>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="129"/>
+      <c r="R96" s="124"/>
+      <c r="S96" s="124"/>
+      <c r="AE96" s="60"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE97" s="60"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1459</v>
       </c>
@@ -34896,15 +35045,18 @@
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
-      <c r="N98" s="129"/>
-      <c r="O98" s="124"/>
-      <c r="P98" s="124"/>
-      <c r="X98" s="113"/>
-      <c r="AA98" s="1" t="s">
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="129"/>
+      <c r="R98" s="124"/>
+      <c r="S98" s="124"/>
+      <c r="AA98" s="113"/>
+      <c r="AD98" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1460</v>
       </c>
@@ -34923,15 +35075,18 @@
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
-      <c r="N99" s="129"/>
-      <c r="O99" s="124"/>
-      <c r="P99" s="124"/>
-      <c r="X99" s="113"/>
-      <c r="AA99" s="1" t="s">
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="129"/>
+      <c r="R99" s="124"/>
+      <c r="S99" s="124"/>
+      <c r="AA99" s="113"/>
+      <c r="AD99" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1461</v>
       </c>
@@ -34950,15 +35105,18 @@
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
-      <c r="N100" s="129"/>
-      <c r="O100" s="124"/>
-      <c r="P100" s="124"/>
-      <c r="X100" s="113"/>
-      <c r="AA100" s="1" t="s">
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="129"/>
+      <c r="R100" s="124"/>
+      <c r="S100" s="124"/>
+      <c r="AA100" s="113"/>
+      <c r="AD100" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1462</v>
       </c>
@@ -34977,18 +35135,21 @@
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
-      <c r="N101" s="129"/>
-      <c r="O101" s="124"/>
-      <c r="P101" s="124"/>
-      <c r="X101" s="113"/>
-      <c r="AA101" s="1" t="s">
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="129"/>
+      <c r="R101" s="124"/>
+      <c r="S101" s="124"/>
+      <c r="AA101" s="113"/>
+      <c r="AD101" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X102" s="113"/>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA102" s="113"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1463</v>
       </c>
@@ -34998,11 +35159,11 @@
       <c r="G104" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="AA104" s="1" t="s">
+      <c r="AD104" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1464</v>
       </c>
@@ -35015,11 +35176,11 @@
       <c r="G106" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AA106" s="1" t="s">
+      <c r="AD106" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1465</v>
       </c>
@@ -35038,14 +35199,17 @@
       <c r="K108" s="18"/>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
-      <c r="N108" s="129"/>
-      <c r="O108" s="124"/>
-      <c r="P108" s="124"/>
-      <c r="AA108" s="1" t="s">
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="129"/>
+      <c r="R108" s="124"/>
+      <c r="S108" s="124"/>
+      <c r="AD108" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1466</v>
       </c>
@@ -35058,12 +35222,12 @@
       <c r="G110" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="X110" s="113"/>
-      <c r="AA110" s="1" t="s">
+      <c r="AA110" s="113"/>
+      <c r="AD110" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1467</v>
       </c>
@@ -35076,12 +35240,12 @@
       <c r="G111" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="X111" s="113"/>
-      <c r="AA111" s="1" t="s">
+      <c r="AA111" s="113"/>
+      <c r="AD111" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1468</v>
       </c>
@@ -35094,14 +35258,14 @@
       <c r="G112" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="AA112" s="1" t="s">
+      <c r="AD112" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X113" s="113"/>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA113" s="113"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1469</v>
       </c>
@@ -35120,14 +35284,17 @@
       <c r="K114" s="18"/>
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
-      <c r="N114" s="129"/>
-      <c r="O114" s="124"/>
-      <c r="P114" s="124"/>
-      <c r="AA114" s="1" t="s">
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="129"/>
+      <c r="R114" s="124"/>
+      <c r="S114" s="124"/>
+      <c r="AD114" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1470</v>
       </c>
@@ -35146,18 +35313,21 @@
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
-      <c r="N115" s="129"/>
-      <c r="O115" s="124"/>
-      <c r="P115" s="124"/>
-      <c r="X115" s="113"/>
-      <c r="AA115" s="1" t="s">
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="129"/>
+      <c r="R115" s="124"/>
+      <c r="S115" s="124"/>
+      <c r="AA115" s="113"/>
+      <c r="AD115" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X116" s="113"/>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA116" s="113"/>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1471</v>
       </c>
@@ -35176,15 +35346,18 @@
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
-      <c r="N117" s="129"/>
-      <c r="O117" s="124"/>
-      <c r="P117" s="124"/>
-      <c r="X117" s="113"/>
-      <c r="AA117" s="1" t="s">
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="129"/>
+      <c r="R117" s="124"/>
+      <c r="S117" s="124"/>
+      <c r="AA117" s="113"/>
+      <c r="AD117" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1472</v>
       </c>
@@ -35203,15 +35376,18 @@
       <c r="K118" s="18"/>
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
-      <c r="N118" s="129"/>
-      <c r="O118" s="124"/>
-      <c r="P118" s="124"/>
-      <c r="X118" s="113"/>
-      <c r="AA118" s="1" t="s">
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="129"/>
+      <c r="R118" s="124"/>
+      <c r="S118" s="124"/>
+      <c r="AA118" s="113"/>
+      <c r="AD118" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1473</v>
       </c>
@@ -35230,18 +35406,21 @@
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
-      <c r="N119" s="129"/>
-      <c r="O119" s="124"/>
-      <c r="P119" s="124"/>
-      <c r="X119" s="113"/>
-      <c r="AA119" s="1" t="s">
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="129"/>
+      <c r="R119" s="124"/>
+      <c r="S119" s="124"/>
+      <c r="AA119" s="113"/>
+      <c r="AD119" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X120" s="113"/>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA120" s="113"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1474</v>
       </c>
@@ -35260,14 +35439,17 @@
       <c r="K121" s="18"/>
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
-      <c r="N121" s="129"/>
-      <c r="O121" s="124"/>
-      <c r="P121" s="124"/>
-      <c r="AA121" s="1" t="s">
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="129"/>
+      <c r="R121" s="124"/>
+      <c r="S121" s="124"/>
+      <c r="AD121" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1475</v>
       </c>
@@ -35286,15 +35468,18 @@
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
-      <c r="N122" s="129"/>
-      <c r="O122" s="124"/>
-      <c r="P122" s="124"/>
-      <c r="X122" s="113"/>
-      <c r="AA122" s="1" t="s">
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="129"/>
+      <c r="R122" s="124"/>
+      <c r="S122" s="124"/>
+      <c r="AA122" s="113"/>
+      <c r="AD122" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1476</v>
       </c>
@@ -35313,14 +35498,17 @@
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
-      <c r="N123" s="129"/>
-      <c r="O123" s="124"/>
-      <c r="P123" s="124"/>
-      <c r="AA123" s="1" t="s">
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="129"/>
+      <c r="R123" s="124"/>
+      <c r="S123" s="124"/>
+      <c r="AD123" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1477</v>
       </c>
@@ -35339,14 +35527,17 @@
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
-      <c r="N125" s="129"/>
-      <c r="O125" s="124"/>
-      <c r="P125" s="124"/>
-      <c r="AA125" s="1" t="s">
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="129"/>
+      <c r="R125" s="124"/>
+      <c r="S125" s="124"/>
+      <c r="AD125" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1478</v>
       </c>
@@ -35365,14 +35556,17 @@
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
-      <c r="N126" s="129"/>
-      <c r="O126" s="124"/>
-      <c r="P126" s="124"/>
-      <c r="AA126" s="1" t="s">
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="129"/>
+      <c r="R126" s="124"/>
+      <c r="S126" s="124"/>
+      <c r="AD126" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1479</v>
       </c>
@@ -35391,14 +35585,17 @@
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
-      <c r="N128" s="129"/>
-      <c r="O128" s="124"/>
-      <c r="P128" s="124"/>
-      <c r="AA128" s="1" t="s">
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="129"/>
+      <c r="R128" s="124"/>
+      <c r="S128" s="124"/>
+      <c r="AD128" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
@@ -35406,11 +35603,14 @@
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
-      <c r="N129" s="129"/>
-      <c r="O129" s="124"/>
-      <c r="P129" s="124"/>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N129" s="18"/>
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="129"/>
+      <c r="R129" s="124"/>
+      <c r="S129" s="124"/>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1480</v>
       </c>
@@ -35429,14 +35629,17 @@
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
-      <c r="N130" s="129"/>
-      <c r="O130" s="124"/>
-      <c r="P130" s="124"/>
-      <c r="AA130" s="1" t="s">
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="129"/>
+      <c r="R130" s="124"/>
+      <c r="S130" s="124"/>
+      <c r="AD130" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1481</v>
       </c>
@@ -35455,14 +35658,17 @@
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
-      <c r="N131" s="129"/>
-      <c r="O131" s="124"/>
-      <c r="P131" s="124"/>
-      <c r="AA131" s="1" t="s">
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="129"/>
+      <c r="R131" s="124"/>
+      <c r="S131" s="124"/>
+      <c r="AD131" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
@@ -35470,11 +35676,14 @@
       <c r="K132" s="18"/>
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
-      <c r="N132" s="129"/>
-      <c r="O132" s="124"/>
-      <c r="P132" s="124"/>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="129"/>
+      <c r="R132" s="124"/>
+      <c r="S132" s="124"/>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1482</v>
       </c>
@@ -35493,14 +35702,17 @@
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
-      <c r="N133" s="129"/>
-      <c r="O133" s="124"/>
-      <c r="P133" s="124"/>
-      <c r="AA133" s="1" t="s">
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="129"/>
+      <c r="R133" s="124"/>
+      <c r="S133" s="124"/>
+      <c r="AD133" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1483</v>
       </c>
@@ -35513,16 +35725,16 @@
       <c r="G134" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="AA134" s="1" t="s">
+      <c r="AD134" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O135" s="113" t="s">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R135" s="113" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1484</v>
       </c>
@@ -35541,14 +35753,17 @@
       <c r="K136" s="18"/>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
-      <c r="N136" s="129"/>
-      <c r="O136" s="113"/>
-      <c r="P136" s="124"/>
-      <c r="AA136" s="1" t="s">
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="129"/>
+      <c r="R136" s="113"/>
+      <c r="S136" s="124"/>
+      <c r="AD136" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1485</v>
       </c>
@@ -35561,20 +35776,20 @@
       <c r="G137" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="O137" s="111"/>
-      <c r="AA137" s="1" t="s">
+      <c r="R137" s="111"/>
+      <c r="AD137" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O138" s="113" t="s">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R138" s="113" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O139" s="113"/>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R139" s="113"/>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1486</v>
       </c>
@@ -35593,14 +35808,17 @@
       <c r="K140" s="18"/>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
-      <c r="N140" s="129"/>
-      <c r="O140" s="113"/>
-      <c r="P140" s="124"/>
-      <c r="AA140" s="1" t="s">
+      <c r="N140" s="18"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="129"/>
+      <c r="R140" s="113"/>
+      <c r="S140" s="124"/>
+      <c r="AD140" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1487</v>
       </c>
@@ -35619,16 +35837,19 @@
       <c r="K141" s="18"/>
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
-      <c r="N141" s="129"/>
-      <c r="O141" s="113" t="s">
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="129"/>
+      <c r="R141" s="113" t="s">
         <v>748</v>
       </c>
-      <c r="P141" s="124"/>
-      <c r="AA141" s="1" t="s">
+      <c r="S141" s="124"/>
+      <c r="AD141" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1488</v>
       </c>
@@ -35641,17 +35862,17 @@
       <c r="G142" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="O142" s="113"/>
-      <c r="AA142" s="1" t="s">
+      <c r="R142" s="113"/>
+      <c r="AD142" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O143" s="113" t="s">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R143" s="113" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1489</v>
       </c>
@@ -35670,14 +35891,17 @@
       <c r="K144" s="18"/>
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
-      <c r="N144" s="129"/>
-      <c r="O144" s="113"/>
-      <c r="P144" s="124"/>
-      <c r="AA144" s="1" t="s">
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="Q144" s="129"/>
+      <c r="R144" s="113"/>
+      <c r="S144" s="124"/>
+      <c r="AD144" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1490</v>
       </c>
@@ -35690,19 +35914,19 @@
       <c r="G145" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="O145" s="113" t="s">
+      <c r="R145" s="113" t="s">
         <v>1023</v>
       </c>
-      <c r="AA145" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O146" s="113" t="s">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R146" s="113" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1491</v>
       </c>
@@ -35721,12 +35945,15 @@
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="27"/>
-      <c r="O147" s="113"/>
-      <c r="AA147" s="1" t="s">
+      <c r="N147" s="27"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="27"/>
+      <c r="R147" s="113"/>
+      <c r="AD147" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1492</v>
       </c>
@@ -35745,12 +35972,15 @@
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="27"/>
-      <c r="O148" s="111"/>
-      <c r="AA148" s="1" t="s">
+      <c r="N148" s="27"/>
+      <c r="O148" s="27"/>
+      <c r="P148" s="27"/>
+      <c r="R148" s="111"/>
+      <c r="AD148" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1493</v>
       </c>
@@ -35769,18 +35999,21 @@
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="27"/>
-      <c r="O149" s="113" t="s">
+      <c r="N149" s="27"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="27"/>
+      <c r="R149" s="113" t="s">
         <v>760</v>
       </c>
-      <c r="AA149" s="1" t="s">
+      <c r="AD149" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O150" s="111"/>
-      <c r="X150" s="113"/>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R150" s="111"/>
+      <c r="AA150" s="113"/>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1494</v>
       </c>
@@ -35793,15 +36026,15 @@
       <c r="G151" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="X151" s="113"/>
-      <c r="AA151" s="1" t="s">
+      <c r="AA151" s="113"/>
+      <c r="AD151" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X152" s="113"/>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA152" s="113"/>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1495</v>
       </c>
@@ -35820,15 +36053,18 @@
       <c r="K153" s="18"/>
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
-      <c r="N153" s="129"/>
-      <c r="O153" s="124"/>
-      <c r="P153" s="124"/>
-      <c r="X153" s="113"/>
-      <c r="AA153" s="1" t="s">
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="129"/>
+      <c r="R153" s="124"/>
+      <c r="S153" s="124"/>
+      <c r="AA153" s="113"/>
+      <c r="AD153" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1496</v>
       </c>
@@ -35847,14 +36083,17 @@
       <c r="K154" s="18"/>
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
-      <c r="N154" s="129"/>
-      <c r="O154" s="124"/>
-      <c r="P154" s="124"/>
-      <c r="AA154" s="1" t="s">
+      <c r="N154" s="18"/>
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="129"/>
+      <c r="R154" s="124"/>
+      <c r="S154" s="124"/>
+      <c r="AD154" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1497</v>
       </c>
@@ -35873,14 +36112,17 @@
       <c r="K155" s="18"/>
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
-      <c r="N155" s="129"/>
-      <c r="O155" s="124"/>
-      <c r="P155" s="124"/>
-      <c r="AA155" s="1" t="s">
+      <c r="N155" s="18"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="129"/>
+      <c r="R155" s="124"/>
+      <c r="S155" s="124"/>
+      <c r="AD155" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1498</v>
       </c>
@@ -35899,55 +36141,58 @@
       <c r="K156" s="18"/>
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
-      <c r="N156" s="129"/>
-      <c r="O156" s="124"/>
-      <c r="P156" s="124"/>
-      <c r="AA156" s="1" t="s">
+      <c r="N156" s="18"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="18"/>
+      <c r="Q156" s="129"/>
+      <c r="R156" s="124"/>
+      <c r="S156" s="124"/>
+      <c r="AD156" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X158" s="113"/>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X160" s="113"/>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X161" s="113"/>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X162" s="113"/>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X163" s="113"/>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X164" s="113"/>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X165" s="113"/>
-    </row>
-    <row r="166" spans="1:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA158" s="113"/>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA160" s="113"/>
+    </row>
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA161" s="113"/>
+    </row>
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA162" s="113"/>
+    </row>
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA163" s="113"/>
+    </row>
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA164" s="113"/>
+    </row>
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA165" s="113"/>
+    </row>
+    <row r="166" spans="1:32" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="N166" s="128"/>
-      <c r="O166" s="123"/>
-      <c r="P166" s="123"/>
-      <c r="R166" s="94"/>
-      <c r="S166" s="98"/>
-      <c r="T166" s="106"/>
-      <c r="U166" s="102"/>
-      <c r="V166" s="110"/>
-      <c r="W166" s="119"/>
-      <c r="X166" s="112"/>
-      <c r="Y166" s="115"/>
-      <c r="Z166" s="115"/>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X169" s="113"/>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q166" s="128"/>
+      <c r="R166" s="123"/>
+      <c r="S166" s="123"/>
+      <c r="U166" s="94"/>
+      <c r="V166" s="98"/>
+      <c r="W166" s="106"/>
+      <c r="X166" s="102"/>
+      <c r="Y166" s="110"/>
+      <c r="Z166" s="119"/>
+      <c r="AA166" s="112"/>
+      <c r="AB166" s="115"/>
+      <c r="AC166" s="115"/>
+    </row>
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA169" s="113"/>
+    </row>
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1499</v>
       </c>
@@ -35963,30 +36208,30 @@
       <c r="G170" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q170" s="1" t="s">
+      <c r="T170" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R170" s="91" t="s">
+      <c r="U170" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="S170" s="95" t="s">
+      <c r="V170" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="T170" s="103" t="s">
+      <c r="W170" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="U170" s="99" t="s">
+      <c r="X170" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="V170" s="107" t="s">
+      <c r="Y170" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="W170" s="116" t="s">
+      <c r="Z170" s="116" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1500</v>
       </c>
@@ -35995,7 +36240,7 @@
       </c>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1501</v>
       </c>
@@ -36010,17 +36255,20 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="N173" s="126"/>
-      <c r="O173" s="121"/>
-      <c r="P173" s="121"/>
-      <c r="AA173" s="1" t="s">
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="126"/>
+      <c r="R173" s="121"/>
+      <c r="S173" s="121"/>
+      <c r="AD173" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB173" s="1" t="s">
+      <c r="AE173" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1502</v>
       </c>
@@ -36035,26 +36283,29 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="126"/>
-      <c r="O174" s="121"/>
-      <c r="P174" s="121"/>
-      <c r="T174" s="104"/>
-      <c r="U174" s="100"/>
-      <c r="V174" s="108"/>
-      <c r="Y174" s="114" t="s">
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="126"/>
+      <c r="R174" s="121"/>
+      <c r="S174" s="121"/>
+      <c r="W174" s="104"/>
+      <c r="X174" s="100"/>
+      <c r="Y174" s="108"/>
+      <c r="AB174" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AA174" s="1" t="s">
+      <c r="AD174" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB174" s="1" t="s">
+      <c r="AE174" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AC174" s="1" t="s">
+      <c r="AF174" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1503</v>
       </c>
@@ -36069,24 +36320,27 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-      <c r="N175" s="126"/>
-      <c r="O175" s="121"/>
-      <c r="P175" s="121"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="92"/>
-      <c r="S175" s="96"/>
-      <c r="T175" s="104"/>
-      <c r="U175" s="100"/>
-      <c r="V175" s="108"/>
-      <c r="W175" s="117"/>
-      <c r="AA175" s="1" t="s">
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="126"/>
+      <c r="R175" s="121"/>
+      <c r="S175" s="121"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="92"/>
+      <c r="V175" s="96"/>
+      <c r="W175" s="104"/>
+      <c r="X175" s="100"/>
+      <c r="Y175" s="108"/>
+      <c r="Z175" s="117"/>
+      <c r="AD175" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB175" s="1" t="s">
+      <c r="AE175" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1504</v>
       </c>
@@ -36101,21 +36355,24 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="126"/>
-      <c r="O176" s="121"/>
-      <c r="P176" s="121"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="92"/>
-      <c r="S176" s="96"/>
-      <c r="T176" s="104"/>
-      <c r="U176" s="100"/>
-      <c r="V176" s="108"/>
-      <c r="W176" s="117"/>
-      <c r="AA176" s="1" t="s">
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="126"/>
+      <c r="R176" s="121"/>
+      <c r="S176" s="121"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="92"/>
+      <c r="V176" s="96"/>
+      <c r="W176" s="104"/>
+      <c r="X176" s="100"/>
+      <c r="Y176" s="108"/>
+      <c r="Z176" s="117"/>
+      <c r="AD176" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1505</v>
       </c>
@@ -36123,11 +36380,11 @@
         <v>35</v>
       </c>
       <c r="F177" s="3"/>
-      <c r="T177" s="104"/>
-      <c r="U177" s="100"/>
-      <c r="V177" s="108"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W177" s="104"/>
+      <c r="X177" s="100"/>
+      <c r="Y177" s="108"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1506</v>
       </c>
@@ -36136,7 +36393,7 @@
       </c>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1507</v>
       </c>
@@ -36145,7 +36402,7 @@
       </c>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1508</v>
       </c>
@@ -36154,8 +36411,8 @@
       </c>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1509</v>
       </c>
@@ -36169,11 +36426,14 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
-      <c r="N182" s="127"/>
-      <c r="O182" s="122"/>
-      <c r="P182" s="122"/>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="127"/>
+      <c r="R182" s="122"/>
+      <c r="S182" s="122"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1510</v>
       </c>
@@ -36187,11 +36447,14 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
-      <c r="N183" s="127"/>
-      <c r="O183" s="122"/>
-      <c r="P183" s="122"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="127"/>
+      <c r="R183" s="122"/>
+      <c r="S183" s="122"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1511</v>
       </c>
@@ -36205,11 +36468,14 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="127"/>
-      <c r="O184" s="122"/>
-      <c r="P184" s="122"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="127"/>
+      <c r="R184" s="122"/>
+      <c r="S184" s="122"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1512</v>
       </c>
@@ -36223,12 +36489,15 @@
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
-      <c r="N185" s="127"/>
-      <c r="O185" s="122"/>
-      <c r="P185" s="122"/>
-    </row>
-    <row r="186" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="127"/>
+      <c r="R185" s="122"/>
+      <c r="S185" s="122"/>
+    </row>
+    <row r="186" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1513</v>
       </c>
@@ -36236,9 +36505,9 @@
         <v>47</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="Q187" s="3"/>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T187" s="3"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1514</v>
       </c>
@@ -36246,39 +36515,39 @@
         <v>48</v>
       </c>
       <c r="F188" s="2"/>
-      <c r="Q188" s="3"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T188" s="3"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1515</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q189" s="3"/>
-      <c r="W189" s="118"/>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T189" s="3"/>
+      <c r="Z189" s="118"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q190" s="3"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T190" s="3"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q191" s="3"/>
-      <c r="T191" s="105"/>
-    </row>
-    <row r="192" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T191" s="3"/>
+      <c r="W191" s="105"/>
+    </row>
+    <row r="192" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1518</v>
       </c>
@@ -36286,9 +36555,9 @@
         <v>55</v>
       </c>
       <c r="F193" s="2"/>
-      <c r="R193" s="93"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U193" s="93"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1519</v>
       </c>
@@ -36296,9 +36565,9 @@
         <v>56</v>
       </c>
       <c r="F194" s="2"/>
-      <c r="R194" s="93"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U194" s="93"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1520</v>
       </c>
@@ -36306,28 +36575,28 @@
         <v>57</v>
       </c>
       <c r="F195" s="2"/>
-      <c r="R195" s="93"/>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U195" s="93"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1521</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R196" s="93"/>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U196" s="93"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R197" s="93"/>
-    </row>
-    <row r="198" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U197" s="93"/>
+    </row>
+    <row r="198" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1523</v>
       </c>
@@ -36341,56 +36610,59 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
-      <c r="N199" s="127"/>
-      <c r="O199" s="122"/>
-      <c r="P199" s="122"/>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="127"/>
+      <c r="R199" s="122"/>
+      <c r="S199" s="122"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S200" s="97"/>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V200" s="97"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S201" s="97"/>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V201" s="97"/>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S202" s="97"/>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V202" s="97"/>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1527</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S203" s="97"/>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V203" s="97"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S204" s="97"/>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V204" s="97"/>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1529</v>
       </c>
@@ -36405,228 +36677,231 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
-      <c r="N205" s="126"/>
-      <c r="O205" s="121"/>
-      <c r="P205" s="121"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="92"/>
-      <c r="T205" s="104"/>
-      <c r="U205" s="100"/>
-      <c r="V205" s="108"/>
-      <c r="W205" s="117"/>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="126"/>
+      <c r="R205" s="121"/>
+      <c r="S205" s="121"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="92"/>
+      <c r="W205" s="104"/>
+      <c r="X205" s="100"/>
+      <c r="Y205" s="108"/>
+      <c r="Z205" s="117"/>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S206" s="97"/>
-      <c r="T206" s="105"/>
-    </row>
-    <row r="207" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V206" s="97"/>
+      <c r="W206" s="105"/>
+    </row>
+    <row r="207" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T208" s="105"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W208" s="105"/>
+    </row>
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T209" s="105"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W209" s="105"/>
+    </row>
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T210" s="105"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W210" s="105"/>
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T211" s="105"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W211" s="105"/>
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T212" s="105"/>
-    </row>
-    <row r="213" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W212" s="105"/>
+    </row>
+    <row r="213" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U214" s="101"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X214" s="101"/>
+    </row>
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U215" s="101"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X215" s="101"/>
+    </row>
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U216" s="101"/>
-      <c r="Y216" s="114" t="s">
+      <c r="X216" s="101"/>
+      <c r="AB216" s="114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U217" s="101"/>
-      <c r="Y217" s="114" t="s">
+      <c r="X217" s="101"/>
+      <c r="AB217" s="114" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T218" s="105"/>
-      <c r="U218" s="101"/>
-    </row>
-    <row r="219" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W218" s="105"/>
+      <c r="X218" s="101"/>
+    </row>
+    <row r="219" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V220" s="109"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y220" s="109"/>
+    </row>
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V221" s="109"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y221" s="109"/>
+    </row>
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V222" s="109"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y222" s="109"/>
+    </row>
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1544</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V223" s="109"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y223" s="109"/>
+    </row>
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V224" s="109"/>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y224" s="109"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V225" s="109"/>
-    </row>
-    <row r="226" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y225" s="109"/>
+    </row>
+    <row r="226" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="W227" s="118"/>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z227" s="118"/>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W228" s="118"/>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z228" s="118"/>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W229" s="118"/>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z229" s="118"/>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W230" s="118"/>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z230" s="118"/>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W231" s="118"/>
-    </row>
-    <row r="232" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z231" s="118"/>
+    </row>
+    <row r="232" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1552</v>
       </c>
@@ -36641,18 +36916,21 @@
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
-      <c r="N233" s="127"/>
-      <c r="O233" s="122"/>
-      <c r="P233" s="122"/>
-      <c r="Q233" s="3"/>
-      <c r="R233" s="93"/>
-      <c r="S233" s="97"/>
-      <c r="T233" s="105"/>
-      <c r="U233" s="101"/>
-      <c r="V233" s="109"/>
-      <c r="W233" s="118"/>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="127"/>
+      <c r="R233" s="122"/>
+      <c r="S233" s="122"/>
+      <c r="T233" s="3"/>
+      <c r="U233" s="93"/>
+      <c r="V233" s="97"/>
+      <c r="W233" s="105"/>
+      <c r="X233" s="101"/>
+      <c r="Y233" s="109"/>
+      <c r="Z233" s="118"/>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1553</v>
       </c>
@@ -36667,18 +36945,21 @@
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
-      <c r="N234" s="127"/>
-      <c r="O234" s="122"/>
-      <c r="P234" s="122"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="93"/>
-      <c r="S234" s="97"/>
-      <c r="T234" s="105"/>
-      <c r="U234" s="101"/>
-      <c r="V234" s="109"/>
-      <c r="W234" s="118"/>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="127"/>
+      <c r="R234" s="122"/>
+      <c r="S234" s="122"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="93"/>
+      <c r="V234" s="97"/>
+      <c r="W234" s="105"/>
+      <c r="X234" s="101"/>
+      <c r="Y234" s="109"/>
+      <c r="Z234" s="118"/>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1554</v>
       </c>
@@ -36693,18 +36974,21 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
-      <c r="N235" s="127"/>
-      <c r="O235" s="122"/>
-      <c r="P235" s="122"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="93"/>
-      <c r="S235" s="97"/>
-      <c r="T235" s="105"/>
-      <c r="U235" s="101"/>
-      <c r="V235" s="109"/>
-      <c r="W235" s="118"/>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="127"/>
+      <c r="R235" s="122"/>
+      <c r="S235" s="122"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="93"/>
+      <c r="V235" s="97"/>
+      <c r="W235" s="105"/>
+      <c r="X235" s="101"/>
+      <c r="Y235" s="109"/>
+      <c r="Z235" s="118"/>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1555</v>
       </c>
@@ -36719,18 +37003,21 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
-      <c r="N236" s="127"/>
-      <c r="O236" s="122"/>
-      <c r="P236" s="122"/>
-      <c r="Q236" s="3"/>
-      <c r="R236" s="93"/>
-      <c r="S236" s="97"/>
-      <c r="T236" s="105"/>
-      <c r="U236" s="101"/>
-      <c r="V236" s="109"/>
-      <c r="W236" s="118"/>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="127"/>
+      <c r="R236" s="122"/>
+      <c r="S236" s="122"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="93"/>
+      <c r="V236" s="97"/>
+      <c r="W236" s="105"/>
+      <c r="X236" s="101"/>
+      <c r="Y236" s="109"/>
+      <c r="Z236" s="118"/>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1556</v>
       </c>
@@ -36745,18 +37032,21 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
-      <c r="N237" s="127"/>
-      <c r="O237" s="122"/>
-      <c r="P237" s="122"/>
-      <c r="Q237" s="3"/>
-      <c r="R237" s="93"/>
-      <c r="S237" s="97"/>
-      <c r="T237" s="105"/>
-      <c r="U237" s="101"/>
-      <c r="V237" s="109"/>
-      <c r="W237" s="118"/>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="127"/>
+      <c r="R237" s="122"/>
+      <c r="S237" s="122"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="93"/>
+      <c r="V237" s="97"/>
+      <c r="W237" s="105"/>
+      <c r="X237" s="101"/>
+      <c r="Y237" s="109"/>
+      <c r="Z237" s="118"/>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1557</v>
       </c>
@@ -36771,18 +37061,21 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
-      <c r="N238" s="127"/>
-      <c r="O238" s="122"/>
-      <c r="P238" s="122"/>
-      <c r="Q238" s="3"/>
-      <c r="R238" s="93"/>
-      <c r="S238" s="97"/>
-      <c r="T238" s="105"/>
-      <c r="U238" s="101"/>
-      <c r="V238" s="109"/>
-      <c r="W238" s="118"/>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="127"/>
+      <c r="R238" s="122"/>
+      <c r="S238" s="122"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="93"/>
+      <c r="V238" s="97"/>
+      <c r="W238" s="105"/>
+      <c r="X238" s="101"/>
+      <c r="Y238" s="109"/>
+      <c r="Z238" s="118"/>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1558</v>
       </c>
@@ -36797,18 +37090,21 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
-      <c r="N239" s="127"/>
-      <c r="O239" s="122"/>
-      <c r="P239" s="122"/>
-      <c r="Q239" s="3"/>
-      <c r="R239" s="93"/>
-      <c r="S239" s="97"/>
-      <c r="T239" s="105"/>
-      <c r="U239" s="101"/>
-      <c r="V239" s="109"/>
-      <c r="W239" s="118"/>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="127"/>
+      <c r="R239" s="122"/>
+      <c r="S239" s="122"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="93"/>
+      <c r="V239" s="97"/>
+      <c r="W239" s="105"/>
+      <c r="X239" s="101"/>
+      <c r="Y239" s="109"/>
+      <c r="Z239" s="118"/>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1559</v>
       </c>
@@ -36823,18 +37119,21 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
-      <c r="N240" s="127"/>
-      <c r="O240" s="122"/>
-      <c r="P240" s="122"/>
-      <c r="Q240" s="3"/>
-      <c r="R240" s="93"/>
-      <c r="S240" s="97"/>
-      <c r="T240" s="105"/>
-      <c r="U240" s="101"/>
-      <c r="V240" s="109"/>
-      <c r="W240" s="118"/>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="127"/>
+      <c r="R240" s="122"/>
+      <c r="S240" s="122"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="93"/>
+      <c r="V240" s="97"/>
+      <c r="W240" s="105"/>
+      <c r="X240" s="101"/>
+      <c r="Y240" s="109"/>
+      <c r="Z240" s="118"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1560</v>
       </c>
@@ -36849,18 +37148,21 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3"/>
-      <c r="N241" s="127"/>
-      <c r="O241" s="122"/>
-      <c r="P241" s="122"/>
-      <c r="Q241" s="3"/>
-      <c r="R241" s="93"/>
-      <c r="S241" s="97"/>
-      <c r="T241" s="105"/>
-      <c r="U241" s="101"/>
-      <c r="V241" s="109"/>
-      <c r="W241" s="118"/>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="127"/>
+      <c r="R241" s="122"/>
+      <c r="S241" s="122"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="93"/>
+      <c r="V241" s="97"/>
+      <c r="W241" s="105"/>
+      <c r="X241" s="101"/>
+      <c r="Y241" s="109"/>
+      <c r="Z241" s="118"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1561</v>
       </c>
@@ -36875,27 +37177,30 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
-      <c r="N242" s="126"/>
-      <c r="O242" s="121"/>
-      <c r="P242" s="121"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="92"/>
-      <c r="S242" s="96"/>
-      <c r="T242" s="104"/>
-      <c r="U242" s="100"/>
-      <c r="V242" s="108"/>
-      <c r="W242" s="118"/>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="126"/>
+      <c r="R242" s="121"/>
+      <c r="S242" s="121"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="92"/>
+      <c r="V242" s="96"/>
+      <c r="W242" s="104"/>
+      <c r="X242" s="100"/>
+      <c r="Y242" s="108"/>
+      <c r="Z242" s="118"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W243" s="118"/>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z243" s="118"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1563</v>
       </c>
@@ -36910,18 +37215,21 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
-      <c r="N244" s="126"/>
-      <c r="O244" s="121"/>
-      <c r="P244" s="121"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="92"/>
-      <c r="S244" s="96"/>
-      <c r="T244" s="104"/>
-      <c r="U244" s="100"/>
-      <c r="V244" s="108"/>
-      <c r="W244" s="118"/>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="126"/>
+      <c r="R244" s="121"/>
+      <c r="S244" s="121"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="92"/>
+      <c r="V244" s="96"/>
+      <c r="W244" s="104"/>
+      <c r="X244" s="100"/>
+      <c r="Y244" s="108"/>
+      <c r="Z244" s="118"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1564</v>
       </c>
@@ -36929,24 +37237,24 @@
         <v>102</v>
       </c>
       <c r="F245" s="2"/>
-      <c r="W245" s="118"/>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X252" s="113"/>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X253" s="113"/>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X255" s="113"/>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X256" s="113"/>
-    </row>
-    <row r="257" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="X257" s="113"/>
-    </row>
-    <row r="258" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="Z245" s="118"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA252" s="113"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA253" s="113"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA255" s="113"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA256" s="113"/>
+    </row>
+    <row r="257" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="AA257" s="113"/>
+    </row>
+    <row r="258" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
       <c r="I258" s="18"/>
@@ -36954,12 +37262,15 @@
       <c r="K258" s="18"/>
       <c r="L258" s="18"/>
       <c r="M258" s="18"/>
-      <c r="N258" s="129"/>
-      <c r="O258" s="124"/>
-      <c r="P258" s="124"/>
-      <c r="X258" s="113"/>
-    </row>
-    <row r="259" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N258" s="18"/>
+      <c r="O258" s="18"/>
+      <c r="P258" s="18"/>
+      <c r="Q258" s="129"/>
+      <c r="R258" s="124"/>
+      <c r="S258" s="124"/>
+      <c r="AA258" s="113"/>
+    </row>
+    <row r="259" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
       <c r="I259" s="18"/>
@@ -36967,12 +37278,15 @@
       <c r="K259" s="18"/>
       <c r="L259" s="18"/>
       <c r="M259" s="18"/>
-      <c r="N259" s="129"/>
-      <c r="O259" s="124"/>
-      <c r="P259" s="124"/>
-      <c r="X259" s="113"/>
-    </row>
-    <row r="260" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N259" s="18"/>
+      <c r="O259" s="18"/>
+      <c r="P259" s="18"/>
+      <c r="Q259" s="129"/>
+      <c r="R259" s="124"/>
+      <c r="S259" s="124"/>
+      <c r="AA259" s="113"/>
+    </row>
+    <row r="260" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
       <c r="I260" s="18"/>
@@ -36980,11 +37294,14 @@
       <c r="K260" s="18"/>
       <c r="L260" s="18"/>
       <c r="M260" s="18"/>
-      <c r="N260" s="129"/>
-      <c r="O260" s="124"/>
-      <c r="P260" s="124"/>
-    </row>
-    <row r="261" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N260" s="18"/>
+      <c r="O260" s="18"/>
+      <c r="P260" s="18"/>
+      <c r="Q260" s="129"/>
+      <c r="R260" s="124"/>
+      <c r="S260" s="124"/>
+    </row>
+    <row r="261" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
@@ -36992,11 +37309,14 @@
       <c r="K261" s="18"/>
       <c r="L261" s="18"/>
       <c r="M261" s="18"/>
-      <c r="N261" s="129"/>
-      <c r="O261" s="124"/>
-      <c r="P261" s="124"/>
-    </row>
-    <row r="262" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N261" s="18"/>
+      <c r="O261" s="18"/>
+      <c r="P261" s="18"/>
+      <c r="Q261" s="129"/>
+      <c r="R261" s="124"/>
+      <c r="S261" s="124"/>
+    </row>
+    <row r="262" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
@@ -37004,11 +37324,14 @@
       <c r="K262" s="18"/>
       <c r="L262" s="18"/>
       <c r="M262" s="18"/>
-      <c r="N262" s="129"/>
-      <c r="O262" s="124"/>
-      <c r="P262" s="124"/>
-    </row>
-    <row r="264" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N262" s="18"/>
+      <c r="O262" s="18"/>
+      <c r="P262" s="18"/>
+      <c r="Q262" s="129"/>
+      <c r="R262" s="124"/>
+      <c r="S262" s="124"/>
+    </row>
+    <row r="264" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
       <c r="I264" s="18"/>
@@ -37016,11 +37339,14 @@
       <c r="K264" s="18"/>
       <c r="L264" s="18"/>
       <c r="M264" s="18"/>
-      <c r="N264" s="129"/>
-      <c r="O264" s="124"/>
-      <c r="P264" s="124"/>
-    </row>
-    <row r="265" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N264" s="18"/>
+      <c r="O264" s="18"/>
+      <c r="P264" s="18"/>
+      <c r="Q264" s="129"/>
+      <c r="R264" s="124"/>
+      <c r="S264" s="124"/>
+    </row>
+    <row r="265" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
       <c r="I265" s="18"/>
@@ -37028,11 +37354,14 @@
       <c r="K265" s="18"/>
       <c r="L265" s="18"/>
       <c r="M265" s="18"/>
-      <c r="N265" s="129"/>
-      <c r="O265" s="124"/>
-      <c r="P265" s="124"/>
-    </row>
-    <row r="266" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N265" s="18"/>
+      <c r="O265" s="18"/>
+      <c r="P265" s="18"/>
+      <c r="Q265" s="129"/>
+      <c r="R265" s="124"/>
+      <c r="S265" s="124"/>
+    </row>
+    <row r="266" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G266" s="27"/>
       <c r="H266" s="27"/>
       <c r="I266" s="27"/>
@@ -37040,8 +37369,11 @@
       <c r="K266" s="27"/>
       <c r="L266" s="27"/>
       <c r="M266" s="27"/>
-    </row>
-    <row r="267" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N266" s="27"/>
+      <c r="O266" s="27"/>
+      <c r="P266" s="27"/>
+    </row>
+    <row r="267" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
@@ -37049,11 +37381,14 @@
       <c r="K267" s="18"/>
       <c r="L267" s="18"/>
       <c r="M267" s="18"/>
-      <c r="N267" s="129"/>
-      <c r="O267" s="124"/>
-      <c r="P267" s="124"/>
-    </row>
-    <row r="268" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N267" s="18"/>
+      <c r="O267" s="18"/>
+      <c r="P267" s="18"/>
+      <c r="Q267" s="129"/>
+      <c r="R267" s="124"/>
+      <c r="S267" s="124"/>
+    </row>
+    <row r="268" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
@@ -37061,11 +37396,14 @@
       <c r="K268" s="18"/>
       <c r="L268" s="18"/>
       <c r="M268" s="18"/>
-      <c r="N268" s="129"/>
-      <c r="O268" s="124"/>
-      <c r="P268" s="124"/>
-    </row>
-    <row r="269" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N268" s="18"/>
+      <c r="O268" s="18"/>
+      <c r="P268" s="18"/>
+      <c r="Q268" s="129"/>
+      <c r="R268" s="124"/>
+      <c r="S268" s="124"/>
+    </row>
+    <row r="269" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
@@ -37073,11 +37411,14 @@
       <c r="K269" s="18"/>
       <c r="L269" s="18"/>
       <c r="M269" s="18"/>
-      <c r="N269" s="129"/>
-      <c r="O269" s="124"/>
-      <c r="P269" s="124"/>
-    </row>
-    <row r="270" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N269" s="18"/>
+      <c r="O269" s="18"/>
+      <c r="P269" s="18"/>
+      <c r="Q269" s="129"/>
+      <c r="R269" s="124"/>
+      <c r="S269" s="124"/>
+    </row>
+    <row r="270" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G270" s="27"/>
       <c r="H270" s="27"/>
       <c r="I270" s="27"/>
@@ -37085,8 +37426,11 @@
       <c r="K270" s="27"/>
       <c r="L270" s="27"/>
       <c r="M270" s="27"/>
-    </row>
-    <row r="271" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N270" s="27"/>
+      <c r="O270" s="27"/>
+      <c r="P270" s="27"/>
+    </row>
+    <row r="271" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G271" s="18"/>
       <c r="H271" s="18"/>
       <c r="I271" s="18"/>
@@ -37094,11 +37438,14 @@
       <c r="K271" s="18"/>
       <c r="L271" s="18"/>
       <c r="M271" s="18"/>
-      <c r="N271" s="129"/>
-      <c r="O271" s="124"/>
-      <c r="P271" s="124"/>
-    </row>
-    <row r="272" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="N271" s="18"/>
+      <c r="O271" s="18"/>
+      <c r="P271" s="18"/>
+      <c r="Q271" s="129"/>
+      <c r="R271" s="124"/>
+      <c r="S271" s="124"/>
+    </row>
+    <row r="272" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
       <c r="I272" s="18"/>
@@ -37106,11 +37453,14 @@
       <c r="K272" s="18"/>
       <c r="L272" s="18"/>
       <c r="M272" s="18"/>
-      <c r="N272" s="129"/>
-      <c r="O272" s="124"/>
-      <c r="P272" s="124"/>
-    </row>
-    <row r="273" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N272" s="18"/>
+      <c r="O272" s="18"/>
+      <c r="P272" s="18"/>
+      <c r="Q272" s="129"/>
+      <c r="R272" s="124"/>
+      <c r="S272" s="124"/>
+    </row>
+    <row r="273" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G273" s="18"/>
       <c r="H273" s="18"/>
       <c r="I273" s="18"/>
@@ -37118,11 +37468,14 @@
       <c r="K273" s="18"/>
       <c r="L273" s="18"/>
       <c r="M273" s="18"/>
-      <c r="N273" s="129"/>
-      <c r="O273" s="124"/>
-      <c r="P273" s="124"/>
-    </row>
-    <row r="275" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N273" s="18"/>
+      <c r="O273" s="18"/>
+      <c r="P273" s="18"/>
+      <c r="Q273" s="129"/>
+      <c r="R273" s="124"/>
+      <c r="S273" s="124"/>
+    </row>
+    <row r="275" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
       <c r="I275" s="18"/>
@@ -37130,11 +37483,14 @@
       <c r="K275" s="18"/>
       <c r="L275" s="18"/>
       <c r="M275" s="18"/>
-      <c r="N275" s="129"/>
-      <c r="O275" s="124"/>
-      <c r="P275" s="124"/>
-    </row>
-    <row r="276" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N275" s="18"/>
+      <c r="O275" s="18"/>
+      <c r="P275" s="18"/>
+      <c r="Q275" s="129"/>
+      <c r="R275" s="124"/>
+      <c r="S275" s="124"/>
+    </row>
+    <row r="276" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G276" s="18"/>
       <c r="H276" s="18"/>
       <c r="I276" s="18"/>
@@ -37142,11 +37498,14 @@
       <c r="K276" s="18"/>
       <c r="L276" s="18"/>
       <c r="M276" s="18"/>
-      <c r="N276" s="129"/>
-      <c r="O276" s="124"/>
-      <c r="P276" s="124"/>
-    </row>
-    <row r="277" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N276" s="18"/>
+      <c r="O276" s="18"/>
+      <c r="P276" s="18"/>
+      <c r="Q276" s="129"/>
+      <c r="R276" s="124"/>
+      <c r="S276" s="124"/>
+    </row>
+    <row r="277" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G277" s="18"/>
       <c r="H277" s="18"/>
       <c r="I277" s="18"/>
@@ -37154,11 +37513,14 @@
       <c r="K277" s="18"/>
       <c r="L277" s="18"/>
       <c r="M277" s="18"/>
-      <c r="N277" s="129"/>
-      <c r="O277" s="124"/>
-      <c r="P277" s="124"/>
-    </row>
-    <row r="278" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N277" s="18"/>
+      <c r="O277" s="18"/>
+      <c r="P277" s="18"/>
+      <c r="Q277" s="129"/>
+      <c r="R277" s="124"/>
+      <c r="S277" s="124"/>
+    </row>
+    <row r="278" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G278" s="18"/>
       <c r="H278" s="18"/>
       <c r="I278" s="18"/>
@@ -37166,11 +37528,14 @@
       <c r="K278" s="18"/>
       <c r="L278" s="18"/>
       <c r="M278" s="18"/>
-      <c r="N278" s="129"/>
-      <c r="O278" s="124"/>
-      <c r="P278" s="124"/>
-    </row>
-    <row r="279" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N278" s="18"/>
+      <c r="O278" s="18"/>
+      <c r="P278" s="18"/>
+      <c r="Q278" s="129"/>
+      <c r="R278" s="124"/>
+      <c r="S278" s="124"/>
+    </row>
+    <row r="279" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G279" s="18"/>
       <c r="H279" s="18"/>
       <c r="I279" s="18"/>
@@ -37178,11 +37543,14 @@
       <c r="K279" s="18"/>
       <c r="L279" s="18"/>
       <c r="M279" s="18"/>
-      <c r="N279" s="129"/>
-      <c r="O279" s="124"/>
-      <c r="P279" s="124"/>
-    </row>
-    <row r="281" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N279" s="18"/>
+      <c r="O279" s="18"/>
+      <c r="P279" s="18"/>
+      <c r="Q279" s="129"/>
+      <c r="R279" s="124"/>
+      <c r="S279" s="124"/>
+    </row>
+    <row r="281" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G281" s="18"/>
       <c r="H281" s="18"/>
       <c r="I281" s="18"/>
@@ -37190,11 +37558,14 @@
       <c r="K281" s="18"/>
       <c r="L281" s="18"/>
       <c r="M281" s="18"/>
-      <c r="N281" s="129"/>
-      <c r="O281" s="124"/>
-      <c r="P281" s="124"/>
-    </row>
-    <row r="282" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N281" s="18"/>
+      <c r="O281" s="18"/>
+      <c r="P281" s="18"/>
+      <c r="Q281" s="129"/>
+      <c r="R281" s="124"/>
+      <c r="S281" s="124"/>
+    </row>
+    <row r="282" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G282" s="18"/>
       <c r="H282" s="18"/>
       <c r="I282" s="18"/>
@@ -37202,11 +37573,14 @@
       <c r="K282" s="18"/>
       <c r="L282" s="18"/>
       <c r="M282" s="18"/>
-      <c r="N282" s="129"/>
-      <c r="O282" s="124"/>
-      <c r="P282" s="124"/>
-    </row>
-    <row r="284" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N282" s="18"/>
+      <c r="O282" s="18"/>
+      <c r="P282" s="18"/>
+      <c r="Q282" s="129"/>
+      <c r="R282" s="124"/>
+      <c r="S282" s="124"/>
+    </row>
+    <row r="284" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G284" s="18"/>
       <c r="H284" s="18"/>
       <c r="I284" s="18"/>
@@ -37214,11 +37588,14 @@
       <c r="K284" s="18"/>
       <c r="L284" s="18"/>
       <c r="M284" s="18"/>
-      <c r="N284" s="129"/>
-      <c r="O284" s="124"/>
-      <c r="P284" s="124"/>
-    </row>
-    <row r="285" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
+      <c r="Q284" s="129"/>
+      <c r="R284" s="124"/>
+      <c r="S284" s="124"/>
+    </row>
+    <row r="285" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G285" s="18"/>
       <c r="H285" s="18"/>
       <c r="I285" s="18"/>
@@ -37226,11 +37603,14 @@
       <c r="K285" s="18"/>
       <c r="L285" s="18"/>
       <c r="M285" s="18"/>
-      <c r="N285" s="129"/>
-      <c r="O285" s="124"/>
-      <c r="P285" s="124"/>
-    </row>
-    <row r="286" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N285" s="18"/>
+      <c r="O285" s="18"/>
+      <c r="P285" s="18"/>
+      <c r="Q285" s="129"/>
+      <c r="R285" s="124"/>
+      <c r="S285" s="124"/>
+    </row>
+    <row r="286" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G286" s="18"/>
       <c r="H286" s="18"/>
       <c r="I286" s="18"/>
@@ -37238,11 +37618,14 @@
       <c r="K286" s="18"/>
       <c r="L286" s="18"/>
       <c r="M286" s="18"/>
-      <c r="N286" s="129"/>
-      <c r="O286" s="124"/>
-      <c r="P286" s="124"/>
-    </row>
-    <row r="287" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N286" s="18"/>
+      <c r="O286" s="18"/>
+      <c r="P286" s="18"/>
+      <c r="Q286" s="129"/>
+      <c r="R286" s="124"/>
+      <c r="S286" s="124"/>
+    </row>
+    <row r="287" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
       <c r="I287" s="18"/>
@@ -37250,11 +37633,14 @@
       <c r="K287" s="18"/>
       <c r="L287" s="18"/>
       <c r="M287" s="18"/>
-      <c r="N287" s="129"/>
-      <c r="O287" s="124"/>
-      <c r="P287" s="124"/>
-    </row>
-    <row r="288" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N287" s="18"/>
+      <c r="O287" s="18"/>
+      <c r="P287" s="18"/>
+      <c r="Q287" s="129"/>
+      <c r="R287" s="124"/>
+      <c r="S287" s="124"/>
+    </row>
+    <row r="288" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
@@ -37262,11 +37648,14 @@
       <c r="K288" s="18"/>
       <c r="L288" s="18"/>
       <c r="M288" s="18"/>
-      <c r="N288" s="129"/>
-      <c r="O288" s="124"/>
-      <c r="P288" s="124"/>
-    </row>
-    <row r="290" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N288" s="18"/>
+      <c r="O288" s="18"/>
+      <c r="P288" s="18"/>
+      <c r="Q288" s="129"/>
+      <c r="R288" s="124"/>
+      <c r="S288" s="124"/>
+    </row>
+    <row r="290" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G290" s="27"/>
       <c r="H290" s="27"/>
       <c r="I290" s="27"/>
@@ -37274,8 +37663,11 @@
       <c r="K290" s="27"/>
       <c r="L290" s="27"/>
       <c r="M290" s="27"/>
-    </row>
-    <row r="292" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N290" s="27"/>
+      <c r="O290" s="27"/>
+      <c r="P290" s="27"/>
+    </row>
+    <row r="292" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G292" s="18"/>
       <c r="H292" s="18"/>
       <c r="I292" s="18"/>
@@ -37283,11 +37675,14 @@
       <c r="K292" s="18"/>
       <c r="L292" s="18"/>
       <c r="M292" s="18"/>
-      <c r="N292" s="129"/>
-      <c r="O292" s="124"/>
-      <c r="P292" s="124"/>
-    </row>
-    <row r="294" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N292" s="18"/>
+      <c r="O292" s="18"/>
+      <c r="P292" s="18"/>
+      <c r="Q292" s="129"/>
+      <c r="R292" s="124"/>
+      <c r="S292" s="124"/>
+    </row>
+    <row r="294" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
       <c r="I294" s="18"/>
@@ -37295,11 +37690,14 @@
       <c r="K294" s="18"/>
       <c r="L294" s="18"/>
       <c r="M294" s="18"/>
-      <c r="N294" s="129"/>
-      <c r="O294" s="124"/>
-      <c r="P294" s="124"/>
-    </row>
-    <row r="295" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N294" s="18"/>
+      <c r="O294" s="18"/>
+      <c r="P294" s="18"/>
+      <c r="Q294" s="129"/>
+      <c r="R294" s="124"/>
+      <c r="S294" s="124"/>
+    </row>
+    <row r="295" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
       <c r="I295" s="18"/>
@@ -37307,11 +37705,14 @@
       <c r="K295" s="18"/>
       <c r="L295" s="18"/>
       <c r="M295" s="18"/>
-      <c r="N295" s="129"/>
-      <c r="O295" s="124"/>
-      <c r="P295" s="124"/>
-    </row>
-    <row r="296" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N295" s="18"/>
+      <c r="O295" s="18"/>
+      <c r="P295" s="18"/>
+      <c r="Q295" s="129"/>
+      <c r="R295" s="124"/>
+      <c r="S295" s="124"/>
+    </row>
+    <row r="296" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
@@ -37319,11 +37720,14 @@
       <c r="K296" s="18"/>
       <c r="L296" s="18"/>
       <c r="M296" s="18"/>
-      <c r="N296" s="129"/>
-      <c r="O296" s="124"/>
-      <c r="P296" s="124"/>
-    </row>
-    <row r="297" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N296" s="18"/>
+      <c r="O296" s="18"/>
+      <c r="P296" s="18"/>
+      <c r="Q296" s="129"/>
+      <c r="R296" s="124"/>
+      <c r="S296" s="124"/>
+    </row>
+    <row r="297" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
       <c r="I297" s="18"/>
@@ -37331,11 +37735,14 @@
       <c r="K297" s="18"/>
       <c r="L297" s="18"/>
       <c r="M297" s="18"/>
-      <c r="N297" s="129"/>
-      <c r="O297" s="124"/>
-      <c r="P297" s="124"/>
-    </row>
-    <row r="299" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N297" s="18"/>
+      <c r="O297" s="18"/>
+      <c r="P297" s="18"/>
+      <c r="Q297" s="129"/>
+      <c r="R297" s="124"/>
+      <c r="S297" s="124"/>
+    </row>
+    <row r="299" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
       <c r="I299" s="18"/>
@@ -37343,11 +37750,14 @@
       <c r="K299" s="18"/>
       <c r="L299" s="18"/>
       <c r="M299" s="18"/>
-      <c r="N299" s="129"/>
-      <c r="O299" s="124"/>
-      <c r="P299" s="124"/>
-    </row>
-    <row r="300" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N299" s="18"/>
+      <c r="O299" s="18"/>
+      <c r="P299" s="18"/>
+      <c r="Q299" s="129"/>
+      <c r="R299" s="124"/>
+      <c r="S299" s="124"/>
+    </row>
+    <row r="300" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
       <c r="I300" s="18"/>
@@ -37355,11 +37765,14 @@
       <c r="K300" s="18"/>
       <c r="L300" s="18"/>
       <c r="M300" s="18"/>
-      <c r="N300" s="129"/>
-      <c r="O300" s="124"/>
-      <c r="P300" s="124"/>
-    </row>
-    <row r="301" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N300" s="18"/>
+      <c r="O300" s="18"/>
+      <c r="P300" s="18"/>
+      <c r="Q300" s="129"/>
+      <c r="R300" s="124"/>
+      <c r="S300" s="124"/>
+    </row>
+    <row r="301" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G301" s="18"/>
       <c r="H301" s="18"/>
       <c r="I301" s="18"/>
@@ -37367,11 +37780,14 @@
       <c r="K301" s="18"/>
       <c r="L301" s="18"/>
       <c r="M301" s="18"/>
-      <c r="N301" s="129"/>
-      <c r="O301" s="124"/>
-      <c r="P301" s="124"/>
-    </row>
-    <row r="302" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N301" s="18"/>
+      <c r="O301" s="18"/>
+      <c r="P301" s="18"/>
+      <c r="Q301" s="129"/>
+      <c r="R301" s="124"/>
+      <c r="S301" s="124"/>
+    </row>
+    <row r="302" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G302" s="18"/>
       <c r="H302" s="18"/>
       <c r="I302" s="18"/>
@@ -37379,11 +37795,14 @@
       <c r="K302" s="18"/>
       <c r="L302" s="18"/>
       <c r="M302" s="18"/>
-      <c r="N302" s="129"/>
-      <c r="O302" s="124"/>
-      <c r="P302" s="124"/>
-    </row>
-    <row r="303" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N302" s="18"/>
+      <c r="O302" s="18"/>
+      <c r="P302" s="18"/>
+      <c r="Q302" s="129"/>
+      <c r="R302" s="124"/>
+      <c r="S302" s="124"/>
+    </row>
+    <row r="303" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G303" s="18"/>
       <c r="H303" s="18"/>
       <c r="I303" s="18"/>
@@ -37391,11 +37810,14 @@
       <c r="K303" s="18"/>
       <c r="L303" s="18"/>
       <c r="M303" s="18"/>
-      <c r="N303" s="129"/>
-      <c r="O303" s="124"/>
-      <c r="P303" s="124"/>
-    </row>
-    <row r="304" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N303" s="18"/>
+      <c r="O303" s="18"/>
+      <c r="P303" s="18"/>
+      <c r="Q303" s="129"/>
+      <c r="R303" s="124"/>
+      <c r="S303" s="124"/>
+    </row>
+    <row r="304" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
       <c r="I304" s="18"/>
@@ -37403,11 +37825,14 @@
       <c r="K304" s="18"/>
       <c r="L304" s="18"/>
       <c r="M304" s="18"/>
-      <c r="N304" s="129"/>
-      <c r="O304" s="124"/>
-      <c r="P304" s="124"/>
-    </row>
-    <row r="306" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N304" s="18"/>
+      <c r="O304" s="18"/>
+      <c r="P304" s="18"/>
+      <c r="Q304" s="129"/>
+      <c r="R304" s="124"/>
+      <c r="S304" s="124"/>
+    </row>
+    <row r="306" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G306" s="18"/>
       <c r="H306" s="18"/>
       <c r="I306" s="18"/>
@@ -37415,11 +37840,14 @@
       <c r="K306" s="18"/>
       <c r="L306" s="18"/>
       <c r="M306" s="18"/>
-      <c r="N306" s="129"/>
-      <c r="O306" s="124"/>
-      <c r="P306" s="124"/>
-    </row>
-    <row r="307" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N306" s="18"/>
+      <c r="O306" s="18"/>
+      <c r="P306" s="18"/>
+      <c r="Q306" s="129"/>
+      <c r="R306" s="124"/>
+      <c r="S306" s="124"/>
+    </row>
+    <row r="307" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
       <c r="I307" s="18"/>
@@ -37427,11 +37855,14 @@
       <c r="K307" s="18"/>
       <c r="L307" s="18"/>
       <c r="M307" s="18"/>
-      <c r="N307" s="129"/>
-      <c r="O307" s="124"/>
-      <c r="P307" s="124"/>
-    </row>
-    <row r="315" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N307" s="18"/>
+      <c r="O307" s="18"/>
+      <c r="P307" s="18"/>
+      <c r="Q307" s="129"/>
+      <c r="R307" s="124"/>
+      <c r="S307" s="124"/>
+    </row>
+    <row r="315" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C315" s="1" t="s">
         <v>1236</v>
       </c>
@@ -37441,8 +37872,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="N39:Q39">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="Q39:T39">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37455,8 +37886,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:Q2">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="Q2:T2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37470,7 +37901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37483,8 +37914,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AA2">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="AC2:AD2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37498,7 +37929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B24">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37511,8 +37942,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA39">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="AD39">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37525,8 +37956,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:F92 E94:F95 E90 G39:M39 E57:F88 M2 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="AC39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E748C2E6-B702-448B-8327-A1F889C28117}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:F92 E94:F95 E90 E57:F88 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55 G39:P39 L2:P2">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37553,7 +37998,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N39:Q39</xm:sqref>
+          <xm:sqref>Q39:T39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D81C225-54AA-4F8C-AD20-076A21527E15}">
@@ -37564,7 +38009,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N2:Q2</xm:sqref>
+          <xm:sqref>Q2:T2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A63C2143-E4DC-4553-9586-2F110D8F7A3D}">
@@ -37586,7 +38031,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z2:AA2</xm:sqref>
+          <xm:sqref>AC2:AD2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A318DCB6-0258-4F26-9AF5-2714DA33EF62}">
@@ -37608,7 +38053,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AA39</xm:sqref>
+          <xm:sqref>AD39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E748C2E6-B702-448B-8327-A1F889C28117}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AC39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94C98331-E7B0-4BD3-A08A-B0F9F356EB89}">
@@ -37619,7 +38075,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E92:F92 E94:F95 E90 G39:M39 E57:F88 M2 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55</xm:sqref>
+          <xm:sqref>E92:F92 E94:F95 E90 E57:F88 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55 G39:P39 L2:P2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374EE9E-C95E-4614-9288-4757FF78FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B5A7B-9D01-4503-BD8B-1936D79BAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="1587">
   <si>
     <t>LINE</t>
   </si>
@@ -5766,6 +5766,44 @@
     <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5805,44 +5843,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11067,10 +11067,10 @@
       <c r="B2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="169" t="s">
         <v>1049</v>
       </c>
-      <c r="D2" s="150"/>
+      <c r="D2" s="170"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -13762,34 +13762,34 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="152" t="s">
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="152" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="153"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="152" t="s">
+      <c r="I1" s="173"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="152" t="s">
+      <c r="L1" s="173"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="153"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -22273,24 +22273,24 @@
         <v>189</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="142" t="s">
+      <c r="G2" s="162" t="s">
         <v>831</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="142" t="s">
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="162" t="s">
         <v>840</v>
       </c>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="142" t="s">
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="162" t="s">
         <v>845</v>
       </c>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="164"/>
       <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -22298,30 +22298,30 @@
         <v>189</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="162" t="s">
         <v>832</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146" t="s">
+      <c r="H3" s="165"/>
+      <c r="I3" s="166" t="s">
         <v>835</v>
       </c>
-      <c r="J3" s="144"/>
-      <c r="K3" s="142" t="s">
+      <c r="J3" s="164"/>
+      <c r="K3" s="162" t="s">
         <v>832</v>
       </c>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146" t="s">
+      <c r="L3" s="165"/>
+      <c r="M3" s="166" t="s">
         <v>835</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="142" t="s">
+      <c r="N3" s="164"/>
+      <c r="O3" s="162" t="s">
         <v>832</v>
       </c>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="146" t="s">
+      <c r="P3" s="165"/>
+      <c r="Q3" s="166" t="s">
         <v>835</v>
       </c>
-      <c r="R3" s="144"/>
+      <c r="R3" s="164"/>
       <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -25750,7 +25750,7 @@
       <c r="M2" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N2" s="147" t="s">
+      <c r="N2" s="167" t="s">
         <v>1137</v>
       </c>
       <c r="O2" s="59">
@@ -25809,7 +25809,7 @@
       <c r="M3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="148"/>
+      <c r="N3" s="168"/>
       <c r="O3" s="51" t="s">
         <v>1189</v>
       </c>
@@ -30889,7 +30889,7 @@
       <c r="M129" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N129" s="147" t="s">
+      <c r="N129" s="167" t="s">
         <v>1137</v>
       </c>
       <c r="O129" s="59">
@@ -30948,7 +30948,7 @@
       <c r="M130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N130" s="148"/>
+      <c r="N130" s="168"/>
       <c r="O130" s="51" t="s">
         <v>1189</v>
       </c>
@@ -31325,10 +31325,10 @@
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="169" t="s">
         <v>1049</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="170"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -32023,8 +32023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32055,12 +32055,12 @@
     <col min="30" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="168.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="168.75" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>143</v>
       </c>
@@ -32123,21 +32123,24 @@
       <c r="AD2" s="130" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="130" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" s="46"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="151" t="s">
         <v>1436</v>
       </c>
       <c r="AC4" s="46"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -32155,6 +32158,9 @@
       <c r="I5" s="1">
         <v>5</v>
       </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
       <c r="Q5" s="125" t="s">
         <v>637</v>
       </c>
@@ -32165,11 +32171,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -32187,6 +32193,9 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
       <c r="Q6" s="125" t="s">
         <v>637</v>
       </c>
@@ -32197,11 +32206,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -32232,11 +32241,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -32268,11 +32277,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -32303,11 +32312,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -32338,11 +32347,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -32373,26 +32382,26 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="155"/>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="142"/>
       <c r="AC12" s="46"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="155"/>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="142"/>
       <c r="AC13" s="46"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="164" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="151" t="s">
         <v>1415</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="142"/>
       <c r="AC14" s="46"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -32420,11 +32429,11 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -32462,7 +32471,7 @@
       <c r="A17" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -32503,7 +32512,7 @@
       <c r="A18" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -32544,7 +32553,7 @@
       <c r="A19" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -32585,7 +32594,7 @@
       <c r="A20" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -32626,7 +32635,7 @@
       <c r="A21" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="142" t="s">
         <v>1423</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -32664,18 +32673,18 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B22" s="155"/>
+      <c r="B22" s="142"/>
       <c r="AC22" s="46"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B23" s="155"/>
+      <c r="B23" s="142"/>
       <c r="AC23" s="46"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="151" t="s">
         <v>1416</v>
       </c>
-      <c r="B24" s="155"/>
+      <c r="B24" s="142"/>
       <c r="AA24" s="113"/>
       <c r="AC24" s="46"/>
     </row>
@@ -32683,7 +32692,7 @@
       <c r="A25" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="143" t="s">
         <v>1354</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -32719,7 +32728,7 @@
       <c r="A26" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="144" t="s">
         <v>1355</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -32758,7 +32767,7 @@
       <c r="A27" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="145" t="s">
         <v>1356</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -32797,7 +32806,7 @@
       <c r="A28" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="146" t="s">
         <v>1357</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -32835,7 +32844,7 @@
       <c r="A29" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="147" t="s">
         <v>1358</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -32874,7 +32883,7 @@
       <c r="A30" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="150" t="s">
         <v>1361</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -32917,7 +32926,7 @@
       <c r="A31" s="18" t="s">
         <v>1406</v>
       </c>
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="149" t="s">
         <v>1360</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -32956,7 +32965,7 @@
       <c r="A32" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="148" t="s">
         <v>1359</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -33052,18 +33061,18 @@
       <c r="AE35" s="60"/>
     </row>
     <row r="36" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q36" s="165"/>
-      <c r="R36" s="166"/>
-      <c r="S36" s="166"/>
-      <c r="U36" s="167"/>
-      <c r="V36" s="168"/>
-      <c r="W36" s="169"/>
-      <c r="X36" s="170"/>
-      <c r="Y36" s="171"/>
-      <c r="Z36" s="172"/>
-      <c r="AA36" s="173"/>
-      <c r="AB36" s="174"/>
-      <c r="AC36" s="174"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="155"/>
+      <c r="W36" s="156"/>
+      <c r="X36" s="157"/>
+      <c r="Y36" s="158"/>
+      <c r="Z36" s="159"/>
+      <c r="AA36" s="160"/>
+      <c r="AB36" s="161"/>
+      <c r="AC36" s="161"/>
     </row>
     <row r="38" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A38" s="55" t="s">
@@ -37872,8 +37881,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="Q39:T39">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37881,7 +37890,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B29BB2DF-06C3-450E-926E-386C1C8F8D87}</x14:id>
+          <x14:id>{A63C2143-E4DC-4553-9586-2F110D8F7A3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B24">
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A318DCB6-0258-4F26-9AF5-2714DA33EF62}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:F92 E94:F95 E90 E57:F88 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55 G39:P39 L2:P2">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94C98331-E7B0-4BD3-A08A-B0F9F356EB89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -37900,8 +37937,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="Q39:T39">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -37909,12 +37946,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A63C2143-E4DC-4553-9586-2F110D8F7A3D}</x14:id>
+          <x14:id>{B29BB2DF-06C3-450E-926E-386C1C8F8D87}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AD2">
+  <conditionalFormatting sqref="AC39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E748C2E6-B702-448B-8327-A1F889C28117}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AE2">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -37924,20 +37975,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A4D46A7E-E7BF-4AFA-9DA5-81FE456E5913}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B24">
-    <cfRule type="dataBar" priority="50">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A318DCB6-0258-4F26-9AF5-2714DA33EF62}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -37956,41 +37993,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC39">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E748C2E6-B702-448B-8327-A1F889C28117}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92:F92 E94:F95 E90 E57:F88 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55 G39:P39 L2:P2">
-    <cfRule type="dataBar" priority="53">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94C98331-E7B0-4BD3-A08A-B0F9F356EB89}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B29BB2DF-06C3-450E-926E-386C1C8F8D87}">
+          <x14:cfRule type="dataBar" id="{A63C2143-E4DC-4553-9586-2F110D8F7A3D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -37998,7 +38007,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q39:T39</xm:sqref>
+          <xm:sqref>A31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A318DCB6-0258-4F26-9AF5-2714DA33EF62}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{94C98331-E7B0-4BD3-A08A-B0F9F356EB89}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E92:F92 E94:F95 E90 E57:F88 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55 G39:P39 L2:P2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D81C225-54AA-4F8C-AD20-076A21527E15}">
@@ -38012,7 +38043,7 @@
           <xm:sqref>Q2:T2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A63C2143-E4DC-4553-9586-2F110D8F7A3D}">
+          <x14:cfRule type="dataBar" id="{B29BB2DF-06C3-450E-926E-386C1C8F8D87}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -38020,40 +38051,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A4D46A7E-E7BF-4AFA-9DA5-81FE456E5913}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AC2:AD2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A318DCB6-0258-4F26-9AF5-2714DA33EF62}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B5:B24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D900D0A6-A85E-4803-995F-3EC6AE7BEB32}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AD39</xm:sqref>
+          <xm:sqref>Q39:T39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E748C2E6-B702-448B-8327-A1F889C28117}">
@@ -38067,7 +38065,7 @@
           <xm:sqref>AC39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{94C98331-E7B0-4BD3-A08A-B0F9F356EB89}">
+          <x14:cfRule type="dataBar" id="{A4D46A7E-E7BF-4AFA-9DA5-81FE456E5913}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -38075,7 +38073,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E92:F92 E94:F95 E90 E57:F88 G2 I2:J2 E1:F34 E97:F1048576 E36:F51 E53:F55 G39:P39 L2:P2</xm:sqref>
+          <xm:sqref>AC2:AE2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D900D0A6-A85E-4803-995F-3EC6AE7BEB32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AD39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B5A7B-9D01-4503-BD8B-1936D79BAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D614F-2473-4DCE-841C-881FB4550135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15705" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="1595">
   <si>
     <t>LINE</t>
   </si>
@@ -4816,6 +4816,30 @@
   </si>
   <si>
     <t>build_population</t>
+  </si>
+  <si>
+    <t>fa-flask</t>
+  </si>
+  <si>
+    <t>fa-coins</t>
+  </si>
+  <si>
+    <t>fa-wheat-awn</t>
+  </si>
+  <si>
+    <t>fa-person-rifle</t>
+  </si>
+  <si>
+    <t>fa-bolt</t>
+  </si>
+  <si>
+    <t>fa-satellite</t>
+  </si>
+  <si>
+    <t>fa-infinity</t>
+  </si>
+  <si>
+    <t>fa-campground</t>
   </si>
 </sst>
 </file>
@@ -11000,7 +11024,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32023,8 +32047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32052,7 +32077,8 @@
     <col min="27" max="27" width="4.5703125" style="111" customWidth="1"/>
     <col min="28" max="28" width="4.5703125" style="114" customWidth="1"/>
     <col min="29" max="29" width="5.5703125" style="114" customWidth="1"/>
-    <col min="30" max="16384" width="21.140625" style="1"/>
+    <col min="30" max="30" width="38.42578125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
@@ -32170,6 +32196,9 @@
       <c r="AD5" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE5" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -32205,6 +32234,9 @@
       <c r="AD6" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE6" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -32240,6 +32272,9 @@
       <c r="AD7" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE7" s="1" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -32276,6 +32311,9 @@
       <c r="AD8" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE8" s="1" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -32311,6 +32349,9 @@
       <c r="AD9" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE9" s="1" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -32346,6 +32387,9 @@
       <c r="AD10" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE10" s="1" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -32381,6 +32425,9 @@
       <c r="AD11" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE11" s="1" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="142"/>
@@ -32428,6 +32475,9 @@
       <c r="AD15" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE15" s="1" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -32466,6 +32516,9 @@
       <c r="AD16" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE16" s="1" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -32507,6 +32560,9 @@
       <c r="AD17" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE17" s="1" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -32548,6 +32604,9 @@
       <c r="AD18" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE18" s="1" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -32589,6 +32648,9 @@
       <c r="AD19" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE19" s="1" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -32630,6 +32692,9 @@
       <c r="AD20" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE20" s="1" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -32671,6 +32736,9 @@
       <c r="AD21" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="AE21" s="1" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B22" s="142"/>
@@ -32723,6 +32791,9 @@
       <c r="AD25" s="1" t="s">
         <v>1432</v>
       </c>
+      <c r="AE25" s="1" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -32762,6 +32833,9 @@
       <c r="AD26" s="1" t="s">
         <v>1433</v>
       </c>
+      <c r="AE26" s="1" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -32801,6 +32875,9 @@
       <c r="AD27" s="1" t="s">
         <v>1434</v>
       </c>
+      <c r="AE27" s="1" t="s">
+        <v>1588</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -32839,6 +32916,9 @@
       <c r="AD28" s="1" t="s">
         <v>1434</v>
       </c>
+      <c r="AE28" s="1" t="s">
+        <v>1591</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -32877,7 +32957,9 @@
       <c r="AD29" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="AE29" s="60"/>
+      <c r="AE29" s="18" t="s">
+        <v>1587</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -32921,6 +33003,9 @@
       <c r="AD30" s="1" t="s">
         <v>1434</v>
       </c>
+      <c r="AE30" s="1" t="s">
+        <v>1590</v>
+      </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -32959,7 +33044,9 @@
       <c r="AD31" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="AE31" s="60"/>
+      <c r="AE31" s="18" t="s">
+        <v>1592</v>
+      </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -32999,7 +33086,9 @@
       <c r="AD32" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="AE32" s="60"/>
+      <c r="AE32" s="60" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -33044,7 +33133,9 @@
       <c r="AD33" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="AE33" s="60"/>
+      <c r="AE33" s="60" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L34" s="18"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D614F-2473-4DCE-841C-881FB4550135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F77573-62F9-4D0A-B2B3-2D05532129E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15705" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1597">
   <si>
     <t>LINE</t>
   </si>
@@ -4840,6 +4840,12 @@
   </si>
   <si>
     <t>fa-campground</t>
+  </si>
+  <si>
+    <t>{'construction_materials':100}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':10}</t>
   </si>
 </sst>
 </file>
@@ -25640,7 +25646,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="W25" sqref="W25"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32048,8 +32054,8 @@
   <dimension ref="A1:AF315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32187,6 +32193,9 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
       <c r="Q5" s="125" t="s">
         <v>637</v>
       </c>
@@ -32225,6 +32234,9 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
       <c r="Q6" s="125" t="s">
         <v>637</v>
       </c>
@@ -32263,6 +32275,9 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
       <c r="Q7" s="125" t="s">
         <v>637</v>
       </c>
@@ -32301,6 +32316,9 @@
       <c r="J8" s="1">
         <v>2</v>
       </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
       <c r="Q8" s="125" t="s">
         <v>637</v>
       </c>
@@ -32340,6 +32358,9 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
       <c r="Q9" s="125" t="s">
         <v>637</v>
       </c>
@@ -32378,6 +32399,9 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
       <c r="Q10" s="125" t="s">
         <v>637</v>
       </c>
@@ -32416,6 +32440,9 @@
       <c r="J11" s="1">
         <v>5</v>
       </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
       <c r="Q11" s="125" t="s">
         <v>637</v>
       </c>
@@ -32463,6 +32490,9 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
       <c r="Q15" s="125" t="s">
         <v>637</v>
       </c>
@@ -32504,6 +32534,9 @@
       <c r="L16" s="1">
         <v>10000</v>
       </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
       <c r="Q16" s="125" t="s">
         <v>637</v>
       </c>
@@ -32548,6 +32581,9 @@
       <c r="L17" s="1">
         <v>100000</v>
       </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="Q17" s="125" t="s">
         <v>637</v>
       </c>
@@ -32592,6 +32628,9 @@
       <c r="L18" s="1">
         <v>1000000</v>
       </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
       <c r="Q18" s="125" t="s">
         <v>637</v>
       </c>
@@ -32636,6 +32675,9 @@
       <c r="L19" s="1">
         <v>10000000</v>
       </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
       <c r="Q19" s="125" t="s">
         <v>637</v>
       </c>
@@ -32680,6 +32722,9 @@
       <c r="L20" s="1">
         <v>100000000</v>
       </c>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
       <c r="Q20" s="125" t="s">
         <v>637</v>
       </c>
@@ -32724,6 +32769,9 @@
       <c r="L21" s="1">
         <v>200000000</v>
       </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
       <c r="Q21" s="125" t="s">
         <v>637</v>
       </c>
@@ -32781,6 +32829,15 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q25" s="125" t="s">
         <v>637</v>
       </c>
@@ -32820,6 +32877,15 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q26" s="125" t="s">
         <v>637</v>
       </c>
@@ -32862,6 +32928,15 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q27" s="125" t="s">
         <v>637</v>
       </c>
@@ -32904,6 +32979,15 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q28" s="125" t="s">
         <v>637</v>
       </c>
@@ -32945,6 +33029,15 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q29" s="125" t="s">
         <v>637</v>
       </c>
@@ -32987,9 +33080,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="125" t="s">
         <v>637</v>
@@ -33032,6 +33131,15 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q31" s="125" t="s">
         <v>637</v>
       </c>
@@ -33073,6 +33181,15 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="Q32" s="125" t="s">
         <v>637</v>
       </c>
@@ -33116,9 +33233,15 @@
         <v>0</v>
       </c>
       <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>1596</v>
+      </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="125" t="s">
         <v>637</v>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F77573-62F9-4D0A-B2B3-2D05532129E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB58B2A-290D-4F3F-8D55-923290FEB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1604">
   <si>
     <t>LINE</t>
   </si>
@@ -4846,6 +4846,27 @@
   </si>
   <si>
     <t>{'construction_materials':10}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':10, 'transport_spaceshuttle': 1}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':100, 'transport_spaceshuttle': 5}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':10, 'computer_high_tech': 5}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':100, 'computer_high_tech': 40}</t>
+  </si>
+  <si>
+    <t>images/colony/district/robotic.png</t>
+  </si>
+  <si>
+    <t>{'construction_materials':100, 'transport_spaceshuttle': 5, 'tools_industrial_robot':50}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':10, 'tools_industrial_robot': 1}</t>
   </si>
 </sst>
 </file>
@@ -25643,10 +25664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987C45F-0ABA-48C8-AA26-DFE00DC9CC54}">
   <dimension ref="A1:AP136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <selection pane="topRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32053,9 +32074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N15" sqref="N15"/>
+      <selection pane="topRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33135,10 +33156,10 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="Q31" s="125" t="s">
         <v>637</v>
@@ -33176,7 +33197,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -33185,10 +33206,10 @@
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>1595</v>
+        <v>1602</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1596</v>
+        <v>1603</v>
       </c>
       <c r="Q32" s="125" t="s">
         <v>637</v>
@@ -33201,7 +33222,7 @@
         <v>1000</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>1434</v>
+        <v>1601</v>
       </c>
       <c r="AE32" s="60" t="s">
         <v>1593</v>
@@ -33237,10 +33258,10 @@
         <v>3</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="125" t="s">

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB58B2A-290D-4F3F-8D55-923290FEB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB889B49-2FA6-4A91-9F46-9826C30DA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -19664,7 +19664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BD8DD-86FC-4A07-AC68-DC0D3DFAF7A0}">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32074,9 +32076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O32" sqref="O32"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB889B49-2FA6-4A91-9F46-9826C30DA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53753377-8A84-4B5E-BE14-597BFF049DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1606">
   <si>
     <t>LINE</t>
   </si>
@@ -4867,6 +4867,12 @@
   </si>
   <si>
     <t>{'construction_materials':10, 'tools_industrial_robot': 1}</t>
+  </si>
+  <si>
+    <t>images/colony/district/space.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/military.png</t>
   </si>
 </sst>
 </file>
@@ -32076,9 +32082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33123,7 +33129,7 @@
         <v>1000</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>1434</v>
+        <v>1605</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>1590</v>
@@ -33173,7 +33179,7 @@
         <v>1000</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>1434</v>
+        <v>1604</v>
       </c>
       <c r="AE31" s="18" t="s">
         <v>1592</v>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53753377-8A84-4B5E-BE14-597BFF049DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC7BE49-5AE6-49E7-8C3E-C4DB3506DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1608">
   <si>
     <t>LINE</t>
   </si>
@@ -4873,6 +4873,12 @@
   </si>
   <si>
     <t>images/colony/district/military.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/singularist.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/energy.png</t>
   </si>
 </sst>
 </file>
@@ -32084,7 +32090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W29" sqref="W29"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33027,7 +33033,7 @@
         <v>1000</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>1434</v>
+        <v>1607</v>
       </c>
       <c r="AE28" s="1" t="s">
         <v>1591</v>
@@ -33283,7 +33289,7 @@
         <v>1000</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>1434</v>
+        <v>1606</v>
       </c>
       <c r="AE33" s="60" t="s">
         <v>1593</v>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C9D2AF-3BD5-4994-A372-317541E96893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE816AC-66CA-4FE2-92F4-F4EBE3D29DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="17" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -4706,9 +4706,6 @@
     <t>images/colony/building/placeholder_building_1.png</t>
   </si>
   <si>
-    <t>images/colony/building/placeholder_building_2,png</t>
-  </si>
-  <si>
     <t>images/colony/building/placeholder_building_3.png</t>
   </si>
   <si>
@@ -4812,6 +4809,9 @@
   </si>
   <si>
     <t>images/colony/district/energy.png</t>
+  </si>
+  <si>
+    <t>images/colony/building/placeholder_building_2.png</t>
   </si>
 </sst>
 </file>
@@ -5497,7 +5497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5839,6 +5839,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17630,7 +17637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF702CCC-AF75-4717-ACFB-3CC6C4991068}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31430,9 +31437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD34" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31460,7 +31467,7 @@
     <col min="27" max="27" width="4.5703125" style="111" customWidth="1"/>
     <col min="28" max="28" width="4.5703125" style="114" customWidth="1"/>
     <col min="29" max="29" width="5.5703125" style="114" customWidth="1"/>
-    <col min="30" max="30" width="38.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="38.42578125" style="175" customWidth="1"/>
     <col min="31" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
@@ -31498,16 +31505,16 @@
         <v>1390</v>
       </c>
       <c r="L2" s="130" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="M2" s="130" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N2" s="130" t="s">
         <v>1561</v>
       </c>
-      <c r="N2" s="130" t="s">
+      <c r="O2" s="130" t="s">
         <v>1562</v>
-      </c>
-      <c r="O2" s="130" t="s">
-        <v>1563</v>
       </c>
       <c r="P2" s="130"/>
       <c r="Q2" s="131" t="s">
@@ -31527,9 +31534,9 @@
       <c r="AA2" s="140"/>
       <c r="AB2" s="141"/>
       <c r="AC2" s="130" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AD2" s="130" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AD2" s="176" t="s">
         <v>1392</v>
       </c>
       <c r="AE2" s="130" t="s">
@@ -31579,11 +31586,11 @@
       <c r="AC5" s="46">
         <v>250</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -31620,11 +31627,11 @@
       <c r="AC6" s="46">
         <v>300</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -31661,7 +31668,7 @@
       <c r="AC7" s="46">
         <v>500</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -31703,7 +31710,7 @@
       <c r="AC8" s="46">
         <v>750</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -31744,7 +31751,7 @@
       <c r="AC9" s="46">
         <v>1000</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AD9" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -31785,7 +31792,7 @@
       <c r="AC10" s="46">
         <v>1250</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AD10" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -31826,7 +31833,7 @@
       <c r="AC11" s="46">
         <v>1500</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AD11" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -31879,7 +31886,7 @@
       <c r="AC15" s="46">
         <v>10</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE15" s="1" t="s">
@@ -31923,7 +31930,7 @@
       <c r="AC16" s="46">
         <v>250</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AD16" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE16" s="1" t="s">
@@ -31970,7 +31977,7 @@
       <c r="AC17" s="46">
         <v>750</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AD17" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE17" s="1" t="s">
@@ -32017,7 +32024,7 @@
       <c r="AC18" s="46">
         <v>1000</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AD18" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE18" s="1" t="s">
@@ -32064,7 +32071,7 @@
       <c r="AC19" s="46">
         <v>1500</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AD19" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE19" s="1" t="s">
@@ -32111,7 +32118,7 @@
       <c r="AC20" s="46">
         <v>2000</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AD20" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE20" s="1" t="s">
@@ -32158,7 +32165,7 @@
       <c r="AC21" s="46">
         <v>2500</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AD21" s="175" t="s">
         <v>1409</v>
       </c>
       <c r="AE21" s="1" t="s">
@@ -32210,10 +32217,10 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q25" s="125" t="s">
         <v>615</v>
@@ -32222,11 +32229,11 @@
       <c r="AC25" s="46">
         <v>1000</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AD25" s="175" t="s">
         <v>1410</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -32258,10 +32265,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q26" s="125" t="s">
         <v>615</v>
@@ -32273,7 +32280,7 @@
       <c r="AC26" s="46">
         <v>1000</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AD26" s="175" t="s">
         <v>1411</v>
       </c>
       <c r="AE26" s="1" t="s">
@@ -32309,10 +32316,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q27" s="125" t="s">
         <v>615</v>
@@ -32324,11 +32331,11 @@
       <c r="AC27" s="46">
         <v>1000</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AD27" s="175" t="s">
         <v>1412</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -32360,10 +32367,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q28" s="125" t="s">
         <v>615</v>
@@ -32374,11 +32381,11 @@
       <c r="AC28" s="46">
         <v>1000</v>
       </c>
-      <c r="AD28" s="1" t="s">
-        <v>1585</v>
+      <c r="AD28" s="175" t="s">
+        <v>1584</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -32410,10 +32417,10 @@
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q29" s="125" t="s">
         <v>615</v>
@@ -32424,11 +32431,11 @@
       <c r="AC29" s="46">
         <v>1000</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AD29" s="175" t="s">
         <v>1413</v>
       </c>
       <c r="AE29" s="18" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -32461,10 +32468,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="125" t="s">
@@ -32476,11 +32483,11 @@
       <c r="AC30" s="46">
         <v>1000</v>
       </c>
-      <c r="AD30" s="1" t="s">
-        <v>1583</v>
+      <c r="AD30" s="175" t="s">
+        <v>1582</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -32512,10 +32519,10 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="Q31" s="125" t="s">
         <v>615</v>
@@ -32526,11 +32533,11 @@
       <c r="AC31" s="46">
         <v>1000</v>
       </c>
-      <c r="AD31" s="1" t="s">
-        <v>1582</v>
+      <c r="AD31" s="175" t="s">
+        <v>1581</v>
       </c>
       <c r="AE31" s="18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -32562,10 +32569,10 @@
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>1580</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>1581</v>
       </c>
       <c r="Q32" s="125" t="s">
         <v>615</v>
@@ -32577,11 +32584,11 @@
       <c r="AC32" s="46">
         <v>1000</v>
       </c>
-      <c r="AD32" s="1" t="s">
-        <v>1579</v>
+      <c r="AD32" s="175" t="s">
+        <v>1578</v>
       </c>
       <c r="AE32" s="60" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -32614,10 +32621,10 @@
         <v>3</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="125" t="s">
@@ -32630,11 +32637,11 @@
       <c r="AC33" s="46">
         <v>1000</v>
       </c>
-      <c r="AD33" s="1" t="s">
-        <v>1584</v>
+      <c r="AD33" s="175" t="s">
+        <v>1583</v>
       </c>
       <c r="AE33" s="60" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -32664,10 +32671,11 @@
       <c r="AA36" s="160"/>
       <c r="AB36" s="161"/>
       <c r="AC36" s="161"/>
+      <c r="AD36" s="177"/>
     </row>
     <row r="38" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A38" s="55" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="201" x14ac:dyDescent="0.45">
@@ -32696,10 +32704,10 @@
         <v>1342</v>
       </c>
       <c r="I39" s="130" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J39" s="130" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="K39" s="130" t="s">
         <v>1348</v>
@@ -32708,13 +32716,13 @@
         <v>1349</v>
       </c>
       <c r="M39" s="130" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N39" s="130" t="s">
         <v>1561</v>
       </c>
-      <c r="N39" s="130" t="s">
+      <c r="O39" s="130" t="s">
         <v>1562</v>
-      </c>
-      <c r="O39" s="130" t="s">
-        <v>1563</v>
       </c>
       <c r="P39" s="130"/>
       <c r="Q39" s="131" t="s">
@@ -32752,9 +32760,9 @@
         <v>1339</v>
       </c>
       <c r="AC39" s="130" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AD39" s="130" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AD39" s="176" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -32789,7 +32797,7 @@
       <c r="U41" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD41" s="1" t="s">
+      <c r="AD41" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -32824,8 +32832,8 @@
       <c r="U42" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD42" s="1" t="s">
-        <v>1550</v>
+      <c r="AD42" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -32859,8 +32867,8 @@
       <c r="U43" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD43" s="1" t="s">
-        <v>1551</v>
+      <c r="AD43" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -32898,8 +32906,8 @@
         <v>615</v>
       </c>
       <c r="AA44" s="113"/>
-      <c r="AD44" s="1" t="s">
-        <v>1552</v>
+      <c r="AD44" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -32942,7 +32950,7 @@
       <c r="AA45" s="111" t="s">
         <v>615</v>
       </c>
-      <c r="AD45" s="1" t="s">
+      <c r="AD45" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -32977,8 +32985,8 @@
       <c r="U47" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD47" s="1" t="s">
-        <v>1551</v>
+      <c r="AD47" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -33013,8 +33021,8 @@
         <v>615</v>
       </c>
       <c r="AA48" s="113"/>
-      <c r="AD48" s="1" t="s">
-        <v>1552</v>
+      <c r="AD48" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -33049,7 +33057,7 @@
         <v>615</v>
       </c>
       <c r="AA49" s="113"/>
-      <c r="AD49" s="1" t="s">
+      <c r="AD49" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33085,8 +33093,8 @@
         <v>615</v>
       </c>
       <c r="AA50" s="113"/>
-      <c r="AD50" s="1" t="s">
-        <v>1550</v>
+      <c r="AD50" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -33138,14 +33146,14 @@
       <c r="Z51" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AA51" s="111" t="s">
+      <c r="AA51" s="179" t="s">
         <v>615</v>
       </c>
       <c r="AB51" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD51" s="1" t="s">
-        <v>1551</v>
+      <c r="AD51" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -33197,7 +33205,7 @@
         <v>615</v>
       </c>
       <c r="AA53" s="113"/>
-      <c r="AD53" s="1" t="s">
+      <c r="AD53" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33253,8 +33261,8 @@
       <c r="AB54" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD54" s="1" t="s">
-        <v>1550</v>
+      <c r="AD54" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -33309,8 +33317,8 @@
       <c r="AB55" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD55" s="1" t="s">
-        <v>1551</v>
+      <c r="AD55" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
@@ -33379,7 +33387,7 @@
       <c r="AB57" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD57" s="1" t="s">
+      <c r="AD57" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33461,8 +33469,8 @@
       <c r="AB60" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD60" s="1" t="s">
-        <v>1552</v>
+      <c r="AD60" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
@@ -33527,7 +33535,7 @@
       <c r="AB61" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD61" s="1" t="s">
+      <c r="AD61" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33593,8 +33601,8 @@
       <c r="AB62" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD62" s="1" t="s">
-        <v>1550</v>
+      <c r="AD62" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
@@ -33659,8 +33667,8 @@
       <c r="AB63" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD63" s="1" t="s">
-        <v>1551</v>
+      <c r="AD63" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
@@ -33725,8 +33733,8 @@
       <c r="AB64" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD64" s="1" t="s">
-        <v>1552</v>
+      <c r="AD64" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -33791,7 +33799,7 @@
       <c r="AB65" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD65" s="1" t="s">
+      <c r="AD65" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33836,8 +33844,8 @@
       <c r="AA66" s="111" t="s">
         <v>615</v>
       </c>
-      <c r="AD66" s="1" t="s">
-        <v>1550</v>
+      <c r="AD66" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -33901,7 +33909,7 @@
       <c r="AB69" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD69" s="1" t="s">
+      <c r="AD69" s="175" t="s">
         <v>1549</v>
       </c>
       <c r="AE69" s="60"/>
@@ -33961,8 +33969,8 @@
       <c r="AB70" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD70" s="1" t="s">
-        <v>1550</v>
+      <c r="AD70" s="175" t="s">
+        <v>1585</v>
       </c>
       <c r="AE70" s="60"/>
     </row>
@@ -34024,8 +34032,8 @@
       <c r="AB71" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD71" s="1" t="s">
-        <v>1551</v>
+      <c r="AD71" s="175" t="s">
+        <v>1550</v>
       </c>
       <c r="AE71" s="60"/>
     </row>
@@ -34088,8 +34096,8 @@
       <c r="AB72" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD72" s="1" t="s">
-        <v>1552</v>
+      <c r="AD72" s="175" t="s">
+        <v>1551</v>
       </c>
       <c r="AE72" s="60"/>
     </row>
@@ -34123,14 +34131,14 @@
       <c r="Q74" s="129"/>
       <c r="R74" s="124"/>
       <c r="S74" s="124"/>
-      <c r="AD74" s="1" t="s">
-        <v>1550</v>
+      <c r="AD74" s="175" t="s">
+        <v>1585</v>
       </c>
       <c r="AE74" s="60"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1343</v>
@@ -34171,14 +34179,14 @@
       <c r="Z75" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD75" s="1" t="s">
-        <v>1551</v>
+      <c r="AD75" s="175" t="s">
+        <v>1550</v>
       </c>
       <c r="AE75" s="60"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1343</v>
@@ -34219,14 +34227,14 @@
       <c r="Z76" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD76" s="1" t="s">
-        <v>1552</v>
+      <c r="AD76" s="175" t="s">
+        <v>1551</v>
       </c>
       <c r="AE76" s="60"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1343</v>
@@ -34267,14 +34275,14 @@
       <c r="Z77" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD77" s="1" t="s">
+      <c r="AD77" s="175" t="s">
         <v>1549</v>
       </c>
       <c r="AE77" s="60"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1343</v>
@@ -34315,8 +34323,8 @@
       <c r="Z78" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD78" s="1" t="s">
-        <v>1550</v>
+      <c r="AD78" s="175" t="s">
+        <v>1585</v>
       </c>
       <c r="AE78" s="60"/>
     </row>
@@ -34377,7 +34385,7 @@
       <c r="Q81" s="129"/>
       <c r="R81" s="124"/>
       <c r="S81" s="124"/>
-      <c r="AD81" s="1" t="s">
+      <c r="AD81" s="175" t="s">
         <v>1549</v>
       </c>
       <c r="AE81" s="60"/>
@@ -34407,8 +34415,8 @@
       <c r="Q82" s="129"/>
       <c r="R82" s="124"/>
       <c r="S82" s="124"/>
-      <c r="AD82" s="1" t="s">
-        <v>1550</v>
+      <c r="AD82" s="175" t="s">
+        <v>1585</v>
       </c>
       <c r="AE82" s="60"/>
     </row>
@@ -34434,8 +34442,8 @@
       <c r="Q83" s="129"/>
       <c r="R83" s="124"/>
       <c r="S83" s="124"/>
-      <c r="AD83" s="1" t="s">
-        <v>1551</v>
+      <c r="AD83" s="175" t="s">
+        <v>1550</v>
       </c>
       <c r="AE83" s="60"/>
     </row>
@@ -34455,8 +34463,8 @@
       <c r="Q84" s="129"/>
       <c r="R84" s="124"/>
       <c r="S84" s="124"/>
-      <c r="AD84" s="1" t="s">
-        <v>1552</v>
+      <c r="AD84" s="175" t="s">
+        <v>1551</v>
       </c>
       <c r="AE84" s="60"/>
     </row>
@@ -34476,7 +34484,7 @@
       <c r="Q85" s="129"/>
       <c r="R85" s="124"/>
       <c r="S85" s="124"/>
-      <c r="AD85" s="1" t="s">
+      <c r="AD85" s="175" t="s">
         <v>1549</v>
       </c>
       <c r="AE85" s="60"/>
@@ -34497,8 +34505,8 @@
       <c r="Q86" s="129"/>
       <c r="R86" s="124"/>
       <c r="S86" s="124"/>
-      <c r="AD86" s="1" t="s">
-        <v>1550</v>
+      <c r="AD86" s="175" t="s">
+        <v>1585</v>
       </c>
       <c r="AE86" s="60"/>
     </row>
@@ -34518,8 +34526,8 @@
       <c r="Q87" s="129"/>
       <c r="R87" s="124"/>
       <c r="S87" s="124"/>
-      <c r="AD87" s="1" t="s">
-        <v>1551</v>
+      <c r="AD87" s="175" t="s">
+        <v>1550</v>
       </c>
       <c r="AE87" s="60"/>
     </row>
@@ -34652,8 +34660,8 @@
       <c r="R98" s="124"/>
       <c r="S98" s="124"/>
       <c r="AA98" s="113"/>
-      <c r="AD98" s="1" t="s">
-        <v>1550</v>
+      <c r="AD98" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -34682,8 +34690,8 @@
       <c r="R99" s="124"/>
       <c r="S99" s="124"/>
       <c r="AA99" s="113"/>
-      <c r="AD99" s="1" t="s">
-        <v>1551</v>
+      <c r="AD99" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -34712,8 +34720,8 @@
       <c r="R100" s="124"/>
       <c r="S100" s="124"/>
       <c r="AA100" s="113"/>
-      <c r="AD100" s="1" t="s">
-        <v>1552</v>
+      <c r="AD100" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -34742,7 +34750,7 @@
       <c r="R101" s="124"/>
       <c r="S101" s="124"/>
       <c r="AA101" s="113"/>
-      <c r="AD101" s="1" t="s">
+      <c r="AD101" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -34759,8 +34767,8 @@
       <c r="G104" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="AD104" s="1" t="s">
-        <v>1552</v>
+      <c r="AD104" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -34776,8 +34784,8 @@
       <c r="G106" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="AD106" s="1" t="s">
-        <v>1550</v>
+      <c r="AD106" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
@@ -34805,8 +34813,8 @@
       <c r="Q108" s="129"/>
       <c r="R108" s="124"/>
       <c r="S108" s="124"/>
-      <c r="AD108" s="1" t="s">
-        <v>1552</v>
+      <c r="AD108" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
@@ -34823,8 +34831,8 @@
         <v>1022</v>
       </c>
       <c r="AA110" s="113"/>
-      <c r="AD110" s="1" t="s">
-        <v>1550</v>
+      <c r="AD110" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
@@ -34841,8 +34849,8 @@
         <v>1022</v>
       </c>
       <c r="AA111" s="113"/>
-      <c r="AD111" s="1" t="s">
-        <v>1551</v>
+      <c r="AD111" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
@@ -34858,8 +34866,8 @@
       <c r="G112" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="AD112" s="1" t="s">
-        <v>1552</v>
+      <c r="AD112" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.25">
@@ -34890,8 +34898,8 @@
       <c r="Q114" s="129"/>
       <c r="R114" s="124"/>
       <c r="S114" s="124"/>
-      <c r="AD114" s="1" t="s">
-        <v>1550</v>
+      <c r="AD114" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
@@ -34920,8 +34928,8 @@
       <c r="R115" s="124"/>
       <c r="S115" s="124"/>
       <c r="AA115" s="113"/>
-      <c r="AD115" s="1" t="s">
-        <v>1551</v>
+      <c r="AD115" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
@@ -34953,7 +34961,7 @@
       <c r="R117" s="124"/>
       <c r="S117" s="124"/>
       <c r="AA117" s="113"/>
-      <c r="AD117" s="1" t="s">
+      <c r="AD117" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -34983,8 +34991,8 @@
       <c r="R118" s="124"/>
       <c r="S118" s="124"/>
       <c r="AA118" s="113"/>
-      <c r="AD118" s="1" t="s">
-        <v>1550</v>
+      <c r="AD118" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
@@ -35013,8 +35021,8 @@
       <c r="R119" s="124"/>
       <c r="S119" s="124"/>
       <c r="AA119" s="113"/>
-      <c r="AD119" s="1" t="s">
-        <v>1551</v>
+      <c r="AD119" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
@@ -35045,7 +35053,7 @@
       <c r="Q121" s="129"/>
       <c r="R121" s="124"/>
       <c r="S121" s="124"/>
-      <c r="AD121" s="1" t="s">
+      <c r="AD121" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35075,8 +35083,8 @@
       <c r="R122" s="124"/>
       <c r="S122" s="124"/>
       <c r="AA122" s="113"/>
-      <c r="AD122" s="1" t="s">
-        <v>1550</v>
+      <c r="AD122" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
@@ -35104,8 +35112,8 @@
       <c r="Q123" s="129"/>
       <c r="R123" s="124"/>
       <c r="S123" s="124"/>
-      <c r="AD123" s="1" t="s">
-        <v>1551</v>
+      <c r="AD123" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
@@ -35133,7 +35141,7 @@
       <c r="Q125" s="129"/>
       <c r="R125" s="124"/>
       <c r="S125" s="124"/>
-      <c r="AD125" s="1" t="s">
+      <c r="AD125" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35162,8 +35170,8 @@
       <c r="Q126" s="129"/>
       <c r="R126" s="124"/>
       <c r="S126" s="124"/>
-      <c r="AD126" s="1" t="s">
-        <v>1550</v>
+      <c r="AD126" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
@@ -35191,8 +35199,8 @@
       <c r="Q128" s="129"/>
       <c r="R128" s="124"/>
       <c r="S128" s="124"/>
-      <c r="AD128" s="1" t="s">
-        <v>1552</v>
+      <c r="AD128" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
@@ -35235,8 +35243,8 @@
       <c r="Q130" s="129"/>
       <c r="R130" s="124"/>
       <c r="S130" s="124"/>
-      <c r="AD130" s="1" t="s">
-        <v>1550</v>
+      <c r="AD130" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
@@ -35264,8 +35272,8 @@
       <c r="Q131" s="129"/>
       <c r="R131" s="124"/>
       <c r="S131" s="124"/>
-      <c r="AD131" s="1" t="s">
-        <v>1551</v>
+      <c r="AD131" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
@@ -35308,7 +35316,7 @@
       <c r="Q133" s="129"/>
       <c r="R133" s="124"/>
       <c r="S133" s="124"/>
-      <c r="AD133" s="1" t="s">
+      <c r="AD133" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35325,8 +35333,8 @@
       <c r="G134" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="AD134" s="1" t="s">
-        <v>1550</v>
+      <c r="AD134" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
@@ -35359,8 +35367,8 @@
       <c r="Q136" s="129"/>
       <c r="R136" s="113"/>
       <c r="S136" s="124"/>
-      <c r="AD136" s="1" t="s">
-        <v>1552</v>
+      <c r="AD136" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
@@ -35377,7 +35385,7 @@
         <v>1241</v>
       </c>
       <c r="R137" s="111"/>
-      <c r="AD137" s="1" t="s">
+      <c r="AD137" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35414,8 +35422,8 @@
       <c r="Q140" s="129"/>
       <c r="R140" s="113"/>
       <c r="S140" s="124"/>
-      <c r="AD140" s="1" t="s">
-        <v>1552</v>
+      <c r="AD140" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
@@ -35445,7 +35453,7 @@
         <v>726</v>
       </c>
       <c r="S141" s="124"/>
-      <c r="AD141" s="1" t="s">
+      <c r="AD141" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35463,8 +35471,8 @@
         <v>1243</v>
       </c>
       <c r="R142" s="113"/>
-      <c r="AD142" s="1" t="s">
-        <v>1550</v>
+      <c r="AD142" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
@@ -35497,8 +35505,8 @@
       <c r="Q144" s="129"/>
       <c r="R144" s="113"/>
       <c r="S144" s="124"/>
-      <c r="AD144" s="1" t="s">
-        <v>1552</v>
+      <c r="AD144" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
@@ -35517,7 +35525,7 @@
       <c r="R145" s="113" t="s">
         <v>1001</v>
       </c>
-      <c r="AD145" s="1" t="s">
+      <c r="AD145" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35549,8 +35557,8 @@
       <c r="O147" s="27"/>
       <c r="P147" s="27"/>
       <c r="R147" s="113"/>
-      <c r="AD147" s="1" t="s">
-        <v>1551</v>
+      <c r="AD147" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
@@ -35576,8 +35584,8 @@
       <c r="O148" s="27"/>
       <c r="P148" s="27"/>
       <c r="R148" s="111"/>
-      <c r="AD148" s="1" t="s">
-        <v>1552</v>
+      <c r="AD148" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
@@ -35605,7 +35613,7 @@
       <c r="R149" s="113" t="s">
         <v>738</v>
       </c>
-      <c r="AD149" s="1" t="s">
+      <c r="AD149" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35627,8 +35635,8 @@
         <v>591</v>
       </c>
       <c r="AA151" s="113"/>
-      <c r="AD151" s="1" t="s">
-        <v>1551</v>
+      <c r="AD151" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
@@ -35660,7 +35668,7 @@
       <c r="R153" s="124"/>
       <c r="S153" s="124"/>
       <c r="AA153" s="113"/>
-      <c r="AD153" s="1" t="s">
+      <c r="AD153" s="175" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35689,8 +35697,8 @@
       <c r="Q154" s="129"/>
       <c r="R154" s="124"/>
       <c r="S154" s="124"/>
-      <c r="AD154" s="1" t="s">
-        <v>1550</v>
+      <c r="AD154" s="175" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
@@ -35718,8 +35726,8 @@
       <c r="Q155" s="129"/>
       <c r="R155" s="124"/>
       <c r="S155" s="124"/>
-      <c r="AD155" s="1" t="s">
-        <v>1551</v>
+      <c r="AD155" s="175" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
@@ -35747,8 +35755,8 @@
       <c r="Q156" s="129"/>
       <c r="R156" s="124"/>
       <c r="S156" s="124"/>
-      <c r="AD156" s="1" t="s">
-        <v>1552</v>
+      <c r="AD156" s="175" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
@@ -35788,6 +35796,7 @@
       <c r="AA166" s="112"/>
       <c r="AB166" s="115"/>
       <c r="AC166" s="115"/>
+      <c r="AD166" s="178"/>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AA169" s="113"/>
@@ -35861,7 +35870,7 @@
       <c r="Q173" s="126"/>
       <c r="R173" s="121"/>
       <c r="S173" s="121"/>
-      <c r="AD173" s="1" t="s">
+      <c r="AD173" s="175" t="s">
         <v>34</v>
       </c>
       <c r="AE173" s="1" t="s">
@@ -35895,7 +35904,7 @@
       <c r="AB174" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AD174" s="1" t="s">
+      <c r="AD174" s="175" t="s">
         <v>36</v>
       </c>
       <c r="AE174" s="1" t="s">
@@ -35933,7 +35942,7 @@
       <c r="X175" s="100"/>
       <c r="Y175" s="108"/>
       <c r="Z175" s="117"/>
-      <c r="AD175" s="1" t="s">
+      <c r="AD175" s="175" t="s">
         <v>41</v>
       </c>
       <c r="AE175" s="1" t="s">
@@ -35968,7 +35977,7 @@
       <c r="X176" s="100"/>
       <c r="Y176" s="108"/>
       <c r="Z176" s="117"/>
-      <c r="AD176" s="1" t="s">
+      <c r="AD176" s="175" t="s">
         <v>37</v>
       </c>
     </row>

--- a/TSS.xlsx
+++ b/TSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE816AC-66CA-4FE2-92F4-F4EBE3D29DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36FDE2B-30C3-456A-975B-97ED96196147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="15" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1614">
   <si>
     <t>LINE</t>
   </si>
@@ -4812,6 +4812,90 @@
   </si>
   <si>
     <t>images/colony/building/placeholder_building_2.png</t>
+  </si>
+  <si>
+    <t>DILEMMES D'EPOQUES</t>
+  </si>
+  <si>
+    <t>COMPETITIONS DE VALEURS</t>
+  </si>
+  <si>
+    <t>&gt; Transhumanisme robotique</t>
+  </si>
+  <si>
+    <t>&gt; Impérialisme spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Anthropréservationnisme </t>
+  </si>
+  <si>
+    <t>&gt; Planètes-états</t>
+  </si>
+  <si>
+    <t>&gt; Transhumanisme biologique</t>
+  </si>
+  <si>
+    <t>&gt; Pan-sectorialisme ?</t>
+  </si>
+  <si>
+    <t>&gt; Libre échange sectoriel</t>
+  </si>
+  <si>
+    <t>&gt; Fanatisme religieux</t>
+  </si>
+  <si>
+    <t>&gt; Autosuffisance économique</t>
+  </si>
+  <si>
+    <t>&gt; Tolérance religieuse</t>
+  </si>
+  <si>
+    <t>&gt; Piraterie spatiale</t>
+  </si>
+  <si>
+    <t>&gt; Rationalisme</t>
+  </si>
+  <si>
+    <t>&gt; Centralisme gouvernemental</t>
+  </si>
+  <si>
+    <t>&gt; Fédéralisme libre</t>
+  </si>
+  <si>
+    <t>&gt; Anarchie sectorielle</t>
+  </si>
+  <si>
+    <t>&gt; Suprématie synthétique</t>
+  </si>
+  <si>
+    <t>&gt; Co-gouvernance synthétique</t>
+  </si>
+  <si>
+    <t>&gt; Primauté humaine</t>
+  </si>
+  <si>
+    <t>&gt; Suprématie humaine</t>
+  </si>
+  <si>
+    <t>&gt; Coexistence</t>
+  </si>
+  <si>
+    <t>&gt; Nous sommes aliens</t>
+  </si>
+  <si>
+    <t>&gt; Exploitaton illimitée</t>
+  </si>
+  <si>
+    <t>&gt; Preservationnisme planétaire</t>
+  </si>
+  <si>
+    <t>&gt; Terraformationnisme</t>
+  </si>
+  <si>
+    <t>&gt; Utilitarisme</t>
+  </si>
+  <si>
+    <t>&gt; Individualisme</t>
   </si>
 </sst>
 </file>
@@ -5497,7 +5581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5839,13 +5923,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16910,9 +16989,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802CCB9-6BC1-466B-9FA9-DB5D5BC9B97C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16986,10 +17067,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>315</v>
       </c>
@@ -17003,17 +17084,24 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="175"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>487</v>
       </c>
@@ -17024,14 +17112,147 @@
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="175"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
@@ -31437,7 +31658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD34" sqref="AD1:AD1048576"/>
     </sheetView>
@@ -31467,7 +31688,7 @@
     <col min="27" max="27" width="4.5703125" style="111" customWidth="1"/>
     <col min="28" max="28" width="4.5703125" style="114" customWidth="1"/>
     <col min="29" max="29" width="5.5703125" style="114" customWidth="1"/>
-    <col min="30" max="30" width="38.42578125" style="175" customWidth="1"/>
+    <col min="30" max="30" width="38.42578125" style="1" customWidth="1"/>
     <col min="31" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
@@ -31536,7 +31757,7 @@
       <c r="AC2" s="130" t="s">
         <v>1559</v>
       </c>
-      <c r="AD2" s="176" t="s">
+      <c r="AD2" s="130" t="s">
         <v>1392</v>
       </c>
       <c r="AE2" s="130" t="s">
@@ -31586,7 +31807,7 @@
       <c r="AC5" s="46">
         <v>250</v>
       </c>
-      <c r="AD5" s="175" t="s">
+      <c r="AD5" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE5" s="1" t="s">
@@ -31627,7 +31848,7 @@
       <c r="AC6" s="46">
         <v>300</v>
       </c>
-      <c r="AD6" s="175" t="s">
+      <c r="AD6" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE6" s="1" t="s">
@@ -31668,7 +31889,7 @@
       <c r="AC7" s="46">
         <v>500</v>
       </c>
-      <c r="AD7" s="175" t="s">
+      <c r="AD7" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -31710,7 +31931,7 @@
       <c r="AC8" s="46">
         <v>750</v>
       </c>
-      <c r="AD8" s="175" t="s">
+      <c r="AD8" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -31751,7 +31972,7 @@
       <c r="AC9" s="46">
         <v>1000</v>
       </c>
-      <c r="AD9" s="175" t="s">
+      <c r="AD9" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -31792,7 +32013,7 @@
       <c r="AC10" s="46">
         <v>1250</v>
       </c>
-      <c r="AD10" s="175" t="s">
+      <c r="AD10" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -31833,7 +32054,7 @@
       <c r="AC11" s="46">
         <v>1500</v>
       </c>
-      <c r="AD11" s="175" t="s">
+      <c r="AD11" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -31886,7 +32107,7 @@
       <c r="AC15" s="46">
         <v>10</v>
       </c>
-      <c r="AD15" s="175" t="s">
+      <c r="AD15" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE15" s="1" t="s">
@@ -31930,7 +32151,7 @@
       <c r="AC16" s="46">
         <v>250</v>
       </c>
-      <c r="AD16" s="175" t="s">
+      <c r="AD16" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE16" s="1" t="s">
@@ -31977,7 +32198,7 @@
       <c r="AC17" s="46">
         <v>750</v>
       </c>
-      <c r="AD17" s="175" t="s">
+      <c r="AD17" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE17" s="1" t="s">
@@ -32024,7 +32245,7 @@
       <c r="AC18" s="46">
         <v>1000</v>
       </c>
-      <c r="AD18" s="175" t="s">
+      <c r="AD18" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE18" s="1" t="s">
@@ -32071,7 +32292,7 @@
       <c r="AC19" s="46">
         <v>1500</v>
       </c>
-      <c r="AD19" s="175" t="s">
+      <c r="AD19" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE19" s="1" t="s">
@@ -32118,7 +32339,7 @@
       <c r="AC20" s="46">
         <v>2000</v>
       </c>
-      <c r="AD20" s="175" t="s">
+      <c r="AD20" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE20" s="1" t="s">
@@ -32165,7 +32386,7 @@
       <c r="AC21" s="46">
         <v>2500</v>
       </c>
-      <c r="AD21" s="175" t="s">
+      <c r="AD21" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="AE21" s="1" t="s">
@@ -32229,7 +32450,7 @@
       <c r="AC25" s="46">
         <v>1000</v>
       </c>
-      <c r="AD25" s="175" t="s">
+      <c r="AD25" s="1" t="s">
         <v>1410</v>
       </c>
       <c r="AE25" s="1" t="s">
@@ -32280,7 +32501,7 @@
       <c r="AC26" s="46">
         <v>1000</v>
       </c>
-      <c r="AD26" s="175" t="s">
+      <c r="AD26" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="AE26" s="1" t="s">
@@ -32331,7 +32552,7 @@
       <c r="AC27" s="46">
         <v>1000</v>
       </c>
-      <c r="AD27" s="175" t="s">
+      <c r="AD27" s="1" t="s">
         <v>1412</v>
       </c>
       <c r="AE27" s="1" t="s">
@@ -32381,7 +32602,7 @@
       <c r="AC28" s="46">
         <v>1000</v>
       </c>
-      <c r="AD28" s="175" t="s">
+      <c r="AD28" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="AE28" s="1" t="s">
@@ -32431,7 +32652,7 @@
       <c r="AC29" s="46">
         <v>1000</v>
       </c>
-      <c r="AD29" s="175" t="s">
+      <c r="AD29" s="1" t="s">
         <v>1413</v>
       </c>
       <c r="AE29" s="18" t="s">
@@ -32483,7 +32704,7 @@
       <c r="AC30" s="46">
         <v>1000</v>
       </c>
-      <c r="AD30" s="175" t="s">
+      <c r="AD30" s="1" t="s">
         <v>1582</v>
       </c>
       <c r="AE30" s="1" t="s">
@@ -32533,7 +32754,7 @@
       <c r="AC31" s="46">
         <v>1000</v>
       </c>
-      <c r="AD31" s="175" t="s">
+      <c r="AD31" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="AE31" s="18" t="s">
@@ -32584,7 +32805,7 @@
       <c r="AC32" s="46">
         <v>1000</v>
       </c>
-      <c r="AD32" s="175" t="s">
+      <c r="AD32" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="AE32" s="60" t="s">
@@ -32637,7 +32858,7 @@
       <c r="AC33" s="46">
         <v>1000</v>
       </c>
-      <c r="AD33" s="175" t="s">
+      <c r="AD33" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="AE33" s="60" t="s">
@@ -32671,7 +32892,6 @@
       <c r="AA36" s="160"/>
       <c r="AB36" s="161"/>
       <c r="AC36" s="161"/>
-      <c r="AD36" s="177"/>
     </row>
     <row r="38" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A38" s="55" t="s">
@@ -32762,7 +32982,7 @@
       <c r="AC39" s="130" t="s">
         <v>1559</v>
       </c>
-      <c r="AD39" s="176" t="s">
+      <c r="AD39" s="130" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -32797,7 +33017,7 @@
       <c r="U41" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD41" s="175" t="s">
+      <c r="AD41" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -32832,7 +33052,7 @@
       <c r="U42" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD42" s="175" t="s">
+      <c r="AD42" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -32867,7 +33087,7 @@
       <c r="U43" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD43" s="175" t="s">
+      <c r="AD43" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -32906,7 +33126,7 @@
         <v>615</v>
       </c>
       <c r="AA44" s="113"/>
-      <c r="AD44" s="175" t="s">
+      <c r="AD44" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -32950,7 +33170,7 @@
       <c r="AA45" s="111" t="s">
         <v>615</v>
       </c>
-      <c r="AD45" s="175" t="s">
+      <c r="AD45" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -32985,7 +33205,7 @@
       <c r="U47" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AD47" s="175" t="s">
+      <c r="AD47" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -33021,7 +33241,7 @@
         <v>615</v>
       </c>
       <c r="AA48" s="113"/>
-      <c r="AD48" s="175" t="s">
+      <c r="AD48" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -33057,7 +33277,7 @@
         <v>615</v>
       </c>
       <c r="AA49" s="113"/>
-      <c r="AD49" s="175" t="s">
+      <c r="AD49" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33093,7 +33313,7 @@
         <v>615</v>
       </c>
       <c r="AA50" s="113"/>
-      <c r="AD50" s="175" t="s">
+      <c r="AD50" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -33146,13 +33366,13 @@
       <c r="Z51" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AA51" s="179" t="s">
+      <c r="AA51" s="111" t="s">
         <v>615</v>
       </c>
       <c r="AB51" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD51" s="175" t="s">
+      <c r="AD51" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -33205,7 +33425,7 @@
         <v>615</v>
       </c>
       <c r="AA53" s="113"/>
-      <c r="AD53" s="175" t="s">
+      <c r="AD53" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33261,7 +33481,7 @@
       <c r="AB54" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD54" s="175" t="s">
+      <c r="AD54" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -33317,7 +33537,7 @@
       <c r="AB55" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD55" s="175" t="s">
+      <c r="AD55" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -33387,7 +33607,7 @@
       <c r="AB57" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD57" s="175" t="s">
+      <c r="AD57" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33469,7 +33689,7 @@
       <c r="AB60" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD60" s="175" t="s">
+      <c r="AD60" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -33535,7 +33755,7 @@
       <c r="AB61" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD61" s="175" t="s">
+      <c r="AD61" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33601,7 +33821,7 @@
       <c r="AB62" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD62" s="175" t="s">
+      <c r="AD62" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -33667,7 +33887,7 @@
       <c r="AB63" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD63" s="175" t="s">
+      <c r="AD63" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -33733,7 +33953,7 @@
       <c r="AB64" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD64" s="175" t="s">
+      <c r="AD64" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -33799,7 +34019,7 @@
       <c r="AB65" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD65" s="175" t="s">
+      <c r="AD65" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -33844,7 +34064,7 @@
       <c r="AA66" s="111" t="s">
         <v>615</v>
       </c>
-      <c r="AD66" s="175" t="s">
+      <c r="AD66" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -33909,7 +34129,7 @@
       <c r="AB69" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD69" s="175" t="s">
+      <c r="AD69" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="AE69" s="60"/>
@@ -33969,7 +34189,7 @@
       <c r="AB70" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD70" s="175" t="s">
+      <c r="AD70" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="AE70" s="60"/>
@@ -34032,7 +34252,7 @@
       <c r="AB71" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD71" s="175" t="s">
+      <c r="AD71" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="AE71" s="60"/>
@@ -34096,7 +34316,7 @@
       <c r="AB72" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AD72" s="175" t="s">
+      <c r="AD72" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="AE72" s="60"/>
@@ -34131,7 +34351,7 @@
       <c r="Q74" s="129"/>
       <c r="R74" s="124"/>
       <c r="S74" s="124"/>
-      <c r="AD74" s="175" t="s">
+      <c r="AD74" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="AE74" s="60"/>
@@ -34179,7 +34399,7 @@
       <c r="Z75" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD75" s="175" t="s">
+      <c r="AD75" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="AE75" s="60"/>
@@ -34227,7 +34447,7 @@
       <c r="Z76" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD76" s="175" t="s">
+      <c r="AD76" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="AE76" s="60"/>
@@ -34275,7 +34495,7 @@
       <c r="Z77" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD77" s="175" t="s">
+      <c r="AD77" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="AE77" s="60"/>
@@ -34323,7 +34543,7 @@
       <c r="Z78" s="116" t="s">
         <v>615</v>
       </c>
-      <c r="AD78" s="175" t="s">
+      <c r="AD78" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="AE78" s="60"/>
@@ -34385,7 +34605,7 @@
       <c r="Q81" s="129"/>
       <c r="R81" s="124"/>
       <c r="S81" s="124"/>
-      <c r="AD81" s="175" t="s">
+      <c r="AD81" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="AE81" s="60"/>
@@ -34415,7 +34635,7 @@
       <c r="Q82" s="129"/>
       <c r="R82" s="124"/>
       <c r="S82" s="124"/>
-      <c r="AD82" s="175" t="s">
+      <c r="AD82" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="AE82" s="60"/>
@@ -34442,7 +34662,7 @@
       <c r="Q83" s="129"/>
       <c r="R83" s="124"/>
       <c r="S83" s="124"/>
-      <c r="AD83" s="175" t="s">
+      <c r="AD83" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="AE83" s="60"/>
@@ -34463,7 +34683,7 @@
       <c r="Q84" s="129"/>
       <c r="R84" s="124"/>
       <c r="S84" s="124"/>
-      <c r="AD84" s="175" t="s">
+      <c r="AD84" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="AE84" s="60"/>
@@ -34484,7 +34704,7 @@
       <c r="Q85" s="129"/>
       <c r="R85" s="124"/>
       <c r="S85" s="124"/>
-      <c r="AD85" s="175" t="s">
+      <c r="AD85" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="AE85" s="60"/>
@@ -34505,7 +34725,7 @@
       <c r="Q86" s="129"/>
       <c r="R86" s="124"/>
       <c r="S86" s="124"/>
-      <c r="AD86" s="175" t="s">
+      <c r="AD86" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="AE86" s="60"/>
@@ -34526,7 +34746,7 @@
       <c r="Q87" s="129"/>
       <c r="R87" s="124"/>
       <c r="S87" s="124"/>
-      <c r="AD87" s="175" t="s">
+      <c r="AD87" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="AE87" s="60"/>
@@ -34660,7 +34880,7 @@
       <c r="R98" s="124"/>
       <c r="S98" s="124"/>
       <c r="AA98" s="113"/>
-      <c r="AD98" s="175" t="s">
+      <c r="AD98" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -34690,7 +34910,7 @@
       <c r="R99" s="124"/>
       <c r="S99" s="124"/>
       <c r="AA99" s="113"/>
-      <c r="AD99" s="175" t="s">
+      <c r="AD99" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -34720,7 +34940,7 @@
       <c r="R100" s="124"/>
       <c r="S100" s="124"/>
       <c r="AA100" s="113"/>
-      <c r="AD100" s="175" t="s">
+      <c r="AD100" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -34750,7 +34970,7 @@
       <c r="R101" s="124"/>
       <c r="S101" s="124"/>
       <c r="AA101" s="113"/>
-      <c r="AD101" s="175" t="s">
+      <c r="AD101" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -34767,7 +34987,7 @@
       <c r="G104" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="AD104" s="175" t="s">
+      <c r="AD104" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -34784,7 +35004,7 @@
       <c r="G106" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="AD106" s="175" t="s">
+      <c r="AD106" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -34813,7 +35033,7 @@
       <c r="Q108" s="129"/>
       <c r="R108" s="124"/>
       <c r="S108" s="124"/>
-      <c r="AD108" s="175" t="s">
+      <c r="AD108" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -34831,7 +35051,7 @@
         <v>1022</v>
       </c>
       <c r="AA110" s="113"/>
-      <c r="AD110" s="175" t="s">
+      <c r="AD110" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -34849,7 +35069,7 @@
         <v>1022</v>
       </c>
       <c r="AA111" s="113"/>
-      <c r="AD111" s="175" t="s">
+      <c r="AD111" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -34866,7 +35086,7 @@
       <c r="G112" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="AD112" s="175" t="s">
+      <c r="AD112" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -34898,7 +35118,7 @@
       <c r="Q114" s="129"/>
       <c r="R114" s="124"/>
       <c r="S114" s="124"/>
-      <c r="AD114" s="175" t="s">
+      <c r="AD114" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -34928,7 +35148,7 @@
       <c r="R115" s="124"/>
       <c r="S115" s="124"/>
       <c r="AA115" s="113"/>
-      <c r="AD115" s="175" t="s">
+      <c r="AD115" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -34961,7 +35181,7 @@
       <c r="R117" s="124"/>
       <c r="S117" s="124"/>
       <c r="AA117" s="113"/>
-      <c r="AD117" s="175" t="s">
+      <c r="AD117" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -34991,7 +35211,7 @@
       <c r="R118" s="124"/>
       <c r="S118" s="124"/>
       <c r="AA118" s="113"/>
-      <c r="AD118" s="175" t="s">
+      <c r="AD118" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35021,7 +35241,7 @@
       <c r="R119" s="124"/>
       <c r="S119" s="124"/>
       <c r="AA119" s="113"/>
-      <c r="AD119" s="175" t="s">
+      <c r="AD119" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -35053,7 +35273,7 @@
       <c r="Q121" s="129"/>
       <c r="R121" s="124"/>
       <c r="S121" s="124"/>
-      <c r="AD121" s="175" t="s">
+      <c r="AD121" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35083,7 +35303,7 @@
       <c r="R122" s="124"/>
       <c r="S122" s="124"/>
       <c r="AA122" s="113"/>
-      <c r="AD122" s="175" t="s">
+      <c r="AD122" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35112,7 +35332,7 @@
       <c r="Q123" s="129"/>
       <c r="R123" s="124"/>
       <c r="S123" s="124"/>
-      <c r="AD123" s="175" t="s">
+      <c r="AD123" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -35141,7 +35361,7 @@
       <c r="Q125" s="129"/>
       <c r="R125" s="124"/>
       <c r="S125" s="124"/>
-      <c r="AD125" s="175" t="s">
+      <c r="AD125" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35170,7 +35390,7 @@
       <c r="Q126" s="129"/>
       <c r="R126" s="124"/>
       <c r="S126" s="124"/>
-      <c r="AD126" s="175" t="s">
+      <c r="AD126" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35199,7 +35419,7 @@
       <c r="Q128" s="129"/>
       <c r="R128" s="124"/>
       <c r="S128" s="124"/>
-      <c r="AD128" s="175" t="s">
+      <c r="AD128" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -35243,7 +35463,7 @@
       <c r="Q130" s="129"/>
       <c r="R130" s="124"/>
       <c r="S130" s="124"/>
-      <c r="AD130" s="175" t="s">
+      <c r="AD130" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35272,7 +35492,7 @@
       <c r="Q131" s="129"/>
       <c r="R131" s="124"/>
       <c r="S131" s="124"/>
-      <c r="AD131" s="175" t="s">
+      <c r="AD131" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -35316,7 +35536,7 @@
       <c r="Q133" s="129"/>
       <c r="R133" s="124"/>
       <c r="S133" s="124"/>
-      <c r="AD133" s="175" t="s">
+      <c r="AD133" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35333,7 +35553,7 @@
       <c r="G134" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="AD134" s="175" t="s">
+      <c r="AD134" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35367,7 +35587,7 @@
       <c r="Q136" s="129"/>
       <c r="R136" s="113"/>
       <c r="S136" s="124"/>
-      <c r="AD136" s="175" t="s">
+      <c r="AD136" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -35385,7 +35605,7 @@
         <v>1241</v>
       </c>
       <c r="R137" s="111"/>
-      <c r="AD137" s="175" t="s">
+      <c r="AD137" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35422,7 +35642,7 @@
       <c r="Q140" s="129"/>
       <c r="R140" s="113"/>
       <c r="S140" s="124"/>
-      <c r="AD140" s="175" t="s">
+      <c r="AD140" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -35453,7 +35673,7 @@
         <v>726</v>
       </c>
       <c r="S141" s="124"/>
-      <c r="AD141" s="175" t="s">
+      <c r="AD141" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35471,7 +35691,7 @@
         <v>1243</v>
       </c>
       <c r="R142" s="113"/>
-      <c r="AD142" s="175" t="s">
+      <c r="AD142" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35505,7 +35725,7 @@
       <c r="Q144" s="129"/>
       <c r="R144" s="113"/>
       <c r="S144" s="124"/>
-      <c r="AD144" s="175" t="s">
+      <c r="AD144" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -35525,7 +35745,7 @@
       <c r="R145" s="113" t="s">
         <v>1001</v>
       </c>
-      <c r="AD145" s="175" t="s">
+      <c r="AD145" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35557,7 +35777,7 @@
       <c r="O147" s="27"/>
       <c r="P147" s="27"/>
       <c r="R147" s="113"/>
-      <c r="AD147" s="175" t="s">
+      <c r="AD147" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -35584,7 +35804,7 @@
       <c r="O148" s="27"/>
       <c r="P148" s="27"/>
       <c r="R148" s="111"/>
-      <c r="AD148" s="175" t="s">
+      <c r="AD148" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -35613,7 +35833,7 @@
       <c r="R149" s="113" t="s">
         <v>738</v>
       </c>
-      <c r="AD149" s="175" t="s">
+      <c r="AD149" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35635,7 +35855,7 @@
         <v>591</v>
       </c>
       <c r="AA151" s="113"/>
-      <c r="AD151" s="175" t="s">
+      <c r="AD151" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -35668,7 +35888,7 @@
       <c r="R153" s="124"/>
       <c r="S153" s="124"/>
       <c r="AA153" s="113"/>
-      <c r="AD153" s="175" t="s">
+      <c r="AD153" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -35697,7 +35917,7 @@
       <c r="Q154" s="129"/>
       <c r="R154" s="124"/>
       <c r="S154" s="124"/>
-      <c r="AD154" s="175" t="s">
+      <c r="AD154" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -35726,7 +35946,7 @@
       <c r="Q155" s="129"/>
       <c r="R155" s="124"/>
       <c r="S155" s="124"/>
-      <c r="AD155" s="175" t="s">
+      <c r="AD155" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -35755,7 +35975,7 @@
       <c r="Q156" s="129"/>
       <c r="R156" s="124"/>
       <c r="S156" s="124"/>
-      <c r="AD156" s="175" t="s">
+      <c r="AD156" s="1" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -35796,7 +36016,6 @@
       <c r="AA166" s="112"/>
       <c r="AB166" s="115"/>
       <c r="AC166" s="115"/>
-      <c r="AD166" s="178"/>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AA169" s="113"/>
@@ -35870,7 +36089,7 @@
       <c r="Q173" s="126"/>
       <c r="R173" s="121"/>
       <c r="S173" s="121"/>
-      <c r="AD173" s="175" t="s">
+      <c r="AD173" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AE173" s="1" t="s">
@@ -35904,7 +36123,7 @@
       <c r="AB174" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AD174" s="175" t="s">
+      <c r="AD174" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AE174" s="1" t="s">
@@ -35942,7 +36161,7 @@
       <c r="X175" s="100"/>
       <c r="Y175" s="108"/>
       <c r="Z175" s="117"/>
-      <c r="AD175" s="175" t="s">
+      <c r="AD175" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AE175" s="1" t="s">
@@ -35977,7 +36196,7 @@
       <c r="X176" s="100"/>
       <c r="Y176" s="108"/>
       <c r="Z176" s="117"/>
-      <c r="AD176" s="175" t="s">
+      <c r="AD176" s="1" t="s">
         <v>37</v>
       </c>
     </row>
